--- a/linedata/CARRYFORWARD.xlsx
+++ b/linedata/CARRYFORWARD.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3000" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3000" uniqueCount="11">
   <si>
     <t>&lt;li class="name"&gt;</t>
   </si>
@@ -48,13 +48,16 @@
   <si>
     <t>"class="name"  value="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/</t>
   </si>
+  <si>
+    <t>.jpeg" loading="lazy" width="400" height="400"&gt;  &lt;/li&gt;</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="000"/>
+    <numFmt numFmtId="164" formatCode="000"/>
   </numFmts>
   <fonts count="1">
     <font>
@@ -87,7 +90,7 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -390,8 +393,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q300"/>
   <sheetViews>
-    <sheetView topLeftCell="A294" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H300"/>
+    <sheetView topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="R1" sqref="R1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -460,7 +463,7 @@
         <v>1</v>
       </c>
       <c r="Q1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="45">
@@ -625,7 +628,7 @@
         <v>3</v>
       </c>
       <c r="M4" s="2">
-        <f t="shared" ref="M4:M67" si="6">SUM(M3+1)</f>
+        <f t="shared" ref="M4" si="6">SUM(M3+1)</f>
         <v>24</v>
       </c>
       <c r="N4" s="3" t="s">
@@ -744,7 +747,7 @@
         <v>3</v>
       </c>
       <c r="M6" s="2">
-        <f t="shared" ref="M6:M69" si="7">SUM(M5+1)</f>
+        <f t="shared" ref="M6" si="7">SUM(M5+1)</f>
         <v>25</v>
       </c>
       <c r="N6" s="3" t="s">
@@ -863,7 +866,7 @@
         <v>3</v>
       </c>
       <c r="M8" s="2">
-        <f t="shared" ref="M8:M71" si="8">SUM(M7+1)</f>
+        <f t="shared" ref="M8" si="8">SUM(M7+1)</f>
         <v>26</v>
       </c>
       <c r="N8" s="3" t="s">
@@ -982,7 +985,7 @@
         <v>3</v>
       </c>
       <c r="M10" s="2">
-        <f t="shared" ref="M10:M73" si="9">SUM(M9+1)</f>
+        <f t="shared" ref="M10" si="9">SUM(M9+1)</f>
         <v>27</v>
       </c>
       <c r="N10" s="3" t="s">
@@ -1101,7 +1104,7 @@
         <v>3</v>
       </c>
       <c r="M12" s="2">
-        <f t="shared" ref="M12:M75" si="10">SUM(M11+1)</f>
+        <f t="shared" ref="M12" si="10">SUM(M11+1)</f>
         <v>28</v>
       </c>
       <c r="N12" s="3" t="s">
@@ -1220,7 +1223,7 @@
         <v>3</v>
       </c>
       <c r="M14" s="2">
-        <f t="shared" ref="M14:M77" si="11">SUM(M13+1)</f>
+        <f t="shared" ref="M14" si="11">SUM(M13+1)</f>
         <v>29</v>
       </c>
       <c r="N14" s="3" t="s">
@@ -1339,7 +1342,7 @@
         <v>3</v>
       </c>
       <c r="M16" s="2">
-        <f t="shared" ref="M16:M79" si="12">SUM(M15+1)</f>
+        <f t="shared" ref="M16" si="12">SUM(M15+1)</f>
         <v>30</v>
       </c>
       <c r="N16" s="3" t="s">
@@ -1458,7 +1461,7 @@
         <v>3</v>
       </c>
       <c r="M18" s="2">
-        <f t="shared" ref="M18:M81" si="13">SUM(M17+1)</f>
+        <f t="shared" ref="M18" si="13">SUM(M17+1)</f>
         <v>31</v>
       </c>
       <c r="N18" s="3" t="s">
@@ -1577,7 +1580,7 @@
         <v>3</v>
       </c>
       <c r="M20" s="2">
-        <f t="shared" ref="M20:M83" si="14">SUM(M19+1)</f>
+        <f t="shared" ref="M20" si="14">SUM(M19+1)</f>
         <v>32</v>
       </c>
       <c r="N20" s="3" t="s">
@@ -1696,7 +1699,7 @@
         <v>3</v>
       </c>
       <c r="M22" s="2">
-        <f t="shared" ref="M22:M85" si="15">SUM(M21+1)</f>
+        <f t="shared" ref="M22" si="15">SUM(M21+1)</f>
         <v>33</v>
       </c>
       <c r="N22" s="3" t="s">
@@ -1815,7 +1818,7 @@
         <v>3</v>
       </c>
       <c r="M24" s="2">
-        <f t="shared" ref="M24:M87" si="16">SUM(M23+1)</f>
+        <f t="shared" ref="M24" si="16">SUM(M23+1)</f>
         <v>34</v>
       </c>
       <c r="N24" s="3" t="s">
@@ -1934,7 +1937,7 @@
         <v>3</v>
       </c>
       <c r="M26" s="2">
-        <f t="shared" ref="M26:M89" si="17">SUM(M25+1)</f>
+        <f t="shared" ref="M26" si="17">SUM(M25+1)</f>
         <v>35</v>
       </c>
       <c r="N26" s="3" t="s">
@@ -2053,7 +2056,7 @@
         <v>3</v>
       </c>
       <c r="M28" s="2">
-        <f t="shared" ref="M28:M91" si="18">SUM(M27+1)</f>
+        <f t="shared" ref="M28" si="18">SUM(M27+1)</f>
         <v>36</v>
       </c>
       <c r="N28" s="3" t="s">
@@ -2172,7 +2175,7 @@
         <v>3</v>
       </c>
       <c r="M30" s="2">
-        <f t="shared" ref="M30:M93" si="19">SUM(M29+1)</f>
+        <f t="shared" ref="M30" si="19">SUM(M29+1)</f>
         <v>37</v>
       </c>
       <c r="N30" s="3" t="s">
@@ -2291,7 +2294,7 @@
         <v>3</v>
       </c>
       <c r="M32" s="2">
-        <f t="shared" ref="M32:M95" si="20">SUM(M31+1)</f>
+        <f t="shared" ref="M32" si="20">SUM(M31+1)</f>
         <v>38</v>
       </c>
       <c r="N32" s="3" t="s">
@@ -2410,7 +2413,7 @@
         <v>3</v>
       </c>
       <c r="M34" s="2">
-        <f t="shared" ref="M34:M97" si="21">SUM(M33+1)</f>
+        <f t="shared" ref="M34" si="21">SUM(M33+1)</f>
         <v>39</v>
       </c>
       <c r="N34" s="3" t="s">
@@ -2529,7 +2532,7 @@
         <v>3</v>
       </c>
       <c r="M36" s="2">
-        <f t="shared" ref="M36:M99" si="22">SUM(M35+1)</f>
+        <f t="shared" ref="M36" si="22">SUM(M35+1)</f>
         <v>40</v>
       </c>
       <c r="N36" s="3" t="s">
@@ -2648,7 +2651,7 @@
         <v>3</v>
       </c>
       <c r="M38" s="2">
-        <f t="shared" ref="M38:M101" si="23">SUM(M37+1)</f>
+        <f t="shared" ref="M38" si="23">SUM(M37+1)</f>
         <v>41</v>
       </c>
       <c r="N38" s="3" t="s">
@@ -2767,7 +2770,7 @@
         <v>3</v>
       </c>
       <c r="M40" s="2">
-        <f t="shared" ref="M40:M103" si="24">SUM(M39+1)</f>
+        <f t="shared" ref="M40" si="24">SUM(M39+1)</f>
         <v>42</v>
       </c>
       <c r="N40" s="3" t="s">
@@ -2886,7 +2889,7 @@
         <v>3</v>
       </c>
       <c r="M42" s="2">
-        <f t="shared" ref="M42:M105" si="25">SUM(M41+1)</f>
+        <f t="shared" ref="M42" si="25">SUM(M41+1)</f>
         <v>43</v>
       </c>
       <c r="N42" s="3" t="s">
@@ -3005,7 +3008,7 @@
         <v>3</v>
       </c>
       <c r="M44" s="2">
-        <f t="shared" ref="M44:M107" si="26">SUM(M43+1)</f>
+        <f t="shared" ref="M44" si="26">SUM(M43+1)</f>
         <v>44</v>
       </c>
       <c r="N44" s="3" t="s">
@@ -3124,7 +3127,7 @@
         <v>3</v>
       </c>
       <c r="M46" s="2">
-        <f t="shared" ref="M46:M109" si="27">SUM(M45+1)</f>
+        <f t="shared" ref="M46" si="27">SUM(M45+1)</f>
         <v>45</v>
       </c>
       <c r="N46" s="3" t="s">
@@ -3243,7 +3246,7 @@
         <v>3</v>
       </c>
       <c r="M48" s="2">
-        <f t="shared" ref="M48:M111" si="28">SUM(M47+1)</f>
+        <f t="shared" ref="M48" si="28">SUM(M47+1)</f>
         <v>46</v>
       </c>
       <c r="N48" s="3" t="s">
@@ -3362,7 +3365,7 @@
         <v>3</v>
       </c>
       <c r="M50" s="2">
-        <f t="shared" ref="M50:M113" si="29">SUM(M49+1)</f>
+        <f t="shared" ref="M50" si="29">SUM(M49+1)</f>
         <v>47</v>
       </c>
       <c r="N50" s="3" t="s">
@@ -3481,7 +3484,7 @@
         <v>3</v>
       </c>
       <c r="M52" s="2">
-        <f t="shared" ref="M52:M115" si="30">SUM(M51+1)</f>
+        <f t="shared" ref="M52" si="30">SUM(M51+1)</f>
         <v>48</v>
       </c>
       <c r="N52" s="3" t="s">
@@ -3600,7 +3603,7 @@
         <v>3</v>
       </c>
       <c r="M54" s="2">
-        <f t="shared" ref="M54:M117" si="31">SUM(M53+1)</f>
+        <f t="shared" ref="M54" si="31">SUM(M53+1)</f>
         <v>49</v>
       </c>
       <c r="N54" s="3" t="s">
@@ -3719,7 +3722,7 @@
         <v>3</v>
       </c>
       <c r="M56" s="2">
-        <f t="shared" ref="M56:M119" si="32">SUM(M55+1)</f>
+        <f t="shared" ref="M56" si="32">SUM(M55+1)</f>
         <v>50</v>
       </c>
       <c r="N56" s="3" t="s">
@@ -3838,7 +3841,7 @@
         <v>3</v>
       </c>
       <c r="M58" s="2">
-        <f t="shared" ref="M58:M121" si="33">SUM(M57+1)</f>
+        <f t="shared" ref="M58" si="33">SUM(M57+1)</f>
         <v>51</v>
       </c>
       <c r="N58" s="3" t="s">
@@ -3957,7 +3960,7 @@
         <v>3</v>
       </c>
       <c r="M60" s="2">
-        <f t="shared" ref="M60:M123" si="34">SUM(M59+1)</f>
+        <f t="shared" ref="M60" si="34">SUM(M59+1)</f>
         <v>52</v>
       </c>
       <c r="N60" s="3" t="s">
@@ -4076,7 +4079,7 @@
         <v>3</v>
       </c>
       <c r="M62" s="2">
-        <f t="shared" ref="M62:M125" si="35">SUM(M61+1)</f>
+        <f t="shared" ref="M62" si="35">SUM(M61+1)</f>
         <v>53</v>
       </c>
       <c r="N62" s="3" t="s">
@@ -4195,7 +4198,7 @@
         <v>3</v>
       </c>
       <c r="M64" s="2">
-        <f t="shared" ref="M64:M127" si="36">SUM(M63+1)</f>
+        <f t="shared" ref="M64" si="36">SUM(M63+1)</f>
         <v>54</v>
       </c>
       <c r="N64" s="3" t="s">
@@ -4314,7 +4317,7 @@
         <v>3</v>
       </c>
       <c r="M66" s="2">
-        <f t="shared" ref="M66:M129" si="37">SUM(M65+1)</f>
+        <f t="shared" ref="M66" si="37">SUM(M65+1)</f>
         <v>55</v>
       </c>
       <c r="N66" s="3" t="s">
@@ -4433,7 +4436,7 @@
         <v>3</v>
       </c>
       <c r="M68" s="2">
-        <f t="shared" ref="M68:M131" si="44">SUM(M67+1)</f>
+        <f t="shared" ref="M68" si="44">SUM(M67+1)</f>
         <v>56</v>
       </c>
       <c r="N68" s="3" t="s">
@@ -4552,7 +4555,7 @@
         <v>3</v>
       </c>
       <c r="M70" s="2">
-        <f t="shared" ref="M70:M133" si="45">SUM(M69+1)</f>
+        <f t="shared" ref="M70" si="45">SUM(M69+1)</f>
         <v>57</v>
       </c>
       <c r="N70" s="3" t="s">
@@ -4671,7 +4674,7 @@
         <v>3</v>
       </c>
       <c r="M72" s="2">
-        <f t="shared" ref="M72:M135" si="46">SUM(M71+1)</f>
+        <f t="shared" ref="M72" si="46">SUM(M71+1)</f>
         <v>58</v>
       </c>
       <c r="N72" s="3" t="s">
@@ -4790,7 +4793,7 @@
         <v>3</v>
       </c>
       <c r="M74" s="2">
-        <f t="shared" ref="M74:M137" si="47">SUM(M73+1)</f>
+        <f t="shared" ref="M74" si="47">SUM(M73+1)</f>
         <v>59</v>
       </c>
       <c r="N74" s="3" t="s">
@@ -4909,7 +4912,7 @@
         <v>3</v>
       </c>
       <c r="M76" s="2">
-        <f t="shared" ref="M76:M139" si="48">SUM(M75+1)</f>
+        <f t="shared" ref="M76" si="48">SUM(M75+1)</f>
         <v>60</v>
       </c>
       <c r="N76" s="3" t="s">
@@ -5028,7 +5031,7 @@
         <v>3</v>
       </c>
       <c r="M78" s="2">
-        <f t="shared" ref="M78:M141" si="49">SUM(M77+1)</f>
+        <f t="shared" ref="M78" si="49">SUM(M77+1)</f>
         <v>61</v>
       </c>
       <c r="N78" s="3" t="s">
@@ -5147,7 +5150,7 @@
         <v>3</v>
       </c>
       <c r="M80" s="2">
-        <f t="shared" ref="M80:M143" si="50">SUM(M79+1)</f>
+        <f t="shared" ref="M80" si="50">SUM(M79+1)</f>
         <v>62</v>
       </c>
       <c r="N80" s="3" t="s">
@@ -5266,7 +5269,7 @@
         <v>3</v>
       </c>
       <c r="M82" s="2">
-        <f t="shared" ref="M82:M145" si="51">SUM(M81+1)</f>
+        <f t="shared" ref="M82" si="51">SUM(M81+1)</f>
         <v>63</v>
       </c>
       <c r="N82" s="3" t="s">
@@ -5385,7 +5388,7 @@
         <v>3</v>
       </c>
       <c r="M84" s="2">
-        <f t="shared" ref="M84:M147" si="52">SUM(M83+1)</f>
+        <f t="shared" ref="M84" si="52">SUM(M83+1)</f>
         <v>64</v>
       </c>
       <c r="N84" s="3" t="s">
@@ -5504,7 +5507,7 @@
         <v>3</v>
       </c>
       <c r="M86" s="2">
-        <f t="shared" ref="M86:M149" si="53">SUM(M85+1)</f>
+        <f t="shared" ref="M86" si="53">SUM(M85+1)</f>
         <v>65</v>
       </c>
       <c r="N86" s="3" t="s">
@@ -5623,7 +5626,7 @@
         <v>3</v>
       </c>
       <c r="M88" s="2">
-        <f t="shared" ref="M88:M151" si="54">SUM(M87+1)</f>
+        <f t="shared" ref="M88" si="54">SUM(M87+1)</f>
         <v>66</v>
       </c>
       <c r="N88" s="3" t="s">
@@ -5742,7 +5745,7 @@
         <v>3</v>
       </c>
       <c r="M90" s="2">
-        <f t="shared" ref="M90:M153" si="55">SUM(M89+1)</f>
+        <f t="shared" ref="M90" si="55">SUM(M89+1)</f>
         <v>67</v>
       </c>
       <c r="N90" s="3" t="s">
@@ -5861,7 +5864,7 @@
         <v>3</v>
       </c>
       <c r="M92" s="2">
-        <f t="shared" ref="M92:M155" si="56">SUM(M91+1)</f>
+        <f t="shared" ref="M92" si="56">SUM(M91+1)</f>
         <v>68</v>
       </c>
       <c r="N92" s="3" t="s">
@@ -5980,7 +5983,7 @@
         <v>3</v>
       </c>
       <c r="M94" s="2">
-        <f t="shared" ref="M94:M157" si="57">SUM(M93+1)</f>
+        <f t="shared" ref="M94" si="57">SUM(M93+1)</f>
         <v>69</v>
       </c>
       <c r="N94" s="3" t="s">
@@ -6099,7 +6102,7 @@
         <v>3</v>
       </c>
       <c r="M96" s="2">
-        <f t="shared" ref="M96:M159" si="58">SUM(M95+1)</f>
+        <f t="shared" ref="M96" si="58">SUM(M95+1)</f>
         <v>70</v>
       </c>
       <c r="N96" s="3" t="s">
@@ -6218,7 +6221,7 @@
         <v>3</v>
       </c>
       <c r="M98" s="2">
-        <f t="shared" ref="M98:M161" si="59">SUM(M97+1)</f>
+        <f t="shared" ref="M98" si="59">SUM(M97+1)</f>
         <v>71</v>
       </c>
       <c r="N98" s="3" t="s">
@@ -6337,7 +6340,7 @@
         <v>3</v>
       </c>
       <c r="M100" s="2">
-        <f t="shared" ref="M100:M163" si="60">SUM(M99+1)</f>
+        <f t="shared" ref="M100" si="60">SUM(M99+1)</f>
         <v>72</v>
       </c>
       <c r="N100" s="3" t="s">
@@ -6456,7 +6459,7 @@
         <v>3</v>
       </c>
       <c r="M102" s="2">
-        <f t="shared" ref="M102:M133" si="61">SUM(M101+1)</f>
+        <f t="shared" ref="M102" si="61">SUM(M101+1)</f>
         <v>73</v>
       </c>
       <c r="N102" s="3" t="s">
@@ -6575,7 +6578,7 @@
         <v>3</v>
       </c>
       <c r="M104" s="2">
-        <f t="shared" ref="M104:M135" si="62">SUM(M103+1)</f>
+        <f t="shared" ref="M104" si="62">SUM(M103+1)</f>
         <v>74</v>
       </c>
       <c r="N104" s="3" t="s">
@@ -6694,7 +6697,7 @@
         <v>3</v>
       </c>
       <c r="M106" s="2">
-        <f t="shared" ref="M106:M137" si="63">SUM(M105+1)</f>
+        <f t="shared" ref="M106" si="63">SUM(M105+1)</f>
         <v>75</v>
       </c>
       <c r="N106" s="3" t="s">
@@ -6813,7 +6816,7 @@
         <v>3</v>
       </c>
       <c r="M108" s="2">
-        <f t="shared" ref="M108:M139" si="64">SUM(M107+1)</f>
+        <f t="shared" ref="M108" si="64">SUM(M107+1)</f>
         <v>76</v>
       </c>
       <c r="N108" s="3" t="s">
@@ -6932,7 +6935,7 @@
         <v>3</v>
       </c>
       <c r="M110" s="2">
-        <f t="shared" ref="M110:M141" si="65">SUM(M109+1)</f>
+        <f t="shared" ref="M110" si="65">SUM(M109+1)</f>
         <v>77</v>
       </c>
       <c r="N110" s="3" t="s">
@@ -7051,7 +7054,7 @@
         <v>3</v>
       </c>
       <c r="M112" s="2">
-        <f t="shared" ref="M112:M143" si="66">SUM(M111+1)</f>
+        <f t="shared" ref="M112" si="66">SUM(M111+1)</f>
         <v>78</v>
       </c>
       <c r="N112" s="3" t="s">
@@ -7170,7 +7173,7 @@
         <v>3</v>
       </c>
       <c r="M114" s="2">
-        <f t="shared" ref="M114:M145" si="67">SUM(M113+1)</f>
+        <f t="shared" ref="M114" si="67">SUM(M113+1)</f>
         <v>79</v>
       </c>
       <c r="N114" s="3" t="s">
@@ -7289,7 +7292,7 @@
         <v>3</v>
       </c>
       <c r="M116" s="2">
-        <f t="shared" ref="M116:M147" si="68">SUM(M115+1)</f>
+        <f t="shared" ref="M116" si="68">SUM(M115+1)</f>
         <v>80</v>
       </c>
       <c r="N116" s="3" t="s">
@@ -7408,7 +7411,7 @@
         <v>3</v>
       </c>
       <c r="M118" s="2">
-        <f t="shared" ref="M118:M149" si="69">SUM(M117+1)</f>
+        <f t="shared" ref="M118" si="69">SUM(M117+1)</f>
         <v>81</v>
       </c>
       <c r="N118" s="3" t="s">
@@ -7527,7 +7530,7 @@
         <v>3</v>
       </c>
       <c r="M120" s="2">
-        <f t="shared" ref="M120:M151" si="70">SUM(M119+1)</f>
+        <f t="shared" ref="M120" si="70">SUM(M119+1)</f>
         <v>82</v>
       </c>
       <c r="N120" s="3" t="s">
@@ -7646,7 +7649,7 @@
         <v>3</v>
       </c>
       <c r="M122" s="2">
-        <f t="shared" ref="M122:M153" si="71">SUM(M121+1)</f>
+        <f t="shared" ref="M122" si="71">SUM(M121+1)</f>
         <v>83</v>
       </c>
       <c r="N122" s="3" t="s">
@@ -7765,7 +7768,7 @@
         <v>3</v>
       </c>
       <c r="M124" s="2">
-        <f t="shared" ref="M124:M155" si="72">SUM(M123+1)</f>
+        <f t="shared" ref="M124" si="72">SUM(M123+1)</f>
         <v>84</v>
       </c>
       <c r="N124" s="3" t="s">
@@ -7884,7 +7887,7 @@
         <v>3</v>
       </c>
       <c r="M126" s="2">
-        <f t="shared" ref="M126:M157" si="73">SUM(M125+1)</f>
+        <f t="shared" ref="M126" si="73">SUM(M125+1)</f>
         <v>85</v>
       </c>
       <c r="N126" s="3" t="s">
@@ -8003,7 +8006,7 @@
         <v>3</v>
       </c>
       <c r="M128" s="2">
-        <f t="shared" ref="M128:M159" si="74">SUM(M127+1)</f>
+        <f t="shared" ref="M128" si="74">SUM(M127+1)</f>
         <v>86</v>
       </c>
       <c r="N128" s="3" t="s">
@@ -8122,7 +8125,7 @@
         <v>3</v>
       </c>
       <c r="M130" s="2">
-        <f t="shared" ref="M130:M161" si="75">SUM(M129+1)</f>
+        <f t="shared" ref="M130" si="75">SUM(M129+1)</f>
         <v>87</v>
       </c>
       <c r="N130" s="3" t="s">
@@ -8241,7 +8244,7 @@
         <v>3</v>
       </c>
       <c r="M132" s="2">
-        <f t="shared" ref="M132:M163" si="82">SUM(M131+1)</f>
+        <f t="shared" ref="M132" si="82">SUM(M131+1)</f>
         <v>88</v>
       </c>
       <c r="N132" s="3" t="s">
@@ -8360,7 +8363,7 @@
         <v>3</v>
       </c>
       <c r="M134" s="2">
-        <f t="shared" ref="M134:M165" si="83">SUM(M133+1)</f>
+        <f t="shared" ref="M134" si="83">SUM(M133+1)</f>
         <v>89</v>
       </c>
       <c r="N134" s="3" t="s">
@@ -8479,7 +8482,7 @@
         <v>3</v>
       </c>
       <c r="M136" s="2">
-        <f t="shared" ref="M136:M167" si="84">SUM(M135+1)</f>
+        <f t="shared" ref="M136" si="84">SUM(M135+1)</f>
         <v>90</v>
       </c>
       <c r="N136" s="3" t="s">
@@ -8598,7 +8601,7 @@
         <v>3</v>
       </c>
       <c r="M138" s="2">
-        <f t="shared" ref="M138:M169" si="85">SUM(M137+1)</f>
+        <f t="shared" ref="M138" si="85">SUM(M137+1)</f>
         <v>91</v>
       </c>
       <c r="N138" s="3" t="s">
@@ -8717,7 +8720,7 @@
         <v>3</v>
       </c>
       <c r="M140" s="2">
-        <f t="shared" ref="M140:M171" si="86">SUM(M139+1)</f>
+        <f t="shared" ref="M140" si="86">SUM(M139+1)</f>
         <v>92</v>
       </c>
       <c r="N140" s="3" t="s">
@@ -8836,7 +8839,7 @@
         <v>3</v>
       </c>
       <c r="M142" s="2">
-        <f t="shared" ref="M142:M173" si="87">SUM(M141+1)</f>
+        <f t="shared" ref="M142" si="87">SUM(M141+1)</f>
         <v>93</v>
       </c>
       <c r="N142" s="3" t="s">
@@ -8955,7 +8958,7 @@
         <v>3</v>
       </c>
       <c r="M144" s="2">
-        <f t="shared" ref="M144:M175" si="88">SUM(M143+1)</f>
+        <f t="shared" ref="M144" si="88">SUM(M143+1)</f>
         <v>94</v>
       </c>
       <c r="N144" s="3" t="s">
@@ -9074,7 +9077,7 @@
         <v>3</v>
       </c>
       <c r="M146" s="2">
-        <f t="shared" ref="M146:M177" si="89">SUM(M145+1)</f>
+        <f t="shared" ref="M146" si="89">SUM(M145+1)</f>
         <v>95</v>
       </c>
       <c r="N146" s="3" t="s">
@@ -9193,7 +9196,7 @@
         <v>3</v>
       </c>
       <c r="M148" s="2">
-        <f t="shared" ref="M148:M179" si="90">SUM(M147+1)</f>
+        <f t="shared" ref="M148" si="90">SUM(M147+1)</f>
         <v>96</v>
       </c>
       <c r="N148" s="3" t="s">
@@ -9312,7 +9315,7 @@
         <v>3</v>
       </c>
       <c r="M150" s="2">
-        <f t="shared" ref="M150:M181" si="91">SUM(M149+1)</f>
+        <f t="shared" ref="M150" si="91">SUM(M149+1)</f>
         <v>97</v>
       </c>
       <c r="N150" s="3" t="s">
@@ -9431,7 +9434,7 @@
         <v>3</v>
       </c>
       <c r="M152" s="2">
-        <f t="shared" ref="M152:M183" si="92">SUM(M151+1)</f>
+        <f t="shared" ref="M152" si="92">SUM(M151+1)</f>
         <v>98</v>
       </c>
       <c r="N152" s="3" t="s">
@@ -9550,7 +9553,7 @@
         <v>3</v>
       </c>
       <c r="M154" s="2">
-        <f t="shared" ref="M154:M185" si="93">SUM(M153+1)</f>
+        <f t="shared" ref="M154" si="93">SUM(M153+1)</f>
         <v>99</v>
       </c>
       <c r="N154" s="3" t="s">
@@ -9669,7 +9672,7 @@
         <v>3</v>
       </c>
       <c r="M156" s="2">
-        <f t="shared" ref="M156:M187" si="94">SUM(M155+1)</f>
+        <f t="shared" ref="M156" si="94">SUM(M155+1)</f>
         <v>100</v>
       </c>
       <c r="N156" s="3" t="s">
@@ -9788,7 +9791,7 @@
         <v>3</v>
       </c>
       <c r="M158" s="2">
-        <f t="shared" ref="M158:M189" si="95">SUM(M157+1)</f>
+        <f t="shared" ref="M158" si="95">SUM(M157+1)</f>
         <v>101</v>
       </c>
       <c r="N158" s="3" t="s">
@@ -9907,7 +9910,7 @@
         <v>3</v>
       </c>
       <c r="M160" s="2">
-        <f t="shared" ref="M160:M191" si="96">SUM(M159+1)</f>
+        <f t="shared" ref="M160" si="96">SUM(M159+1)</f>
         <v>102</v>
       </c>
       <c r="N160" s="3" t="s">
@@ -10026,7 +10029,7 @@
         <v>3</v>
       </c>
       <c r="M162" s="2">
-        <f t="shared" ref="M162:M193" si="97">SUM(M161+1)</f>
+        <f t="shared" ref="M162" si="97">SUM(M161+1)</f>
         <v>103</v>
       </c>
       <c r="N162" s="3" t="s">
@@ -10145,7 +10148,7 @@
         <v>3</v>
       </c>
       <c r="M164" s="2">
-        <f t="shared" ref="M164:M195" si="98">SUM(M163+1)</f>
+        <f t="shared" ref="M164" si="98">SUM(M163+1)</f>
         <v>104</v>
       </c>
       <c r="N164" s="3" t="s">
@@ -10264,7 +10267,7 @@
         <v>3</v>
       </c>
       <c r="M166" s="2">
-        <f t="shared" ref="M166:M197" si="99">SUM(M165+1)</f>
+        <f t="shared" ref="M166" si="99">SUM(M165+1)</f>
         <v>105</v>
       </c>
       <c r="N166" s="3" t="s">
@@ -10383,7 +10386,7 @@
         <v>3</v>
       </c>
       <c r="M168" s="2">
-        <f t="shared" ref="M168:M199" si="100">SUM(M167+1)</f>
+        <f t="shared" ref="M168" si="100">SUM(M167+1)</f>
         <v>106</v>
       </c>
       <c r="N168" s="3" t="s">
@@ -10502,7 +10505,7 @@
         <v>3</v>
       </c>
       <c r="M170" s="2">
-        <f t="shared" ref="M170:M201" si="101">SUM(M169+1)</f>
+        <f t="shared" ref="M170" si="101">SUM(M169+1)</f>
         <v>107</v>
       </c>
       <c r="N170" s="3" t="s">
@@ -10621,7 +10624,7 @@
         <v>3</v>
       </c>
       <c r="M172" s="2">
-        <f t="shared" ref="M172:M203" si="102">SUM(M171+1)</f>
+        <f t="shared" ref="M172" si="102">SUM(M171+1)</f>
         <v>108</v>
       </c>
       <c r="N172" s="3" t="s">
@@ -10740,7 +10743,7 @@
         <v>3</v>
       </c>
       <c r="M174" s="2">
-        <f t="shared" ref="M174:M205" si="103">SUM(M173+1)</f>
+        <f t="shared" ref="M174" si="103">SUM(M173+1)</f>
         <v>109</v>
       </c>
       <c r="N174" s="3" t="s">
@@ -10859,7 +10862,7 @@
         <v>3</v>
       </c>
       <c r="M176" s="2">
-        <f t="shared" ref="M176:M207" si="104">SUM(M175+1)</f>
+        <f t="shared" ref="M176" si="104">SUM(M175+1)</f>
         <v>110</v>
       </c>
       <c r="N176" s="3" t="s">
@@ -10978,7 +10981,7 @@
         <v>3</v>
       </c>
       <c r="M178" s="2">
-        <f t="shared" ref="M178:M209" si="105">SUM(M177+1)</f>
+        <f t="shared" ref="M178" si="105">SUM(M177+1)</f>
         <v>111</v>
       </c>
       <c r="N178" s="3" t="s">
@@ -11097,7 +11100,7 @@
         <v>3</v>
       </c>
       <c r="M180" s="2">
-        <f t="shared" ref="M180:M211" si="106">SUM(M179+1)</f>
+        <f t="shared" ref="M180" si="106">SUM(M179+1)</f>
         <v>112</v>
       </c>
       <c r="N180" s="3" t="s">
@@ -11216,7 +11219,7 @@
         <v>3</v>
       </c>
       <c r="M182" s="2">
-        <f t="shared" ref="M182:M213" si="107">SUM(M181+1)</f>
+        <f t="shared" ref="M182" si="107">SUM(M181+1)</f>
         <v>113</v>
       </c>
       <c r="N182" s="3" t="s">
@@ -11335,7 +11338,7 @@
         <v>3</v>
       </c>
       <c r="M184" s="2">
-        <f t="shared" ref="M184:M215" si="108">SUM(M183+1)</f>
+        <f t="shared" ref="M184" si="108">SUM(M183+1)</f>
         <v>114</v>
       </c>
       <c r="N184" s="3" t="s">
@@ -11454,7 +11457,7 @@
         <v>3</v>
       </c>
       <c r="M186" s="2">
-        <f t="shared" ref="M186:M217" si="109">SUM(M185+1)</f>
+        <f t="shared" ref="M186" si="109">SUM(M185+1)</f>
         <v>115</v>
       </c>
       <c r="N186" s="3" t="s">
@@ -11573,7 +11576,7 @@
         <v>3</v>
       </c>
       <c r="M188" s="2">
-        <f t="shared" ref="M188:M219" si="110">SUM(M187+1)</f>
+        <f t="shared" ref="M188" si="110">SUM(M187+1)</f>
         <v>116</v>
       </c>
       <c r="N188" s="3" t="s">
@@ -11692,7 +11695,7 @@
         <v>3</v>
       </c>
       <c r="M190" s="2">
-        <f t="shared" ref="M190:M221" si="111">SUM(M189+1)</f>
+        <f t="shared" ref="M190" si="111">SUM(M189+1)</f>
         <v>117</v>
       </c>
       <c r="N190" s="3" t="s">
@@ -11811,7 +11814,7 @@
         <v>3</v>
       </c>
       <c r="M192" s="2">
-        <f t="shared" ref="M192:M223" si="112">SUM(M191+1)</f>
+        <f t="shared" ref="M192" si="112">SUM(M191+1)</f>
         <v>118</v>
       </c>
       <c r="N192" s="3" t="s">
@@ -11930,7 +11933,7 @@
         <v>3</v>
       </c>
       <c r="M194" s="2">
-        <f t="shared" ref="M194:M225" si="113">SUM(M193+1)</f>
+        <f t="shared" ref="M194" si="113">SUM(M193+1)</f>
         <v>119</v>
       </c>
       <c r="N194" s="3" t="s">
@@ -12049,7 +12052,7 @@
         <v>3</v>
       </c>
       <c r="M196" s="2">
-        <f t="shared" ref="M196:M227" si="120">SUM(M195+1)</f>
+        <f t="shared" ref="M196" si="120">SUM(M195+1)</f>
         <v>120</v>
       </c>
       <c r="N196" s="3" t="s">
@@ -12168,7 +12171,7 @@
         <v>3</v>
       </c>
       <c r="M198" s="2">
-        <f t="shared" ref="M198:M229" si="121">SUM(M197+1)</f>
+        <f t="shared" ref="M198" si="121">SUM(M197+1)</f>
         <v>121</v>
       </c>
       <c r="N198" s="3" t="s">
@@ -12287,7 +12290,7 @@
         <v>3</v>
       </c>
       <c r="M200" s="2">
-        <f t="shared" ref="M200:M231" si="122">SUM(M199+1)</f>
+        <f t="shared" ref="M200" si="122">SUM(M199+1)</f>
         <v>122</v>
       </c>
       <c r="N200" s="3" t="s">
@@ -12406,7 +12409,7 @@
         <v>3</v>
       </c>
       <c r="M202" s="2">
-        <f t="shared" ref="M202:M233" si="123">SUM(M201+1)</f>
+        <f t="shared" ref="M202" si="123">SUM(M201+1)</f>
         <v>123</v>
       </c>
       <c r="N202" s="3" t="s">
@@ -12525,7 +12528,7 @@
         <v>3</v>
       </c>
       <c r="M204" s="2">
-        <f t="shared" ref="M204:M235" si="124">SUM(M203+1)</f>
+        <f t="shared" ref="M204" si="124">SUM(M203+1)</f>
         <v>124</v>
       </c>
       <c r="N204" s="3" t="s">
@@ -12644,7 +12647,7 @@
         <v>3</v>
       </c>
       <c r="M206" s="2">
-        <f t="shared" ref="M206:M237" si="125">SUM(M205+1)</f>
+        <f t="shared" ref="M206" si="125">SUM(M205+1)</f>
         <v>125</v>
       </c>
       <c r="N206" s="3" t="s">
@@ -12763,7 +12766,7 @@
         <v>3</v>
       </c>
       <c r="M208" s="2">
-        <f t="shared" ref="M208:M239" si="126">SUM(M207+1)</f>
+        <f t="shared" ref="M208" si="126">SUM(M207+1)</f>
         <v>126</v>
       </c>
       <c r="N208" s="3" t="s">
@@ -12882,7 +12885,7 @@
         <v>3</v>
       </c>
       <c r="M210" s="2">
-        <f t="shared" ref="M210:M241" si="127">SUM(M209+1)</f>
+        <f t="shared" ref="M210" si="127">SUM(M209+1)</f>
         <v>127</v>
       </c>
       <c r="N210" s="3" t="s">
@@ -13001,7 +13004,7 @@
         <v>3</v>
       </c>
       <c r="M212" s="2">
-        <f t="shared" ref="M212:M243" si="128">SUM(M211+1)</f>
+        <f t="shared" ref="M212" si="128">SUM(M211+1)</f>
         <v>128</v>
       </c>
       <c r="N212" s="3" t="s">
@@ -13120,7 +13123,7 @@
         <v>3</v>
       </c>
       <c r="M214" s="2">
-        <f t="shared" ref="M214:M245" si="129">SUM(M213+1)</f>
+        <f t="shared" ref="M214" si="129">SUM(M213+1)</f>
         <v>129</v>
       </c>
       <c r="N214" s="3" t="s">
@@ -13239,7 +13242,7 @@
         <v>3</v>
       </c>
       <c r="M216" s="2">
-        <f t="shared" ref="M216:M247" si="130">SUM(M215+1)</f>
+        <f t="shared" ref="M216" si="130">SUM(M215+1)</f>
         <v>130</v>
       </c>
       <c r="N216" s="3" t="s">
@@ -13358,7 +13361,7 @@
         <v>3</v>
       </c>
       <c r="M218" s="2">
-        <f t="shared" ref="M218:M249" si="131">SUM(M217+1)</f>
+        <f t="shared" ref="M218" si="131">SUM(M217+1)</f>
         <v>131</v>
       </c>
       <c r="N218" s="3" t="s">
@@ -13477,7 +13480,7 @@
         <v>3</v>
       </c>
       <c r="M220" s="2">
-        <f t="shared" ref="M220:M251" si="132">SUM(M219+1)</f>
+        <f t="shared" ref="M220" si="132">SUM(M219+1)</f>
         <v>132</v>
       </c>
       <c r="N220" s="3" t="s">
@@ -13596,7 +13599,7 @@
         <v>3</v>
       </c>
       <c r="M222" s="2">
-        <f t="shared" ref="M222:M253" si="133">SUM(M221+1)</f>
+        <f t="shared" ref="M222" si="133">SUM(M221+1)</f>
         <v>133</v>
       </c>
       <c r="N222" s="3" t="s">
@@ -13715,7 +13718,7 @@
         <v>3</v>
       </c>
       <c r="M224" s="2">
-        <f t="shared" ref="M224:M255" si="134">SUM(M223+1)</f>
+        <f t="shared" ref="M224" si="134">SUM(M223+1)</f>
         <v>134</v>
       </c>
       <c r="N224" s="3" t="s">
@@ -13834,7 +13837,7 @@
         <v>3</v>
       </c>
       <c r="M226" s="2">
-        <f t="shared" ref="M226:M257" si="135">SUM(M225+1)</f>
+        <f t="shared" ref="M226" si="135">SUM(M225+1)</f>
         <v>135</v>
       </c>
       <c r="N226" s="3" t="s">
@@ -13953,7 +13956,7 @@
         <v>3</v>
       </c>
       <c r="M228" s="2">
-        <f t="shared" ref="M228:M259" si="136">SUM(M227+1)</f>
+        <f t="shared" ref="M228" si="136">SUM(M227+1)</f>
         <v>136</v>
       </c>
       <c r="N228" s="3" t="s">
@@ -14072,7 +14075,7 @@
         <v>3</v>
       </c>
       <c r="M230" s="2">
-        <f t="shared" ref="M230:M261" si="137">SUM(M229+1)</f>
+        <f t="shared" ref="M230" si="137">SUM(M229+1)</f>
         <v>137</v>
       </c>
       <c r="N230" s="3" t="s">
@@ -14191,7 +14194,7 @@
         <v>3</v>
       </c>
       <c r="M232" s="2">
-        <f t="shared" ref="M232:M263" si="138">SUM(M231+1)</f>
+        <f t="shared" ref="M232" si="138">SUM(M231+1)</f>
         <v>138</v>
       </c>
       <c r="N232" s="3" t="s">
@@ -14310,7 +14313,7 @@
         <v>3</v>
       </c>
       <c r="M234" s="2">
-        <f t="shared" ref="M234:M265" si="139">SUM(M233+1)</f>
+        <f t="shared" ref="M234" si="139">SUM(M233+1)</f>
         <v>139</v>
       </c>
       <c r="N234" s="3" t="s">
@@ -14429,7 +14432,7 @@
         <v>3</v>
       </c>
       <c r="M236" s="2">
-        <f t="shared" ref="M236:M267" si="140">SUM(M235+1)</f>
+        <f t="shared" ref="M236" si="140">SUM(M235+1)</f>
         <v>140</v>
       </c>
       <c r="N236" s="3" t="s">
@@ -14548,7 +14551,7 @@
         <v>3</v>
       </c>
       <c r="M238" s="2">
-        <f t="shared" ref="M238:M269" si="141">SUM(M237+1)</f>
+        <f t="shared" ref="M238" si="141">SUM(M237+1)</f>
         <v>141</v>
       </c>
       <c r="N238" s="3" t="s">
@@ -14667,7 +14670,7 @@
         <v>3</v>
       </c>
       <c r="M240" s="2">
-        <f t="shared" ref="M240:M271" si="142">SUM(M239+1)</f>
+        <f t="shared" ref="M240" si="142">SUM(M239+1)</f>
         <v>142</v>
       </c>
       <c r="N240" s="3" t="s">
@@ -14786,7 +14789,7 @@
         <v>3</v>
       </c>
       <c r="M242" s="2">
-        <f t="shared" ref="M242:M273" si="143">SUM(M241+1)</f>
+        <f t="shared" ref="M242" si="143">SUM(M241+1)</f>
         <v>143</v>
       </c>
       <c r="N242" s="3" t="s">
@@ -14905,7 +14908,7 @@
         <v>3</v>
       </c>
       <c r="M244" s="2">
-        <f t="shared" ref="M244:M275" si="144">SUM(M243+1)</f>
+        <f t="shared" ref="M244" si="144">SUM(M243+1)</f>
         <v>144</v>
       </c>
       <c r="N244" s="3" t="s">
@@ -15024,7 +15027,7 @@
         <v>3</v>
       </c>
       <c r="M246" s="2">
-        <f t="shared" ref="M246:M277" si="145">SUM(M245+1)</f>
+        <f t="shared" ref="M246" si="145">SUM(M245+1)</f>
         <v>145</v>
       </c>
       <c r="N246" s="3" t="s">
@@ -15143,7 +15146,7 @@
         <v>3</v>
       </c>
       <c r="M248" s="2">
-        <f t="shared" ref="M248:M279" si="146">SUM(M247+1)</f>
+        <f t="shared" ref="M248" si="146">SUM(M247+1)</f>
         <v>146</v>
       </c>
       <c r="N248" s="3" t="s">
@@ -15262,7 +15265,7 @@
         <v>3</v>
       </c>
       <c r="M250" s="2">
-        <f t="shared" ref="M250:M281" si="147">SUM(M249+1)</f>
+        <f t="shared" ref="M250" si="147">SUM(M249+1)</f>
         <v>147</v>
       </c>
       <c r="N250" s="3" t="s">
@@ -15381,7 +15384,7 @@
         <v>3</v>
       </c>
       <c r="M252" s="2">
-        <f t="shared" ref="M252:M283" si="148">SUM(M251+1)</f>
+        <f t="shared" ref="M252" si="148">SUM(M251+1)</f>
         <v>148</v>
       </c>
       <c r="N252" s="3" t="s">
@@ -15500,7 +15503,7 @@
         <v>3</v>
       </c>
       <c r="M254" s="2">
-        <f t="shared" ref="M254:M300" si="149">SUM(M253+1)</f>
+        <f t="shared" ref="M254" si="149">SUM(M253+1)</f>
         <v>149</v>
       </c>
       <c r="N254" s="3" t="s">
@@ -15619,7 +15622,7 @@
         <v>3</v>
       </c>
       <c r="M256" s="2">
-        <f t="shared" ref="M256:M300" si="150">SUM(M255+1)</f>
+        <f t="shared" ref="M256" si="150">SUM(M255+1)</f>
         <v>150</v>
       </c>
       <c r="N256" s="3" t="s">
@@ -15738,7 +15741,7 @@
         <v>3</v>
       </c>
       <c r="M258" s="2">
-        <f t="shared" ref="M258:M300" si="151">SUM(M257+1)</f>
+        <f t="shared" ref="M258" si="151">SUM(M257+1)</f>
         <v>151</v>
       </c>
       <c r="N258" s="3" t="s">
@@ -15857,7 +15860,7 @@
         <v>3</v>
       </c>
       <c r="M260" s="2">
-        <f t="shared" ref="M260:M300" si="158">SUM(M259+1)</f>
+        <f t="shared" ref="M260" si="158">SUM(M259+1)</f>
         <v>152</v>
       </c>
       <c r="N260" s="3" t="s">
@@ -15976,7 +15979,7 @@
         <v>3</v>
       </c>
       <c r="M262" s="2">
-        <f t="shared" ref="M262:M300" si="159">SUM(M261+1)</f>
+        <f t="shared" ref="M262" si="159">SUM(M261+1)</f>
         <v>153</v>
       </c>
       <c r="N262" s="3" t="s">
@@ -16095,7 +16098,7 @@
         <v>3</v>
       </c>
       <c r="M264" s="2">
-        <f t="shared" ref="M264:M300" si="160">SUM(M263+1)</f>
+        <f t="shared" ref="M264" si="160">SUM(M263+1)</f>
         <v>154</v>
       </c>
       <c r="N264" s="3" t="s">
@@ -16214,7 +16217,7 @@
         <v>3</v>
       </c>
       <c r="M266" s="2">
-        <f t="shared" ref="M266:M300" si="161">SUM(M265+1)</f>
+        <f t="shared" ref="M266" si="161">SUM(M265+1)</f>
         <v>155</v>
       </c>
       <c r="N266" s="3" t="s">
@@ -16333,7 +16336,7 @@
         <v>3</v>
       </c>
       <c r="M268" s="2">
-        <f t="shared" ref="M268:M300" si="162">SUM(M267+1)</f>
+        <f t="shared" ref="M268" si="162">SUM(M267+1)</f>
         <v>156</v>
       </c>
       <c r="N268" s="3" t="s">
@@ -16452,7 +16455,7 @@
         <v>3</v>
       </c>
       <c r="M270" s="2">
-        <f t="shared" ref="M270:M300" si="163">SUM(M269+1)</f>
+        <f t="shared" ref="M270" si="163">SUM(M269+1)</f>
         <v>157</v>
       </c>
       <c r="N270" s="3" t="s">
@@ -16571,7 +16574,7 @@
         <v>3</v>
       </c>
       <c r="M272" s="2">
-        <f t="shared" ref="M272:M300" si="164">SUM(M271+1)</f>
+        <f t="shared" ref="M272" si="164">SUM(M271+1)</f>
         <v>158</v>
       </c>
       <c r="N272" s="3" t="s">
@@ -16690,7 +16693,7 @@
         <v>3</v>
       </c>
       <c r="M274" s="2">
-        <f t="shared" ref="M274:M300" si="165">SUM(M273+1)</f>
+        <f t="shared" ref="M274" si="165">SUM(M273+1)</f>
         <v>159</v>
       </c>
       <c r="N274" s="3" t="s">
@@ -16809,7 +16812,7 @@
         <v>3</v>
       </c>
       <c r="M276" s="2">
-        <f t="shared" ref="M276:M300" si="166">SUM(M275+1)</f>
+        <f t="shared" ref="M276" si="166">SUM(M275+1)</f>
         <v>160</v>
       </c>
       <c r="N276" s="3" t="s">
@@ -16928,7 +16931,7 @@
         <v>3</v>
       </c>
       <c r="M278" s="2">
-        <f t="shared" ref="M278:M300" si="167">SUM(M277+1)</f>
+        <f t="shared" ref="M278" si="167">SUM(M277+1)</f>
         <v>161</v>
       </c>
       <c r="N278" s="3" t="s">
@@ -17047,7 +17050,7 @@
         <v>3</v>
       </c>
       <c r="M280" s="2">
-        <f t="shared" ref="M280:M300" si="168">SUM(M279+1)</f>
+        <f t="shared" ref="M280" si="168">SUM(M279+1)</f>
         <v>162</v>
       </c>
       <c r="N280" s="3" t="s">
@@ -17166,7 +17169,7 @@
         <v>3</v>
       </c>
       <c r="M282" s="2">
-        <f t="shared" ref="M282:M300" si="169">SUM(M281+1)</f>
+        <f t="shared" ref="M282" si="169">SUM(M281+1)</f>
         <v>163</v>
       </c>
       <c r="N282" s="3" t="s">
@@ -17285,7 +17288,7 @@
         <v>3</v>
       </c>
       <c r="M284" s="2">
-        <f t="shared" ref="M284:M300" si="170">SUM(M283+1)</f>
+        <f t="shared" ref="M284" si="170">SUM(M283+1)</f>
         <v>164</v>
       </c>
       <c r="N284" s="3" t="s">
@@ -17404,7 +17407,7 @@
         <v>3</v>
       </c>
       <c r="M286" s="2">
-        <f t="shared" ref="M286:M300" si="171">SUM(M285+1)</f>
+        <f t="shared" ref="M286" si="171">SUM(M285+1)</f>
         <v>165</v>
       </c>
       <c r="N286" s="3" t="s">
@@ -17523,7 +17526,7 @@
         <v>3</v>
       </c>
       <c r="M288" s="2">
-        <f t="shared" ref="M288:M300" si="172">SUM(M287+1)</f>
+        <f t="shared" ref="M288" si="172">SUM(M287+1)</f>
         <v>166</v>
       </c>
       <c r="N288" s="3" t="s">
@@ -17642,7 +17645,7 @@
         <v>3</v>
       </c>
       <c r="M290" s="2">
-        <f t="shared" ref="M290:M300" si="173">SUM(M289+1)</f>
+        <f t="shared" ref="M290" si="173">SUM(M289+1)</f>
         <v>167</v>
       </c>
       <c r="N290" s="3" t="s">
@@ -17761,7 +17764,7 @@
         <v>3</v>
       </c>
       <c r="M292" s="2">
-        <f t="shared" ref="M292:M300" si="174">SUM(M291+1)</f>
+        <f t="shared" ref="M292" si="174">SUM(M291+1)</f>
         <v>168</v>
       </c>
       <c r="N292" s="3" t="s">
@@ -17880,7 +17883,7 @@
         <v>3</v>
       </c>
       <c r="M294" s="2">
-        <f t="shared" ref="M294:M300" si="175">SUM(M293+1)</f>
+        <f t="shared" ref="M294" si="175">SUM(M293+1)</f>
         <v>169</v>
       </c>
       <c r="N294" s="3" t="s">
@@ -17999,7 +18002,7 @@
         <v>3</v>
       </c>
       <c r="M296" s="2">
-        <f t="shared" ref="M296:M300" si="176">SUM(M295+1)</f>
+        <f t="shared" ref="M296" si="176">SUM(M295+1)</f>
         <v>170</v>
       </c>
       <c r="N296" s="3" t="s">
@@ -18118,7 +18121,7 @@
         <v>3</v>
       </c>
       <c r="M298" s="2">
-        <f t="shared" ref="M298:M300" si="177">SUM(M297+1)</f>
+        <f t="shared" ref="M298" si="177">SUM(M297+1)</f>
         <v>171</v>
       </c>
       <c r="N298" s="3" t="s">
@@ -18262,9 +18265,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A300"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A271" workbookViewId="0">
+      <selection sqref="A1:A300"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -18275,7 +18280,2100 @@
       <c r="A1" t="str">
         <f>Sheet1!A1&amp;""&amp;Sheet1!B1&amp;""&amp;Sheet1!C1&amp;""&amp;Sheet1!D1&amp;""&amp;Sheet1!E1&amp;""&amp;Sheet1!F1&amp;""&amp;Sheet1!G1&amp;""&amp;Sheet1!H1&amp;""&amp;Sheet1!I1&amp;""&amp;Sheet1!J1&amp;""&amp;Sheet1!K1&amp;""&amp;Sheet1!L1&amp;""&amp;Sheet1!M1&amp;""&amp;Sheet1!N1&amp;""&amp;Sheet1!O1&amp;""&amp;Sheet1!P1&amp;""&amp;Sheet1!Q1&amp;""&amp;Sheet1!R1&amp;""&amp;Sheet1!S1&amp;""&amp;Sheet1!T1&amp;""&amp;Sheet1!U1&amp;""&amp;Sheet1!V1&amp;""&amp;Sheet1!W1&amp;""&amp;Sheet1!X1&amp;""&amp;Sheet1!Y1&amp;""&amp;Sheet1!Z1</f>
         <v>&lt;li class="name"&gt;1&lt;form id="formLoc22"&gt; &lt;input type="hidden" id="nameLoc22"class="name"  value="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/1.jpeg"&gt;&lt;input type="hidden" id="cnameLoc22"class="name"  value="{{name}}"&gt; &lt;input type="number" id="descLoc22"   placeholder=" QTY "  required&gt;&lt;input onclick="launch_notification();this.value='ADDED ✅'" type="submit" value="SEND"/&gt;&lt;/form&gt;
-&lt;img src="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/1" loading="lazy" width="400" height="400"&gt;  &lt;/li&gt;</v>
+&lt;img src="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/1.jpeg" loading="lazy" width="400" height="400"&gt;  &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="str">
+        <f>Sheet1!A2&amp;""&amp;Sheet1!B2&amp;""&amp;Sheet1!C2&amp;""&amp;Sheet1!D2&amp;""&amp;Sheet1!E2&amp;""&amp;Sheet1!F2&amp;""&amp;Sheet1!G2&amp;""&amp;Sheet1!H2&amp;""&amp;Sheet1!I2&amp;""&amp;Sheet1!J2&amp;""&amp;Sheet1!K2&amp;""&amp;Sheet1!L2&amp;""&amp;Sheet1!M2&amp;""&amp;Sheet1!N2&amp;""&amp;Sheet1!O2&amp;""&amp;Sheet1!P2&amp;""&amp;Sheet1!Q2&amp;""&amp;Sheet1!R2&amp;""&amp;Sheet1!S2&amp;""&amp;Sheet1!T2&amp;""&amp;Sheet1!U2&amp;""&amp;Sheet1!V2&amp;""&amp;Sheet1!W2&amp;""&amp;Sheet1!X2&amp;""&amp;Sheet1!Y2&amp;""&amp;Sheet1!Z2</f>
+        <v>&lt;li class="name"&gt;2&lt;form id="formLoc23"&gt; &lt;input type="hidden" id="nameLoc23"class="name"  value="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/2.jpeg"&gt;&lt;input type="hidden" id="cnameLoc23"class="name"  value="{{name}}"&gt; &lt;input type="number" id="descLoc23"   placeholder=" QTY "  required&gt;&lt;input onclick="launch_notification();this.value='ADDED ✅'" type="submit" value="SEND"/&gt;&lt;/form&gt;
+&lt;img src="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/2" loading="lazy" width="400" height="400"&gt;  &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="str">
+        <f>Sheet1!A3&amp;""&amp;Sheet1!B3&amp;""&amp;Sheet1!C3&amp;""&amp;Sheet1!D3&amp;""&amp;Sheet1!E3&amp;""&amp;Sheet1!F3&amp;""&amp;Sheet1!G3&amp;""&amp;Sheet1!H3&amp;""&amp;Sheet1!I3&amp;""&amp;Sheet1!J3&amp;""&amp;Sheet1!K3&amp;""&amp;Sheet1!L3&amp;""&amp;Sheet1!M3&amp;""&amp;Sheet1!N3&amp;""&amp;Sheet1!O3&amp;""&amp;Sheet1!P3&amp;""&amp;Sheet1!Q3&amp;""&amp;Sheet1!R3&amp;""&amp;Sheet1!S3&amp;""&amp;Sheet1!T3&amp;""&amp;Sheet1!U3&amp;""&amp;Sheet1!V3&amp;""&amp;Sheet1!W3&amp;""&amp;Sheet1!X3&amp;""&amp;Sheet1!Y3&amp;""&amp;Sheet1!Z3</f>
+        <v>&lt;li class="name"&gt;3&lt;form id="formLoc24"&gt; &lt;input type="hidden" id="nameLoc24"class="name"  value="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/3.jpeg"&gt;&lt;input type="hidden" id="cnameLoc24"class="name"  value="{{name}}"&gt; &lt;input type="number" id="descLoc23"   placeholder=" QTY "  required&gt;&lt;input onclick="launch_notification();this.value='ADDED ✅'" type="submit" value="SEND"/&gt;&lt;/form&gt;
+&lt;img src="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/3" loading="lazy" width="400" height="400"&gt;  &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="str">
+        <f>Sheet1!A4&amp;""&amp;Sheet1!B4&amp;""&amp;Sheet1!C4&amp;""&amp;Sheet1!D4&amp;""&amp;Sheet1!E4&amp;""&amp;Sheet1!F4&amp;""&amp;Sheet1!G4&amp;""&amp;Sheet1!H4&amp;""&amp;Sheet1!I4&amp;""&amp;Sheet1!J4&amp;""&amp;Sheet1!K4&amp;""&amp;Sheet1!L4&amp;""&amp;Sheet1!M4&amp;""&amp;Sheet1!N4&amp;""&amp;Sheet1!O4&amp;""&amp;Sheet1!P4&amp;""&amp;Sheet1!Q4&amp;""&amp;Sheet1!R4&amp;""&amp;Sheet1!S4&amp;""&amp;Sheet1!T4&amp;""&amp;Sheet1!U4&amp;""&amp;Sheet1!V4&amp;""&amp;Sheet1!W4&amp;""&amp;Sheet1!X4&amp;""&amp;Sheet1!Y4&amp;""&amp;Sheet1!Z4</f>
+        <v>&lt;li class="name"&gt;4&lt;form id="formLoc25"&gt; &lt;input type="hidden" id="nameLoc25"class="name"  value="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/4.jpeg"&gt;&lt;input type="hidden" id="cnameLoc25"class="name"  value="{{name}}"&gt; &lt;input type="number" id="descLoc24"   placeholder=" QTY "  required&gt;&lt;input onclick="launch_notification();this.value='ADDED ✅'" type="submit" value="SEND"/&gt;&lt;/form&gt;
+&lt;img src="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/4" loading="lazy" width="400" height="400"&gt;  &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="str">
+        <f>Sheet1!A5&amp;""&amp;Sheet1!B5&amp;""&amp;Sheet1!C5&amp;""&amp;Sheet1!D5&amp;""&amp;Sheet1!E5&amp;""&amp;Sheet1!F5&amp;""&amp;Sheet1!G5&amp;""&amp;Sheet1!H5&amp;""&amp;Sheet1!I5&amp;""&amp;Sheet1!J5&amp;""&amp;Sheet1!K5&amp;""&amp;Sheet1!L5&amp;""&amp;Sheet1!M5&amp;""&amp;Sheet1!N5&amp;""&amp;Sheet1!O5&amp;""&amp;Sheet1!P5&amp;""&amp;Sheet1!Q5&amp;""&amp;Sheet1!R5&amp;""&amp;Sheet1!S5&amp;""&amp;Sheet1!T5&amp;""&amp;Sheet1!U5&amp;""&amp;Sheet1!V5&amp;""&amp;Sheet1!W5&amp;""&amp;Sheet1!X5&amp;""&amp;Sheet1!Y5&amp;""&amp;Sheet1!Z5</f>
+        <v>&lt;li class="name"&gt;5&lt;form id="formLoc26"&gt; &lt;input type="hidden" id="nameLoc26"class="name"  value="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/5.jpeg"&gt;&lt;input type="hidden" id="cnameLoc26"class="name"  value="{{name}}"&gt; &lt;input type="number" id="descLoc24"   placeholder=" QTY "  required&gt;&lt;input onclick="launch_notification();this.value='ADDED ✅'" type="submit" value="SEND"/&gt;&lt;/form&gt;
+&lt;img src="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/5" loading="lazy" width="400" height="400"&gt;  &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="str">
+        <f>Sheet1!A6&amp;""&amp;Sheet1!B6&amp;""&amp;Sheet1!C6&amp;""&amp;Sheet1!D6&amp;""&amp;Sheet1!E6&amp;""&amp;Sheet1!F6&amp;""&amp;Sheet1!G6&amp;""&amp;Sheet1!H6&amp;""&amp;Sheet1!I6&amp;""&amp;Sheet1!J6&amp;""&amp;Sheet1!K6&amp;""&amp;Sheet1!L6&amp;""&amp;Sheet1!M6&amp;""&amp;Sheet1!N6&amp;""&amp;Sheet1!O6&amp;""&amp;Sheet1!P6&amp;""&amp;Sheet1!Q6&amp;""&amp;Sheet1!R6&amp;""&amp;Sheet1!S6&amp;""&amp;Sheet1!T6&amp;""&amp;Sheet1!U6&amp;""&amp;Sheet1!V6&amp;""&amp;Sheet1!W6&amp;""&amp;Sheet1!X6&amp;""&amp;Sheet1!Y6&amp;""&amp;Sheet1!Z6</f>
+        <v>&lt;li class="name"&gt;6&lt;form id="formLoc27"&gt; &lt;input type="hidden" id="nameLoc27"class="name"  value="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/6.jpeg"&gt;&lt;input type="hidden" id="cnameLoc27"class="name"  value="{{name}}"&gt; &lt;input type="number" id="descLoc25"   placeholder=" QTY "  required&gt;&lt;input onclick="launch_notification();this.value='ADDED ✅'" type="submit" value="SEND"/&gt;&lt;/form&gt;
+&lt;img src="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/6" loading="lazy" width="400" height="400"&gt;  &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="str">
+        <f>Sheet1!A7&amp;""&amp;Sheet1!B7&amp;""&amp;Sheet1!C7&amp;""&amp;Sheet1!D7&amp;""&amp;Sheet1!E7&amp;""&amp;Sheet1!F7&amp;""&amp;Sheet1!G7&amp;""&amp;Sheet1!H7&amp;""&amp;Sheet1!I7&amp;""&amp;Sheet1!J7&amp;""&amp;Sheet1!K7&amp;""&amp;Sheet1!L7&amp;""&amp;Sheet1!M7&amp;""&amp;Sheet1!N7&amp;""&amp;Sheet1!O7&amp;""&amp;Sheet1!P7&amp;""&amp;Sheet1!Q7&amp;""&amp;Sheet1!R7&amp;""&amp;Sheet1!S7&amp;""&amp;Sheet1!T7&amp;""&amp;Sheet1!U7&amp;""&amp;Sheet1!V7&amp;""&amp;Sheet1!W7&amp;""&amp;Sheet1!X7&amp;""&amp;Sheet1!Y7&amp;""&amp;Sheet1!Z7</f>
+        <v>&lt;li class="name"&gt;7&lt;form id="formLoc28"&gt; &lt;input type="hidden" id="nameLoc28"class="name"  value="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/7.jpeg"&gt;&lt;input type="hidden" id="cnameLoc28"class="name"  value="{{name}}"&gt; &lt;input type="number" id="descLoc25"   placeholder=" QTY "  required&gt;&lt;input onclick="launch_notification();this.value='ADDED ✅'" type="submit" value="SEND"/&gt;&lt;/form&gt;
+&lt;img src="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/7" loading="lazy" width="400" height="400"&gt;  &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="str">
+        <f>Sheet1!A8&amp;""&amp;Sheet1!B8&amp;""&amp;Sheet1!C8&amp;""&amp;Sheet1!D8&amp;""&amp;Sheet1!E8&amp;""&amp;Sheet1!F8&amp;""&amp;Sheet1!G8&amp;""&amp;Sheet1!H8&amp;""&amp;Sheet1!I8&amp;""&amp;Sheet1!J8&amp;""&amp;Sheet1!K8&amp;""&amp;Sheet1!L8&amp;""&amp;Sheet1!M8&amp;""&amp;Sheet1!N8&amp;""&amp;Sheet1!O8&amp;""&amp;Sheet1!P8&amp;""&amp;Sheet1!Q8&amp;""&amp;Sheet1!R8&amp;""&amp;Sheet1!S8&amp;""&amp;Sheet1!T8&amp;""&amp;Sheet1!U8&amp;""&amp;Sheet1!V8&amp;""&amp;Sheet1!W8&amp;""&amp;Sheet1!X8&amp;""&amp;Sheet1!Y8&amp;""&amp;Sheet1!Z8</f>
+        <v>&lt;li class="name"&gt;8&lt;form id="formLoc29"&gt; &lt;input type="hidden" id="nameLoc29"class="name"  value="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/8.jpeg"&gt;&lt;input type="hidden" id="cnameLoc29"class="name"  value="{{name}}"&gt; &lt;input type="number" id="descLoc26"   placeholder=" QTY "  required&gt;&lt;input onclick="launch_notification();this.value='ADDED ✅'" type="submit" value="SEND"/&gt;&lt;/form&gt;
+&lt;img src="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/8" loading="lazy" width="400" height="400"&gt;  &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="str">
+        <f>Sheet1!A9&amp;""&amp;Sheet1!B9&amp;""&amp;Sheet1!C9&amp;""&amp;Sheet1!D9&amp;""&amp;Sheet1!E9&amp;""&amp;Sheet1!F9&amp;""&amp;Sheet1!G9&amp;""&amp;Sheet1!H9&amp;""&amp;Sheet1!I9&amp;""&amp;Sheet1!J9&amp;""&amp;Sheet1!K9&amp;""&amp;Sheet1!L9&amp;""&amp;Sheet1!M9&amp;""&amp;Sheet1!N9&amp;""&amp;Sheet1!O9&amp;""&amp;Sheet1!P9&amp;""&amp;Sheet1!Q9&amp;""&amp;Sheet1!R9&amp;""&amp;Sheet1!S9&amp;""&amp;Sheet1!T9&amp;""&amp;Sheet1!U9&amp;""&amp;Sheet1!V9&amp;""&amp;Sheet1!W9&amp;""&amp;Sheet1!X9&amp;""&amp;Sheet1!Y9&amp;""&amp;Sheet1!Z9</f>
+        <v>&lt;li class="name"&gt;9&lt;form id="formLoc30"&gt; &lt;input type="hidden" id="nameLoc30"class="name"  value="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/9.jpeg"&gt;&lt;input type="hidden" id="cnameLoc30"class="name"  value="{{name}}"&gt; &lt;input type="number" id="descLoc26"   placeholder=" QTY "  required&gt;&lt;input onclick="launch_notification();this.value='ADDED ✅'" type="submit" value="SEND"/&gt;&lt;/form&gt;
+&lt;img src="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/9" loading="lazy" width="400" height="400"&gt;  &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="str">
+        <f>Sheet1!A10&amp;""&amp;Sheet1!B10&amp;""&amp;Sheet1!C10&amp;""&amp;Sheet1!D10&amp;""&amp;Sheet1!E10&amp;""&amp;Sheet1!F10&amp;""&amp;Sheet1!G10&amp;""&amp;Sheet1!H10&amp;""&amp;Sheet1!I10&amp;""&amp;Sheet1!J10&amp;""&amp;Sheet1!K10&amp;""&amp;Sheet1!L10&amp;""&amp;Sheet1!M10&amp;""&amp;Sheet1!N10&amp;""&amp;Sheet1!O10&amp;""&amp;Sheet1!P10&amp;""&amp;Sheet1!Q10&amp;""&amp;Sheet1!R10&amp;""&amp;Sheet1!S10&amp;""&amp;Sheet1!T10&amp;""&amp;Sheet1!U10&amp;""&amp;Sheet1!V10&amp;""&amp;Sheet1!W10&amp;""&amp;Sheet1!X10&amp;""&amp;Sheet1!Y10&amp;""&amp;Sheet1!Z10</f>
+        <v>&lt;li class="name"&gt;10&lt;form id="formLoc31"&gt; &lt;input type="hidden" id="nameLoc31"class="name"  value="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/10.jpeg"&gt;&lt;input type="hidden" id="cnameLoc31"class="name"  value="{{name}}"&gt; &lt;input type="number" id="descLoc27"   placeholder=" QTY "  required&gt;&lt;input onclick="launch_notification();this.value='ADDED ✅'" type="submit" value="SEND"/&gt;&lt;/form&gt;
+&lt;img src="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/10" loading="lazy" width="400" height="400"&gt;  &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="str">
+        <f>Sheet1!A11&amp;""&amp;Sheet1!B11&amp;""&amp;Sheet1!C11&amp;""&amp;Sheet1!D11&amp;""&amp;Sheet1!E11&amp;""&amp;Sheet1!F11&amp;""&amp;Sheet1!G11&amp;""&amp;Sheet1!H11&amp;""&amp;Sheet1!I11&amp;""&amp;Sheet1!J11&amp;""&amp;Sheet1!K11&amp;""&amp;Sheet1!L11&amp;""&amp;Sheet1!M11&amp;""&amp;Sheet1!N11&amp;""&amp;Sheet1!O11&amp;""&amp;Sheet1!P11&amp;""&amp;Sheet1!Q11&amp;""&amp;Sheet1!R11&amp;""&amp;Sheet1!S11&amp;""&amp;Sheet1!T11&amp;""&amp;Sheet1!U11&amp;""&amp;Sheet1!V11&amp;""&amp;Sheet1!W11&amp;""&amp;Sheet1!X11&amp;""&amp;Sheet1!Y11&amp;""&amp;Sheet1!Z11</f>
+        <v>&lt;li class="name"&gt;11&lt;form id="formLoc32"&gt; &lt;input type="hidden" id="nameLoc32"class="name"  value="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/11.jpeg"&gt;&lt;input type="hidden" id="cnameLoc32"class="name"  value="{{name}}"&gt; &lt;input type="number" id="descLoc27"   placeholder=" QTY "  required&gt;&lt;input onclick="launch_notification();this.value='ADDED ✅'" type="submit" value="SEND"/&gt;&lt;/form&gt;
+&lt;img src="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/11" loading="lazy" width="400" height="400"&gt;  &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" t="str">
+        <f>Sheet1!A12&amp;""&amp;Sheet1!B12&amp;""&amp;Sheet1!C12&amp;""&amp;Sheet1!D12&amp;""&amp;Sheet1!E12&amp;""&amp;Sheet1!F12&amp;""&amp;Sheet1!G12&amp;""&amp;Sheet1!H12&amp;""&amp;Sheet1!I12&amp;""&amp;Sheet1!J12&amp;""&amp;Sheet1!K12&amp;""&amp;Sheet1!L12&amp;""&amp;Sheet1!M12&amp;""&amp;Sheet1!N12&amp;""&amp;Sheet1!O12&amp;""&amp;Sheet1!P12&amp;""&amp;Sheet1!Q12&amp;""&amp;Sheet1!R12&amp;""&amp;Sheet1!S12&amp;""&amp;Sheet1!T12&amp;""&amp;Sheet1!U12&amp;""&amp;Sheet1!V12&amp;""&amp;Sheet1!W12&amp;""&amp;Sheet1!X12&amp;""&amp;Sheet1!Y12&amp;""&amp;Sheet1!Z12</f>
+        <v>&lt;li class="name"&gt;12&lt;form id="formLoc33"&gt; &lt;input type="hidden" id="nameLoc33"class="name"  value="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/12.jpeg"&gt;&lt;input type="hidden" id="cnameLoc33"class="name"  value="{{name}}"&gt; &lt;input type="number" id="descLoc28"   placeholder=" QTY "  required&gt;&lt;input onclick="launch_notification();this.value='ADDED ✅'" type="submit" value="SEND"/&gt;&lt;/form&gt;
+&lt;img src="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/12" loading="lazy" width="400" height="400"&gt;  &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" t="str">
+        <f>Sheet1!A13&amp;""&amp;Sheet1!B13&amp;""&amp;Sheet1!C13&amp;""&amp;Sheet1!D13&amp;""&amp;Sheet1!E13&amp;""&amp;Sheet1!F13&amp;""&amp;Sheet1!G13&amp;""&amp;Sheet1!H13&amp;""&amp;Sheet1!I13&amp;""&amp;Sheet1!J13&amp;""&amp;Sheet1!K13&amp;""&amp;Sheet1!L13&amp;""&amp;Sheet1!M13&amp;""&amp;Sheet1!N13&amp;""&amp;Sheet1!O13&amp;""&amp;Sheet1!P13&amp;""&amp;Sheet1!Q13&amp;""&amp;Sheet1!R13&amp;""&amp;Sheet1!S13&amp;""&amp;Sheet1!T13&amp;""&amp;Sheet1!U13&amp;""&amp;Sheet1!V13&amp;""&amp;Sheet1!W13&amp;""&amp;Sheet1!X13&amp;""&amp;Sheet1!Y13&amp;""&amp;Sheet1!Z13</f>
+        <v>&lt;li class="name"&gt;13&lt;form id="formLoc34"&gt; &lt;input type="hidden" id="nameLoc34"class="name"  value="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/13.jpeg"&gt;&lt;input type="hidden" id="cnameLoc34"class="name"  value="{{name}}"&gt; &lt;input type="number" id="descLoc28"   placeholder=" QTY "  required&gt;&lt;input onclick="launch_notification();this.value='ADDED ✅'" type="submit" value="SEND"/&gt;&lt;/form&gt;
+&lt;img src="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/13" loading="lazy" width="400" height="400"&gt;  &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" t="str">
+        <f>Sheet1!A14&amp;""&amp;Sheet1!B14&amp;""&amp;Sheet1!C14&amp;""&amp;Sheet1!D14&amp;""&amp;Sheet1!E14&amp;""&amp;Sheet1!F14&amp;""&amp;Sheet1!G14&amp;""&amp;Sheet1!H14&amp;""&amp;Sheet1!I14&amp;""&amp;Sheet1!J14&amp;""&amp;Sheet1!K14&amp;""&amp;Sheet1!L14&amp;""&amp;Sheet1!M14&amp;""&amp;Sheet1!N14&amp;""&amp;Sheet1!O14&amp;""&amp;Sheet1!P14&amp;""&amp;Sheet1!Q14&amp;""&amp;Sheet1!R14&amp;""&amp;Sheet1!S14&amp;""&amp;Sheet1!T14&amp;""&amp;Sheet1!U14&amp;""&amp;Sheet1!V14&amp;""&amp;Sheet1!W14&amp;""&amp;Sheet1!X14&amp;""&amp;Sheet1!Y14&amp;""&amp;Sheet1!Z14</f>
+        <v>&lt;li class="name"&gt;14&lt;form id="formLoc35"&gt; &lt;input type="hidden" id="nameLoc35"class="name"  value="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/14.jpeg"&gt;&lt;input type="hidden" id="cnameLoc35"class="name"  value="{{name}}"&gt; &lt;input type="number" id="descLoc29"   placeholder=" QTY "  required&gt;&lt;input onclick="launch_notification();this.value='ADDED ✅'" type="submit" value="SEND"/&gt;&lt;/form&gt;
+&lt;img src="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/14" loading="lazy" width="400" height="400"&gt;  &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" t="str">
+        <f>Sheet1!A15&amp;""&amp;Sheet1!B15&amp;""&amp;Sheet1!C15&amp;""&amp;Sheet1!D15&amp;""&amp;Sheet1!E15&amp;""&amp;Sheet1!F15&amp;""&amp;Sheet1!G15&amp;""&amp;Sheet1!H15&amp;""&amp;Sheet1!I15&amp;""&amp;Sheet1!J15&amp;""&amp;Sheet1!K15&amp;""&amp;Sheet1!L15&amp;""&amp;Sheet1!M15&amp;""&amp;Sheet1!N15&amp;""&amp;Sheet1!O15&amp;""&amp;Sheet1!P15&amp;""&amp;Sheet1!Q15&amp;""&amp;Sheet1!R15&amp;""&amp;Sheet1!S15&amp;""&amp;Sheet1!T15&amp;""&amp;Sheet1!U15&amp;""&amp;Sheet1!V15&amp;""&amp;Sheet1!W15&amp;""&amp;Sheet1!X15&amp;""&amp;Sheet1!Y15&amp;""&amp;Sheet1!Z15</f>
+        <v>&lt;li class="name"&gt;15&lt;form id="formLoc36"&gt; &lt;input type="hidden" id="nameLoc36"class="name"  value="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/15.jpeg"&gt;&lt;input type="hidden" id="cnameLoc36"class="name"  value="{{name}}"&gt; &lt;input type="number" id="descLoc29"   placeholder=" QTY "  required&gt;&lt;input onclick="launch_notification();this.value='ADDED ✅'" type="submit" value="SEND"/&gt;&lt;/form&gt;
+&lt;img src="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/15" loading="lazy" width="400" height="400"&gt;  &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" t="str">
+        <f>Sheet1!A16&amp;""&amp;Sheet1!B16&amp;""&amp;Sheet1!C16&amp;""&amp;Sheet1!D16&amp;""&amp;Sheet1!E16&amp;""&amp;Sheet1!F16&amp;""&amp;Sheet1!G16&amp;""&amp;Sheet1!H16&amp;""&amp;Sheet1!I16&amp;""&amp;Sheet1!J16&amp;""&amp;Sheet1!K16&amp;""&amp;Sheet1!L16&amp;""&amp;Sheet1!M16&amp;""&amp;Sheet1!N16&amp;""&amp;Sheet1!O16&amp;""&amp;Sheet1!P16&amp;""&amp;Sheet1!Q16&amp;""&amp;Sheet1!R16&amp;""&amp;Sheet1!S16&amp;""&amp;Sheet1!T16&amp;""&amp;Sheet1!U16&amp;""&amp;Sheet1!V16&amp;""&amp;Sheet1!W16&amp;""&amp;Sheet1!X16&amp;""&amp;Sheet1!Y16&amp;""&amp;Sheet1!Z16</f>
+        <v>&lt;li class="name"&gt;16&lt;form id="formLoc37"&gt; &lt;input type="hidden" id="nameLoc37"class="name"  value="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/16.jpeg"&gt;&lt;input type="hidden" id="cnameLoc37"class="name"  value="{{name}}"&gt; &lt;input type="number" id="descLoc30"   placeholder=" QTY "  required&gt;&lt;input onclick="launch_notification();this.value='ADDED ✅'" type="submit" value="SEND"/&gt;&lt;/form&gt;
+&lt;img src="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/16" loading="lazy" width="400" height="400"&gt;  &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="str">
+        <f>Sheet1!A17&amp;""&amp;Sheet1!B17&amp;""&amp;Sheet1!C17&amp;""&amp;Sheet1!D17&amp;""&amp;Sheet1!E17&amp;""&amp;Sheet1!F17&amp;""&amp;Sheet1!G17&amp;""&amp;Sheet1!H17&amp;""&amp;Sheet1!I17&amp;""&amp;Sheet1!J17&amp;""&amp;Sheet1!K17&amp;""&amp;Sheet1!L17&amp;""&amp;Sheet1!M17&amp;""&amp;Sheet1!N17&amp;""&amp;Sheet1!O17&amp;""&amp;Sheet1!P17&amp;""&amp;Sheet1!Q17&amp;""&amp;Sheet1!R17&amp;""&amp;Sheet1!S17&amp;""&amp;Sheet1!T17&amp;""&amp;Sheet1!U17&amp;""&amp;Sheet1!V17&amp;""&amp;Sheet1!W17&amp;""&amp;Sheet1!X17&amp;""&amp;Sheet1!Y17&amp;""&amp;Sheet1!Z17</f>
+        <v>&lt;li class="name"&gt;17&lt;form id="formLoc38"&gt; &lt;input type="hidden" id="nameLoc38"class="name"  value="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/17.jpeg"&gt;&lt;input type="hidden" id="cnameLoc38"class="name"  value="{{name}}"&gt; &lt;input type="number" id="descLoc30"   placeholder=" QTY "  required&gt;&lt;input onclick="launch_notification();this.value='ADDED ✅'" type="submit" value="SEND"/&gt;&lt;/form&gt;
+&lt;img src="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/17" loading="lazy" width="400" height="400"&gt;  &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="str">
+        <f>Sheet1!A18&amp;""&amp;Sheet1!B18&amp;""&amp;Sheet1!C18&amp;""&amp;Sheet1!D18&amp;""&amp;Sheet1!E18&amp;""&amp;Sheet1!F18&amp;""&amp;Sheet1!G18&amp;""&amp;Sheet1!H18&amp;""&amp;Sheet1!I18&amp;""&amp;Sheet1!J18&amp;""&amp;Sheet1!K18&amp;""&amp;Sheet1!L18&amp;""&amp;Sheet1!M18&amp;""&amp;Sheet1!N18&amp;""&amp;Sheet1!O18&amp;""&amp;Sheet1!P18&amp;""&amp;Sheet1!Q18&amp;""&amp;Sheet1!R18&amp;""&amp;Sheet1!S18&amp;""&amp;Sheet1!T18&amp;""&amp;Sheet1!U18&amp;""&amp;Sheet1!V18&amp;""&amp;Sheet1!W18&amp;""&amp;Sheet1!X18&amp;""&amp;Sheet1!Y18&amp;""&amp;Sheet1!Z18</f>
+        <v>&lt;li class="name"&gt;18&lt;form id="formLoc39"&gt; &lt;input type="hidden" id="nameLoc39"class="name"  value="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/18.jpeg"&gt;&lt;input type="hidden" id="cnameLoc39"class="name"  value="{{name}}"&gt; &lt;input type="number" id="descLoc31"   placeholder=" QTY "  required&gt;&lt;input onclick="launch_notification();this.value='ADDED ✅'" type="submit" value="SEND"/&gt;&lt;/form&gt;
+&lt;img src="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/18" loading="lazy" width="400" height="400"&gt;  &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="str">
+        <f>Sheet1!A19&amp;""&amp;Sheet1!B19&amp;""&amp;Sheet1!C19&amp;""&amp;Sheet1!D19&amp;""&amp;Sheet1!E19&amp;""&amp;Sheet1!F19&amp;""&amp;Sheet1!G19&amp;""&amp;Sheet1!H19&amp;""&amp;Sheet1!I19&amp;""&amp;Sheet1!J19&amp;""&amp;Sheet1!K19&amp;""&amp;Sheet1!L19&amp;""&amp;Sheet1!M19&amp;""&amp;Sheet1!N19&amp;""&amp;Sheet1!O19&amp;""&amp;Sheet1!P19&amp;""&amp;Sheet1!Q19&amp;""&amp;Sheet1!R19&amp;""&amp;Sheet1!S19&amp;""&amp;Sheet1!T19&amp;""&amp;Sheet1!U19&amp;""&amp;Sheet1!V19&amp;""&amp;Sheet1!W19&amp;""&amp;Sheet1!X19&amp;""&amp;Sheet1!Y19&amp;""&amp;Sheet1!Z19</f>
+        <v>&lt;li class="name"&gt;19&lt;form id="formLoc40"&gt; &lt;input type="hidden" id="nameLoc40"class="name"  value="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/19.jpeg"&gt;&lt;input type="hidden" id="cnameLoc40"class="name"  value="{{name}}"&gt; &lt;input type="number" id="descLoc31"   placeholder=" QTY "  required&gt;&lt;input onclick="launch_notification();this.value='ADDED ✅'" type="submit" value="SEND"/&gt;&lt;/form&gt;
+&lt;img src="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/19" loading="lazy" width="400" height="400"&gt;  &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="str">
+        <f>Sheet1!A20&amp;""&amp;Sheet1!B20&amp;""&amp;Sheet1!C20&amp;""&amp;Sheet1!D20&amp;""&amp;Sheet1!E20&amp;""&amp;Sheet1!F20&amp;""&amp;Sheet1!G20&amp;""&amp;Sheet1!H20&amp;""&amp;Sheet1!I20&amp;""&amp;Sheet1!J20&amp;""&amp;Sheet1!K20&amp;""&amp;Sheet1!L20&amp;""&amp;Sheet1!M20&amp;""&amp;Sheet1!N20&amp;""&amp;Sheet1!O20&amp;""&amp;Sheet1!P20&amp;""&amp;Sheet1!Q20&amp;""&amp;Sheet1!R20&amp;""&amp;Sheet1!S20&amp;""&amp;Sheet1!T20&amp;""&amp;Sheet1!U20&amp;""&amp;Sheet1!V20&amp;""&amp;Sheet1!W20&amp;""&amp;Sheet1!X20&amp;""&amp;Sheet1!Y20&amp;""&amp;Sheet1!Z20</f>
+        <v>&lt;li class="name"&gt;20&lt;form id="formLoc41"&gt; &lt;input type="hidden" id="nameLoc41"class="name"  value="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/20.jpeg"&gt;&lt;input type="hidden" id="cnameLoc41"class="name"  value="{{name}}"&gt; &lt;input type="number" id="descLoc32"   placeholder=" QTY "  required&gt;&lt;input onclick="launch_notification();this.value='ADDED ✅'" type="submit" value="SEND"/&gt;&lt;/form&gt;
+&lt;img src="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/20" loading="lazy" width="400" height="400"&gt;  &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" t="str">
+        <f>Sheet1!A21&amp;""&amp;Sheet1!B21&amp;""&amp;Sheet1!C21&amp;""&amp;Sheet1!D21&amp;""&amp;Sheet1!E21&amp;""&amp;Sheet1!F21&amp;""&amp;Sheet1!G21&amp;""&amp;Sheet1!H21&amp;""&amp;Sheet1!I21&amp;""&amp;Sheet1!J21&amp;""&amp;Sheet1!K21&amp;""&amp;Sheet1!L21&amp;""&amp;Sheet1!M21&amp;""&amp;Sheet1!N21&amp;""&amp;Sheet1!O21&amp;""&amp;Sheet1!P21&amp;""&amp;Sheet1!Q21&amp;""&amp;Sheet1!R21&amp;""&amp;Sheet1!S21&amp;""&amp;Sheet1!T21&amp;""&amp;Sheet1!U21&amp;""&amp;Sheet1!V21&amp;""&amp;Sheet1!W21&amp;""&amp;Sheet1!X21&amp;""&amp;Sheet1!Y21&amp;""&amp;Sheet1!Z21</f>
+        <v>&lt;li class="name"&gt;21&lt;form id="formLoc42"&gt; &lt;input type="hidden" id="nameLoc42"class="name"  value="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/21.jpeg"&gt;&lt;input type="hidden" id="cnameLoc42"class="name"  value="{{name}}"&gt; &lt;input type="number" id="descLoc32"   placeholder=" QTY "  required&gt;&lt;input onclick="launch_notification();this.value='ADDED ✅'" type="submit" value="SEND"/&gt;&lt;/form&gt;
+&lt;img src="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/21" loading="lazy" width="400" height="400"&gt;  &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" t="str">
+        <f>Sheet1!A22&amp;""&amp;Sheet1!B22&amp;""&amp;Sheet1!C22&amp;""&amp;Sheet1!D22&amp;""&amp;Sheet1!E22&amp;""&amp;Sheet1!F22&amp;""&amp;Sheet1!G22&amp;""&amp;Sheet1!H22&amp;""&amp;Sheet1!I22&amp;""&amp;Sheet1!J22&amp;""&amp;Sheet1!K22&amp;""&amp;Sheet1!L22&amp;""&amp;Sheet1!M22&amp;""&amp;Sheet1!N22&amp;""&amp;Sheet1!O22&amp;""&amp;Sheet1!P22&amp;""&amp;Sheet1!Q22&amp;""&amp;Sheet1!R22&amp;""&amp;Sheet1!S22&amp;""&amp;Sheet1!T22&amp;""&amp;Sheet1!U22&amp;""&amp;Sheet1!V22&amp;""&amp;Sheet1!W22&amp;""&amp;Sheet1!X22&amp;""&amp;Sheet1!Y22&amp;""&amp;Sheet1!Z22</f>
+        <v>&lt;li class="name"&gt;22&lt;form id="formLoc43"&gt; &lt;input type="hidden" id="nameLoc43"class="name"  value="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/22.jpeg"&gt;&lt;input type="hidden" id="cnameLoc43"class="name"  value="{{name}}"&gt; &lt;input type="number" id="descLoc33"   placeholder=" QTY "  required&gt;&lt;input onclick="launch_notification();this.value='ADDED ✅'" type="submit" value="SEND"/&gt;&lt;/form&gt;
+&lt;img src="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/22" loading="lazy" width="400" height="400"&gt;  &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" t="str">
+        <f>Sheet1!A23&amp;""&amp;Sheet1!B23&amp;""&amp;Sheet1!C23&amp;""&amp;Sheet1!D23&amp;""&amp;Sheet1!E23&amp;""&amp;Sheet1!F23&amp;""&amp;Sheet1!G23&amp;""&amp;Sheet1!H23&amp;""&amp;Sheet1!I23&amp;""&amp;Sheet1!J23&amp;""&amp;Sheet1!K23&amp;""&amp;Sheet1!L23&amp;""&amp;Sheet1!M23&amp;""&amp;Sheet1!N23&amp;""&amp;Sheet1!O23&amp;""&amp;Sheet1!P23&amp;""&amp;Sheet1!Q23&amp;""&amp;Sheet1!R23&amp;""&amp;Sheet1!S23&amp;""&amp;Sheet1!T23&amp;""&amp;Sheet1!U23&amp;""&amp;Sheet1!V23&amp;""&amp;Sheet1!W23&amp;""&amp;Sheet1!X23&amp;""&amp;Sheet1!Y23&amp;""&amp;Sheet1!Z23</f>
+        <v>&lt;li class="name"&gt;23&lt;form id="formLoc44"&gt; &lt;input type="hidden" id="nameLoc44"class="name"  value="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/23.jpeg"&gt;&lt;input type="hidden" id="cnameLoc44"class="name"  value="{{name}}"&gt; &lt;input type="number" id="descLoc33"   placeholder=" QTY "  required&gt;&lt;input onclick="launch_notification();this.value='ADDED ✅'" type="submit" value="SEND"/&gt;&lt;/form&gt;
+&lt;img src="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/23" loading="lazy" width="400" height="400"&gt;  &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" t="str">
+        <f>Sheet1!A24&amp;""&amp;Sheet1!B24&amp;""&amp;Sheet1!C24&amp;""&amp;Sheet1!D24&amp;""&amp;Sheet1!E24&amp;""&amp;Sheet1!F24&amp;""&amp;Sheet1!G24&amp;""&amp;Sheet1!H24&amp;""&amp;Sheet1!I24&amp;""&amp;Sheet1!J24&amp;""&amp;Sheet1!K24&amp;""&amp;Sheet1!L24&amp;""&amp;Sheet1!M24&amp;""&amp;Sheet1!N24&amp;""&amp;Sheet1!O24&amp;""&amp;Sheet1!P24&amp;""&amp;Sheet1!Q24&amp;""&amp;Sheet1!R24&amp;""&amp;Sheet1!S24&amp;""&amp;Sheet1!T24&amp;""&amp;Sheet1!U24&amp;""&amp;Sheet1!V24&amp;""&amp;Sheet1!W24&amp;""&amp;Sheet1!X24&amp;""&amp;Sheet1!Y24&amp;""&amp;Sheet1!Z24</f>
+        <v>&lt;li class="name"&gt;24&lt;form id="formLoc45"&gt; &lt;input type="hidden" id="nameLoc45"class="name"  value="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/24.jpeg"&gt;&lt;input type="hidden" id="cnameLoc45"class="name"  value="{{name}}"&gt; &lt;input type="number" id="descLoc34"   placeholder=" QTY "  required&gt;&lt;input onclick="launch_notification();this.value='ADDED ✅'" type="submit" value="SEND"/&gt;&lt;/form&gt;
+&lt;img src="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/24" loading="lazy" width="400" height="400"&gt;  &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" t="str">
+        <f>Sheet1!A25&amp;""&amp;Sheet1!B25&amp;""&amp;Sheet1!C25&amp;""&amp;Sheet1!D25&amp;""&amp;Sheet1!E25&amp;""&amp;Sheet1!F25&amp;""&amp;Sheet1!G25&amp;""&amp;Sheet1!H25&amp;""&amp;Sheet1!I25&amp;""&amp;Sheet1!J25&amp;""&amp;Sheet1!K25&amp;""&amp;Sheet1!L25&amp;""&amp;Sheet1!M25&amp;""&amp;Sheet1!N25&amp;""&amp;Sheet1!O25&amp;""&amp;Sheet1!P25&amp;""&amp;Sheet1!Q25&amp;""&amp;Sheet1!R25&amp;""&amp;Sheet1!S25&amp;""&amp;Sheet1!T25&amp;""&amp;Sheet1!U25&amp;""&amp;Sheet1!V25&amp;""&amp;Sheet1!W25&amp;""&amp;Sheet1!X25&amp;""&amp;Sheet1!Y25&amp;""&amp;Sheet1!Z25</f>
+        <v>&lt;li class="name"&gt;25&lt;form id="formLoc46"&gt; &lt;input type="hidden" id="nameLoc46"class="name"  value="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/25.jpeg"&gt;&lt;input type="hidden" id="cnameLoc46"class="name"  value="{{name}}"&gt; &lt;input type="number" id="descLoc34"   placeholder=" QTY "  required&gt;&lt;input onclick="launch_notification();this.value='ADDED ✅'" type="submit" value="SEND"/&gt;&lt;/form&gt;
+&lt;img src="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/25" loading="lazy" width="400" height="400"&gt;  &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" t="str">
+        <f>Sheet1!A26&amp;""&amp;Sheet1!B26&amp;""&amp;Sheet1!C26&amp;""&amp;Sheet1!D26&amp;""&amp;Sheet1!E26&amp;""&amp;Sheet1!F26&amp;""&amp;Sheet1!G26&amp;""&amp;Sheet1!H26&amp;""&amp;Sheet1!I26&amp;""&amp;Sheet1!J26&amp;""&amp;Sheet1!K26&amp;""&amp;Sheet1!L26&amp;""&amp;Sheet1!M26&amp;""&amp;Sheet1!N26&amp;""&amp;Sheet1!O26&amp;""&amp;Sheet1!P26&amp;""&amp;Sheet1!Q26&amp;""&amp;Sheet1!R26&amp;""&amp;Sheet1!S26&amp;""&amp;Sheet1!T26&amp;""&amp;Sheet1!U26&amp;""&amp;Sheet1!V26&amp;""&amp;Sheet1!W26&amp;""&amp;Sheet1!X26&amp;""&amp;Sheet1!Y26&amp;""&amp;Sheet1!Z26</f>
+        <v>&lt;li class="name"&gt;26&lt;form id="formLoc47"&gt; &lt;input type="hidden" id="nameLoc47"class="name"  value="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/26.jpeg"&gt;&lt;input type="hidden" id="cnameLoc47"class="name"  value="{{name}}"&gt; &lt;input type="number" id="descLoc35"   placeholder=" QTY "  required&gt;&lt;input onclick="launch_notification();this.value='ADDED ✅'" type="submit" value="SEND"/&gt;&lt;/form&gt;
+&lt;img src="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/26" loading="lazy" width="400" height="400"&gt;  &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" t="str">
+        <f>Sheet1!A27&amp;""&amp;Sheet1!B27&amp;""&amp;Sheet1!C27&amp;""&amp;Sheet1!D27&amp;""&amp;Sheet1!E27&amp;""&amp;Sheet1!F27&amp;""&amp;Sheet1!G27&amp;""&amp;Sheet1!H27&amp;""&amp;Sheet1!I27&amp;""&amp;Sheet1!J27&amp;""&amp;Sheet1!K27&amp;""&amp;Sheet1!L27&amp;""&amp;Sheet1!M27&amp;""&amp;Sheet1!N27&amp;""&amp;Sheet1!O27&amp;""&amp;Sheet1!P27&amp;""&amp;Sheet1!Q27&amp;""&amp;Sheet1!R27&amp;""&amp;Sheet1!S27&amp;""&amp;Sheet1!T27&amp;""&amp;Sheet1!U27&amp;""&amp;Sheet1!V27&amp;""&amp;Sheet1!W27&amp;""&amp;Sheet1!X27&amp;""&amp;Sheet1!Y27&amp;""&amp;Sheet1!Z27</f>
+        <v>&lt;li class="name"&gt;27&lt;form id="formLoc48"&gt; &lt;input type="hidden" id="nameLoc48"class="name"  value="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/27.jpeg"&gt;&lt;input type="hidden" id="cnameLoc48"class="name"  value="{{name}}"&gt; &lt;input type="number" id="descLoc35"   placeholder=" QTY "  required&gt;&lt;input onclick="launch_notification();this.value='ADDED ✅'" type="submit" value="SEND"/&gt;&lt;/form&gt;
+&lt;img src="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/27" loading="lazy" width="400" height="400"&gt;  &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" t="str">
+        <f>Sheet1!A28&amp;""&amp;Sheet1!B28&amp;""&amp;Sheet1!C28&amp;""&amp;Sheet1!D28&amp;""&amp;Sheet1!E28&amp;""&amp;Sheet1!F28&amp;""&amp;Sheet1!G28&amp;""&amp;Sheet1!H28&amp;""&amp;Sheet1!I28&amp;""&amp;Sheet1!J28&amp;""&amp;Sheet1!K28&amp;""&amp;Sheet1!L28&amp;""&amp;Sheet1!M28&amp;""&amp;Sheet1!N28&amp;""&amp;Sheet1!O28&amp;""&amp;Sheet1!P28&amp;""&amp;Sheet1!Q28&amp;""&amp;Sheet1!R28&amp;""&amp;Sheet1!S28&amp;""&amp;Sheet1!T28&amp;""&amp;Sheet1!U28&amp;""&amp;Sheet1!V28&amp;""&amp;Sheet1!W28&amp;""&amp;Sheet1!X28&amp;""&amp;Sheet1!Y28&amp;""&amp;Sheet1!Z28</f>
+        <v>&lt;li class="name"&gt;28&lt;form id="formLoc49"&gt; &lt;input type="hidden" id="nameLoc49"class="name"  value="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/28.jpeg"&gt;&lt;input type="hidden" id="cnameLoc49"class="name"  value="{{name}}"&gt; &lt;input type="number" id="descLoc36"   placeholder=" QTY "  required&gt;&lt;input onclick="launch_notification();this.value='ADDED ✅'" type="submit" value="SEND"/&gt;&lt;/form&gt;
+&lt;img src="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/28" loading="lazy" width="400" height="400"&gt;  &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" t="str">
+        <f>Sheet1!A29&amp;""&amp;Sheet1!B29&amp;""&amp;Sheet1!C29&amp;""&amp;Sheet1!D29&amp;""&amp;Sheet1!E29&amp;""&amp;Sheet1!F29&amp;""&amp;Sheet1!G29&amp;""&amp;Sheet1!H29&amp;""&amp;Sheet1!I29&amp;""&amp;Sheet1!J29&amp;""&amp;Sheet1!K29&amp;""&amp;Sheet1!L29&amp;""&amp;Sheet1!M29&amp;""&amp;Sheet1!N29&amp;""&amp;Sheet1!O29&amp;""&amp;Sheet1!P29&amp;""&amp;Sheet1!Q29&amp;""&amp;Sheet1!R29&amp;""&amp;Sheet1!S29&amp;""&amp;Sheet1!T29&amp;""&amp;Sheet1!U29&amp;""&amp;Sheet1!V29&amp;""&amp;Sheet1!W29&amp;""&amp;Sheet1!X29&amp;""&amp;Sheet1!Y29&amp;""&amp;Sheet1!Z29</f>
+        <v>&lt;li class="name"&gt;29&lt;form id="formLoc50"&gt; &lt;input type="hidden" id="nameLoc50"class="name"  value="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/29.jpeg"&gt;&lt;input type="hidden" id="cnameLoc50"class="name"  value="{{name}}"&gt; &lt;input type="number" id="descLoc36"   placeholder=" QTY "  required&gt;&lt;input onclick="launch_notification();this.value='ADDED ✅'" type="submit" value="SEND"/&gt;&lt;/form&gt;
+&lt;img src="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/29" loading="lazy" width="400" height="400"&gt;  &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" t="str">
+        <f>Sheet1!A30&amp;""&amp;Sheet1!B30&amp;""&amp;Sheet1!C30&amp;""&amp;Sheet1!D30&amp;""&amp;Sheet1!E30&amp;""&amp;Sheet1!F30&amp;""&amp;Sheet1!G30&amp;""&amp;Sheet1!H30&amp;""&amp;Sheet1!I30&amp;""&amp;Sheet1!J30&amp;""&amp;Sheet1!K30&amp;""&amp;Sheet1!L30&amp;""&amp;Sheet1!M30&amp;""&amp;Sheet1!N30&amp;""&amp;Sheet1!O30&amp;""&amp;Sheet1!P30&amp;""&amp;Sheet1!Q30&amp;""&amp;Sheet1!R30&amp;""&amp;Sheet1!S30&amp;""&amp;Sheet1!T30&amp;""&amp;Sheet1!U30&amp;""&amp;Sheet1!V30&amp;""&amp;Sheet1!W30&amp;""&amp;Sheet1!X30&amp;""&amp;Sheet1!Y30&amp;""&amp;Sheet1!Z30</f>
+        <v>&lt;li class="name"&gt;30&lt;form id="formLoc51"&gt; &lt;input type="hidden" id="nameLoc51"class="name"  value="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/30.jpeg"&gt;&lt;input type="hidden" id="cnameLoc51"class="name"  value="{{name}}"&gt; &lt;input type="number" id="descLoc37"   placeholder=" QTY "  required&gt;&lt;input onclick="launch_notification();this.value='ADDED ✅'" type="submit" value="SEND"/&gt;&lt;/form&gt;
+&lt;img src="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/30" loading="lazy" width="400" height="400"&gt;  &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" t="str">
+        <f>Sheet1!A31&amp;""&amp;Sheet1!B31&amp;""&amp;Sheet1!C31&amp;""&amp;Sheet1!D31&amp;""&amp;Sheet1!E31&amp;""&amp;Sheet1!F31&amp;""&amp;Sheet1!G31&amp;""&amp;Sheet1!H31&amp;""&amp;Sheet1!I31&amp;""&amp;Sheet1!J31&amp;""&amp;Sheet1!K31&amp;""&amp;Sheet1!L31&amp;""&amp;Sheet1!M31&amp;""&amp;Sheet1!N31&amp;""&amp;Sheet1!O31&amp;""&amp;Sheet1!P31&amp;""&amp;Sheet1!Q31&amp;""&amp;Sheet1!R31&amp;""&amp;Sheet1!S31&amp;""&amp;Sheet1!T31&amp;""&amp;Sheet1!U31&amp;""&amp;Sheet1!V31&amp;""&amp;Sheet1!W31&amp;""&amp;Sheet1!X31&amp;""&amp;Sheet1!Y31&amp;""&amp;Sheet1!Z31</f>
+        <v>&lt;li class="name"&gt;31&lt;form id="formLoc52"&gt; &lt;input type="hidden" id="nameLoc52"class="name"  value="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/31.jpeg"&gt;&lt;input type="hidden" id="cnameLoc52"class="name"  value="{{name}}"&gt; &lt;input type="number" id="descLoc37"   placeholder=" QTY "  required&gt;&lt;input onclick="launch_notification();this.value='ADDED ✅'" type="submit" value="SEND"/&gt;&lt;/form&gt;
+&lt;img src="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/31" loading="lazy" width="400" height="400"&gt;  &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" t="str">
+        <f>Sheet1!A32&amp;""&amp;Sheet1!B32&amp;""&amp;Sheet1!C32&amp;""&amp;Sheet1!D32&amp;""&amp;Sheet1!E32&amp;""&amp;Sheet1!F32&amp;""&amp;Sheet1!G32&amp;""&amp;Sheet1!H32&amp;""&amp;Sheet1!I32&amp;""&amp;Sheet1!J32&amp;""&amp;Sheet1!K32&amp;""&amp;Sheet1!L32&amp;""&amp;Sheet1!M32&amp;""&amp;Sheet1!N32&amp;""&amp;Sheet1!O32&amp;""&amp;Sheet1!P32&amp;""&amp;Sheet1!Q32&amp;""&amp;Sheet1!R32&amp;""&amp;Sheet1!S32&amp;""&amp;Sheet1!T32&amp;""&amp;Sheet1!U32&amp;""&amp;Sheet1!V32&amp;""&amp;Sheet1!W32&amp;""&amp;Sheet1!X32&amp;""&amp;Sheet1!Y32&amp;""&amp;Sheet1!Z32</f>
+        <v>&lt;li class="name"&gt;32&lt;form id="formLoc53"&gt; &lt;input type="hidden" id="nameLoc53"class="name"  value="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/32.jpeg"&gt;&lt;input type="hidden" id="cnameLoc53"class="name"  value="{{name}}"&gt; &lt;input type="number" id="descLoc38"   placeholder=" QTY "  required&gt;&lt;input onclick="launch_notification();this.value='ADDED ✅'" type="submit" value="SEND"/&gt;&lt;/form&gt;
+&lt;img src="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/32" loading="lazy" width="400" height="400"&gt;  &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" t="str">
+        <f>Sheet1!A33&amp;""&amp;Sheet1!B33&amp;""&amp;Sheet1!C33&amp;""&amp;Sheet1!D33&amp;""&amp;Sheet1!E33&amp;""&amp;Sheet1!F33&amp;""&amp;Sheet1!G33&amp;""&amp;Sheet1!H33&amp;""&amp;Sheet1!I33&amp;""&amp;Sheet1!J33&amp;""&amp;Sheet1!K33&amp;""&amp;Sheet1!L33&amp;""&amp;Sheet1!M33&amp;""&amp;Sheet1!N33&amp;""&amp;Sheet1!O33&amp;""&amp;Sheet1!P33&amp;""&amp;Sheet1!Q33&amp;""&amp;Sheet1!R33&amp;""&amp;Sheet1!S33&amp;""&amp;Sheet1!T33&amp;""&amp;Sheet1!U33&amp;""&amp;Sheet1!V33&amp;""&amp;Sheet1!W33&amp;""&amp;Sheet1!X33&amp;""&amp;Sheet1!Y33&amp;""&amp;Sheet1!Z33</f>
+        <v>&lt;li class="name"&gt;33&lt;form id="formLoc54"&gt; &lt;input type="hidden" id="nameLoc54"class="name"  value="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/33.jpeg"&gt;&lt;input type="hidden" id="cnameLoc54"class="name"  value="{{name}}"&gt; &lt;input type="number" id="descLoc38"   placeholder=" QTY "  required&gt;&lt;input onclick="launch_notification();this.value='ADDED ✅'" type="submit" value="SEND"/&gt;&lt;/form&gt;
+&lt;img src="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/33" loading="lazy" width="400" height="400"&gt;  &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" t="str">
+        <f>Sheet1!A34&amp;""&amp;Sheet1!B34&amp;""&amp;Sheet1!C34&amp;""&amp;Sheet1!D34&amp;""&amp;Sheet1!E34&amp;""&amp;Sheet1!F34&amp;""&amp;Sheet1!G34&amp;""&amp;Sheet1!H34&amp;""&amp;Sheet1!I34&amp;""&amp;Sheet1!J34&amp;""&amp;Sheet1!K34&amp;""&amp;Sheet1!L34&amp;""&amp;Sheet1!M34&amp;""&amp;Sheet1!N34&amp;""&amp;Sheet1!O34&amp;""&amp;Sheet1!P34&amp;""&amp;Sheet1!Q34&amp;""&amp;Sheet1!R34&amp;""&amp;Sheet1!S34&amp;""&amp;Sheet1!T34&amp;""&amp;Sheet1!U34&amp;""&amp;Sheet1!V34&amp;""&amp;Sheet1!W34&amp;""&amp;Sheet1!X34&amp;""&amp;Sheet1!Y34&amp;""&amp;Sheet1!Z34</f>
+        <v>&lt;li class="name"&gt;34&lt;form id="formLoc55"&gt; &lt;input type="hidden" id="nameLoc55"class="name"  value="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/34.jpeg"&gt;&lt;input type="hidden" id="cnameLoc55"class="name"  value="{{name}}"&gt; &lt;input type="number" id="descLoc39"   placeholder=" QTY "  required&gt;&lt;input onclick="launch_notification();this.value='ADDED ✅'" type="submit" value="SEND"/&gt;&lt;/form&gt;
+&lt;img src="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/34" loading="lazy" width="400" height="400"&gt;  &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" t="str">
+        <f>Sheet1!A35&amp;""&amp;Sheet1!B35&amp;""&amp;Sheet1!C35&amp;""&amp;Sheet1!D35&amp;""&amp;Sheet1!E35&amp;""&amp;Sheet1!F35&amp;""&amp;Sheet1!G35&amp;""&amp;Sheet1!H35&amp;""&amp;Sheet1!I35&amp;""&amp;Sheet1!J35&amp;""&amp;Sheet1!K35&amp;""&amp;Sheet1!L35&amp;""&amp;Sheet1!M35&amp;""&amp;Sheet1!N35&amp;""&amp;Sheet1!O35&amp;""&amp;Sheet1!P35&amp;""&amp;Sheet1!Q35&amp;""&amp;Sheet1!R35&amp;""&amp;Sheet1!S35&amp;""&amp;Sheet1!T35&amp;""&amp;Sheet1!U35&amp;""&amp;Sheet1!V35&amp;""&amp;Sheet1!W35&amp;""&amp;Sheet1!X35&amp;""&amp;Sheet1!Y35&amp;""&amp;Sheet1!Z35</f>
+        <v>&lt;li class="name"&gt;35&lt;form id="formLoc56"&gt; &lt;input type="hidden" id="nameLoc56"class="name"  value="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/35.jpeg"&gt;&lt;input type="hidden" id="cnameLoc56"class="name"  value="{{name}}"&gt; &lt;input type="number" id="descLoc39"   placeholder=" QTY "  required&gt;&lt;input onclick="launch_notification();this.value='ADDED ✅'" type="submit" value="SEND"/&gt;&lt;/form&gt;
+&lt;img src="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/35" loading="lazy" width="400" height="400"&gt;  &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" t="str">
+        <f>Sheet1!A36&amp;""&amp;Sheet1!B36&amp;""&amp;Sheet1!C36&amp;""&amp;Sheet1!D36&amp;""&amp;Sheet1!E36&amp;""&amp;Sheet1!F36&amp;""&amp;Sheet1!G36&amp;""&amp;Sheet1!H36&amp;""&amp;Sheet1!I36&amp;""&amp;Sheet1!J36&amp;""&amp;Sheet1!K36&amp;""&amp;Sheet1!L36&amp;""&amp;Sheet1!M36&amp;""&amp;Sheet1!N36&amp;""&amp;Sheet1!O36&amp;""&amp;Sheet1!P36&amp;""&amp;Sheet1!Q36&amp;""&amp;Sheet1!R36&amp;""&amp;Sheet1!S36&amp;""&amp;Sheet1!T36&amp;""&amp;Sheet1!U36&amp;""&amp;Sheet1!V36&amp;""&amp;Sheet1!W36&amp;""&amp;Sheet1!X36&amp;""&amp;Sheet1!Y36&amp;""&amp;Sheet1!Z36</f>
+        <v>&lt;li class="name"&gt;36&lt;form id="formLoc57"&gt; &lt;input type="hidden" id="nameLoc57"class="name"  value="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/36.jpeg"&gt;&lt;input type="hidden" id="cnameLoc57"class="name"  value="{{name}}"&gt; &lt;input type="number" id="descLoc40"   placeholder=" QTY "  required&gt;&lt;input onclick="launch_notification();this.value='ADDED ✅'" type="submit" value="SEND"/&gt;&lt;/form&gt;
+&lt;img src="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/36" loading="lazy" width="400" height="400"&gt;  &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" t="str">
+        <f>Sheet1!A37&amp;""&amp;Sheet1!B37&amp;""&amp;Sheet1!C37&amp;""&amp;Sheet1!D37&amp;""&amp;Sheet1!E37&amp;""&amp;Sheet1!F37&amp;""&amp;Sheet1!G37&amp;""&amp;Sheet1!H37&amp;""&amp;Sheet1!I37&amp;""&amp;Sheet1!J37&amp;""&amp;Sheet1!K37&amp;""&amp;Sheet1!L37&amp;""&amp;Sheet1!M37&amp;""&amp;Sheet1!N37&amp;""&amp;Sheet1!O37&amp;""&amp;Sheet1!P37&amp;""&amp;Sheet1!Q37&amp;""&amp;Sheet1!R37&amp;""&amp;Sheet1!S37&amp;""&amp;Sheet1!T37&amp;""&amp;Sheet1!U37&amp;""&amp;Sheet1!V37&amp;""&amp;Sheet1!W37&amp;""&amp;Sheet1!X37&amp;""&amp;Sheet1!Y37&amp;""&amp;Sheet1!Z37</f>
+        <v>&lt;li class="name"&gt;37&lt;form id="formLoc58"&gt; &lt;input type="hidden" id="nameLoc58"class="name"  value="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/37.jpeg"&gt;&lt;input type="hidden" id="cnameLoc58"class="name"  value="{{name}}"&gt; &lt;input type="number" id="descLoc40"   placeholder=" QTY "  required&gt;&lt;input onclick="launch_notification();this.value='ADDED ✅'" type="submit" value="SEND"/&gt;&lt;/form&gt;
+&lt;img src="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/37" loading="lazy" width="400" height="400"&gt;  &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" t="str">
+        <f>Sheet1!A38&amp;""&amp;Sheet1!B38&amp;""&amp;Sheet1!C38&amp;""&amp;Sheet1!D38&amp;""&amp;Sheet1!E38&amp;""&amp;Sheet1!F38&amp;""&amp;Sheet1!G38&amp;""&amp;Sheet1!H38&amp;""&amp;Sheet1!I38&amp;""&amp;Sheet1!J38&amp;""&amp;Sheet1!K38&amp;""&amp;Sheet1!L38&amp;""&amp;Sheet1!M38&amp;""&amp;Sheet1!N38&amp;""&amp;Sheet1!O38&amp;""&amp;Sheet1!P38&amp;""&amp;Sheet1!Q38&amp;""&amp;Sheet1!R38&amp;""&amp;Sheet1!S38&amp;""&amp;Sheet1!T38&amp;""&amp;Sheet1!U38&amp;""&amp;Sheet1!V38&amp;""&amp;Sheet1!W38&amp;""&amp;Sheet1!X38&amp;""&amp;Sheet1!Y38&amp;""&amp;Sheet1!Z38</f>
+        <v>&lt;li class="name"&gt;38&lt;form id="formLoc59"&gt; &lt;input type="hidden" id="nameLoc59"class="name"  value="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/38.jpeg"&gt;&lt;input type="hidden" id="cnameLoc59"class="name"  value="{{name}}"&gt; &lt;input type="number" id="descLoc41"   placeholder=" QTY "  required&gt;&lt;input onclick="launch_notification();this.value='ADDED ✅'" type="submit" value="SEND"/&gt;&lt;/form&gt;
+&lt;img src="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/38" loading="lazy" width="400" height="400"&gt;  &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" t="str">
+        <f>Sheet1!A39&amp;""&amp;Sheet1!B39&amp;""&amp;Sheet1!C39&amp;""&amp;Sheet1!D39&amp;""&amp;Sheet1!E39&amp;""&amp;Sheet1!F39&amp;""&amp;Sheet1!G39&amp;""&amp;Sheet1!H39&amp;""&amp;Sheet1!I39&amp;""&amp;Sheet1!J39&amp;""&amp;Sheet1!K39&amp;""&amp;Sheet1!L39&amp;""&amp;Sheet1!M39&amp;""&amp;Sheet1!N39&amp;""&amp;Sheet1!O39&amp;""&amp;Sheet1!P39&amp;""&amp;Sheet1!Q39&amp;""&amp;Sheet1!R39&amp;""&amp;Sheet1!S39&amp;""&amp;Sheet1!T39&amp;""&amp;Sheet1!U39&amp;""&amp;Sheet1!V39&amp;""&amp;Sheet1!W39&amp;""&amp;Sheet1!X39&amp;""&amp;Sheet1!Y39&amp;""&amp;Sheet1!Z39</f>
+        <v>&lt;li class="name"&gt;39&lt;form id="formLoc60"&gt; &lt;input type="hidden" id="nameLoc60"class="name"  value="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/39.jpeg"&gt;&lt;input type="hidden" id="cnameLoc60"class="name"  value="{{name}}"&gt; &lt;input type="number" id="descLoc41"   placeholder=" QTY "  required&gt;&lt;input onclick="launch_notification();this.value='ADDED ✅'" type="submit" value="SEND"/&gt;&lt;/form&gt;
+&lt;img src="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/39" loading="lazy" width="400" height="400"&gt;  &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" t="str">
+        <f>Sheet1!A40&amp;""&amp;Sheet1!B40&amp;""&amp;Sheet1!C40&amp;""&amp;Sheet1!D40&amp;""&amp;Sheet1!E40&amp;""&amp;Sheet1!F40&amp;""&amp;Sheet1!G40&amp;""&amp;Sheet1!H40&amp;""&amp;Sheet1!I40&amp;""&amp;Sheet1!J40&amp;""&amp;Sheet1!K40&amp;""&amp;Sheet1!L40&amp;""&amp;Sheet1!M40&amp;""&amp;Sheet1!N40&amp;""&amp;Sheet1!O40&amp;""&amp;Sheet1!P40&amp;""&amp;Sheet1!Q40&amp;""&amp;Sheet1!R40&amp;""&amp;Sheet1!S40&amp;""&amp;Sheet1!T40&amp;""&amp;Sheet1!U40&amp;""&amp;Sheet1!V40&amp;""&amp;Sheet1!W40&amp;""&amp;Sheet1!X40&amp;""&amp;Sheet1!Y40&amp;""&amp;Sheet1!Z40</f>
+        <v>&lt;li class="name"&gt;40&lt;form id="formLoc61"&gt; &lt;input type="hidden" id="nameLoc61"class="name"  value="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/40.jpeg"&gt;&lt;input type="hidden" id="cnameLoc61"class="name"  value="{{name}}"&gt; &lt;input type="number" id="descLoc42"   placeholder=" QTY "  required&gt;&lt;input onclick="launch_notification();this.value='ADDED ✅'" type="submit" value="SEND"/&gt;&lt;/form&gt;
+&lt;img src="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/40" loading="lazy" width="400" height="400"&gt;  &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" t="str">
+        <f>Sheet1!A41&amp;""&amp;Sheet1!B41&amp;""&amp;Sheet1!C41&amp;""&amp;Sheet1!D41&amp;""&amp;Sheet1!E41&amp;""&amp;Sheet1!F41&amp;""&amp;Sheet1!G41&amp;""&amp;Sheet1!H41&amp;""&amp;Sheet1!I41&amp;""&amp;Sheet1!J41&amp;""&amp;Sheet1!K41&amp;""&amp;Sheet1!L41&amp;""&amp;Sheet1!M41&amp;""&amp;Sheet1!N41&amp;""&amp;Sheet1!O41&amp;""&amp;Sheet1!P41&amp;""&amp;Sheet1!Q41&amp;""&amp;Sheet1!R41&amp;""&amp;Sheet1!S41&amp;""&amp;Sheet1!T41&amp;""&amp;Sheet1!U41&amp;""&amp;Sheet1!V41&amp;""&amp;Sheet1!W41&amp;""&amp;Sheet1!X41&amp;""&amp;Sheet1!Y41&amp;""&amp;Sheet1!Z41</f>
+        <v>&lt;li class="name"&gt;41&lt;form id="formLoc62"&gt; &lt;input type="hidden" id="nameLoc62"class="name"  value="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/41.jpeg"&gt;&lt;input type="hidden" id="cnameLoc62"class="name"  value="{{name}}"&gt; &lt;input type="number" id="descLoc42"   placeholder=" QTY "  required&gt;&lt;input onclick="launch_notification();this.value='ADDED ✅'" type="submit" value="SEND"/&gt;&lt;/form&gt;
+&lt;img src="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/41" loading="lazy" width="400" height="400"&gt;  &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" t="str">
+        <f>Sheet1!A42&amp;""&amp;Sheet1!B42&amp;""&amp;Sheet1!C42&amp;""&amp;Sheet1!D42&amp;""&amp;Sheet1!E42&amp;""&amp;Sheet1!F42&amp;""&amp;Sheet1!G42&amp;""&amp;Sheet1!H42&amp;""&amp;Sheet1!I42&amp;""&amp;Sheet1!J42&amp;""&amp;Sheet1!K42&amp;""&amp;Sheet1!L42&amp;""&amp;Sheet1!M42&amp;""&amp;Sheet1!N42&amp;""&amp;Sheet1!O42&amp;""&amp;Sheet1!P42&amp;""&amp;Sheet1!Q42&amp;""&amp;Sheet1!R42&amp;""&amp;Sheet1!S42&amp;""&amp;Sheet1!T42&amp;""&amp;Sheet1!U42&amp;""&amp;Sheet1!V42&amp;""&amp;Sheet1!W42&amp;""&amp;Sheet1!X42&amp;""&amp;Sheet1!Y42&amp;""&amp;Sheet1!Z42</f>
+        <v>&lt;li class="name"&gt;42&lt;form id="formLoc63"&gt; &lt;input type="hidden" id="nameLoc63"class="name"  value="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/42.jpeg"&gt;&lt;input type="hidden" id="cnameLoc63"class="name"  value="{{name}}"&gt; &lt;input type="number" id="descLoc43"   placeholder=" QTY "  required&gt;&lt;input onclick="launch_notification();this.value='ADDED ✅'" type="submit" value="SEND"/&gt;&lt;/form&gt;
+&lt;img src="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/42" loading="lazy" width="400" height="400"&gt;  &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" t="str">
+        <f>Sheet1!A43&amp;""&amp;Sheet1!B43&amp;""&amp;Sheet1!C43&amp;""&amp;Sheet1!D43&amp;""&amp;Sheet1!E43&amp;""&amp;Sheet1!F43&amp;""&amp;Sheet1!G43&amp;""&amp;Sheet1!H43&amp;""&amp;Sheet1!I43&amp;""&amp;Sheet1!J43&amp;""&amp;Sheet1!K43&amp;""&amp;Sheet1!L43&amp;""&amp;Sheet1!M43&amp;""&amp;Sheet1!N43&amp;""&amp;Sheet1!O43&amp;""&amp;Sheet1!P43&amp;""&amp;Sheet1!Q43&amp;""&amp;Sheet1!R43&amp;""&amp;Sheet1!S43&amp;""&amp;Sheet1!T43&amp;""&amp;Sheet1!U43&amp;""&amp;Sheet1!V43&amp;""&amp;Sheet1!W43&amp;""&amp;Sheet1!X43&amp;""&amp;Sheet1!Y43&amp;""&amp;Sheet1!Z43</f>
+        <v>&lt;li class="name"&gt;43&lt;form id="formLoc64"&gt; &lt;input type="hidden" id="nameLoc64"class="name"  value="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/43.jpeg"&gt;&lt;input type="hidden" id="cnameLoc64"class="name"  value="{{name}}"&gt; &lt;input type="number" id="descLoc43"   placeholder=" QTY "  required&gt;&lt;input onclick="launch_notification();this.value='ADDED ✅'" type="submit" value="SEND"/&gt;&lt;/form&gt;
+&lt;img src="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/43" loading="lazy" width="400" height="400"&gt;  &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" t="str">
+        <f>Sheet1!A44&amp;""&amp;Sheet1!B44&amp;""&amp;Sheet1!C44&amp;""&amp;Sheet1!D44&amp;""&amp;Sheet1!E44&amp;""&amp;Sheet1!F44&amp;""&amp;Sheet1!G44&amp;""&amp;Sheet1!H44&amp;""&amp;Sheet1!I44&amp;""&amp;Sheet1!J44&amp;""&amp;Sheet1!K44&amp;""&amp;Sheet1!L44&amp;""&amp;Sheet1!M44&amp;""&amp;Sheet1!N44&amp;""&amp;Sheet1!O44&amp;""&amp;Sheet1!P44&amp;""&amp;Sheet1!Q44&amp;""&amp;Sheet1!R44&amp;""&amp;Sheet1!S44&amp;""&amp;Sheet1!T44&amp;""&amp;Sheet1!U44&amp;""&amp;Sheet1!V44&amp;""&amp;Sheet1!W44&amp;""&amp;Sheet1!X44&amp;""&amp;Sheet1!Y44&amp;""&amp;Sheet1!Z44</f>
+        <v>&lt;li class="name"&gt;44&lt;form id="formLoc65"&gt; &lt;input type="hidden" id="nameLoc65"class="name"  value="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/44.jpeg"&gt;&lt;input type="hidden" id="cnameLoc65"class="name"  value="{{name}}"&gt; &lt;input type="number" id="descLoc44"   placeholder=" QTY "  required&gt;&lt;input onclick="launch_notification();this.value='ADDED ✅'" type="submit" value="SEND"/&gt;&lt;/form&gt;
+&lt;img src="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/44" loading="lazy" width="400" height="400"&gt;  &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" t="str">
+        <f>Sheet1!A45&amp;""&amp;Sheet1!B45&amp;""&amp;Sheet1!C45&amp;""&amp;Sheet1!D45&amp;""&amp;Sheet1!E45&amp;""&amp;Sheet1!F45&amp;""&amp;Sheet1!G45&amp;""&amp;Sheet1!H45&amp;""&amp;Sheet1!I45&amp;""&amp;Sheet1!J45&amp;""&amp;Sheet1!K45&amp;""&amp;Sheet1!L45&amp;""&amp;Sheet1!M45&amp;""&amp;Sheet1!N45&amp;""&amp;Sheet1!O45&amp;""&amp;Sheet1!P45&amp;""&amp;Sheet1!Q45&amp;""&amp;Sheet1!R45&amp;""&amp;Sheet1!S45&amp;""&amp;Sheet1!T45&amp;""&amp;Sheet1!U45&amp;""&amp;Sheet1!V45&amp;""&amp;Sheet1!W45&amp;""&amp;Sheet1!X45&amp;""&amp;Sheet1!Y45&amp;""&amp;Sheet1!Z45</f>
+        <v>&lt;li class="name"&gt;45&lt;form id="formLoc66"&gt; &lt;input type="hidden" id="nameLoc66"class="name"  value="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/45.jpeg"&gt;&lt;input type="hidden" id="cnameLoc66"class="name"  value="{{name}}"&gt; &lt;input type="number" id="descLoc44"   placeholder=" QTY "  required&gt;&lt;input onclick="launch_notification();this.value='ADDED ✅'" type="submit" value="SEND"/&gt;&lt;/form&gt;
+&lt;img src="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/45" loading="lazy" width="400" height="400"&gt;  &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" t="str">
+        <f>Sheet1!A46&amp;""&amp;Sheet1!B46&amp;""&amp;Sheet1!C46&amp;""&amp;Sheet1!D46&amp;""&amp;Sheet1!E46&amp;""&amp;Sheet1!F46&amp;""&amp;Sheet1!G46&amp;""&amp;Sheet1!H46&amp;""&amp;Sheet1!I46&amp;""&amp;Sheet1!J46&amp;""&amp;Sheet1!K46&amp;""&amp;Sheet1!L46&amp;""&amp;Sheet1!M46&amp;""&amp;Sheet1!N46&amp;""&amp;Sheet1!O46&amp;""&amp;Sheet1!P46&amp;""&amp;Sheet1!Q46&amp;""&amp;Sheet1!R46&amp;""&amp;Sheet1!S46&amp;""&amp;Sheet1!T46&amp;""&amp;Sheet1!U46&amp;""&amp;Sheet1!V46&amp;""&amp;Sheet1!W46&amp;""&amp;Sheet1!X46&amp;""&amp;Sheet1!Y46&amp;""&amp;Sheet1!Z46</f>
+        <v>&lt;li class="name"&gt;46&lt;form id="formLoc67"&gt; &lt;input type="hidden" id="nameLoc67"class="name"  value="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/46.jpeg"&gt;&lt;input type="hidden" id="cnameLoc67"class="name"  value="{{name}}"&gt; &lt;input type="number" id="descLoc45"   placeholder=" QTY "  required&gt;&lt;input onclick="launch_notification();this.value='ADDED ✅'" type="submit" value="SEND"/&gt;&lt;/form&gt;
+&lt;img src="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/46" loading="lazy" width="400" height="400"&gt;  &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" t="str">
+        <f>Sheet1!A47&amp;""&amp;Sheet1!B47&amp;""&amp;Sheet1!C47&amp;""&amp;Sheet1!D47&amp;""&amp;Sheet1!E47&amp;""&amp;Sheet1!F47&amp;""&amp;Sheet1!G47&amp;""&amp;Sheet1!H47&amp;""&amp;Sheet1!I47&amp;""&amp;Sheet1!J47&amp;""&amp;Sheet1!K47&amp;""&amp;Sheet1!L47&amp;""&amp;Sheet1!M47&amp;""&amp;Sheet1!N47&amp;""&amp;Sheet1!O47&amp;""&amp;Sheet1!P47&amp;""&amp;Sheet1!Q47&amp;""&amp;Sheet1!R47&amp;""&amp;Sheet1!S47&amp;""&amp;Sheet1!T47&amp;""&amp;Sheet1!U47&amp;""&amp;Sheet1!V47&amp;""&amp;Sheet1!W47&amp;""&amp;Sheet1!X47&amp;""&amp;Sheet1!Y47&amp;""&amp;Sheet1!Z47</f>
+        <v>&lt;li class="name"&gt;47&lt;form id="formLoc68"&gt; &lt;input type="hidden" id="nameLoc68"class="name"  value="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/47.jpeg"&gt;&lt;input type="hidden" id="cnameLoc68"class="name"  value="{{name}}"&gt; &lt;input type="number" id="descLoc45"   placeholder=" QTY "  required&gt;&lt;input onclick="launch_notification();this.value='ADDED ✅'" type="submit" value="SEND"/&gt;&lt;/form&gt;
+&lt;img src="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/47" loading="lazy" width="400" height="400"&gt;  &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" t="str">
+        <f>Sheet1!A48&amp;""&amp;Sheet1!B48&amp;""&amp;Sheet1!C48&amp;""&amp;Sheet1!D48&amp;""&amp;Sheet1!E48&amp;""&amp;Sheet1!F48&amp;""&amp;Sheet1!G48&amp;""&amp;Sheet1!H48&amp;""&amp;Sheet1!I48&amp;""&amp;Sheet1!J48&amp;""&amp;Sheet1!K48&amp;""&amp;Sheet1!L48&amp;""&amp;Sheet1!M48&amp;""&amp;Sheet1!N48&amp;""&amp;Sheet1!O48&amp;""&amp;Sheet1!P48&amp;""&amp;Sheet1!Q48&amp;""&amp;Sheet1!R48&amp;""&amp;Sheet1!S48&amp;""&amp;Sheet1!T48&amp;""&amp;Sheet1!U48&amp;""&amp;Sheet1!V48&amp;""&amp;Sheet1!W48&amp;""&amp;Sheet1!X48&amp;""&amp;Sheet1!Y48&amp;""&amp;Sheet1!Z48</f>
+        <v>&lt;li class="name"&gt;48&lt;form id="formLoc69"&gt; &lt;input type="hidden" id="nameLoc69"class="name"  value="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/48.jpeg"&gt;&lt;input type="hidden" id="cnameLoc69"class="name"  value="{{name}}"&gt; &lt;input type="number" id="descLoc46"   placeholder=" QTY "  required&gt;&lt;input onclick="launch_notification();this.value='ADDED ✅'" type="submit" value="SEND"/&gt;&lt;/form&gt;
+&lt;img src="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/48" loading="lazy" width="400" height="400"&gt;  &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" t="str">
+        <f>Sheet1!A49&amp;""&amp;Sheet1!B49&amp;""&amp;Sheet1!C49&amp;""&amp;Sheet1!D49&amp;""&amp;Sheet1!E49&amp;""&amp;Sheet1!F49&amp;""&amp;Sheet1!G49&amp;""&amp;Sheet1!H49&amp;""&amp;Sheet1!I49&amp;""&amp;Sheet1!J49&amp;""&amp;Sheet1!K49&amp;""&amp;Sheet1!L49&amp;""&amp;Sheet1!M49&amp;""&amp;Sheet1!N49&amp;""&amp;Sheet1!O49&amp;""&amp;Sheet1!P49&amp;""&amp;Sheet1!Q49&amp;""&amp;Sheet1!R49&amp;""&amp;Sheet1!S49&amp;""&amp;Sheet1!T49&amp;""&amp;Sheet1!U49&amp;""&amp;Sheet1!V49&amp;""&amp;Sheet1!W49&amp;""&amp;Sheet1!X49&amp;""&amp;Sheet1!Y49&amp;""&amp;Sheet1!Z49</f>
+        <v>&lt;li class="name"&gt;49&lt;form id="formLoc70"&gt; &lt;input type="hidden" id="nameLoc70"class="name"  value="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/49.jpeg"&gt;&lt;input type="hidden" id="cnameLoc70"class="name"  value="{{name}}"&gt; &lt;input type="number" id="descLoc46"   placeholder=" QTY "  required&gt;&lt;input onclick="launch_notification();this.value='ADDED ✅'" type="submit" value="SEND"/&gt;&lt;/form&gt;
+&lt;img src="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/49" loading="lazy" width="400" height="400"&gt;  &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" t="str">
+        <f>Sheet1!A50&amp;""&amp;Sheet1!B50&amp;""&amp;Sheet1!C50&amp;""&amp;Sheet1!D50&amp;""&amp;Sheet1!E50&amp;""&amp;Sheet1!F50&amp;""&amp;Sheet1!G50&amp;""&amp;Sheet1!H50&amp;""&amp;Sheet1!I50&amp;""&amp;Sheet1!J50&amp;""&amp;Sheet1!K50&amp;""&amp;Sheet1!L50&amp;""&amp;Sheet1!M50&amp;""&amp;Sheet1!N50&amp;""&amp;Sheet1!O50&amp;""&amp;Sheet1!P50&amp;""&amp;Sheet1!Q50&amp;""&amp;Sheet1!R50&amp;""&amp;Sheet1!S50&amp;""&amp;Sheet1!T50&amp;""&amp;Sheet1!U50&amp;""&amp;Sheet1!V50&amp;""&amp;Sheet1!W50&amp;""&amp;Sheet1!X50&amp;""&amp;Sheet1!Y50&amp;""&amp;Sheet1!Z50</f>
+        <v>&lt;li class="name"&gt;50&lt;form id="formLoc71"&gt; &lt;input type="hidden" id="nameLoc71"class="name"  value="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/50.jpeg"&gt;&lt;input type="hidden" id="cnameLoc71"class="name"  value="{{name}}"&gt; &lt;input type="number" id="descLoc47"   placeholder=" QTY "  required&gt;&lt;input onclick="launch_notification();this.value='ADDED ✅'" type="submit" value="SEND"/&gt;&lt;/form&gt;
+&lt;img src="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/50" loading="lazy" width="400" height="400"&gt;  &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" t="str">
+        <f>Sheet1!A51&amp;""&amp;Sheet1!B51&amp;""&amp;Sheet1!C51&amp;""&amp;Sheet1!D51&amp;""&amp;Sheet1!E51&amp;""&amp;Sheet1!F51&amp;""&amp;Sheet1!G51&amp;""&amp;Sheet1!H51&amp;""&amp;Sheet1!I51&amp;""&amp;Sheet1!J51&amp;""&amp;Sheet1!K51&amp;""&amp;Sheet1!L51&amp;""&amp;Sheet1!M51&amp;""&amp;Sheet1!N51&amp;""&amp;Sheet1!O51&amp;""&amp;Sheet1!P51&amp;""&amp;Sheet1!Q51&amp;""&amp;Sheet1!R51&amp;""&amp;Sheet1!S51&amp;""&amp;Sheet1!T51&amp;""&amp;Sheet1!U51&amp;""&amp;Sheet1!V51&amp;""&amp;Sheet1!W51&amp;""&amp;Sheet1!X51&amp;""&amp;Sheet1!Y51&amp;""&amp;Sheet1!Z51</f>
+        <v>&lt;li class="name"&gt;51&lt;form id="formLoc72"&gt; &lt;input type="hidden" id="nameLoc72"class="name"  value="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/51.jpeg"&gt;&lt;input type="hidden" id="cnameLoc72"class="name"  value="{{name}}"&gt; &lt;input type="number" id="descLoc47"   placeholder=" QTY "  required&gt;&lt;input onclick="launch_notification();this.value='ADDED ✅'" type="submit" value="SEND"/&gt;&lt;/form&gt;
+&lt;img src="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/51" loading="lazy" width="400" height="400"&gt;  &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" t="str">
+        <f>Sheet1!A52&amp;""&amp;Sheet1!B52&amp;""&amp;Sheet1!C52&amp;""&amp;Sheet1!D52&amp;""&amp;Sheet1!E52&amp;""&amp;Sheet1!F52&amp;""&amp;Sheet1!G52&amp;""&amp;Sheet1!H52&amp;""&amp;Sheet1!I52&amp;""&amp;Sheet1!J52&amp;""&amp;Sheet1!K52&amp;""&amp;Sheet1!L52&amp;""&amp;Sheet1!M52&amp;""&amp;Sheet1!N52&amp;""&amp;Sheet1!O52&amp;""&amp;Sheet1!P52&amp;""&amp;Sheet1!Q52&amp;""&amp;Sheet1!R52&amp;""&amp;Sheet1!S52&amp;""&amp;Sheet1!T52&amp;""&amp;Sheet1!U52&amp;""&amp;Sheet1!V52&amp;""&amp;Sheet1!W52&amp;""&amp;Sheet1!X52&amp;""&amp;Sheet1!Y52&amp;""&amp;Sheet1!Z52</f>
+        <v>&lt;li class="name"&gt;52&lt;form id="formLoc73"&gt; &lt;input type="hidden" id="nameLoc73"class="name"  value="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/52.jpeg"&gt;&lt;input type="hidden" id="cnameLoc73"class="name"  value="{{name}}"&gt; &lt;input type="number" id="descLoc48"   placeholder=" QTY "  required&gt;&lt;input onclick="launch_notification();this.value='ADDED ✅'" type="submit" value="SEND"/&gt;&lt;/form&gt;
+&lt;img src="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/52" loading="lazy" width="400" height="400"&gt;  &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" t="str">
+        <f>Sheet1!A53&amp;""&amp;Sheet1!B53&amp;""&amp;Sheet1!C53&amp;""&amp;Sheet1!D53&amp;""&amp;Sheet1!E53&amp;""&amp;Sheet1!F53&amp;""&amp;Sheet1!G53&amp;""&amp;Sheet1!H53&amp;""&amp;Sheet1!I53&amp;""&amp;Sheet1!J53&amp;""&amp;Sheet1!K53&amp;""&amp;Sheet1!L53&amp;""&amp;Sheet1!M53&amp;""&amp;Sheet1!N53&amp;""&amp;Sheet1!O53&amp;""&amp;Sheet1!P53&amp;""&amp;Sheet1!Q53&amp;""&amp;Sheet1!R53&amp;""&amp;Sheet1!S53&amp;""&amp;Sheet1!T53&amp;""&amp;Sheet1!U53&amp;""&amp;Sheet1!V53&amp;""&amp;Sheet1!W53&amp;""&amp;Sheet1!X53&amp;""&amp;Sheet1!Y53&amp;""&amp;Sheet1!Z53</f>
+        <v>&lt;li class="name"&gt;53&lt;form id="formLoc74"&gt; &lt;input type="hidden" id="nameLoc74"class="name"  value="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/53.jpeg"&gt;&lt;input type="hidden" id="cnameLoc74"class="name"  value="{{name}}"&gt; &lt;input type="number" id="descLoc48"   placeholder=" QTY "  required&gt;&lt;input onclick="launch_notification();this.value='ADDED ✅'" type="submit" value="SEND"/&gt;&lt;/form&gt;
+&lt;img src="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/53" loading="lazy" width="400" height="400"&gt;  &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" t="str">
+        <f>Sheet1!A54&amp;""&amp;Sheet1!B54&amp;""&amp;Sheet1!C54&amp;""&amp;Sheet1!D54&amp;""&amp;Sheet1!E54&amp;""&amp;Sheet1!F54&amp;""&amp;Sheet1!G54&amp;""&amp;Sheet1!H54&amp;""&amp;Sheet1!I54&amp;""&amp;Sheet1!J54&amp;""&amp;Sheet1!K54&amp;""&amp;Sheet1!L54&amp;""&amp;Sheet1!M54&amp;""&amp;Sheet1!N54&amp;""&amp;Sheet1!O54&amp;""&amp;Sheet1!P54&amp;""&amp;Sheet1!Q54&amp;""&amp;Sheet1!R54&amp;""&amp;Sheet1!S54&amp;""&amp;Sheet1!T54&amp;""&amp;Sheet1!U54&amp;""&amp;Sheet1!V54&amp;""&amp;Sheet1!W54&amp;""&amp;Sheet1!X54&amp;""&amp;Sheet1!Y54&amp;""&amp;Sheet1!Z54</f>
+        <v>&lt;li class="name"&gt;54&lt;form id="formLoc75"&gt; &lt;input type="hidden" id="nameLoc75"class="name"  value="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/54.jpeg"&gt;&lt;input type="hidden" id="cnameLoc75"class="name"  value="{{name}}"&gt; &lt;input type="number" id="descLoc49"   placeholder=" QTY "  required&gt;&lt;input onclick="launch_notification();this.value='ADDED ✅'" type="submit" value="SEND"/&gt;&lt;/form&gt;
+&lt;img src="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/54" loading="lazy" width="400" height="400"&gt;  &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" t="str">
+        <f>Sheet1!A55&amp;""&amp;Sheet1!B55&amp;""&amp;Sheet1!C55&amp;""&amp;Sheet1!D55&amp;""&amp;Sheet1!E55&amp;""&amp;Sheet1!F55&amp;""&amp;Sheet1!G55&amp;""&amp;Sheet1!H55&amp;""&amp;Sheet1!I55&amp;""&amp;Sheet1!J55&amp;""&amp;Sheet1!K55&amp;""&amp;Sheet1!L55&amp;""&amp;Sheet1!M55&amp;""&amp;Sheet1!N55&amp;""&amp;Sheet1!O55&amp;""&amp;Sheet1!P55&amp;""&amp;Sheet1!Q55&amp;""&amp;Sheet1!R55&amp;""&amp;Sheet1!S55&amp;""&amp;Sheet1!T55&amp;""&amp;Sheet1!U55&amp;""&amp;Sheet1!V55&amp;""&amp;Sheet1!W55&amp;""&amp;Sheet1!X55&amp;""&amp;Sheet1!Y55&amp;""&amp;Sheet1!Z55</f>
+        <v>&lt;li class="name"&gt;55&lt;form id="formLoc76"&gt; &lt;input type="hidden" id="nameLoc76"class="name"  value="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/55.jpeg"&gt;&lt;input type="hidden" id="cnameLoc76"class="name"  value="{{name}}"&gt; &lt;input type="number" id="descLoc49"   placeholder=" QTY "  required&gt;&lt;input onclick="launch_notification();this.value='ADDED ✅'" type="submit" value="SEND"/&gt;&lt;/form&gt;
+&lt;img src="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/55" loading="lazy" width="400" height="400"&gt;  &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" t="str">
+        <f>Sheet1!A56&amp;""&amp;Sheet1!B56&amp;""&amp;Sheet1!C56&amp;""&amp;Sheet1!D56&amp;""&amp;Sheet1!E56&amp;""&amp;Sheet1!F56&amp;""&amp;Sheet1!G56&amp;""&amp;Sheet1!H56&amp;""&amp;Sheet1!I56&amp;""&amp;Sheet1!J56&amp;""&amp;Sheet1!K56&amp;""&amp;Sheet1!L56&amp;""&amp;Sheet1!M56&amp;""&amp;Sheet1!N56&amp;""&amp;Sheet1!O56&amp;""&amp;Sheet1!P56&amp;""&amp;Sheet1!Q56&amp;""&amp;Sheet1!R56&amp;""&amp;Sheet1!S56&amp;""&amp;Sheet1!T56&amp;""&amp;Sheet1!U56&amp;""&amp;Sheet1!V56&amp;""&amp;Sheet1!W56&amp;""&amp;Sheet1!X56&amp;""&amp;Sheet1!Y56&amp;""&amp;Sheet1!Z56</f>
+        <v>&lt;li class="name"&gt;56&lt;form id="formLoc77"&gt; &lt;input type="hidden" id="nameLoc77"class="name"  value="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/56.jpeg"&gt;&lt;input type="hidden" id="cnameLoc77"class="name"  value="{{name}}"&gt; &lt;input type="number" id="descLoc50"   placeholder=" QTY "  required&gt;&lt;input onclick="launch_notification();this.value='ADDED ✅'" type="submit" value="SEND"/&gt;&lt;/form&gt;
+&lt;img src="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/56" loading="lazy" width="400" height="400"&gt;  &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" t="str">
+        <f>Sheet1!A57&amp;""&amp;Sheet1!B57&amp;""&amp;Sheet1!C57&amp;""&amp;Sheet1!D57&amp;""&amp;Sheet1!E57&amp;""&amp;Sheet1!F57&amp;""&amp;Sheet1!G57&amp;""&amp;Sheet1!H57&amp;""&amp;Sheet1!I57&amp;""&amp;Sheet1!J57&amp;""&amp;Sheet1!K57&amp;""&amp;Sheet1!L57&amp;""&amp;Sheet1!M57&amp;""&amp;Sheet1!N57&amp;""&amp;Sheet1!O57&amp;""&amp;Sheet1!P57&amp;""&amp;Sheet1!Q57&amp;""&amp;Sheet1!R57&amp;""&amp;Sheet1!S57&amp;""&amp;Sheet1!T57&amp;""&amp;Sheet1!U57&amp;""&amp;Sheet1!V57&amp;""&amp;Sheet1!W57&amp;""&amp;Sheet1!X57&amp;""&amp;Sheet1!Y57&amp;""&amp;Sheet1!Z57</f>
+        <v>&lt;li class="name"&gt;57&lt;form id="formLoc78"&gt; &lt;input type="hidden" id="nameLoc78"class="name"  value="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/57.jpeg"&gt;&lt;input type="hidden" id="cnameLoc78"class="name"  value="{{name}}"&gt; &lt;input type="number" id="descLoc50"   placeholder=" QTY "  required&gt;&lt;input onclick="launch_notification();this.value='ADDED ✅'" type="submit" value="SEND"/&gt;&lt;/form&gt;
+&lt;img src="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/57" loading="lazy" width="400" height="400"&gt;  &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" t="str">
+        <f>Sheet1!A58&amp;""&amp;Sheet1!B58&amp;""&amp;Sheet1!C58&amp;""&amp;Sheet1!D58&amp;""&amp;Sheet1!E58&amp;""&amp;Sheet1!F58&amp;""&amp;Sheet1!G58&amp;""&amp;Sheet1!H58&amp;""&amp;Sheet1!I58&amp;""&amp;Sheet1!J58&amp;""&amp;Sheet1!K58&amp;""&amp;Sheet1!L58&amp;""&amp;Sheet1!M58&amp;""&amp;Sheet1!N58&amp;""&amp;Sheet1!O58&amp;""&amp;Sheet1!P58&amp;""&amp;Sheet1!Q58&amp;""&amp;Sheet1!R58&amp;""&amp;Sheet1!S58&amp;""&amp;Sheet1!T58&amp;""&amp;Sheet1!U58&amp;""&amp;Sheet1!V58&amp;""&amp;Sheet1!W58&amp;""&amp;Sheet1!X58&amp;""&amp;Sheet1!Y58&amp;""&amp;Sheet1!Z58</f>
+        <v>&lt;li class="name"&gt;58&lt;form id="formLoc79"&gt; &lt;input type="hidden" id="nameLoc79"class="name"  value="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/58.jpeg"&gt;&lt;input type="hidden" id="cnameLoc79"class="name"  value="{{name}}"&gt; &lt;input type="number" id="descLoc51"   placeholder=" QTY "  required&gt;&lt;input onclick="launch_notification();this.value='ADDED ✅'" type="submit" value="SEND"/&gt;&lt;/form&gt;
+&lt;img src="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/58" loading="lazy" width="400" height="400"&gt;  &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" t="str">
+        <f>Sheet1!A59&amp;""&amp;Sheet1!B59&amp;""&amp;Sheet1!C59&amp;""&amp;Sheet1!D59&amp;""&amp;Sheet1!E59&amp;""&amp;Sheet1!F59&amp;""&amp;Sheet1!G59&amp;""&amp;Sheet1!H59&amp;""&amp;Sheet1!I59&amp;""&amp;Sheet1!J59&amp;""&amp;Sheet1!K59&amp;""&amp;Sheet1!L59&amp;""&amp;Sheet1!M59&amp;""&amp;Sheet1!N59&amp;""&amp;Sheet1!O59&amp;""&amp;Sheet1!P59&amp;""&amp;Sheet1!Q59&amp;""&amp;Sheet1!R59&amp;""&amp;Sheet1!S59&amp;""&amp;Sheet1!T59&amp;""&amp;Sheet1!U59&amp;""&amp;Sheet1!V59&amp;""&amp;Sheet1!W59&amp;""&amp;Sheet1!X59&amp;""&amp;Sheet1!Y59&amp;""&amp;Sheet1!Z59</f>
+        <v>&lt;li class="name"&gt;59&lt;form id="formLoc80"&gt; &lt;input type="hidden" id="nameLoc80"class="name"  value="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/59.jpeg"&gt;&lt;input type="hidden" id="cnameLoc80"class="name"  value="{{name}}"&gt; &lt;input type="number" id="descLoc51"   placeholder=" QTY "  required&gt;&lt;input onclick="launch_notification();this.value='ADDED ✅'" type="submit" value="SEND"/&gt;&lt;/form&gt;
+&lt;img src="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/59" loading="lazy" width="400" height="400"&gt;  &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" t="str">
+        <f>Sheet1!A60&amp;""&amp;Sheet1!B60&amp;""&amp;Sheet1!C60&amp;""&amp;Sheet1!D60&amp;""&amp;Sheet1!E60&amp;""&amp;Sheet1!F60&amp;""&amp;Sheet1!G60&amp;""&amp;Sheet1!H60&amp;""&amp;Sheet1!I60&amp;""&amp;Sheet1!J60&amp;""&amp;Sheet1!K60&amp;""&amp;Sheet1!L60&amp;""&amp;Sheet1!M60&amp;""&amp;Sheet1!N60&amp;""&amp;Sheet1!O60&amp;""&amp;Sheet1!P60&amp;""&amp;Sheet1!Q60&amp;""&amp;Sheet1!R60&amp;""&amp;Sheet1!S60&amp;""&amp;Sheet1!T60&amp;""&amp;Sheet1!U60&amp;""&amp;Sheet1!V60&amp;""&amp;Sheet1!W60&amp;""&amp;Sheet1!X60&amp;""&amp;Sheet1!Y60&amp;""&amp;Sheet1!Z60</f>
+        <v>&lt;li class="name"&gt;60&lt;form id="formLoc81"&gt; &lt;input type="hidden" id="nameLoc81"class="name"  value="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/60.jpeg"&gt;&lt;input type="hidden" id="cnameLoc81"class="name"  value="{{name}}"&gt; &lt;input type="number" id="descLoc52"   placeholder=" QTY "  required&gt;&lt;input onclick="launch_notification();this.value='ADDED ✅'" type="submit" value="SEND"/&gt;&lt;/form&gt;
+&lt;img src="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/60" loading="lazy" width="400" height="400"&gt;  &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" t="str">
+        <f>Sheet1!A61&amp;""&amp;Sheet1!B61&amp;""&amp;Sheet1!C61&amp;""&amp;Sheet1!D61&amp;""&amp;Sheet1!E61&amp;""&amp;Sheet1!F61&amp;""&amp;Sheet1!G61&amp;""&amp;Sheet1!H61&amp;""&amp;Sheet1!I61&amp;""&amp;Sheet1!J61&amp;""&amp;Sheet1!K61&amp;""&amp;Sheet1!L61&amp;""&amp;Sheet1!M61&amp;""&amp;Sheet1!N61&amp;""&amp;Sheet1!O61&amp;""&amp;Sheet1!P61&amp;""&amp;Sheet1!Q61&amp;""&amp;Sheet1!R61&amp;""&amp;Sheet1!S61&amp;""&amp;Sheet1!T61&amp;""&amp;Sheet1!U61&amp;""&amp;Sheet1!V61&amp;""&amp;Sheet1!W61&amp;""&amp;Sheet1!X61&amp;""&amp;Sheet1!Y61&amp;""&amp;Sheet1!Z61</f>
+        <v>&lt;li class="name"&gt;61&lt;form id="formLoc82"&gt; &lt;input type="hidden" id="nameLoc82"class="name"  value="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/61.jpeg"&gt;&lt;input type="hidden" id="cnameLoc82"class="name"  value="{{name}}"&gt; &lt;input type="number" id="descLoc52"   placeholder=" QTY "  required&gt;&lt;input onclick="launch_notification();this.value='ADDED ✅'" type="submit" value="SEND"/&gt;&lt;/form&gt;
+&lt;img src="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/61" loading="lazy" width="400" height="400"&gt;  &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" t="str">
+        <f>Sheet1!A62&amp;""&amp;Sheet1!B62&amp;""&amp;Sheet1!C62&amp;""&amp;Sheet1!D62&amp;""&amp;Sheet1!E62&amp;""&amp;Sheet1!F62&amp;""&amp;Sheet1!G62&amp;""&amp;Sheet1!H62&amp;""&amp;Sheet1!I62&amp;""&amp;Sheet1!J62&amp;""&amp;Sheet1!K62&amp;""&amp;Sheet1!L62&amp;""&amp;Sheet1!M62&amp;""&amp;Sheet1!N62&amp;""&amp;Sheet1!O62&amp;""&amp;Sheet1!P62&amp;""&amp;Sheet1!Q62&amp;""&amp;Sheet1!R62&amp;""&amp;Sheet1!S62&amp;""&amp;Sheet1!T62&amp;""&amp;Sheet1!U62&amp;""&amp;Sheet1!V62&amp;""&amp;Sheet1!W62&amp;""&amp;Sheet1!X62&amp;""&amp;Sheet1!Y62&amp;""&amp;Sheet1!Z62</f>
+        <v>&lt;li class="name"&gt;62&lt;form id="formLoc83"&gt; &lt;input type="hidden" id="nameLoc83"class="name"  value="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/62.jpeg"&gt;&lt;input type="hidden" id="cnameLoc83"class="name"  value="{{name}}"&gt; &lt;input type="number" id="descLoc53"   placeholder=" QTY "  required&gt;&lt;input onclick="launch_notification();this.value='ADDED ✅'" type="submit" value="SEND"/&gt;&lt;/form&gt;
+&lt;img src="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/62" loading="lazy" width="400" height="400"&gt;  &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" t="str">
+        <f>Sheet1!A63&amp;""&amp;Sheet1!B63&amp;""&amp;Sheet1!C63&amp;""&amp;Sheet1!D63&amp;""&amp;Sheet1!E63&amp;""&amp;Sheet1!F63&amp;""&amp;Sheet1!G63&amp;""&amp;Sheet1!H63&amp;""&amp;Sheet1!I63&amp;""&amp;Sheet1!J63&amp;""&amp;Sheet1!K63&amp;""&amp;Sheet1!L63&amp;""&amp;Sheet1!M63&amp;""&amp;Sheet1!N63&amp;""&amp;Sheet1!O63&amp;""&amp;Sheet1!P63&amp;""&amp;Sheet1!Q63&amp;""&amp;Sheet1!R63&amp;""&amp;Sheet1!S63&amp;""&amp;Sheet1!T63&amp;""&amp;Sheet1!U63&amp;""&amp;Sheet1!V63&amp;""&amp;Sheet1!W63&amp;""&amp;Sheet1!X63&amp;""&amp;Sheet1!Y63&amp;""&amp;Sheet1!Z63</f>
+        <v>&lt;li class="name"&gt;63&lt;form id="formLoc84"&gt; &lt;input type="hidden" id="nameLoc84"class="name"  value="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/63.jpeg"&gt;&lt;input type="hidden" id="cnameLoc84"class="name"  value="{{name}}"&gt; &lt;input type="number" id="descLoc53"   placeholder=" QTY "  required&gt;&lt;input onclick="launch_notification();this.value='ADDED ✅'" type="submit" value="SEND"/&gt;&lt;/form&gt;
+&lt;img src="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/63" loading="lazy" width="400" height="400"&gt;  &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" t="str">
+        <f>Sheet1!A64&amp;""&amp;Sheet1!B64&amp;""&amp;Sheet1!C64&amp;""&amp;Sheet1!D64&amp;""&amp;Sheet1!E64&amp;""&amp;Sheet1!F64&amp;""&amp;Sheet1!G64&amp;""&amp;Sheet1!H64&amp;""&amp;Sheet1!I64&amp;""&amp;Sheet1!J64&amp;""&amp;Sheet1!K64&amp;""&amp;Sheet1!L64&amp;""&amp;Sheet1!M64&amp;""&amp;Sheet1!N64&amp;""&amp;Sheet1!O64&amp;""&amp;Sheet1!P64&amp;""&amp;Sheet1!Q64&amp;""&amp;Sheet1!R64&amp;""&amp;Sheet1!S64&amp;""&amp;Sheet1!T64&amp;""&amp;Sheet1!U64&amp;""&amp;Sheet1!V64&amp;""&amp;Sheet1!W64&amp;""&amp;Sheet1!X64&amp;""&amp;Sheet1!Y64&amp;""&amp;Sheet1!Z64</f>
+        <v>&lt;li class="name"&gt;64&lt;form id="formLoc85"&gt; &lt;input type="hidden" id="nameLoc85"class="name"  value="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/64.jpeg"&gt;&lt;input type="hidden" id="cnameLoc85"class="name"  value="{{name}}"&gt; &lt;input type="number" id="descLoc54"   placeholder=" QTY "  required&gt;&lt;input onclick="launch_notification();this.value='ADDED ✅'" type="submit" value="SEND"/&gt;&lt;/form&gt;
+&lt;img src="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/64" loading="lazy" width="400" height="400"&gt;  &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" t="str">
+        <f>Sheet1!A65&amp;""&amp;Sheet1!B65&amp;""&amp;Sheet1!C65&amp;""&amp;Sheet1!D65&amp;""&amp;Sheet1!E65&amp;""&amp;Sheet1!F65&amp;""&amp;Sheet1!G65&amp;""&amp;Sheet1!H65&amp;""&amp;Sheet1!I65&amp;""&amp;Sheet1!J65&amp;""&amp;Sheet1!K65&amp;""&amp;Sheet1!L65&amp;""&amp;Sheet1!M65&amp;""&amp;Sheet1!N65&amp;""&amp;Sheet1!O65&amp;""&amp;Sheet1!P65&amp;""&amp;Sheet1!Q65&amp;""&amp;Sheet1!R65&amp;""&amp;Sheet1!S65&amp;""&amp;Sheet1!T65&amp;""&amp;Sheet1!U65&amp;""&amp;Sheet1!V65&amp;""&amp;Sheet1!W65&amp;""&amp;Sheet1!X65&amp;""&amp;Sheet1!Y65&amp;""&amp;Sheet1!Z65</f>
+        <v>&lt;li class="name"&gt;65&lt;form id="formLoc86"&gt; &lt;input type="hidden" id="nameLoc86"class="name"  value="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/65.jpeg"&gt;&lt;input type="hidden" id="cnameLoc86"class="name"  value="{{name}}"&gt; &lt;input type="number" id="descLoc54"   placeholder=" QTY "  required&gt;&lt;input onclick="launch_notification();this.value='ADDED ✅'" type="submit" value="SEND"/&gt;&lt;/form&gt;
+&lt;img src="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/65" loading="lazy" width="400" height="400"&gt;  &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" t="str">
+        <f>Sheet1!A66&amp;""&amp;Sheet1!B66&amp;""&amp;Sheet1!C66&amp;""&amp;Sheet1!D66&amp;""&amp;Sheet1!E66&amp;""&amp;Sheet1!F66&amp;""&amp;Sheet1!G66&amp;""&amp;Sheet1!H66&amp;""&amp;Sheet1!I66&amp;""&amp;Sheet1!J66&amp;""&amp;Sheet1!K66&amp;""&amp;Sheet1!L66&amp;""&amp;Sheet1!M66&amp;""&amp;Sheet1!N66&amp;""&amp;Sheet1!O66&amp;""&amp;Sheet1!P66&amp;""&amp;Sheet1!Q66&amp;""&amp;Sheet1!R66&amp;""&amp;Sheet1!S66&amp;""&amp;Sheet1!T66&amp;""&amp;Sheet1!U66&amp;""&amp;Sheet1!V66&amp;""&amp;Sheet1!W66&amp;""&amp;Sheet1!X66&amp;""&amp;Sheet1!Y66&amp;""&amp;Sheet1!Z66</f>
+        <v>&lt;li class="name"&gt;66&lt;form id="formLoc87"&gt; &lt;input type="hidden" id="nameLoc87"class="name"  value="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/66.jpeg"&gt;&lt;input type="hidden" id="cnameLoc87"class="name"  value="{{name}}"&gt; &lt;input type="number" id="descLoc55"   placeholder=" QTY "  required&gt;&lt;input onclick="launch_notification();this.value='ADDED ✅'" type="submit" value="SEND"/&gt;&lt;/form&gt;
+&lt;img src="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/66" loading="lazy" width="400" height="400"&gt;  &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" t="str">
+        <f>Sheet1!A67&amp;""&amp;Sheet1!B67&amp;""&amp;Sheet1!C67&amp;""&amp;Sheet1!D67&amp;""&amp;Sheet1!E67&amp;""&amp;Sheet1!F67&amp;""&amp;Sheet1!G67&amp;""&amp;Sheet1!H67&amp;""&amp;Sheet1!I67&amp;""&amp;Sheet1!J67&amp;""&amp;Sheet1!K67&amp;""&amp;Sheet1!L67&amp;""&amp;Sheet1!M67&amp;""&amp;Sheet1!N67&amp;""&amp;Sheet1!O67&amp;""&amp;Sheet1!P67&amp;""&amp;Sheet1!Q67&amp;""&amp;Sheet1!R67&amp;""&amp;Sheet1!S67&amp;""&amp;Sheet1!T67&amp;""&amp;Sheet1!U67&amp;""&amp;Sheet1!V67&amp;""&amp;Sheet1!W67&amp;""&amp;Sheet1!X67&amp;""&amp;Sheet1!Y67&amp;""&amp;Sheet1!Z67</f>
+        <v>&lt;li class="name"&gt;67&lt;form id="formLoc88"&gt; &lt;input type="hidden" id="nameLoc88"class="name"  value="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/67.jpeg"&gt;&lt;input type="hidden" id="cnameLoc88"class="name"  value="{{name}}"&gt; &lt;input type="number" id="descLoc55"   placeholder=" QTY "  required&gt;&lt;input onclick="launch_notification();this.value='ADDED ✅'" type="submit" value="SEND"/&gt;&lt;/form&gt;
+&lt;img src="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/67" loading="lazy" width="400" height="400"&gt;  &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" t="str">
+        <f>Sheet1!A68&amp;""&amp;Sheet1!B68&amp;""&amp;Sheet1!C68&amp;""&amp;Sheet1!D68&amp;""&amp;Sheet1!E68&amp;""&amp;Sheet1!F68&amp;""&amp;Sheet1!G68&amp;""&amp;Sheet1!H68&amp;""&amp;Sheet1!I68&amp;""&amp;Sheet1!J68&amp;""&amp;Sheet1!K68&amp;""&amp;Sheet1!L68&amp;""&amp;Sheet1!M68&amp;""&amp;Sheet1!N68&amp;""&amp;Sheet1!O68&amp;""&amp;Sheet1!P68&amp;""&amp;Sheet1!Q68&amp;""&amp;Sheet1!R68&amp;""&amp;Sheet1!S68&amp;""&amp;Sheet1!T68&amp;""&amp;Sheet1!U68&amp;""&amp;Sheet1!V68&amp;""&amp;Sheet1!W68&amp;""&amp;Sheet1!X68&amp;""&amp;Sheet1!Y68&amp;""&amp;Sheet1!Z68</f>
+        <v>&lt;li class="name"&gt;68&lt;form id="formLoc89"&gt; &lt;input type="hidden" id="nameLoc89"class="name"  value="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/68.jpeg"&gt;&lt;input type="hidden" id="cnameLoc89"class="name"  value="{{name}}"&gt; &lt;input type="number" id="descLoc56"   placeholder=" QTY "  required&gt;&lt;input onclick="launch_notification();this.value='ADDED ✅'" type="submit" value="SEND"/&gt;&lt;/form&gt;
+&lt;img src="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/68" loading="lazy" width="400" height="400"&gt;  &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" t="str">
+        <f>Sheet1!A69&amp;""&amp;Sheet1!B69&amp;""&amp;Sheet1!C69&amp;""&amp;Sheet1!D69&amp;""&amp;Sheet1!E69&amp;""&amp;Sheet1!F69&amp;""&amp;Sheet1!G69&amp;""&amp;Sheet1!H69&amp;""&amp;Sheet1!I69&amp;""&amp;Sheet1!J69&amp;""&amp;Sheet1!K69&amp;""&amp;Sheet1!L69&amp;""&amp;Sheet1!M69&amp;""&amp;Sheet1!N69&amp;""&amp;Sheet1!O69&amp;""&amp;Sheet1!P69&amp;""&amp;Sheet1!Q69&amp;""&amp;Sheet1!R69&amp;""&amp;Sheet1!S69&amp;""&amp;Sheet1!T69&amp;""&amp;Sheet1!U69&amp;""&amp;Sheet1!V69&amp;""&amp;Sheet1!W69&amp;""&amp;Sheet1!X69&amp;""&amp;Sheet1!Y69&amp;""&amp;Sheet1!Z69</f>
+        <v>&lt;li class="name"&gt;69&lt;form id="formLoc90"&gt; &lt;input type="hidden" id="nameLoc90"class="name"  value="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/69.jpeg"&gt;&lt;input type="hidden" id="cnameLoc90"class="name"  value="{{name}}"&gt; &lt;input type="number" id="descLoc56"   placeholder=" QTY "  required&gt;&lt;input onclick="launch_notification();this.value='ADDED ✅'" type="submit" value="SEND"/&gt;&lt;/form&gt;
+&lt;img src="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/69" loading="lazy" width="400" height="400"&gt;  &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" t="str">
+        <f>Sheet1!A70&amp;""&amp;Sheet1!B70&amp;""&amp;Sheet1!C70&amp;""&amp;Sheet1!D70&amp;""&amp;Sheet1!E70&amp;""&amp;Sheet1!F70&amp;""&amp;Sheet1!G70&amp;""&amp;Sheet1!H70&amp;""&amp;Sheet1!I70&amp;""&amp;Sheet1!J70&amp;""&amp;Sheet1!K70&amp;""&amp;Sheet1!L70&amp;""&amp;Sheet1!M70&amp;""&amp;Sheet1!N70&amp;""&amp;Sheet1!O70&amp;""&amp;Sheet1!P70&amp;""&amp;Sheet1!Q70&amp;""&amp;Sheet1!R70&amp;""&amp;Sheet1!S70&amp;""&amp;Sheet1!T70&amp;""&amp;Sheet1!U70&amp;""&amp;Sheet1!V70&amp;""&amp;Sheet1!W70&amp;""&amp;Sheet1!X70&amp;""&amp;Sheet1!Y70&amp;""&amp;Sheet1!Z70</f>
+        <v>&lt;li class="name"&gt;70&lt;form id="formLoc91"&gt; &lt;input type="hidden" id="nameLoc91"class="name"  value="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/70.jpeg"&gt;&lt;input type="hidden" id="cnameLoc91"class="name"  value="{{name}}"&gt; &lt;input type="number" id="descLoc57"   placeholder=" QTY "  required&gt;&lt;input onclick="launch_notification();this.value='ADDED ✅'" type="submit" value="SEND"/&gt;&lt;/form&gt;
+&lt;img src="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/70" loading="lazy" width="400" height="400"&gt;  &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" t="str">
+        <f>Sheet1!A71&amp;""&amp;Sheet1!B71&amp;""&amp;Sheet1!C71&amp;""&amp;Sheet1!D71&amp;""&amp;Sheet1!E71&amp;""&amp;Sheet1!F71&amp;""&amp;Sheet1!G71&amp;""&amp;Sheet1!H71&amp;""&amp;Sheet1!I71&amp;""&amp;Sheet1!J71&amp;""&amp;Sheet1!K71&amp;""&amp;Sheet1!L71&amp;""&amp;Sheet1!M71&amp;""&amp;Sheet1!N71&amp;""&amp;Sheet1!O71&amp;""&amp;Sheet1!P71&amp;""&amp;Sheet1!Q71&amp;""&amp;Sheet1!R71&amp;""&amp;Sheet1!S71&amp;""&amp;Sheet1!T71&amp;""&amp;Sheet1!U71&amp;""&amp;Sheet1!V71&amp;""&amp;Sheet1!W71&amp;""&amp;Sheet1!X71&amp;""&amp;Sheet1!Y71&amp;""&amp;Sheet1!Z71</f>
+        <v>&lt;li class="name"&gt;71&lt;form id="formLoc92"&gt; &lt;input type="hidden" id="nameLoc92"class="name"  value="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/71.jpeg"&gt;&lt;input type="hidden" id="cnameLoc92"class="name"  value="{{name}}"&gt; &lt;input type="number" id="descLoc57"   placeholder=" QTY "  required&gt;&lt;input onclick="launch_notification();this.value='ADDED ✅'" type="submit" value="SEND"/&gt;&lt;/form&gt;
+&lt;img src="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/71" loading="lazy" width="400" height="400"&gt;  &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72" t="str">
+        <f>Sheet1!A72&amp;""&amp;Sheet1!B72&amp;""&amp;Sheet1!C72&amp;""&amp;Sheet1!D72&amp;""&amp;Sheet1!E72&amp;""&amp;Sheet1!F72&amp;""&amp;Sheet1!G72&amp;""&amp;Sheet1!H72&amp;""&amp;Sheet1!I72&amp;""&amp;Sheet1!J72&amp;""&amp;Sheet1!K72&amp;""&amp;Sheet1!L72&amp;""&amp;Sheet1!M72&amp;""&amp;Sheet1!N72&amp;""&amp;Sheet1!O72&amp;""&amp;Sheet1!P72&amp;""&amp;Sheet1!Q72&amp;""&amp;Sheet1!R72&amp;""&amp;Sheet1!S72&amp;""&amp;Sheet1!T72&amp;""&amp;Sheet1!U72&amp;""&amp;Sheet1!V72&amp;""&amp;Sheet1!W72&amp;""&amp;Sheet1!X72&amp;""&amp;Sheet1!Y72&amp;""&amp;Sheet1!Z72</f>
+        <v>&lt;li class="name"&gt;72&lt;form id="formLoc93"&gt; &lt;input type="hidden" id="nameLoc93"class="name"  value="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/72.jpeg"&gt;&lt;input type="hidden" id="cnameLoc93"class="name"  value="{{name}}"&gt; &lt;input type="number" id="descLoc58"   placeholder=" QTY "  required&gt;&lt;input onclick="launch_notification();this.value='ADDED ✅'" type="submit" value="SEND"/&gt;&lt;/form&gt;
+&lt;img src="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/72" loading="lazy" width="400" height="400"&gt;  &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73" t="str">
+        <f>Sheet1!A73&amp;""&amp;Sheet1!B73&amp;""&amp;Sheet1!C73&amp;""&amp;Sheet1!D73&amp;""&amp;Sheet1!E73&amp;""&amp;Sheet1!F73&amp;""&amp;Sheet1!G73&amp;""&amp;Sheet1!H73&amp;""&amp;Sheet1!I73&amp;""&amp;Sheet1!J73&amp;""&amp;Sheet1!K73&amp;""&amp;Sheet1!L73&amp;""&amp;Sheet1!M73&amp;""&amp;Sheet1!N73&amp;""&amp;Sheet1!O73&amp;""&amp;Sheet1!P73&amp;""&amp;Sheet1!Q73&amp;""&amp;Sheet1!R73&amp;""&amp;Sheet1!S73&amp;""&amp;Sheet1!T73&amp;""&amp;Sheet1!U73&amp;""&amp;Sheet1!V73&amp;""&amp;Sheet1!W73&amp;""&amp;Sheet1!X73&amp;""&amp;Sheet1!Y73&amp;""&amp;Sheet1!Z73</f>
+        <v>&lt;li class="name"&gt;73&lt;form id="formLoc94"&gt; &lt;input type="hidden" id="nameLoc94"class="name"  value="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/73.jpeg"&gt;&lt;input type="hidden" id="cnameLoc94"class="name"  value="{{name}}"&gt; &lt;input type="number" id="descLoc58"   placeholder=" QTY "  required&gt;&lt;input onclick="launch_notification();this.value='ADDED ✅'" type="submit" value="SEND"/&gt;&lt;/form&gt;
+&lt;img src="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/73" loading="lazy" width="400" height="400"&gt;  &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74" t="str">
+        <f>Sheet1!A74&amp;""&amp;Sheet1!B74&amp;""&amp;Sheet1!C74&amp;""&amp;Sheet1!D74&amp;""&amp;Sheet1!E74&amp;""&amp;Sheet1!F74&amp;""&amp;Sheet1!G74&amp;""&amp;Sheet1!H74&amp;""&amp;Sheet1!I74&amp;""&amp;Sheet1!J74&amp;""&amp;Sheet1!K74&amp;""&amp;Sheet1!L74&amp;""&amp;Sheet1!M74&amp;""&amp;Sheet1!N74&amp;""&amp;Sheet1!O74&amp;""&amp;Sheet1!P74&amp;""&amp;Sheet1!Q74&amp;""&amp;Sheet1!R74&amp;""&amp;Sheet1!S74&amp;""&amp;Sheet1!T74&amp;""&amp;Sheet1!U74&amp;""&amp;Sheet1!V74&amp;""&amp;Sheet1!W74&amp;""&amp;Sheet1!X74&amp;""&amp;Sheet1!Y74&amp;""&amp;Sheet1!Z74</f>
+        <v>&lt;li class="name"&gt;74&lt;form id="formLoc95"&gt; &lt;input type="hidden" id="nameLoc95"class="name"  value="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/74.jpeg"&gt;&lt;input type="hidden" id="cnameLoc95"class="name"  value="{{name}}"&gt; &lt;input type="number" id="descLoc59"   placeholder=" QTY "  required&gt;&lt;input onclick="launch_notification();this.value='ADDED ✅'" type="submit" value="SEND"/&gt;&lt;/form&gt;
+&lt;img src="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/74" loading="lazy" width="400" height="400"&gt;  &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75" t="str">
+        <f>Sheet1!A75&amp;""&amp;Sheet1!B75&amp;""&amp;Sheet1!C75&amp;""&amp;Sheet1!D75&amp;""&amp;Sheet1!E75&amp;""&amp;Sheet1!F75&amp;""&amp;Sheet1!G75&amp;""&amp;Sheet1!H75&amp;""&amp;Sheet1!I75&amp;""&amp;Sheet1!J75&amp;""&amp;Sheet1!K75&amp;""&amp;Sheet1!L75&amp;""&amp;Sheet1!M75&amp;""&amp;Sheet1!N75&amp;""&amp;Sheet1!O75&amp;""&amp;Sheet1!P75&amp;""&amp;Sheet1!Q75&amp;""&amp;Sheet1!R75&amp;""&amp;Sheet1!S75&amp;""&amp;Sheet1!T75&amp;""&amp;Sheet1!U75&amp;""&amp;Sheet1!V75&amp;""&amp;Sheet1!W75&amp;""&amp;Sheet1!X75&amp;""&amp;Sheet1!Y75&amp;""&amp;Sheet1!Z75</f>
+        <v>&lt;li class="name"&gt;75&lt;form id="formLoc96"&gt; &lt;input type="hidden" id="nameLoc96"class="name"  value="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/75.jpeg"&gt;&lt;input type="hidden" id="cnameLoc96"class="name"  value="{{name}}"&gt; &lt;input type="number" id="descLoc59"   placeholder=" QTY "  required&gt;&lt;input onclick="launch_notification();this.value='ADDED ✅'" type="submit" value="SEND"/&gt;&lt;/form&gt;
+&lt;img src="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/75" loading="lazy" width="400" height="400"&gt;  &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1">
+      <c r="A76" t="str">
+        <f>Sheet1!A76&amp;""&amp;Sheet1!B76&amp;""&amp;Sheet1!C76&amp;""&amp;Sheet1!D76&amp;""&amp;Sheet1!E76&amp;""&amp;Sheet1!F76&amp;""&amp;Sheet1!G76&amp;""&amp;Sheet1!H76&amp;""&amp;Sheet1!I76&amp;""&amp;Sheet1!J76&amp;""&amp;Sheet1!K76&amp;""&amp;Sheet1!L76&amp;""&amp;Sheet1!M76&amp;""&amp;Sheet1!N76&amp;""&amp;Sheet1!O76&amp;""&amp;Sheet1!P76&amp;""&amp;Sheet1!Q76&amp;""&amp;Sheet1!R76&amp;""&amp;Sheet1!S76&amp;""&amp;Sheet1!T76&amp;""&amp;Sheet1!U76&amp;""&amp;Sheet1!V76&amp;""&amp;Sheet1!W76&amp;""&amp;Sheet1!X76&amp;""&amp;Sheet1!Y76&amp;""&amp;Sheet1!Z76</f>
+        <v>&lt;li class="name"&gt;76&lt;form id="formLoc97"&gt; &lt;input type="hidden" id="nameLoc97"class="name"  value="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/76.jpeg"&gt;&lt;input type="hidden" id="cnameLoc97"class="name"  value="{{name}}"&gt; &lt;input type="number" id="descLoc60"   placeholder=" QTY "  required&gt;&lt;input onclick="launch_notification();this.value='ADDED ✅'" type="submit" value="SEND"/&gt;&lt;/form&gt;
+&lt;img src="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/76" loading="lazy" width="400" height="400"&gt;  &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1">
+      <c r="A77" t="str">
+        <f>Sheet1!A77&amp;""&amp;Sheet1!B77&amp;""&amp;Sheet1!C77&amp;""&amp;Sheet1!D77&amp;""&amp;Sheet1!E77&amp;""&amp;Sheet1!F77&amp;""&amp;Sheet1!G77&amp;""&amp;Sheet1!H77&amp;""&amp;Sheet1!I77&amp;""&amp;Sheet1!J77&amp;""&amp;Sheet1!K77&amp;""&amp;Sheet1!L77&amp;""&amp;Sheet1!M77&amp;""&amp;Sheet1!N77&amp;""&amp;Sheet1!O77&amp;""&amp;Sheet1!P77&amp;""&amp;Sheet1!Q77&amp;""&amp;Sheet1!R77&amp;""&amp;Sheet1!S77&amp;""&amp;Sheet1!T77&amp;""&amp;Sheet1!U77&amp;""&amp;Sheet1!V77&amp;""&amp;Sheet1!W77&amp;""&amp;Sheet1!X77&amp;""&amp;Sheet1!Y77&amp;""&amp;Sheet1!Z77</f>
+        <v>&lt;li class="name"&gt;77&lt;form id="formLoc98"&gt; &lt;input type="hidden" id="nameLoc98"class="name"  value="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/77.jpeg"&gt;&lt;input type="hidden" id="cnameLoc98"class="name"  value="{{name}}"&gt; &lt;input type="number" id="descLoc60"   placeholder=" QTY "  required&gt;&lt;input onclick="launch_notification();this.value='ADDED ✅'" type="submit" value="SEND"/&gt;&lt;/form&gt;
+&lt;img src="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/77" loading="lazy" width="400" height="400"&gt;  &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1">
+      <c r="A78" t="str">
+        <f>Sheet1!A78&amp;""&amp;Sheet1!B78&amp;""&amp;Sheet1!C78&amp;""&amp;Sheet1!D78&amp;""&amp;Sheet1!E78&amp;""&amp;Sheet1!F78&amp;""&amp;Sheet1!G78&amp;""&amp;Sheet1!H78&amp;""&amp;Sheet1!I78&amp;""&amp;Sheet1!J78&amp;""&amp;Sheet1!K78&amp;""&amp;Sheet1!L78&amp;""&amp;Sheet1!M78&amp;""&amp;Sheet1!N78&amp;""&amp;Sheet1!O78&amp;""&amp;Sheet1!P78&amp;""&amp;Sheet1!Q78&amp;""&amp;Sheet1!R78&amp;""&amp;Sheet1!S78&amp;""&amp;Sheet1!T78&amp;""&amp;Sheet1!U78&amp;""&amp;Sheet1!V78&amp;""&amp;Sheet1!W78&amp;""&amp;Sheet1!X78&amp;""&amp;Sheet1!Y78&amp;""&amp;Sheet1!Z78</f>
+        <v>&lt;li class="name"&gt;78&lt;form id="formLoc99"&gt; &lt;input type="hidden" id="nameLoc99"class="name"  value="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/78.jpeg"&gt;&lt;input type="hidden" id="cnameLoc99"class="name"  value="{{name}}"&gt; &lt;input type="number" id="descLoc61"   placeholder=" QTY "  required&gt;&lt;input onclick="launch_notification();this.value='ADDED ✅'" type="submit" value="SEND"/&gt;&lt;/form&gt;
+&lt;img src="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/78" loading="lazy" width="400" height="400"&gt;  &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1">
+      <c r="A79" t="str">
+        <f>Sheet1!A79&amp;""&amp;Sheet1!B79&amp;""&amp;Sheet1!C79&amp;""&amp;Sheet1!D79&amp;""&amp;Sheet1!E79&amp;""&amp;Sheet1!F79&amp;""&amp;Sheet1!G79&amp;""&amp;Sheet1!H79&amp;""&amp;Sheet1!I79&amp;""&amp;Sheet1!J79&amp;""&amp;Sheet1!K79&amp;""&amp;Sheet1!L79&amp;""&amp;Sheet1!M79&amp;""&amp;Sheet1!N79&amp;""&amp;Sheet1!O79&amp;""&amp;Sheet1!P79&amp;""&amp;Sheet1!Q79&amp;""&amp;Sheet1!R79&amp;""&amp;Sheet1!S79&amp;""&amp;Sheet1!T79&amp;""&amp;Sheet1!U79&amp;""&amp;Sheet1!V79&amp;""&amp;Sheet1!W79&amp;""&amp;Sheet1!X79&amp;""&amp;Sheet1!Y79&amp;""&amp;Sheet1!Z79</f>
+        <v>&lt;li class="name"&gt;79&lt;form id="formLoc100"&gt; &lt;input type="hidden" id="nameLoc100"class="name"  value="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/79.jpeg"&gt;&lt;input type="hidden" id="cnameLoc100"class="name"  value="{{name}}"&gt; &lt;input type="number" id="descLoc61"   placeholder=" QTY "  required&gt;&lt;input onclick="launch_notification();this.value='ADDED ✅'" type="submit" value="SEND"/&gt;&lt;/form&gt;
+&lt;img src="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/79" loading="lazy" width="400" height="400"&gt;  &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1">
+      <c r="A80" t="str">
+        <f>Sheet1!A80&amp;""&amp;Sheet1!B80&amp;""&amp;Sheet1!C80&amp;""&amp;Sheet1!D80&amp;""&amp;Sheet1!E80&amp;""&amp;Sheet1!F80&amp;""&amp;Sheet1!G80&amp;""&amp;Sheet1!H80&amp;""&amp;Sheet1!I80&amp;""&amp;Sheet1!J80&amp;""&amp;Sheet1!K80&amp;""&amp;Sheet1!L80&amp;""&amp;Sheet1!M80&amp;""&amp;Sheet1!N80&amp;""&amp;Sheet1!O80&amp;""&amp;Sheet1!P80&amp;""&amp;Sheet1!Q80&amp;""&amp;Sheet1!R80&amp;""&amp;Sheet1!S80&amp;""&amp;Sheet1!T80&amp;""&amp;Sheet1!U80&amp;""&amp;Sheet1!V80&amp;""&amp;Sheet1!W80&amp;""&amp;Sheet1!X80&amp;""&amp;Sheet1!Y80&amp;""&amp;Sheet1!Z80</f>
+        <v>&lt;li class="name"&gt;80&lt;form id="formLoc101"&gt; &lt;input type="hidden" id="nameLoc101"class="name"  value="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/80.jpeg"&gt;&lt;input type="hidden" id="cnameLoc101"class="name"  value="{{name}}"&gt; &lt;input type="number" id="descLoc62"   placeholder=" QTY "  required&gt;&lt;input onclick="launch_notification();this.value='ADDED ✅'" type="submit" value="SEND"/&gt;&lt;/form&gt;
+&lt;img src="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/80" loading="lazy" width="400" height="400"&gt;  &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1">
+      <c r="A81" t="str">
+        <f>Sheet1!A81&amp;""&amp;Sheet1!B81&amp;""&amp;Sheet1!C81&amp;""&amp;Sheet1!D81&amp;""&amp;Sheet1!E81&amp;""&amp;Sheet1!F81&amp;""&amp;Sheet1!G81&amp;""&amp;Sheet1!H81&amp;""&amp;Sheet1!I81&amp;""&amp;Sheet1!J81&amp;""&amp;Sheet1!K81&amp;""&amp;Sheet1!L81&amp;""&amp;Sheet1!M81&amp;""&amp;Sheet1!N81&amp;""&amp;Sheet1!O81&amp;""&amp;Sheet1!P81&amp;""&amp;Sheet1!Q81&amp;""&amp;Sheet1!R81&amp;""&amp;Sheet1!S81&amp;""&amp;Sheet1!T81&amp;""&amp;Sheet1!U81&amp;""&amp;Sheet1!V81&amp;""&amp;Sheet1!W81&amp;""&amp;Sheet1!X81&amp;""&amp;Sheet1!Y81&amp;""&amp;Sheet1!Z81</f>
+        <v>&lt;li class="name"&gt;81&lt;form id="formLoc102"&gt; &lt;input type="hidden" id="nameLoc102"class="name"  value="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/81.jpeg"&gt;&lt;input type="hidden" id="cnameLoc102"class="name"  value="{{name}}"&gt; &lt;input type="number" id="descLoc62"   placeholder=" QTY "  required&gt;&lt;input onclick="launch_notification();this.value='ADDED ✅'" type="submit" value="SEND"/&gt;&lt;/form&gt;
+&lt;img src="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/81" loading="lazy" width="400" height="400"&gt;  &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1">
+      <c r="A82" t="str">
+        <f>Sheet1!A82&amp;""&amp;Sheet1!B82&amp;""&amp;Sheet1!C82&amp;""&amp;Sheet1!D82&amp;""&amp;Sheet1!E82&amp;""&amp;Sheet1!F82&amp;""&amp;Sheet1!G82&amp;""&amp;Sheet1!H82&amp;""&amp;Sheet1!I82&amp;""&amp;Sheet1!J82&amp;""&amp;Sheet1!K82&amp;""&amp;Sheet1!L82&amp;""&amp;Sheet1!M82&amp;""&amp;Sheet1!N82&amp;""&amp;Sheet1!O82&amp;""&amp;Sheet1!P82&amp;""&amp;Sheet1!Q82&amp;""&amp;Sheet1!R82&amp;""&amp;Sheet1!S82&amp;""&amp;Sheet1!T82&amp;""&amp;Sheet1!U82&amp;""&amp;Sheet1!V82&amp;""&amp;Sheet1!W82&amp;""&amp;Sheet1!X82&amp;""&amp;Sheet1!Y82&amp;""&amp;Sheet1!Z82</f>
+        <v>&lt;li class="name"&gt;82&lt;form id="formLoc103"&gt; &lt;input type="hidden" id="nameLoc103"class="name"  value="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/82.jpeg"&gt;&lt;input type="hidden" id="cnameLoc103"class="name"  value="{{name}}"&gt; &lt;input type="number" id="descLoc63"   placeholder=" QTY "  required&gt;&lt;input onclick="launch_notification();this.value='ADDED ✅'" type="submit" value="SEND"/&gt;&lt;/form&gt;
+&lt;img src="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/82" loading="lazy" width="400" height="400"&gt;  &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1">
+      <c r="A83" t="str">
+        <f>Sheet1!A83&amp;""&amp;Sheet1!B83&amp;""&amp;Sheet1!C83&amp;""&amp;Sheet1!D83&amp;""&amp;Sheet1!E83&amp;""&amp;Sheet1!F83&amp;""&amp;Sheet1!G83&amp;""&amp;Sheet1!H83&amp;""&amp;Sheet1!I83&amp;""&amp;Sheet1!J83&amp;""&amp;Sheet1!K83&amp;""&amp;Sheet1!L83&amp;""&amp;Sheet1!M83&amp;""&amp;Sheet1!N83&amp;""&amp;Sheet1!O83&amp;""&amp;Sheet1!P83&amp;""&amp;Sheet1!Q83&amp;""&amp;Sheet1!R83&amp;""&amp;Sheet1!S83&amp;""&amp;Sheet1!T83&amp;""&amp;Sheet1!U83&amp;""&amp;Sheet1!V83&amp;""&amp;Sheet1!W83&amp;""&amp;Sheet1!X83&amp;""&amp;Sheet1!Y83&amp;""&amp;Sheet1!Z83</f>
+        <v>&lt;li class="name"&gt;83&lt;form id="formLoc104"&gt; &lt;input type="hidden" id="nameLoc104"class="name"  value="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/83.jpeg"&gt;&lt;input type="hidden" id="cnameLoc104"class="name"  value="{{name}}"&gt; &lt;input type="number" id="descLoc63"   placeholder=" QTY "  required&gt;&lt;input onclick="launch_notification();this.value='ADDED ✅'" type="submit" value="SEND"/&gt;&lt;/form&gt;
+&lt;img src="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/83" loading="lazy" width="400" height="400"&gt;  &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1">
+      <c r="A84" t="str">
+        <f>Sheet1!A84&amp;""&amp;Sheet1!B84&amp;""&amp;Sheet1!C84&amp;""&amp;Sheet1!D84&amp;""&amp;Sheet1!E84&amp;""&amp;Sheet1!F84&amp;""&amp;Sheet1!G84&amp;""&amp;Sheet1!H84&amp;""&amp;Sheet1!I84&amp;""&amp;Sheet1!J84&amp;""&amp;Sheet1!K84&amp;""&amp;Sheet1!L84&amp;""&amp;Sheet1!M84&amp;""&amp;Sheet1!N84&amp;""&amp;Sheet1!O84&amp;""&amp;Sheet1!P84&amp;""&amp;Sheet1!Q84&amp;""&amp;Sheet1!R84&amp;""&amp;Sheet1!S84&amp;""&amp;Sheet1!T84&amp;""&amp;Sheet1!U84&amp;""&amp;Sheet1!V84&amp;""&amp;Sheet1!W84&amp;""&amp;Sheet1!X84&amp;""&amp;Sheet1!Y84&amp;""&amp;Sheet1!Z84</f>
+        <v>&lt;li class="name"&gt;84&lt;form id="formLoc105"&gt; &lt;input type="hidden" id="nameLoc105"class="name"  value="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/84.jpeg"&gt;&lt;input type="hidden" id="cnameLoc105"class="name"  value="{{name}}"&gt; &lt;input type="number" id="descLoc64"   placeholder=" QTY "  required&gt;&lt;input onclick="launch_notification();this.value='ADDED ✅'" type="submit" value="SEND"/&gt;&lt;/form&gt;
+&lt;img src="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/84" loading="lazy" width="400" height="400"&gt;  &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1">
+      <c r="A85" t="str">
+        <f>Sheet1!A85&amp;""&amp;Sheet1!B85&amp;""&amp;Sheet1!C85&amp;""&amp;Sheet1!D85&amp;""&amp;Sheet1!E85&amp;""&amp;Sheet1!F85&amp;""&amp;Sheet1!G85&amp;""&amp;Sheet1!H85&amp;""&amp;Sheet1!I85&amp;""&amp;Sheet1!J85&amp;""&amp;Sheet1!K85&amp;""&amp;Sheet1!L85&amp;""&amp;Sheet1!M85&amp;""&amp;Sheet1!N85&amp;""&amp;Sheet1!O85&amp;""&amp;Sheet1!P85&amp;""&amp;Sheet1!Q85&amp;""&amp;Sheet1!R85&amp;""&amp;Sheet1!S85&amp;""&amp;Sheet1!T85&amp;""&amp;Sheet1!U85&amp;""&amp;Sheet1!V85&amp;""&amp;Sheet1!W85&amp;""&amp;Sheet1!X85&amp;""&amp;Sheet1!Y85&amp;""&amp;Sheet1!Z85</f>
+        <v>&lt;li class="name"&gt;85&lt;form id="formLoc106"&gt; &lt;input type="hidden" id="nameLoc106"class="name"  value="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/85.jpeg"&gt;&lt;input type="hidden" id="cnameLoc106"class="name"  value="{{name}}"&gt; &lt;input type="number" id="descLoc64"   placeholder=" QTY "  required&gt;&lt;input onclick="launch_notification();this.value='ADDED ✅'" type="submit" value="SEND"/&gt;&lt;/form&gt;
+&lt;img src="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/85" loading="lazy" width="400" height="400"&gt;  &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1">
+      <c r="A86" t="str">
+        <f>Sheet1!A86&amp;""&amp;Sheet1!B86&amp;""&amp;Sheet1!C86&amp;""&amp;Sheet1!D86&amp;""&amp;Sheet1!E86&amp;""&amp;Sheet1!F86&amp;""&amp;Sheet1!G86&amp;""&amp;Sheet1!H86&amp;""&amp;Sheet1!I86&amp;""&amp;Sheet1!J86&amp;""&amp;Sheet1!K86&amp;""&amp;Sheet1!L86&amp;""&amp;Sheet1!M86&amp;""&amp;Sheet1!N86&amp;""&amp;Sheet1!O86&amp;""&amp;Sheet1!P86&amp;""&amp;Sheet1!Q86&amp;""&amp;Sheet1!R86&amp;""&amp;Sheet1!S86&amp;""&amp;Sheet1!T86&amp;""&amp;Sheet1!U86&amp;""&amp;Sheet1!V86&amp;""&amp;Sheet1!W86&amp;""&amp;Sheet1!X86&amp;""&amp;Sheet1!Y86&amp;""&amp;Sheet1!Z86</f>
+        <v>&lt;li class="name"&gt;86&lt;form id="formLoc107"&gt; &lt;input type="hidden" id="nameLoc107"class="name"  value="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/86.jpeg"&gt;&lt;input type="hidden" id="cnameLoc107"class="name"  value="{{name}}"&gt; &lt;input type="number" id="descLoc65"   placeholder=" QTY "  required&gt;&lt;input onclick="launch_notification();this.value='ADDED ✅'" type="submit" value="SEND"/&gt;&lt;/form&gt;
+&lt;img src="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/86" loading="lazy" width="400" height="400"&gt;  &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1">
+      <c r="A87" t="str">
+        <f>Sheet1!A87&amp;""&amp;Sheet1!B87&amp;""&amp;Sheet1!C87&amp;""&amp;Sheet1!D87&amp;""&amp;Sheet1!E87&amp;""&amp;Sheet1!F87&amp;""&amp;Sheet1!G87&amp;""&amp;Sheet1!H87&amp;""&amp;Sheet1!I87&amp;""&amp;Sheet1!J87&amp;""&amp;Sheet1!K87&amp;""&amp;Sheet1!L87&amp;""&amp;Sheet1!M87&amp;""&amp;Sheet1!N87&amp;""&amp;Sheet1!O87&amp;""&amp;Sheet1!P87&amp;""&amp;Sheet1!Q87&amp;""&amp;Sheet1!R87&amp;""&amp;Sheet1!S87&amp;""&amp;Sheet1!T87&amp;""&amp;Sheet1!U87&amp;""&amp;Sheet1!V87&amp;""&amp;Sheet1!W87&amp;""&amp;Sheet1!X87&amp;""&amp;Sheet1!Y87&amp;""&amp;Sheet1!Z87</f>
+        <v>&lt;li class="name"&gt;87&lt;form id="formLoc108"&gt; &lt;input type="hidden" id="nameLoc108"class="name"  value="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/87.jpeg"&gt;&lt;input type="hidden" id="cnameLoc108"class="name"  value="{{name}}"&gt; &lt;input type="number" id="descLoc65"   placeholder=" QTY "  required&gt;&lt;input onclick="launch_notification();this.value='ADDED ✅'" type="submit" value="SEND"/&gt;&lt;/form&gt;
+&lt;img src="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/87" loading="lazy" width="400" height="400"&gt;  &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1">
+      <c r="A88" t="str">
+        <f>Sheet1!A88&amp;""&amp;Sheet1!B88&amp;""&amp;Sheet1!C88&amp;""&amp;Sheet1!D88&amp;""&amp;Sheet1!E88&amp;""&amp;Sheet1!F88&amp;""&amp;Sheet1!G88&amp;""&amp;Sheet1!H88&amp;""&amp;Sheet1!I88&amp;""&amp;Sheet1!J88&amp;""&amp;Sheet1!K88&amp;""&amp;Sheet1!L88&amp;""&amp;Sheet1!M88&amp;""&amp;Sheet1!N88&amp;""&amp;Sheet1!O88&amp;""&amp;Sheet1!P88&amp;""&amp;Sheet1!Q88&amp;""&amp;Sheet1!R88&amp;""&amp;Sheet1!S88&amp;""&amp;Sheet1!T88&amp;""&amp;Sheet1!U88&amp;""&amp;Sheet1!V88&amp;""&amp;Sheet1!W88&amp;""&amp;Sheet1!X88&amp;""&amp;Sheet1!Y88&amp;""&amp;Sheet1!Z88</f>
+        <v>&lt;li class="name"&gt;88&lt;form id="formLoc109"&gt; &lt;input type="hidden" id="nameLoc109"class="name"  value="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/88.jpeg"&gt;&lt;input type="hidden" id="cnameLoc109"class="name"  value="{{name}}"&gt; &lt;input type="number" id="descLoc66"   placeholder=" QTY "  required&gt;&lt;input onclick="launch_notification();this.value='ADDED ✅'" type="submit" value="SEND"/&gt;&lt;/form&gt;
+&lt;img src="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/88" loading="lazy" width="400" height="400"&gt;  &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1">
+      <c r="A89" t="str">
+        <f>Sheet1!A89&amp;""&amp;Sheet1!B89&amp;""&amp;Sheet1!C89&amp;""&amp;Sheet1!D89&amp;""&amp;Sheet1!E89&amp;""&amp;Sheet1!F89&amp;""&amp;Sheet1!G89&amp;""&amp;Sheet1!H89&amp;""&amp;Sheet1!I89&amp;""&amp;Sheet1!J89&amp;""&amp;Sheet1!K89&amp;""&amp;Sheet1!L89&amp;""&amp;Sheet1!M89&amp;""&amp;Sheet1!N89&amp;""&amp;Sheet1!O89&amp;""&amp;Sheet1!P89&amp;""&amp;Sheet1!Q89&amp;""&amp;Sheet1!R89&amp;""&amp;Sheet1!S89&amp;""&amp;Sheet1!T89&amp;""&amp;Sheet1!U89&amp;""&amp;Sheet1!V89&amp;""&amp;Sheet1!W89&amp;""&amp;Sheet1!X89&amp;""&amp;Sheet1!Y89&amp;""&amp;Sheet1!Z89</f>
+        <v>&lt;li class="name"&gt;89&lt;form id="formLoc110"&gt; &lt;input type="hidden" id="nameLoc110"class="name"  value="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/89.jpeg"&gt;&lt;input type="hidden" id="cnameLoc110"class="name"  value="{{name}}"&gt; &lt;input type="number" id="descLoc66"   placeholder=" QTY "  required&gt;&lt;input onclick="launch_notification();this.value='ADDED ✅'" type="submit" value="SEND"/&gt;&lt;/form&gt;
+&lt;img src="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/89" loading="lazy" width="400" height="400"&gt;  &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1">
+      <c r="A90" t="str">
+        <f>Sheet1!A90&amp;""&amp;Sheet1!B90&amp;""&amp;Sheet1!C90&amp;""&amp;Sheet1!D90&amp;""&amp;Sheet1!E90&amp;""&amp;Sheet1!F90&amp;""&amp;Sheet1!G90&amp;""&amp;Sheet1!H90&amp;""&amp;Sheet1!I90&amp;""&amp;Sheet1!J90&amp;""&amp;Sheet1!K90&amp;""&amp;Sheet1!L90&amp;""&amp;Sheet1!M90&amp;""&amp;Sheet1!N90&amp;""&amp;Sheet1!O90&amp;""&amp;Sheet1!P90&amp;""&amp;Sheet1!Q90&amp;""&amp;Sheet1!R90&amp;""&amp;Sheet1!S90&amp;""&amp;Sheet1!T90&amp;""&amp;Sheet1!U90&amp;""&amp;Sheet1!V90&amp;""&amp;Sheet1!W90&amp;""&amp;Sheet1!X90&amp;""&amp;Sheet1!Y90&amp;""&amp;Sheet1!Z90</f>
+        <v>&lt;li class="name"&gt;90&lt;form id="formLoc111"&gt; &lt;input type="hidden" id="nameLoc111"class="name"  value="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/90.jpeg"&gt;&lt;input type="hidden" id="cnameLoc111"class="name"  value="{{name}}"&gt; &lt;input type="number" id="descLoc67"   placeholder=" QTY "  required&gt;&lt;input onclick="launch_notification();this.value='ADDED ✅'" type="submit" value="SEND"/&gt;&lt;/form&gt;
+&lt;img src="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/90" loading="lazy" width="400" height="400"&gt;  &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1">
+      <c r="A91" t="str">
+        <f>Sheet1!A91&amp;""&amp;Sheet1!B91&amp;""&amp;Sheet1!C91&amp;""&amp;Sheet1!D91&amp;""&amp;Sheet1!E91&amp;""&amp;Sheet1!F91&amp;""&amp;Sheet1!G91&amp;""&amp;Sheet1!H91&amp;""&amp;Sheet1!I91&amp;""&amp;Sheet1!J91&amp;""&amp;Sheet1!K91&amp;""&amp;Sheet1!L91&amp;""&amp;Sheet1!M91&amp;""&amp;Sheet1!N91&amp;""&amp;Sheet1!O91&amp;""&amp;Sheet1!P91&amp;""&amp;Sheet1!Q91&amp;""&amp;Sheet1!R91&amp;""&amp;Sheet1!S91&amp;""&amp;Sheet1!T91&amp;""&amp;Sheet1!U91&amp;""&amp;Sheet1!V91&amp;""&amp;Sheet1!W91&amp;""&amp;Sheet1!X91&amp;""&amp;Sheet1!Y91&amp;""&amp;Sheet1!Z91</f>
+        <v>&lt;li class="name"&gt;91&lt;form id="formLoc112"&gt; &lt;input type="hidden" id="nameLoc112"class="name"  value="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/91.jpeg"&gt;&lt;input type="hidden" id="cnameLoc112"class="name"  value="{{name}}"&gt; &lt;input type="number" id="descLoc67"   placeholder=" QTY "  required&gt;&lt;input onclick="launch_notification();this.value='ADDED ✅'" type="submit" value="SEND"/&gt;&lt;/form&gt;
+&lt;img src="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/91" loading="lazy" width="400" height="400"&gt;  &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1">
+      <c r="A92" t="str">
+        <f>Sheet1!A92&amp;""&amp;Sheet1!B92&amp;""&amp;Sheet1!C92&amp;""&amp;Sheet1!D92&amp;""&amp;Sheet1!E92&amp;""&amp;Sheet1!F92&amp;""&amp;Sheet1!G92&amp;""&amp;Sheet1!H92&amp;""&amp;Sheet1!I92&amp;""&amp;Sheet1!J92&amp;""&amp;Sheet1!K92&amp;""&amp;Sheet1!L92&amp;""&amp;Sheet1!M92&amp;""&amp;Sheet1!N92&amp;""&amp;Sheet1!O92&amp;""&amp;Sheet1!P92&amp;""&amp;Sheet1!Q92&amp;""&amp;Sheet1!R92&amp;""&amp;Sheet1!S92&amp;""&amp;Sheet1!T92&amp;""&amp;Sheet1!U92&amp;""&amp;Sheet1!V92&amp;""&amp;Sheet1!W92&amp;""&amp;Sheet1!X92&amp;""&amp;Sheet1!Y92&amp;""&amp;Sheet1!Z92</f>
+        <v>&lt;li class="name"&gt;92&lt;form id="formLoc113"&gt; &lt;input type="hidden" id="nameLoc113"class="name"  value="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/92.jpeg"&gt;&lt;input type="hidden" id="cnameLoc113"class="name"  value="{{name}}"&gt; &lt;input type="number" id="descLoc68"   placeholder=" QTY "  required&gt;&lt;input onclick="launch_notification();this.value='ADDED ✅'" type="submit" value="SEND"/&gt;&lt;/form&gt;
+&lt;img src="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/92" loading="lazy" width="400" height="400"&gt;  &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1">
+      <c r="A93" t="str">
+        <f>Sheet1!A93&amp;""&amp;Sheet1!B93&amp;""&amp;Sheet1!C93&amp;""&amp;Sheet1!D93&amp;""&amp;Sheet1!E93&amp;""&amp;Sheet1!F93&amp;""&amp;Sheet1!G93&amp;""&amp;Sheet1!H93&amp;""&amp;Sheet1!I93&amp;""&amp;Sheet1!J93&amp;""&amp;Sheet1!K93&amp;""&amp;Sheet1!L93&amp;""&amp;Sheet1!M93&amp;""&amp;Sheet1!N93&amp;""&amp;Sheet1!O93&amp;""&amp;Sheet1!P93&amp;""&amp;Sheet1!Q93&amp;""&amp;Sheet1!R93&amp;""&amp;Sheet1!S93&amp;""&amp;Sheet1!T93&amp;""&amp;Sheet1!U93&amp;""&amp;Sheet1!V93&amp;""&amp;Sheet1!W93&amp;""&amp;Sheet1!X93&amp;""&amp;Sheet1!Y93&amp;""&amp;Sheet1!Z93</f>
+        <v>&lt;li class="name"&gt;93&lt;form id="formLoc114"&gt; &lt;input type="hidden" id="nameLoc114"class="name"  value="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/93.jpeg"&gt;&lt;input type="hidden" id="cnameLoc114"class="name"  value="{{name}}"&gt; &lt;input type="number" id="descLoc68"   placeholder=" QTY "  required&gt;&lt;input onclick="launch_notification();this.value='ADDED ✅'" type="submit" value="SEND"/&gt;&lt;/form&gt;
+&lt;img src="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/93" loading="lazy" width="400" height="400"&gt;  &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1">
+      <c r="A94" t="str">
+        <f>Sheet1!A94&amp;""&amp;Sheet1!B94&amp;""&amp;Sheet1!C94&amp;""&amp;Sheet1!D94&amp;""&amp;Sheet1!E94&amp;""&amp;Sheet1!F94&amp;""&amp;Sheet1!G94&amp;""&amp;Sheet1!H94&amp;""&amp;Sheet1!I94&amp;""&amp;Sheet1!J94&amp;""&amp;Sheet1!K94&amp;""&amp;Sheet1!L94&amp;""&amp;Sheet1!M94&amp;""&amp;Sheet1!N94&amp;""&amp;Sheet1!O94&amp;""&amp;Sheet1!P94&amp;""&amp;Sheet1!Q94&amp;""&amp;Sheet1!R94&amp;""&amp;Sheet1!S94&amp;""&amp;Sheet1!T94&amp;""&amp;Sheet1!U94&amp;""&amp;Sheet1!V94&amp;""&amp;Sheet1!W94&amp;""&amp;Sheet1!X94&amp;""&amp;Sheet1!Y94&amp;""&amp;Sheet1!Z94</f>
+        <v>&lt;li class="name"&gt;94&lt;form id="formLoc115"&gt; &lt;input type="hidden" id="nameLoc115"class="name"  value="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/94.jpeg"&gt;&lt;input type="hidden" id="cnameLoc115"class="name"  value="{{name}}"&gt; &lt;input type="number" id="descLoc69"   placeholder=" QTY "  required&gt;&lt;input onclick="launch_notification();this.value='ADDED ✅'" type="submit" value="SEND"/&gt;&lt;/form&gt;
+&lt;img src="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/94" loading="lazy" width="400" height="400"&gt;  &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1">
+      <c r="A95" t="str">
+        <f>Sheet1!A95&amp;""&amp;Sheet1!B95&amp;""&amp;Sheet1!C95&amp;""&amp;Sheet1!D95&amp;""&amp;Sheet1!E95&amp;""&amp;Sheet1!F95&amp;""&amp;Sheet1!G95&amp;""&amp;Sheet1!H95&amp;""&amp;Sheet1!I95&amp;""&amp;Sheet1!J95&amp;""&amp;Sheet1!K95&amp;""&amp;Sheet1!L95&amp;""&amp;Sheet1!M95&amp;""&amp;Sheet1!N95&amp;""&amp;Sheet1!O95&amp;""&amp;Sheet1!P95&amp;""&amp;Sheet1!Q95&amp;""&amp;Sheet1!R95&amp;""&amp;Sheet1!S95&amp;""&amp;Sheet1!T95&amp;""&amp;Sheet1!U95&amp;""&amp;Sheet1!V95&amp;""&amp;Sheet1!W95&amp;""&amp;Sheet1!X95&amp;""&amp;Sheet1!Y95&amp;""&amp;Sheet1!Z95</f>
+        <v>&lt;li class="name"&gt;95&lt;form id="formLoc116"&gt; &lt;input type="hidden" id="nameLoc116"class="name"  value="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/95.jpeg"&gt;&lt;input type="hidden" id="cnameLoc116"class="name"  value="{{name}}"&gt; &lt;input type="number" id="descLoc69"   placeholder=" QTY "  required&gt;&lt;input onclick="launch_notification();this.value='ADDED ✅'" type="submit" value="SEND"/&gt;&lt;/form&gt;
+&lt;img src="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/95" loading="lazy" width="400" height="400"&gt;  &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1">
+      <c r="A96" t="str">
+        <f>Sheet1!A96&amp;""&amp;Sheet1!B96&amp;""&amp;Sheet1!C96&amp;""&amp;Sheet1!D96&amp;""&amp;Sheet1!E96&amp;""&amp;Sheet1!F96&amp;""&amp;Sheet1!G96&amp;""&amp;Sheet1!H96&amp;""&amp;Sheet1!I96&amp;""&amp;Sheet1!J96&amp;""&amp;Sheet1!K96&amp;""&amp;Sheet1!L96&amp;""&amp;Sheet1!M96&amp;""&amp;Sheet1!N96&amp;""&amp;Sheet1!O96&amp;""&amp;Sheet1!P96&amp;""&amp;Sheet1!Q96&amp;""&amp;Sheet1!R96&amp;""&amp;Sheet1!S96&amp;""&amp;Sheet1!T96&amp;""&amp;Sheet1!U96&amp;""&amp;Sheet1!V96&amp;""&amp;Sheet1!W96&amp;""&amp;Sheet1!X96&amp;""&amp;Sheet1!Y96&amp;""&amp;Sheet1!Z96</f>
+        <v>&lt;li class="name"&gt;96&lt;form id="formLoc117"&gt; &lt;input type="hidden" id="nameLoc117"class="name"  value="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/96.jpeg"&gt;&lt;input type="hidden" id="cnameLoc117"class="name"  value="{{name}}"&gt; &lt;input type="number" id="descLoc70"   placeholder=" QTY "  required&gt;&lt;input onclick="launch_notification();this.value='ADDED ✅'" type="submit" value="SEND"/&gt;&lt;/form&gt;
+&lt;img src="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/96" loading="lazy" width="400" height="400"&gt;  &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1">
+      <c r="A97" t="str">
+        <f>Sheet1!A97&amp;""&amp;Sheet1!B97&amp;""&amp;Sheet1!C97&amp;""&amp;Sheet1!D97&amp;""&amp;Sheet1!E97&amp;""&amp;Sheet1!F97&amp;""&amp;Sheet1!G97&amp;""&amp;Sheet1!H97&amp;""&amp;Sheet1!I97&amp;""&amp;Sheet1!J97&amp;""&amp;Sheet1!K97&amp;""&amp;Sheet1!L97&amp;""&amp;Sheet1!M97&amp;""&amp;Sheet1!N97&amp;""&amp;Sheet1!O97&amp;""&amp;Sheet1!P97&amp;""&amp;Sheet1!Q97&amp;""&amp;Sheet1!R97&amp;""&amp;Sheet1!S97&amp;""&amp;Sheet1!T97&amp;""&amp;Sheet1!U97&amp;""&amp;Sheet1!V97&amp;""&amp;Sheet1!W97&amp;""&amp;Sheet1!X97&amp;""&amp;Sheet1!Y97&amp;""&amp;Sheet1!Z97</f>
+        <v>&lt;li class="name"&gt;97&lt;form id="formLoc118"&gt; &lt;input type="hidden" id="nameLoc118"class="name"  value="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/97.jpeg"&gt;&lt;input type="hidden" id="cnameLoc118"class="name"  value="{{name}}"&gt; &lt;input type="number" id="descLoc70"   placeholder=" QTY "  required&gt;&lt;input onclick="launch_notification();this.value='ADDED ✅'" type="submit" value="SEND"/&gt;&lt;/form&gt;
+&lt;img src="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/97" loading="lazy" width="400" height="400"&gt;  &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1">
+      <c r="A98" t="str">
+        <f>Sheet1!A98&amp;""&amp;Sheet1!B98&amp;""&amp;Sheet1!C98&amp;""&amp;Sheet1!D98&amp;""&amp;Sheet1!E98&amp;""&amp;Sheet1!F98&amp;""&amp;Sheet1!G98&amp;""&amp;Sheet1!H98&amp;""&amp;Sheet1!I98&amp;""&amp;Sheet1!J98&amp;""&amp;Sheet1!K98&amp;""&amp;Sheet1!L98&amp;""&amp;Sheet1!M98&amp;""&amp;Sheet1!N98&amp;""&amp;Sheet1!O98&amp;""&amp;Sheet1!P98&amp;""&amp;Sheet1!Q98&amp;""&amp;Sheet1!R98&amp;""&amp;Sheet1!S98&amp;""&amp;Sheet1!T98&amp;""&amp;Sheet1!U98&amp;""&amp;Sheet1!V98&amp;""&amp;Sheet1!W98&amp;""&amp;Sheet1!X98&amp;""&amp;Sheet1!Y98&amp;""&amp;Sheet1!Z98</f>
+        <v>&lt;li class="name"&gt;98&lt;form id="formLoc119"&gt; &lt;input type="hidden" id="nameLoc119"class="name"  value="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/98.jpeg"&gt;&lt;input type="hidden" id="cnameLoc119"class="name"  value="{{name}}"&gt; &lt;input type="number" id="descLoc71"   placeholder=" QTY "  required&gt;&lt;input onclick="launch_notification();this.value='ADDED ✅'" type="submit" value="SEND"/&gt;&lt;/form&gt;
+&lt;img src="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/98" loading="lazy" width="400" height="400"&gt;  &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1">
+      <c r="A99" t="str">
+        <f>Sheet1!A99&amp;""&amp;Sheet1!B99&amp;""&amp;Sheet1!C99&amp;""&amp;Sheet1!D99&amp;""&amp;Sheet1!E99&amp;""&amp;Sheet1!F99&amp;""&amp;Sheet1!G99&amp;""&amp;Sheet1!H99&amp;""&amp;Sheet1!I99&amp;""&amp;Sheet1!J99&amp;""&amp;Sheet1!K99&amp;""&amp;Sheet1!L99&amp;""&amp;Sheet1!M99&amp;""&amp;Sheet1!N99&amp;""&amp;Sheet1!O99&amp;""&amp;Sheet1!P99&amp;""&amp;Sheet1!Q99&amp;""&amp;Sheet1!R99&amp;""&amp;Sheet1!S99&amp;""&amp;Sheet1!T99&amp;""&amp;Sheet1!U99&amp;""&amp;Sheet1!V99&amp;""&amp;Sheet1!W99&amp;""&amp;Sheet1!X99&amp;""&amp;Sheet1!Y99&amp;""&amp;Sheet1!Z99</f>
+        <v>&lt;li class="name"&gt;99&lt;form id="formLoc120"&gt; &lt;input type="hidden" id="nameLoc120"class="name"  value="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/99.jpeg"&gt;&lt;input type="hidden" id="cnameLoc120"class="name"  value="{{name}}"&gt; &lt;input type="number" id="descLoc71"   placeholder=" QTY "  required&gt;&lt;input onclick="launch_notification();this.value='ADDED ✅'" type="submit" value="SEND"/&gt;&lt;/form&gt;
+&lt;img src="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/99" loading="lazy" width="400" height="400"&gt;  &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1">
+      <c r="A100" t="str">
+        <f>Sheet1!A100&amp;""&amp;Sheet1!B100&amp;""&amp;Sheet1!C100&amp;""&amp;Sheet1!D100&amp;""&amp;Sheet1!E100&amp;""&amp;Sheet1!F100&amp;""&amp;Sheet1!G100&amp;""&amp;Sheet1!H100&amp;""&amp;Sheet1!I100&amp;""&amp;Sheet1!J100&amp;""&amp;Sheet1!K100&amp;""&amp;Sheet1!L100&amp;""&amp;Sheet1!M100&amp;""&amp;Sheet1!N100&amp;""&amp;Sheet1!O100&amp;""&amp;Sheet1!P100&amp;""&amp;Sheet1!Q100&amp;""&amp;Sheet1!R100&amp;""&amp;Sheet1!S100&amp;""&amp;Sheet1!T100&amp;""&amp;Sheet1!U100&amp;""&amp;Sheet1!V100&amp;""&amp;Sheet1!W100&amp;""&amp;Sheet1!X100&amp;""&amp;Sheet1!Y100&amp;""&amp;Sheet1!Z100</f>
+        <v>&lt;li class="name"&gt;100&lt;form id="formLoc121"&gt; &lt;input type="hidden" id="nameLoc121"class="name"  value="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/100.jpeg"&gt;&lt;input type="hidden" id="cnameLoc121"class="name"  value="{{name}}"&gt; &lt;input type="number" id="descLoc72"   placeholder=" QTY "  required&gt;&lt;input onclick="launch_notification();this.value='ADDED ✅'" type="submit" value="SEND"/&gt;&lt;/form&gt;
+&lt;img src="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/100" loading="lazy" width="400" height="400"&gt;  &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1">
+      <c r="A101" t="str">
+        <f>Sheet1!A101&amp;""&amp;Sheet1!B101&amp;""&amp;Sheet1!C101&amp;""&amp;Sheet1!D101&amp;""&amp;Sheet1!E101&amp;""&amp;Sheet1!F101&amp;""&amp;Sheet1!G101&amp;""&amp;Sheet1!H101&amp;""&amp;Sheet1!I101&amp;""&amp;Sheet1!J101&amp;""&amp;Sheet1!K101&amp;""&amp;Sheet1!L101&amp;""&amp;Sheet1!M101&amp;""&amp;Sheet1!N101&amp;""&amp;Sheet1!O101&amp;""&amp;Sheet1!P101&amp;""&amp;Sheet1!Q101&amp;""&amp;Sheet1!R101&amp;""&amp;Sheet1!S101&amp;""&amp;Sheet1!T101&amp;""&amp;Sheet1!U101&amp;""&amp;Sheet1!V101&amp;""&amp;Sheet1!W101&amp;""&amp;Sheet1!X101&amp;""&amp;Sheet1!Y101&amp;""&amp;Sheet1!Z101</f>
+        <v>&lt;li class="name"&gt;101&lt;form id="formLoc122"&gt; &lt;input type="hidden" id="nameLoc122"class="name"  value="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/101.jpeg"&gt;&lt;input type="hidden" id="cnameLoc122"class="name"  value="{{name}}"&gt; &lt;input type="number" id="descLoc72"   placeholder=" QTY "  required&gt;&lt;input onclick="launch_notification();this.value='ADDED ✅'" type="submit" value="SEND"/&gt;&lt;/form&gt;
+&lt;img src="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/101" loading="lazy" width="400" height="400"&gt;  &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1">
+      <c r="A102" t="str">
+        <f>Sheet1!A102&amp;""&amp;Sheet1!B102&amp;""&amp;Sheet1!C102&amp;""&amp;Sheet1!D102&amp;""&amp;Sheet1!E102&amp;""&amp;Sheet1!F102&amp;""&amp;Sheet1!G102&amp;""&amp;Sheet1!H102&amp;""&amp;Sheet1!I102&amp;""&amp;Sheet1!J102&amp;""&amp;Sheet1!K102&amp;""&amp;Sheet1!L102&amp;""&amp;Sheet1!M102&amp;""&amp;Sheet1!N102&amp;""&amp;Sheet1!O102&amp;""&amp;Sheet1!P102&amp;""&amp;Sheet1!Q102&amp;""&amp;Sheet1!R102&amp;""&amp;Sheet1!S102&amp;""&amp;Sheet1!T102&amp;""&amp;Sheet1!U102&amp;""&amp;Sheet1!V102&amp;""&amp;Sheet1!W102&amp;""&amp;Sheet1!X102&amp;""&amp;Sheet1!Y102&amp;""&amp;Sheet1!Z102</f>
+        <v>&lt;li class="name"&gt;102&lt;form id="formLoc123"&gt; &lt;input type="hidden" id="nameLoc123"class="name"  value="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/102.jpeg"&gt;&lt;input type="hidden" id="cnameLoc123"class="name"  value="{{name}}"&gt; &lt;input type="number" id="descLoc73"   placeholder=" QTY "  required&gt;&lt;input onclick="launch_notification();this.value='ADDED ✅'" type="submit" value="SEND"/&gt;&lt;/form&gt;
+&lt;img src="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/102" loading="lazy" width="400" height="400"&gt;  &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1">
+      <c r="A103" t="str">
+        <f>Sheet1!A103&amp;""&amp;Sheet1!B103&amp;""&amp;Sheet1!C103&amp;""&amp;Sheet1!D103&amp;""&amp;Sheet1!E103&amp;""&amp;Sheet1!F103&amp;""&amp;Sheet1!G103&amp;""&amp;Sheet1!H103&amp;""&amp;Sheet1!I103&amp;""&amp;Sheet1!J103&amp;""&amp;Sheet1!K103&amp;""&amp;Sheet1!L103&amp;""&amp;Sheet1!M103&amp;""&amp;Sheet1!N103&amp;""&amp;Sheet1!O103&amp;""&amp;Sheet1!P103&amp;""&amp;Sheet1!Q103&amp;""&amp;Sheet1!R103&amp;""&amp;Sheet1!S103&amp;""&amp;Sheet1!T103&amp;""&amp;Sheet1!U103&amp;""&amp;Sheet1!V103&amp;""&amp;Sheet1!W103&amp;""&amp;Sheet1!X103&amp;""&amp;Sheet1!Y103&amp;""&amp;Sheet1!Z103</f>
+        <v>&lt;li class="name"&gt;103&lt;form id="formLoc124"&gt; &lt;input type="hidden" id="nameLoc124"class="name"  value="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/103.jpeg"&gt;&lt;input type="hidden" id="cnameLoc124"class="name"  value="{{name}}"&gt; &lt;input type="number" id="descLoc73"   placeholder=" QTY "  required&gt;&lt;input onclick="launch_notification();this.value='ADDED ✅'" type="submit" value="SEND"/&gt;&lt;/form&gt;
+&lt;img src="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/103" loading="lazy" width="400" height="400"&gt;  &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1">
+      <c r="A104" t="str">
+        <f>Sheet1!A104&amp;""&amp;Sheet1!B104&amp;""&amp;Sheet1!C104&amp;""&amp;Sheet1!D104&amp;""&amp;Sheet1!E104&amp;""&amp;Sheet1!F104&amp;""&amp;Sheet1!G104&amp;""&amp;Sheet1!H104&amp;""&amp;Sheet1!I104&amp;""&amp;Sheet1!J104&amp;""&amp;Sheet1!K104&amp;""&amp;Sheet1!L104&amp;""&amp;Sheet1!M104&amp;""&amp;Sheet1!N104&amp;""&amp;Sheet1!O104&amp;""&amp;Sheet1!P104&amp;""&amp;Sheet1!Q104&amp;""&amp;Sheet1!R104&amp;""&amp;Sheet1!S104&amp;""&amp;Sheet1!T104&amp;""&amp;Sheet1!U104&amp;""&amp;Sheet1!V104&amp;""&amp;Sheet1!W104&amp;""&amp;Sheet1!X104&amp;""&amp;Sheet1!Y104&amp;""&amp;Sheet1!Z104</f>
+        <v>&lt;li class="name"&gt;104&lt;form id="formLoc125"&gt; &lt;input type="hidden" id="nameLoc125"class="name"  value="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/104.jpeg"&gt;&lt;input type="hidden" id="cnameLoc125"class="name"  value="{{name}}"&gt; &lt;input type="number" id="descLoc74"   placeholder=" QTY "  required&gt;&lt;input onclick="launch_notification();this.value='ADDED ✅'" type="submit" value="SEND"/&gt;&lt;/form&gt;
+&lt;img src="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/104" loading="lazy" width="400" height="400"&gt;  &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1">
+      <c r="A105" t="str">
+        <f>Sheet1!A105&amp;""&amp;Sheet1!B105&amp;""&amp;Sheet1!C105&amp;""&amp;Sheet1!D105&amp;""&amp;Sheet1!E105&amp;""&amp;Sheet1!F105&amp;""&amp;Sheet1!G105&amp;""&amp;Sheet1!H105&amp;""&amp;Sheet1!I105&amp;""&amp;Sheet1!J105&amp;""&amp;Sheet1!K105&amp;""&amp;Sheet1!L105&amp;""&amp;Sheet1!M105&amp;""&amp;Sheet1!N105&amp;""&amp;Sheet1!O105&amp;""&amp;Sheet1!P105&amp;""&amp;Sheet1!Q105&amp;""&amp;Sheet1!R105&amp;""&amp;Sheet1!S105&amp;""&amp;Sheet1!T105&amp;""&amp;Sheet1!U105&amp;""&amp;Sheet1!V105&amp;""&amp;Sheet1!W105&amp;""&amp;Sheet1!X105&amp;""&amp;Sheet1!Y105&amp;""&amp;Sheet1!Z105</f>
+        <v>&lt;li class="name"&gt;105&lt;form id="formLoc126"&gt; &lt;input type="hidden" id="nameLoc126"class="name"  value="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/105.jpeg"&gt;&lt;input type="hidden" id="cnameLoc126"class="name"  value="{{name}}"&gt; &lt;input type="number" id="descLoc74"   placeholder=" QTY "  required&gt;&lt;input onclick="launch_notification();this.value='ADDED ✅'" type="submit" value="SEND"/&gt;&lt;/form&gt;
+&lt;img src="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/105" loading="lazy" width="400" height="400"&gt;  &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1">
+      <c r="A106" t="str">
+        <f>Sheet1!A106&amp;""&amp;Sheet1!B106&amp;""&amp;Sheet1!C106&amp;""&amp;Sheet1!D106&amp;""&amp;Sheet1!E106&amp;""&amp;Sheet1!F106&amp;""&amp;Sheet1!G106&amp;""&amp;Sheet1!H106&amp;""&amp;Sheet1!I106&amp;""&amp;Sheet1!J106&amp;""&amp;Sheet1!K106&amp;""&amp;Sheet1!L106&amp;""&amp;Sheet1!M106&amp;""&amp;Sheet1!N106&amp;""&amp;Sheet1!O106&amp;""&amp;Sheet1!P106&amp;""&amp;Sheet1!Q106&amp;""&amp;Sheet1!R106&amp;""&amp;Sheet1!S106&amp;""&amp;Sheet1!T106&amp;""&amp;Sheet1!U106&amp;""&amp;Sheet1!V106&amp;""&amp;Sheet1!W106&amp;""&amp;Sheet1!X106&amp;""&amp;Sheet1!Y106&amp;""&amp;Sheet1!Z106</f>
+        <v>&lt;li class="name"&gt;106&lt;form id="formLoc127"&gt; &lt;input type="hidden" id="nameLoc127"class="name"  value="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/106.jpeg"&gt;&lt;input type="hidden" id="cnameLoc127"class="name"  value="{{name}}"&gt; &lt;input type="number" id="descLoc75"   placeholder=" QTY "  required&gt;&lt;input onclick="launch_notification();this.value='ADDED ✅'" type="submit" value="SEND"/&gt;&lt;/form&gt;
+&lt;img src="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/106" loading="lazy" width="400" height="400"&gt;  &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1">
+      <c r="A107" t="str">
+        <f>Sheet1!A107&amp;""&amp;Sheet1!B107&amp;""&amp;Sheet1!C107&amp;""&amp;Sheet1!D107&amp;""&amp;Sheet1!E107&amp;""&amp;Sheet1!F107&amp;""&amp;Sheet1!G107&amp;""&amp;Sheet1!H107&amp;""&amp;Sheet1!I107&amp;""&amp;Sheet1!J107&amp;""&amp;Sheet1!K107&amp;""&amp;Sheet1!L107&amp;""&amp;Sheet1!M107&amp;""&amp;Sheet1!N107&amp;""&amp;Sheet1!O107&amp;""&amp;Sheet1!P107&amp;""&amp;Sheet1!Q107&amp;""&amp;Sheet1!R107&amp;""&amp;Sheet1!S107&amp;""&amp;Sheet1!T107&amp;""&amp;Sheet1!U107&amp;""&amp;Sheet1!V107&amp;""&amp;Sheet1!W107&amp;""&amp;Sheet1!X107&amp;""&amp;Sheet1!Y107&amp;""&amp;Sheet1!Z107</f>
+        <v>&lt;li class="name"&gt;107&lt;form id="formLoc128"&gt; &lt;input type="hidden" id="nameLoc128"class="name"  value="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/107.jpeg"&gt;&lt;input type="hidden" id="cnameLoc128"class="name"  value="{{name}}"&gt; &lt;input type="number" id="descLoc75"   placeholder=" QTY "  required&gt;&lt;input onclick="launch_notification();this.value='ADDED ✅'" type="submit" value="SEND"/&gt;&lt;/form&gt;
+&lt;img src="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/107" loading="lazy" width="400" height="400"&gt;  &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1">
+      <c r="A108" t="str">
+        <f>Sheet1!A108&amp;""&amp;Sheet1!B108&amp;""&amp;Sheet1!C108&amp;""&amp;Sheet1!D108&amp;""&amp;Sheet1!E108&amp;""&amp;Sheet1!F108&amp;""&amp;Sheet1!G108&amp;""&amp;Sheet1!H108&amp;""&amp;Sheet1!I108&amp;""&amp;Sheet1!J108&amp;""&amp;Sheet1!K108&amp;""&amp;Sheet1!L108&amp;""&amp;Sheet1!M108&amp;""&amp;Sheet1!N108&amp;""&amp;Sheet1!O108&amp;""&amp;Sheet1!P108&amp;""&amp;Sheet1!Q108&amp;""&amp;Sheet1!R108&amp;""&amp;Sheet1!S108&amp;""&amp;Sheet1!T108&amp;""&amp;Sheet1!U108&amp;""&amp;Sheet1!V108&amp;""&amp;Sheet1!W108&amp;""&amp;Sheet1!X108&amp;""&amp;Sheet1!Y108&amp;""&amp;Sheet1!Z108</f>
+        <v>&lt;li class="name"&gt;108&lt;form id="formLoc129"&gt; &lt;input type="hidden" id="nameLoc129"class="name"  value="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/108.jpeg"&gt;&lt;input type="hidden" id="cnameLoc129"class="name"  value="{{name}}"&gt; &lt;input type="number" id="descLoc76"   placeholder=" QTY "  required&gt;&lt;input onclick="launch_notification();this.value='ADDED ✅'" type="submit" value="SEND"/&gt;&lt;/form&gt;
+&lt;img src="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/108" loading="lazy" width="400" height="400"&gt;  &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1">
+      <c r="A109" t="str">
+        <f>Sheet1!A109&amp;""&amp;Sheet1!B109&amp;""&amp;Sheet1!C109&amp;""&amp;Sheet1!D109&amp;""&amp;Sheet1!E109&amp;""&amp;Sheet1!F109&amp;""&amp;Sheet1!G109&amp;""&amp;Sheet1!H109&amp;""&amp;Sheet1!I109&amp;""&amp;Sheet1!J109&amp;""&amp;Sheet1!K109&amp;""&amp;Sheet1!L109&amp;""&amp;Sheet1!M109&amp;""&amp;Sheet1!N109&amp;""&amp;Sheet1!O109&amp;""&amp;Sheet1!P109&amp;""&amp;Sheet1!Q109&amp;""&amp;Sheet1!R109&amp;""&amp;Sheet1!S109&amp;""&amp;Sheet1!T109&amp;""&amp;Sheet1!U109&amp;""&amp;Sheet1!V109&amp;""&amp;Sheet1!W109&amp;""&amp;Sheet1!X109&amp;""&amp;Sheet1!Y109&amp;""&amp;Sheet1!Z109</f>
+        <v>&lt;li class="name"&gt;109&lt;form id="formLoc130"&gt; &lt;input type="hidden" id="nameLoc130"class="name"  value="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/109.jpeg"&gt;&lt;input type="hidden" id="cnameLoc130"class="name"  value="{{name}}"&gt; &lt;input type="number" id="descLoc76"   placeholder=" QTY "  required&gt;&lt;input onclick="launch_notification();this.value='ADDED ✅'" type="submit" value="SEND"/&gt;&lt;/form&gt;
+&lt;img src="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/109" loading="lazy" width="400" height="400"&gt;  &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1">
+      <c r="A110" t="str">
+        <f>Sheet1!A110&amp;""&amp;Sheet1!B110&amp;""&amp;Sheet1!C110&amp;""&amp;Sheet1!D110&amp;""&amp;Sheet1!E110&amp;""&amp;Sheet1!F110&amp;""&amp;Sheet1!G110&amp;""&amp;Sheet1!H110&amp;""&amp;Sheet1!I110&amp;""&amp;Sheet1!J110&amp;""&amp;Sheet1!K110&amp;""&amp;Sheet1!L110&amp;""&amp;Sheet1!M110&amp;""&amp;Sheet1!N110&amp;""&amp;Sheet1!O110&amp;""&amp;Sheet1!P110&amp;""&amp;Sheet1!Q110&amp;""&amp;Sheet1!R110&amp;""&amp;Sheet1!S110&amp;""&amp;Sheet1!T110&amp;""&amp;Sheet1!U110&amp;""&amp;Sheet1!V110&amp;""&amp;Sheet1!W110&amp;""&amp;Sheet1!X110&amp;""&amp;Sheet1!Y110&amp;""&amp;Sheet1!Z110</f>
+        <v>&lt;li class="name"&gt;110&lt;form id="formLoc131"&gt; &lt;input type="hidden" id="nameLoc131"class="name"  value="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/110.jpeg"&gt;&lt;input type="hidden" id="cnameLoc131"class="name"  value="{{name}}"&gt; &lt;input type="number" id="descLoc77"   placeholder=" QTY "  required&gt;&lt;input onclick="launch_notification();this.value='ADDED ✅'" type="submit" value="SEND"/&gt;&lt;/form&gt;
+&lt;img src="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/110" loading="lazy" width="400" height="400"&gt;  &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1">
+      <c r="A111" t="str">
+        <f>Sheet1!A111&amp;""&amp;Sheet1!B111&amp;""&amp;Sheet1!C111&amp;""&amp;Sheet1!D111&amp;""&amp;Sheet1!E111&amp;""&amp;Sheet1!F111&amp;""&amp;Sheet1!G111&amp;""&amp;Sheet1!H111&amp;""&amp;Sheet1!I111&amp;""&amp;Sheet1!J111&amp;""&amp;Sheet1!K111&amp;""&amp;Sheet1!L111&amp;""&amp;Sheet1!M111&amp;""&amp;Sheet1!N111&amp;""&amp;Sheet1!O111&amp;""&amp;Sheet1!P111&amp;""&amp;Sheet1!Q111&amp;""&amp;Sheet1!R111&amp;""&amp;Sheet1!S111&amp;""&amp;Sheet1!T111&amp;""&amp;Sheet1!U111&amp;""&amp;Sheet1!V111&amp;""&amp;Sheet1!W111&amp;""&amp;Sheet1!X111&amp;""&amp;Sheet1!Y111&amp;""&amp;Sheet1!Z111</f>
+        <v>&lt;li class="name"&gt;111&lt;form id="formLoc132"&gt; &lt;input type="hidden" id="nameLoc132"class="name"  value="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/111.jpeg"&gt;&lt;input type="hidden" id="cnameLoc132"class="name"  value="{{name}}"&gt; &lt;input type="number" id="descLoc77"   placeholder=" QTY "  required&gt;&lt;input onclick="launch_notification();this.value='ADDED ✅'" type="submit" value="SEND"/&gt;&lt;/form&gt;
+&lt;img src="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/111" loading="lazy" width="400" height="400"&gt;  &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1">
+      <c r="A112" t="str">
+        <f>Sheet1!A112&amp;""&amp;Sheet1!B112&amp;""&amp;Sheet1!C112&amp;""&amp;Sheet1!D112&amp;""&amp;Sheet1!E112&amp;""&amp;Sheet1!F112&amp;""&amp;Sheet1!G112&amp;""&amp;Sheet1!H112&amp;""&amp;Sheet1!I112&amp;""&amp;Sheet1!J112&amp;""&amp;Sheet1!K112&amp;""&amp;Sheet1!L112&amp;""&amp;Sheet1!M112&amp;""&amp;Sheet1!N112&amp;""&amp;Sheet1!O112&amp;""&amp;Sheet1!P112&amp;""&amp;Sheet1!Q112&amp;""&amp;Sheet1!R112&amp;""&amp;Sheet1!S112&amp;""&amp;Sheet1!T112&amp;""&amp;Sheet1!U112&amp;""&amp;Sheet1!V112&amp;""&amp;Sheet1!W112&amp;""&amp;Sheet1!X112&amp;""&amp;Sheet1!Y112&amp;""&amp;Sheet1!Z112</f>
+        <v>&lt;li class="name"&gt;112&lt;form id="formLoc133"&gt; &lt;input type="hidden" id="nameLoc133"class="name"  value="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/112.jpeg"&gt;&lt;input type="hidden" id="cnameLoc133"class="name"  value="{{name}}"&gt; &lt;input type="number" id="descLoc78"   placeholder=" QTY "  required&gt;&lt;input onclick="launch_notification();this.value='ADDED ✅'" type="submit" value="SEND"/&gt;&lt;/form&gt;
+&lt;img src="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/112" loading="lazy" width="400" height="400"&gt;  &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1">
+      <c r="A113" t="str">
+        <f>Sheet1!A113&amp;""&amp;Sheet1!B113&amp;""&amp;Sheet1!C113&amp;""&amp;Sheet1!D113&amp;""&amp;Sheet1!E113&amp;""&amp;Sheet1!F113&amp;""&amp;Sheet1!G113&amp;""&amp;Sheet1!H113&amp;""&amp;Sheet1!I113&amp;""&amp;Sheet1!J113&amp;""&amp;Sheet1!K113&amp;""&amp;Sheet1!L113&amp;""&amp;Sheet1!M113&amp;""&amp;Sheet1!N113&amp;""&amp;Sheet1!O113&amp;""&amp;Sheet1!P113&amp;""&amp;Sheet1!Q113&amp;""&amp;Sheet1!R113&amp;""&amp;Sheet1!S113&amp;""&amp;Sheet1!T113&amp;""&amp;Sheet1!U113&amp;""&amp;Sheet1!V113&amp;""&amp;Sheet1!W113&amp;""&amp;Sheet1!X113&amp;""&amp;Sheet1!Y113&amp;""&amp;Sheet1!Z113</f>
+        <v>&lt;li class="name"&gt;113&lt;form id="formLoc134"&gt; &lt;input type="hidden" id="nameLoc134"class="name"  value="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/113.jpeg"&gt;&lt;input type="hidden" id="cnameLoc134"class="name"  value="{{name}}"&gt; &lt;input type="number" id="descLoc78"   placeholder=" QTY "  required&gt;&lt;input onclick="launch_notification();this.value='ADDED ✅'" type="submit" value="SEND"/&gt;&lt;/form&gt;
+&lt;img src="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/113" loading="lazy" width="400" height="400"&gt;  &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1">
+      <c r="A114" t="str">
+        <f>Sheet1!A114&amp;""&amp;Sheet1!B114&amp;""&amp;Sheet1!C114&amp;""&amp;Sheet1!D114&amp;""&amp;Sheet1!E114&amp;""&amp;Sheet1!F114&amp;""&amp;Sheet1!G114&amp;""&amp;Sheet1!H114&amp;""&amp;Sheet1!I114&amp;""&amp;Sheet1!J114&amp;""&amp;Sheet1!K114&amp;""&amp;Sheet1!L114&amp;""&amp;Sheet1!M114&amp;""&amp;Sheet1!N114&amp;""&amp;Sheet1!O114&amp;""&amp;Sheet1!P114&amp;""&amp;Sheet1!Q114&amp;""&amp;Sheet1!R114&amp;""&amp;Sheet1!S114&amp;""&amp;Sheet1!T114&amp;""&amp;Sheet1!U114&amp;""&amp;Sheet1!V114&amp;""&amp;Sheet1!W114&amp;""&amp;Sheet1!X114&amp;""&amp;Sheet1!Y114&amp;""&amp;Sheet1!Z114</f>
+        <v>&lt;li class="name"&gt;114&lt;form id="formLoc135"&gt; &lt;input type="hidden" id="nameLoc135"class="name"  value="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/114.jpeg"&gt;&lt;input type="hidden" id="cnameLoc135"class="name"  value="{{name}}"&gt; &lt;input type="number" id="descLoc79"   placeholder=" QTY "  required&gt;&lt;input onclick="launch_notification();this.value='ADDED ✅'" type="submit" value="SEND"/&gt;&lt;/form&gt;
+&lt;img src="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/114" loading="lazy" width="400" height="400"&gt;  &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1">
+      <c r="A115" t="str">
+        <f>Sheet1!A115&amp;""&amp;Sheet1!B115&amp;""&amp;Sheet1!C115&amp;""&amp;Sheet1!D115&amp;""&amp;Sheet1!E115&amp;""&amp;Sheet1!F115&amp;""&amp;Sheet1!G115&amp;""&amp;Sheet1!H115&amp;""&amp;Sheet1!I115&amp;""&amp;Sheet1!J115&amp;""&amp;Sheet1!K115&amp;""&amp;Sheet1!L115&amp;""&amp;Sheet1!M115&amp;""&amp;Sheet1!N115&amp;""&amp;Sheet1!O115&amp;""&amp;Sheet1!P115&amp;""&amp;Sheet1!Q115&amp;""&amp;Sheet1!R115&amp;""&amp;Sheet1!S115&amp;""&amp;Sheet1!T115&amp;""&amp;Sheet1!U115&amp;""&amp;Sheet1!V115&amp;""&amp;Sheet1!W115&amp;""&amp;Sheet1!X115&amp;""&amp;Sheet1!Y115&amp;""&amp;Sheet1!Z115</f>
+        <v>&lt;li class="name"&gt;115&lt;form id="formLoc136"&gt; &lt;input type="hidden" id="nameLoc136"class="name"  value="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/115.jpeg"&gt;&lt;input type="hidden" id="cnameLoc136"class="name"  value="{{name}}"&gt; &lt;input type="number" id="descLoc79"   placeholder=" QTY "  required&gt;&lt;input onclick="launch_notification();this.value='ADDED ✅'" type="submit" value="SEND"/&gt;&lt;/form&gt;
+&lt;img src="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/115" loading="lazy" width="400" height="400"&gt;  &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1">
+      <c r="A116" t="str">
+        <f>Sheet1!A116&amp;""&amp;Sheet1!B116&amp;""&amp;Sheet1!C116&amp;""&amp;Sheet1!D116&amp;""&amp;Sheet1!E116&amp;""&amp;Sheet1!F116&amp;""&amp;Sheet1!G116&amp;""&amp;Sheet1!H116&amp;""&amp;Sheet1!I116&amp;""&amp;Sheet1!J116&amp;""&amp;Sheet1!K116&amp;""&amp;Sheet1!L116&amp;""&amp;Sheet1!M116&amp;""&amp;Sheet1!N116&amp;""&amp;Sheet1!O116&amp;""&amp;Sheet1!P116&amp;""&amp;Sheet1!Q116&amp;""&amp;Sheet1!R116&amp;""&amp;Sheet1!S116&amp;""&amp;Sheet1!T116&amp;""&amp;Sheet1!U116&amp;""&amp;Sheet1!V116&amp;""&amp;Sheet1!W116&amp;""&amp;Sheet1!X116&amp;""&amp;Sheet1!Y116&amp;""&amp;Sheet1!Z116</f>
+        <v>&lt;li class="name"&gt;116&lt;form id="formLoc137"&gt; &lt;input type="hidden" id="nameLoc137"class="name"  value="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/116.jpeg"&gt;&lt;input type="hidden" id="cnameLoc137"class="name"  value="{{name}}"&gt; &lt;input type="number" id="descLoc80"   placeholder=" QTY "  required&gt;&lt;input onclick="launch_notification();this.value='ADDED ✅'" type="submit" value="SEND"/&gt;&lt;/form&gt;
+&lt;img src="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/116" loading="lazy" width="400" height="400"&gt;  &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1">
+      <c r="A117" t="str">
+        <f>Sheet1!A117&amp;""&amp;Sheet1!B117&amp;""&amp;Sheet1!C117&amp;""&amp;Sheet1!D117&amp;""&amp;Sheet1!E117&amp;""&amp;Sheet1!F117&amp;""&amp;Sheet1!G117&amp;""&amp;Sheet1!H117&amp;""&amp;Sheet1!I117&amp;""&amp;Sheet1!J117&amp;""&amp;Sheet1!K117&amp;""&amp;Sheet1!L117&amp;""&amp;Sheet1!M117&amp;""&amp;Sheet1!N117&amp;""&amp;Sheet1!O117&amp;""&amp;Sheet1!P117&amp;""&amp;Sheet1!Q117&amp;""&amp;Sheet1!R117&amp;""&amp;Sheet1!S117&amp;""&amp;Sheet1!T117&amp;""&amp;Sheet1!U117&amp;""&amp;Sheet1!V117&amp;""&amp;Sheet1!W117&amp;""&amp;Sheet1!X117&amp;""&amp;Sheet1!Y117&amp;""&amp;Sheet1!Z117</f>
+        <v>&lt;li class="name"&gt;117&lt;form id="formLoc138"&gt; &lt;input type="hidden" id="nameLoc138"class="name"  value="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/117.jpeg"&gt;&lt;input type="hidden" id="cnameLoc138"class="name"  value="{{name}}"&gt; &lt;input type="number" id="descLoc80"   placeholder=" QTY "  required&gt;&lt;input onclick="launch_notification();this.value='ADDED ✅'" type="submit" value="SEND"/&gt;&lt;/form&gt;
+&lt;img src="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/117" loading="lazy" width="400" height="400"&gt;  &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1">
+      <c r="A118" t="str">
+        <f>Sheet1!A118&amp;""&amp;Sheet1!B118&amp;""&amp;Sheet1!C118&amp;""&amp;Sheet1!D118&amp;""&amp;Sheet1!E118&amp;""&amp;Sheet1!F118&amp;""&amp;Sheet1!G118&amp;""&amp;Sheet1!H118&amp;""&amp;Sheet1!I118&amp;""&amp;Sheet1!J118&amp;""&amp;Sheet1!K118&amp;""&amp;Sheet1!L118&amp;""&amp;Sheet1!M118&amp;""&amp;Sheet1!N118&amp;""&amp;Sheet1!O118&amp;""&amp;Sheet1!P118&amp;""&amp;Sheet1!Q118&amp;""&amp;Sheet1!R118&amp;""&amp;Sheet1!S118&amp;""&amp;Sheet1!T118&amp;""&amp;Sheet1!U118&amp;""&amp;Sheet1!V118&amp;""&amp;Sheet1!W118&amp;""&amp;Sheet1!X118&amp;""&amp;Sheet1!Y118&amp;""&amp;Sheet1!Z118</f>
+        <v>&lt;li class="name"&gt;118&lt;form id="formLoc139"&gt; &lt;input type="hidden" id="nameLoc139"class="name"  value="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/118.jpeg"&gt;&lt;input type="hidden" id="cnameLoc139"class="name"  value="{{name}}"&gt; &lt;input type="number" id="descLoc81"   placeholder=" QTY "  required&gt;&lt;input onclick="launch_notification();this.value='ADDED ✅'" type="submit" value="SEND"/&gt;&lt;/form&gt;
+&lt;img src="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/118" loading="lazy" width="400" height="400"&gt;  &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1">
+      <c r="A119" t="str">
+        <f>Sheet1!A119&amp;""&amp;Sheet1!B119&amp;""&amp;Sheet1!C119&amp;""&amp;Sheet1!D119&amp;""&amp;Sheet1!E119&amp;""&amp;Sheet1!F119&amp;""&amp;Sheet1!G119&amp;""&amp;Sheet1!H119&amp;""&amp;Sheet1!I119&amp;""&amp;Sheet1!J119&amp;""&amp;Sheet1!K119&amp;""&amp;Sheet1!L119&amp;""&amp;Sheet1!M119&amp;""&amp;Sheet1!N119&amp;""&amp;Sheet1!O119&amp;""&amp;Sheet1!P119&amp;""&amp;Sheet1!Q119&amp;""&amp;Sheet1!R119&amp;""&amp;Sheet1!S119&amp;""&amp;Sheet1!T119&amp;""&amp;Sheet1!U119&amp;""&amp;Sheet1!V119&amp;""&amp;Sheet1!W119&amp;""&amp;Sheet1!X119&amp;""&amp;Sheet1!Y119&amp;""&amp;Sheet1!Z119</f>
+        <v>&lt;li class="name"&gt;119&lt;form id="formLoc140"&gt; &lt;input type="hidden" id="nameLoc140"class="name"  value="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/119.jpeg"&gt;&lt;input type="hidden" id="cnameLoc140"class="name"  value="{{name}}"&gt; &lt;input type="number" id="descLoc81"   placeholder=" QTY "  required&gt;&lt;input onclick="launch_notification();this.value='ADDED ✅'" type="submit" value="SEND"/&gt;&lt;/form&gt;
+&lt;img src="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/119" loading="lazy" width="400" height="400"&gt;  &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1">
+      <c r="A120" t="str">
+        <f>Sheet1!A120&amp;""&amp;Sheet1!B120&amp;""&amp;Sheet1!C120&amp;""&amp;Sheet1!D120&amp;""&amp;Sheet1!E120&amp;""&amp;Sheet1!F120&amp;""&amp;Sheet1!G120&amp;""&amp;Sheet1!H120&amp;""&amp;Sheet1!I120&amp;""&amp;Sheet1!J120&amp;""&amp;Sheet1!K120&amp;""&amp;Sheet1!L120&amp;""&amp;Sheet1!M120&amp;""&amp;Sheet1!N120&amp;""&amp;Sheet1!O120&amp;""&amp;Sheet1!P120&amp;""&amp;Sheet1!Q120&amp;""&amp;Sheet1!R120&amp;""&amp;Sheet1!S120&amp;""&amp;Sheet1!T120&amp;""&amp;Sheet1!U120&amp;""&amp;Sheet1!V120&amp;""&amp;Sheet1!W120&amp;""&amp;Sheet1!X120&amp;""&amp;Sheet1!Y120&amp;""&amp;Sheet1!Z120</f>
+        <v>&lt;li class="name"&gt;120&lt;form id="formLoc141"&gt; &lt;input type="hidden" id="nameLoc141"class="name"  value="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/120.jpeg"&gt;&lt;input type="hidden" id="cnameLoc141"class="name"  value="{{name}}"&gt; &lt;input type="number" id="descLoc82"   placeholder=" QTY "  required&gt;&lt;input onclick="launch_notification();this.value='ADDED ✅'" type="submit" value="SEND"/&gt;&lt;/form&gt;
+&lt;img src="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/120" loading="lazy" width="400" height="400"&gt;  &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1">
+      <c r="A121" t="str">
+        <f>Sheet1!A121&amp;""&amp;Sheet1!B121&amp;""&amp;Sheet1!C121&amp;""&amp;Sheet1!D121&amp;""&amp;Sheet1!E121&amp;""&amp;Sheet1!F121&amp;""&amp;Sheet1!G121&amp;""&amp;Sheet1!H121&amp;""&amp;Sheet1!I121&amp;""&amp;Sheet1!J121&amp;""&amp;Sheet1!K121&amp;""&amp;Sheet1!L121&amp;""&amp;Sheet1!M121&amp;""&amp;Sheet1!N121&amp;""&amp;Sheet1!O121&amp;""&amp;Sheet1!P121&amp;""&amp;Sheet1!Q121&amp;""&amp;Sheet1!R121&amp;""&amp;Sheet1!S121&amp;""&amp;Sheet1!T121&amp;""&amp;Sheet1!U121&amp;""&amp;Sheet1!V121&amp;""&amp;Sheet1!W121&amp;""&amp;Sheet1!X121&amp;""&amp;Sheet1!Y121&amp;""&amp;Sheet1!Z121</f>
+        <v>&lt;li class="name"&gt;121&lt;form id="formLoc142"&gt; &lt;input type="hidden" id="nameLoc142"class="name"  value="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/121.jpeg"&gt;&lt;input type="hidden" id="cnameLoc142"class="name"  value="{{name}}"&gt; &lt;input type="number" id="descLoc82"   placeholder=" QTY "  required&gt;&lt;input onclick="launch_notification();this.value='ADDED ✅'" type="submit" value="SEND"/&gt;&lt;/form&gt;
+&lt;img src="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/121" loading="lazy" width="400" height="400"&gt;  &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1">
+      <c r="A122" t="str">
+        <f>Sheet1!A122&amp;""&amp;Sheet1!B122&amp;""&amp;Sheet1!C122&amp;""&amp;Sheet1!D122&amp;""&amp;Sheet1!E122&amp;""&amp;Sheet1!F122&amp;""&amp;Sheet1!G122&amp;""&amp;Sheet1!H122&amp;""&amp;Sheet1!I122&amp;""&amp;Sheet1!J122&amp;""&amp;Sheet1!K122&amp;""&amp;Sheet1!L122&amp;""&amp;Sheet1!M122&amp;""&amp;Sheet1!N122&amp;""&amp;Sheet1!O122&amp;""&amp;Sheet1!P122&amp;""&amp;Sheet1!Q122&amp;""&amp;Sheet1!R122&amp;""&amp;Sheet1!S122&amp;""&amp;Sheet1!T122&amp;""&amp;Sheet1!U122&amp;""&amp;Sheet1!V122&amp;""&amp;Sheet1!W122&amp;""&amp;Sheet1!X122&amp;""&amp;Sheet1!Y122&amp;""&amp;Sheet1!Z122</f>
+        <v>&lt;li class="name"&gt;122&lt;form id="formLoc143"&gt; &lt;input type="hidden" id="nameLoc143"class="name"  value="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/122.jpeg"&gt;&lt;input type="hidden" id="cnameLoc143"class="name"  value="{{name}}"&gt; &lt;input type="number" id="descLoc83"   placeholder=" QTY "  required&gt;&lt;input onclick="launch_notification();this.value='ADDED ✅'" type="submit" value="SEND"/&gt;&lt;/form&gt;
+&lt;img src="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/122" loading="lazy" width="400" height="400"&gt;  &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1">
+      <c r="A123" t="str">
+        <f>Sheet1!A123&amp;""&amp;Sheet1!B123&amp;""&amp;Sheet1!C123&amp;""&amp;Sheet1!D123&amp;""&amp;Sheet1!E123&amp;""&amp;Sheet1!F123&amp;""&amp;Sheet1!G123&amp;""&amp;Sheet1!H123&amp;""&amp;Sheet1!I123&amp;""&amp;Sheet1!J123&amp;""&amp;Sheet1!K123&amp;""&amp;Sheet1!L123&amp;""&amp;Sheet1!M123&amp;""&amp;Sheet1!N123&amp;""&amp;Sheet1!O123&amp;""&amp;Sheet1!P123&amp;""&amp;Sheet1!Q123&amp;""&amp;Sheet1!R123&amp;""&amp;Sheet1!S123&amp;""&amp;Sheet1!T123&amp;""&amp;Sheet1!U123&amp;""&amp;Sheet1!V123&amp;""&amp;Sheet1!W123&amp;""&amp;Sheet1!X123&amp;""&amp;Sheet1!Y123&amp;""&amp;Sheet1!Z123</f>
+        <v>&lt;li class="name"&gt;123&lt;form id="formLoc144"&gt; &lt;input type="hidden" id="nameLoc144"class="name"  value="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/123.jpeg"&gt;&lt;input type="hidden" id="cnameLoc144"class="name"  value="{{name}}"&gt; &lt;input type="number" id="descLoc83"   placeholder=" QTY "  required&gt;&lt;input onclick="launch_notification();this.value='ADDED ✅'" type="submit" value="SEND"/&gt;&lt;/form&gt;
+&lt;img src="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/123" loading="lazy" width="400" height="400"&gt;  &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1">
+      <c r="A124" t="str">
+        <f>Sheet1!A124&amp;""&amp;Sheet1!B124&amp;""&amp;Sheet1!C124&amp;""&amp;Sheet1!D124&amp;""&amp;Sheet1!E124&amp;""&amp;Sheet1!F124&amp;""&amp;Sheet1!G124&amp;""&amp;Sheet1!H124&amp;""&amp;Sheet1!I124&amp;""&amp;Sheet1!J124&amp;""&amp;Sheet1!K124&amp;""&amp;Sheet1!L124&amp;""&amp;Sheet1!M124&amp;""&amp;Sheet1!N124&amp;""&amp;Sheet1!O124&amp;""&amp;Sheet1!P124&amp;""&amp;Sheet1!Q124&amp;""&amp;Sheet1!R124&amp;""&amp;Sheet1!S124&amp;""&amp;Sheet1!T124&amp;""&amp;Sheet1!U124&amp;""&amp;Sheet1!V124&amp;""&amp;Sheet1!W124&amp;""&amp;Sheet1!X124&amp;""&amp;Sheet1!Y124&amp;""&amp;Sheet1!Z124</f>
+        <v>&lt;li class="name"&gt;124&lt;form id="formLoc145"&gt; &lt;input type="hidden" id="nameLoc145"class="name"  value="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/124.jpeg"&gt;&lt;input type="hidden" id="cnameLoc145"class="name"  value="{{name}}"&gt; &lt;input type="number" id="descLoc84"   placeholder=" QTY "  required&gt;&lt;input onclick="launch_notification();this.value='ADDED ✅'" type="submit" value="SEND"/&gt;&lt;/form&gt;
+&lt;img src="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/124" loading="lazy" width="400" height="400"&gt;  &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1">
+      <c r="A125" t="str">
+        <f>Sheet1!A125&amp;""&amp;Sheet1!B125&amp;""&amp;Sheet1!C125&amp;""&amp;Sheet1!D125&amp;""&amp;Sheet1!E125&amp;""&amp;Sheet1!F125&amp;""&amp;Sheet1!G125&amp;""&amp;Sheet1!H125&amp;""&amp;Sheet1!I125&amp;""&amp;Sheet1!J125&amp;""&amp;Sheet1!K125&amp;""&amp;Sheet1!L125&amp;""&amp;Sheet1!M125&amp;""&amp;Sheet1!N125&amp;""&amp;Sheet1!O125&amp;""&amp;Sheet1!P125&amp;""&amp;Sheet1!Q125&amp;""&amp;Sheet1!R125&amp;""&amp;Sheet1!S125&amp;""&amp;Sheet1!T125&amp;""&amp;Sheet1!U125&amp;""&amp;Sheet1!V125&amp;""&amp;Sheet1!W125&amp;""&amp;Sheet1!X125&amp;""&amp;Sheet1!Y125&amp;""&amp;Sheet1!Z125</f>
+        <v>&lt;li class="name"&gt;125&lt;form id="formLoc146"&gt; &lt;input type="hidden" id="nameLoc146"class="name"  value="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/125.jpeg"&gt;&lt;input type="hidden" id="cnameLoc146"class="name"  value="{{name}}"&gt; &lt;input type="number" id="descLoc84"   placeholder=" QTY "  required&gt;&lt;input onclick="launch_notification();this.value='ADDED ✅'" type="submit" value="SEND"/&gt;&lt;/form&gt;
+&lt;img src="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/125" loading="lazy" width="400" height="400"&gt;  &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1">
+      <c r="A126" t="str">
+        <f>Sheet1!A126&amp;""&amp;Sheet1!B126&amp;""&amp;Sheet1!C126&amp;""&amp;Sheet1!D126&amp;""&amp;Sheet1!E126&amp;""&amp;Sheet1!F126&amp;""&amp;Sheet1!G126&amp;""&amp;Sheet1!H126&amp;""&amp;Sheet1!I126&amp;""&amp;Sheet1!J126&amp;""&amp;Sheet1!K126&amp;""&amp;Sheet1!L126&amp;""&amp;Sheet1!M126&amp;""&amp;Sheet1!N126&amp;""&amp;Sheet1!O126&amp;""&amp;Sheet1!P126&amp;""&amp;Sheet1!Q126&amp;""&amp;Sheet1!R126&amp;""&amp;Sheet1!S126&amp;""&amp;Sheet1!T126&amp;""&amp;Sheet1!U126&amp;""&amp;Sheet1!V126&amp;""&amp;Sheet1!W126&amp;""&amp;Sheet1!X126&amp;""&amp;Sheet1!Y126&amp;""&amp;Sheet1!Z126</f>
+        <v>&lt;li class="name"&gt;126&lt;form id="formLoc147"&gt; &lt;input type="hidden" id="nameLoc147"class="name"  value="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/126.jpeg"&gt;&lt;input type="hidden" id="cnameLoc147"class="name"  value="{{name}}"&gt; &lt;input type="number" id="descLoc85"   placeholder=" QTY "  required&gt;&lt;input onclick="launch_notification();this.value='ADDED ✅'" type="submit" value="SEND"/&gt;&lt;/form&gt;
+&lt;img src="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/126" loading="lazy" width="400" height="400"&gt;  &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1">
+      <c r="A127" t="str">
+        <f>Sheet1!A127&amp;""&amp;Sheet1!B127&amp;""&amp;Sheet1!C127&amp;""&amp;Sheet1!D127&amp;""&amp;Sheet1!E127&amp;""&amp;Sheet1!F127&amp;""&amp;Sheet1!G127&amp;""&amp;Sheet1!H127&amp;""&amp;Sheet1!I127&amp;""&amp;Sheet1!J127&amp;""&amp;Sheet1!K127&amp;""&amp;Sheet1!L127&amp;""&amp;Sheet1!M127&amp;""&amp;Sheet1!N127&amp;""&amp;Sheet1!O127&amp;""&amp;Sheet1!P127&amp;""&amp;Sheet1!Q127&amp;""&amp;Sheet1!R127&amp;""&amp;Sheet1!S127&amp;""&amp;Sheet1!T127&amp;""&amp;Sheet1!U127&amp;""&amp;Sheet1!V127&amp;""&amp;Sheet1!W127&amp;""&amp;Sheet1!X127&amp;""&amp;Sheet1!Y127&amp;""&amp;Sheet1!Z127</f>
+        <v>&lt;li class="name"&gt;127&lt;form id="formLoc148"&gt; &lt;input type="hidden" id="nameLoc148"class="name"  value="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/127.jpeg"&gt;&lt;input type="hidden" id="cnameLoc148"class="name"  value="{{name}}"&gt; &lt;input type="number" id="descLoc85"   placeholder=" QTY "  required&gt;&lt;input onclick="launch_notification();this.value='ADDED ✅'" type="submit" value="SEND"/&gt;&lt;/form&gt;
+&lt;img src="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/127" loading="lazy" width="400" height="400"&gt;  &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1">
+      <c r="A128" t="str">
+        <f>Sheet1!A128&amp;""&amp;Sheet1!B128&amp;""&amp;Sheet1!C128&amp;""&amp;Sheet1!D128&amp;""&amp;Sheet1!E128&amp;""&amp;Sheet1!F128&amp;""&amp;Sheet1!G128&amp;""&amp;Sheet1!H128&amp;""&amp;Sheet1!I128&amp;""&amp;Sheet1!J128&amp;""&amp;Sheet1!K128&amp;""&amp;Sheet1!L128&amp;""&amp;Sheet1!M128&amp;""&amp;Sheet1!N128&amp;""&amp;Sheet1!O128&amp;""&amp;Sheet1!P128&amp;""&amp;Sheet1!Q128&amp;""&amp;Sheet1!R128&amp;""&amp;Sheet1!S128&amp;""&amp;Sheet1!T128&amp;""&amp;Sheet1!U128&amp;""&amp;Sheet1!V128&amp;""&amp;Sheet1!W128&amp;""&amp;Sheet1!X128&amp;""&amp;Sheet1!Y128&amp;""&amp;Sheet1!Z128</f>
+        <v>&lt;li class="name"&gt;128&lt;form id="formLoc149"&gt; &lt;input type="hidden" id="nameLoc149"class="name"  value="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/128.jpeg"&gt;&lt;input type="hidden" id="cnameLoc149"class="name"  value="{{name}}"&gt; &lt;input type="number" id="descLoc86"   placeholder=" QTY "  required&gt;&lt;input onclick="launch_notification();this.value='ADDED ✅'" type="submit" value="SEND"/&gt;&lt;/form&gt;
+&lt;img src="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/128" loading="lazy" width="400" height="400"&gt;  &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1">
+      <c r="A129" t="str">
+        <f>Sheet1!A129&amp;""&amp;Sheet1!B129&amp;""&amp;Sheet1!C129&amp;""&amp;Sheet1!D129&amp;""&amp;Sheet1!E129&amp;""&amp;Sheet1!F129&amp;""&amp;Sheet1!G129&amp;""&amp;Sheet1!H129&amp;""&amp;Sheet1!I129&amp;""&amp;Sheet1!J129&amp;""&amp;Sheet1!K129&amp;""&amp;Sheet1!L129&amp;""&amp;Sheet1!M129&amp;""&amp;Sheet1!N129&amp;""&amp;Sheet1!O129&amp;""&amp;Sheet1!P129&amp;""&amp;Sheet1!Q129&amp;""&amp;Sheet1!R129&amp;""&amp;Sheet1!S129&amp;""&amp;Sheet1!T129&amp;""&amp;Sheet1!U129&amp;""&amp;Sheet1!V129&amp;""&amp;Sheet1!W129&amp;""&amp;Sheet1!X129&amp;""&amp;Sheet1!Y129&amp;""&amp;Sheet1!Z129</f>
+        <v>&lt;li class="name"&gt;129&lt;form id="formLoc150"&gt; &lt;input type="hidden" id="nameLoc150"class="name"  value="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/129.jpeg"&gt;&lt;input type="hidden" id="cnameLoc150"class="name"  value="{{name}}"&gt; &lt;input type="number" id="descLoc86"   placeholder=" QTY "  required&gt;&lt;input onclick="launch_notification();this.value='ADDED ✅'" type="submit" value="SEND"/&gt;&lt;/form&gt;
+&lt;img src="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/129" loading="lazy" width="400" height="400"&gt;  &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1">
+      <c r="A130" t="str">
+        <f>Sheet1!A130&amp;""&amp;Sheet1!B130&amp;""&amp;Sheet1!C130&amp;""&amp;Sheet1!D130&amp;""&amp;Sheet1!E130&amp;""&amp;Sheet1!F130&amp;""&amp;Sheet1!G130&amp;""&amp;Sheet1!H130&amp;""&amp;Sheet1!I130&amp;""&amp;Sheet1!J130&amp;""&amp;Sheet1!K130&amp;""&amp;Sheet1!L130&amp;""&amp;Sheet1!M130&amp;""&amp;Sheet1!N130&amp;""&amp;Sheet1!O130&amp;""&amp;Sheet1!P130&amp;""&amp;Sheet1!Q130&amp;""&amp;Sheet1!R130&amp;""&amp;Sheet1!S130&amp;""&amp;Sheet1!T130&amp;""&amp;Sheet1!U130&amp;""&amp;Sheet1!V130&amp;""&amp;Sheet1!W130&amp;""&amp;Sheet1!X130&amp;""&amp;Sheet1!Y130&amp;""&amp;Sheet1!Z130</f>
+        <v>&lt;li class="name"&gt;130&lt;form id="formLoc151"&gt; &lt;input type="hidden" id="nameLoc151"class="name"  value="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/130.jpeg"&gt;&lt;input type="hidden" id="cnameLoc151"class="name"  value="{{name}}"&gt; &lt;input type="number" id="descLoc87"   placeholder=" QTY "  required&gt;&lt;input onclick="launch_notification();this.value='ADDED ✅'" type="submit" value="SEND"/&gt;&lt;/form&gt;
+&lt;img src="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/130" loading="lazy" width="400" height="400"&gt;  &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1">
+      <c r="A131" t="str">
+        <f>Sheet1!A131&amp;""&amp;Sheet1!B131&amp;""&amp;Sheet1!C131&amp;""&amp;Sheet1!D131&amp;""&amp;Sheet1!E131&amp;""&amp;Sheet1!F131&amp;""&amp;Sheet1!G131&amp;""&amp;Sheet1!H131&amp;""&amp;Sheet1!I131&amp;""&amp;Sheet1!J131&amp;""&amp;Sheet1!K131&amp;""&amp;Sheet1!L131&amp;""&amp;Sheet1!M131&amp;""&amp;Sheet1!N131&amp;""&amp;Sheet1!O131&amp;""&amp;Sheet1!P131&amp;""&amp;Sheet1!Q131&amp;""&amp;Sheet1!R131&amp;""&amp;Sheet1!S131&amp;""&amp;Sheet1!T131&amp;""&amp;Sheet1!U131&amp;""&amp;Sheet1!V131&amp;""&amp;Sheet1!W131&amp;""&amp;Sheet1!X131&amp;""&amp;Sheet1!Y131&amp;""&amp;Sheet1!Z131</f>
+        <v>&lt;li class="name"&gt;131&lt;form id="formLoc152"&gt; &lt;input type="hidden" id="nameLoc152"class="name"  value="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/131.jpeg"&gt;&lt;input type="hidden" id="cnameLoc152"class="name"  value="{{name}}"&gt; &lt;input type="number" id="descLoc87"   placeholder=" QTY "  required&gt;&lt;input onclick="launch_notification();this.value='ADDED ✅'" type="submit" value="SEND"/&gt;&lt;/form&gt;
+&lt;img src="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/131" loading="lazy" width="400" height="400"&gt;  &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1">
+      <c r="A132" t="str">
+        <f>Sheet1!A132&amp;""&amp;Sheet1!B132&amp;""&amp;Sheet1!C132&amp;""&amp;Sheet1!D132&amp;""&amp;Sheet1!E132&amp;""&amp;Sheet1!F132&amp;""&amp;Sheet1!G132&amp;""&amp;Sheet1!H132&amp;""&amp;Sheet1!I132&amp;""&amp;Sheet1!J132&amp;""&amp;Sheet1!K132&amp;""&amp;Sheet1!L132&amp;""&amp;Sheet1!M132&amp;""&amp;Sheet1!N132&amp;""&amp;Sheet1!O132&amp;""&amp;Sheet1!P132&amp;""&amp;Sheet1!Q132&amp;""&amp;Sheet1!R132&amp;""&amp;Sheet1!S132&amp;""&amp;Sheet1!T132&amp;""&amp;Sheet1!U132&amp;""&amp;Sheet1!V132&amp;""&amp;Sheet1!W132&amp;""&amp;Sheet1!X132&amp;""&amp;Sheet1!Y132&amp;""&amp;Sheet1!Z132</f>
+        <v>&lt;li class="name"&gt;132&lt;form id="formLoc153"&gt; &lt;input type="hidden" id="nameLoc153"class="name"  value="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/132.jpeg"&gt;&lt;input type="hidden" id="cnameLoc153"class="name"  value="{{name}}"&gt; &lt;input type="number" id="descLoc88"   placeholder=" QTY "  required&gt;&lt;input onclick="launch_notification();this.value='ADDED ✅'" type="submit" value="SEND"/&gt;&lt;/form&gt;
+&lt;img src="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/132" loading="lazy" width="400" height="400"&gt;  &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1">
+      <c r="A133" t="str">
+        <f>Sheet1!A133&amp;""&amp;Sheet1!B133&amp;""&amp;Sheet1!C133&amp;""&amp;Sheet1!D133&amp;""&amp;Sheet1!E133&amp;""&amp;Sheet1!F133&amp;""&amp;Sheet1!G133&amp;""&amp;Sheet1!H133&amp;""&amp;Sheet1!I133&amp;""&amp;Sheet1!J133&amp;""&amp;Sheet1!K133&amp;""&amp;Sheet1!L133&amp;""&amp;Sheet1!M133&amp;""&amp;Sheet1!N133&amp;""&amp;Sheet1!O133&amp;""&amp;Sheet1!P133&amp;""&amp;Sheet1!Q133&amp;""&amp;Sheet1!R133&amp;""&amp;Sheet1!S133&amp;""&amp;Sheet1!T133&amp;""&amp;Sheet1!U133&amp;""&amp;Sheet1!V133&amp;""&amp;Sheet1!W133&amp;""&amp;Sheet1!X133&amp;""&amp;Sheet1!Y133&amp;""&amp;Sheet1!Z133</f>
+        <v>&lt;li class="name"&gt;133&lt;form id="formLoc154"&gt; &lt;input type="hidden" id="nameLoc154"class="name"  value="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/133.jpeg"&gt;&lt;input type="hidden" id="cnameLoc154"class="name"  value="{{name}}"&gt; &lt;input type="number" id="descLoc88"   placeholder=" QTY "  required&gt;&lt;input onclick="launch_notification();this.value='ADDED ✅'" type="submit" value="SEND"/&gt;&lt;/form&gt;
+&lt;img src="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/133" loading="lazy" width="400" height="400"&gt;  &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1">
+      <c r="A134" t="str">
+        <f>Sheet1!A134&amp;""&amp;Sheet1!B134&amp;""&amp;Sheet1!C134&amp;""&amp;Sheet1!D134&amp;""&amp;Sheet1!E134&amp;""&amp;Sheet1!F134&amp;""&amp;Sheet1!G134&amp;""&amp;Sheet1!H134&amp;""&amp;Sheet1!I134&amp;""&amp;Sheet1!J134&amp;""&amp;Sheet1!K134&amp;""&amp;Sheet1!L134&amp;""&amp;Sheet1!M134&amp;""&amp;Sheet1!N134&amp;""&amp;Sheet1!O134&amp;""&amp;Sheet1!P134&amp;""&amp;Sheet1!Q134&amp;""&amp;Sheet1!R134&amp;""&amp;Sheet1!S134&amp;""&amp;Sheet1!T134&amp;""&amp;Sheet1!U134&amp;""&amp;Sheet1!V134&amp;""&amp;Sheet1!W134&amp;""&amp;Sheet1!X134&amp;""&amp;Sheet1!Y134&amp;""&amp;Sheet1!Z134</f>
+        <v>&lt;li class="name"&gt;134&lt;form id="formLoc155"&gt; &lt;input type="hidden" id="nameLoc155"class="name"  value="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/134.jpeg"&gt;&lt;input type="hidden" id="cnameLoc155"class="name"  value="{{name}}"&gt; &lt;input type="number" id="descLoc89"   placeholder=" QTY "  required&gt;&lt;input onclick="launch_notification();this.value='ADDED ✅'" type="submit" value="SEND"/&gt;&lt;/form&gt;
+&lt;img src="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/134" loading="lazy" width="400" height="400"&gt;  &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1">
+      <c r="A135" t="str">
+        <f>Sheet1!A135&amp;""&amp;Sheet1!B135&amp;""&amp;Sheet1!C135&amp;""&amp;Sheet1!D135&amp;""&amp;Sheet1!E135&amp;""&amp;Sheet1!F135&amp;""&amp;Sheet1!G135&amp;""&amp;Sheet1!H135&amp;""&amp;Sheet1!I135&amp;""&amp;Sheet1!J135&amp;""&amp;Sheet1!K135&amp;""&amp;Sheet1!L135&amp;""&amp;Sheet1!M135&amp;""&amp;Sheet1!N135&amp;""&amp;Sheet1!O135&amp;""&amp;Sheet1!P135&amp;""&amp;Sheet1!Q135&amp;""&amp;Sheet1!R135&amp;""&amp;Sheet1!S135&amp;""&amp;Sheet1!T135&amp;""&amp;Sheet1!U135&amp;""&amp;Sheet1!V135&amp;""&amp;Sheet1!W135&amp;""&amp;Sheet1!X135&amp;""&amp;Sheet1!Y135&amp;""&amp;Sheet1!Z135</f>
+        <v>&lt;li class="name"&gt;135&lt;form id="formLoc156"&gt; &lt;input type="hidden" id="nameLoc156"class="name"  value="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/135.jpeg"&gt;&lt;input type="hidden" id="cnameLoc156"class="name"  value="{{name}}"&gt; &lt;input type="number" id="descLoc89"   placeholder=" QTY "  required&gt;&lt;input onclick="launch_notification();this.value='ADDED ✅'" type="submit" value="SEND"/&gt;&lt;/form&gt;
+&lt;img src="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/135" loading="lazy" width="400" height="400"&gt;  &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1">
+      <c r="A136" t="str">
+        <f>Sheet1!A136&amp;""&amp;Sheet1!B136&amp;""&amp;Sheet1!C136&amp;""&amp;Sheet1!D136&amp;""&amp;Sheet1!E136&amp;""&amp;Sheet1!F136&amp;""&amp;Sheet1!G136&amp;""&amp;Sheet1!H136&amp;""&amp;Sheet1!I136&amp;""&amp;Sheet1!J136&amp;""&amp;Sheet1!K136&amp;""&amp;Sheet1!L136&amp;""&amp;Sheet1!M136&amp;""&amp;Sheet1!N136&amp;""&amp;Sheet1!O136&amp;""&amp;Sheet1!P136&amp;""&amp;Sheet1!Q136&amp;""&amp;Sheet1!R136&amp;""&amp;Sheet1!S136&amp;""&amp;Sheet1!T136&amp;""&amp;Sheet1!U136&amp;""&amp;Sheet1!V136&amp;""&amp;Sheet1!W136&amp;""&amp;Sheet1!X136&amp;""&amp;Sheet1!Y136&amp;""&amp;Sheet1!Z136</f>
+        <v>&lt;li class="name"&gt;136&lt;form id="formLoc157"&gt; &lt;input type="hidden" id="nameLoc157"class="name"  value="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/136.jpeg"&gt;&lt;input type="hidden" id="cnameLoc157"class="name"  value="{{name}}"&gt; &lt;input type="number" id="descLoc90"   placeholder=" QTY "  required&gt;&lt;input onclick="launch_notification();this.value='ADDED ✅'" type="submit" value="SEND"/&gt;&lt;/form&gt;
+&lt;img src="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/136" loading="lazy" width="400" height="400"&gt;  &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1">
+      <c r="A137" t="str">
+        <f>Sheet1!A137&amp;""&amp;Sheet1!B137&amp;""&amp;Sheet1!C137&amp;""&amp;Sheet1!D137&amp;""&amp;Sheet1!E137&amp;""&amp;Sheet1!F137&amp;""&amp;Sheet1!G137&amp;""&amp;Sheet1!H137&amp;""&amp;Sheet1!I137&amp;""&amp;Sheet1!J137&amp;""&amp;Sheet1!K137&amp;""&amp;Sheet1!L137&amp;""&amp;Sheet1!M137&amp;""&amp;Sheet1!N137&amp;""&amp;Sheet1!O137&amp;""&amp;Sheet1!P137&amp;""&amp;Sheet1!Q137&amp;""&amp;Sheet1!R137&amp;""&amp;Sheet1!S137&amp;""&amp;Sheet1!T137&amp;""&amp;Sheet1!U137&amp;""&amp;Sheet1!V137&amp;""&amp;Sheet1!W137&amp;""&amp;Sheet1!X137&amp;""&amp;Sheet1!Y137&amp;""&amp;Sheet1!Z137</f>
+        <v>&lt;li class="name"&gt;137&lt;form id="formLoc158"&gt; &lt;input type="hidden" id="nameLoc158"class="name"  value="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/137.jpeg"&gt;&lt;input type="hidden" id="cnameLoc158"class="name"  value="{{name}}"&gt; &lt;input type="number" id="descLoc90"   placeholder=" QTY "  required&gt;&lt;input onclick="launch_notification();this.value='ADDED ✅'" type="submit" value="SEND"/&gt;&lt;/form&gt;
+&lt;img src="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/137" loading="lazy" width="400" height="400"&gt;  &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1">
+      <c r="A138" t="str">
+        <f>Sheet1!A138&amp;""&amp;Sheet1!B138&amp;""&amp;Sheet1!C138&amp;""&amp;Sheet1!D138&amp;""&amp;Sheet1!E138&amp;""&amp;Sheet1!F138&amp;""&amp;Sheet1!G138&amp;""&amp;Sheet1!H138&amp;""&amp;Sheet1!I138&amp;""&amp;Sheet1!J138&amp;""&amp;Sheet1!K138&amp;""&amp;Sheet1!L138&amp;""&amp;Sheet1!M138&amp;""&amp;Sheet1!N138&amp;""&amp;Sheet1!O138&amp;""&amp;Sheet1!P138&amp;""&amp;Sheet1!Q138&amp;""&amp;Sheet1!R138&amp;""&amp;Sheet1!S138&amp;""&amp;Sheet1!T138&amp;""&amp;Sheet1!U138&amp;""&amp;Sheet1!V138&amp;""&amp;Sheet1!W138&amp;""&amp;Sheet1!X138&amp;""&amp;Sheet1!Y138&amp;""&amp;Sheet1!Z138</f>
+        <v>&lt;li class="name"&gt;138&lt;form id="formLoc159"&gt; &lt;input type="hidden" id="nameLoc159"class="name"  value="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/138.jpeg"&gt;&lt;input type="hidden" id="cnameLoc159"class="name"  value="{{name}}"&gt; &lt;input type="number" id="descLoc91"   placeholder=" QTY "  required&gt;&lt;input onclick="launch_notification();this.value='ADDED ✅'" type="submit" value="SEND"/&gt;&lt;/form&gt;
+&lt;img src="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/138" loading="lazy" width="400" height="400"&gt;  &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1">
+      <c r="A139" t="str">
+        <f>Sheet1!A139&amp;""&amp;Sheet1!B139&amp;""&amp;Sheet1!C139&amp;""&amp;Sheet1!D139&amp;""&amp;Sheet1!E139&amp;""&amp;Sheet1!F139&amp;""&amp;Sheet1!G139&amp;""&amp;Sheet1!H139&amp;""&amp;Sheet1!I139&amp;""&amp;Sheet1!J139&amp;""&amp;Sheet1!K139&amp;""&amp;Sheet1!L139&amp;""&amp;Sheet1!M139&amp;""&amp;Sheet1!N139&amp;""&amp;Sheet1!O139&amp;""&amp;Sheet1!P139&amp;""&amp;Sheet1!Q139&amp;""&amp;Sheet1!R139&amp;""&amp;Sheet1!S139&amp;""&amp;Sheet1!T139&amp;""&amp;Sheet1!U139&amp;""&amp;Sheet1!V139&amp;""&amp;Sheet1!W139&amp;""&amp;Sheet1!X139&amp;""&amp;Sheet1!Y139&amp;""&amp;Sheet1!Z139</f>
+        <v>&lt;li class="name"&gt;139&lt;form id="formLoc160"&gt; &lt;input type="hidden" id="nameLoc160"class="name"  value="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/139.jpeg"&gt;&lt;input type="hidden" id="cnameLoc160"class="name"  value="{{name}}"&gt; &lt;input type="number" id="descLoc91"   placeholder=" QTY "  required&gt;&lt;input onclick="launch_notification();this.value='ADDED ✅'" type="submit" value="SEND"/&gt;&lt;/form&gt;
+&lt;img src="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/139" loading="lazy" width="400" height="400"&gt;  &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1">
+      <c r="A140" t="str">
+        <f>Sheet1!A140&amp;""&amp;Sheet1!B140&amp;""&amp;Sheet1!C140&amp;""&amp;Sheet1!D140&amp;""&amp;Sheet1!E140&amp;""&amp;Sheet1!F140&amp;""&amp;Sheet1!G140&amp;""&amp;Sheet1!H140&amp;""&amp;Sheet1!I140&amp;""&amp;Sheet1!J140&amp;""&amp;Sheet1!K140&amp;""&amp;Sheet1!L140&amp;""&amp;Sheet1!M140&amp;""&amp;Sheet1!N140&amp;""&amp;Sheet1!O140&amp;""&amp;Sheet1!P140&amp;""&amp;Sheet1!Q140&amp;""&amp;Sheet1!R140&amp;""&amp;Sheet1!S140&amp;""&amp;Sheet1!T140&amp;""&amp;Sheet1!U140&amp;""&amp;Sheet1!V140&amp;""&amp;Sheet1!W140&amp;""&amp;Sheet1!X140&amp;""&amp;Sheet1!Y140&amp;""&amp;Sheet1!Z140</f>
+        <v>&lt;li class="name"&gt;140&lt;form id="formLoc161"&gt; &lt;input type="hidden" id="nameLoc161"class="name"  value="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/140.jpeg"&gt;&lt;input type="hidden" id="cnameLoc161"class="name"  value="{{name}}"&gt; &lt;input type="number" id="descLoc92"   placeholder=" QTY "  required&gt;&lt;input onclick="launch_notification();this.value='ADDED ✅'" type="submit" value="SEND"/&gt;&lt;/form&gt;
+&lt;img src="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/140" loading="lazy" width="400" height="400"&gt;  &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1">
+      <c r="A141" t="str">
+        <f>Sheet1!A141&amp;""&amp;Sheet1!B141&amp;""&amp;Sheet1!C141&amp;""&amp;Sheet1!D141&amp;""&amp;Sheet1!E141&amp;""&amp;Sheet1!F141&amp;""&amp;Sheet1!G141&amp;""&amp;Sheet1!H141&amp;""&amp;Sheet1!I141&amp;""&amp;Sheet1!J141&amp;""&amp;Sheet1!K141&amp;""&amp;Sheet1!L141&amp;""&amp;Sheet1!M141&amp;""&amp;Sheet1!N141&amp;""&amp;Sheet1!O141&amp;""&amp;Sheet1!P141&amp;""&amp;Sheet1!Q141&amp;""&amp;Sheet1!R141&amp;""&amp;Sheet1!S141&amp;""&amp;Sheet1!T141&amp;""&amp;Sheet1!U141&amp;""&amp;Sheet1!V141&amp;""&amp;Sheet1!W141&amp;""&amp;Sheet1!X141&amp;""&amp;Sheet1!Y141&amp;""&amp;Sheet1!Z141</f>
+        <v>&lt;li class="name"&gt;141&lt;form id="formLoc162"&gt; &lt;input type="hidden" id="nameLoc162"class="name"  value="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/141.jpeg"&gt;&lt;input type="hidden" id="cnameLoc162"class="name"  value="{{name}}"&gt; &lt;input type="number" id="descLoc92"   placeholder=" QTY "  required&gt;&lt;input onclick="launch_notification();this.value='ADDED ✅'" type="submit" value="SEND"/&gt;&lt;/form&gt;
+&lt;img src="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/141" loading="lazy" width="400" height="400"&gt;  &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1">
+      <c r="A142" t="str">
+        <f>Sheet1!A142&amp;""&amp;Sheet1!B142&amp;""&amp;Sheet1!C142&amp;""&amp;Sheet1!D142&amp;""&amp;Sheet1!E142&amp;""&amp;Sheet1!F142&amp;""&amp;Sheet1!G142&amp;""&amp;Sheet1!H142&amp;""&amp;Sheet1!I142&amp;""&amp;Sheet1!J142&amp;""&amp;Sheet1!K142&amp;""&amp;Sheet1!L142&amp;""&amp;Sheet1!M142&amp;""&amp;Sheet1!N142&amp;""&amp;Sheet1!O142&amp;""&amp;Sheet1!P142&amp;""&amp;Sheet1!Q142&amp;""&amp;Sheet1!R142&amp;""&amp;Sheet1!S142&amp;""&amp;Sheet1!T142&amp;""&amp;Sheet1!U142&amp;""&amp;Sheet1!V142&amp;""&amp;Sheet1!W142&amp;""&amp;Sheet1!X142&amp;""&amp;Sheet1!Y142&amp;""&amp;Sheet1!Z142</f>
+        <v>&lt;li class="name"&gt;142&lt;form id="formLoc163"&gt; &lt;input type="hidden" id="nameLoc163"class="name"  value="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/142.jpeg"&gt;&lt;input type="hidden" id="cnameLoc163"class="name"  value="{{name}}"&gt; &lt;input type="number" id="descLoc93"   placeholder=" QTY "  required&gt;&lt;input onclick="launch_notification();this.value='ADDED ✅'" type="submit" value="SEND"/&gt;&lt;/form&gt;
+&lt;img src="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/142" loading="lazy" width="400" height="400"&gt;  &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1">
+      <c r="A143" t="str">
+        <f>Sheet1!A143&amp;""&amp;Sheet1!B143&amp;""&amp;Sheet1!C143&amp;""&amp;Sheet1!D143&amp;""&amp;Sheet1!E143&amp;""&amp;Sheet1!F143&amp;""&amp;Sheet1!G143&amp;""&amp;Sheet1!H143&amp;""&amp;Sheet1!I143&amp;""&amp;Sheet1!J143&amp;""&amp;Sheet1!K143&amp;""&amp;Sheet1!L143&amp;""&amp;Sheet1!M143&amp;""&amp;Sheet1!N143&amp;""&amp;Sheet1!O143&amp;""&amp;Sheet1!P143&amp;""&amp;Sheet1!Q143&amp;""&amp;Sheet1!R143&amp;""&amp;Sheet1!S143&amp;""&amp;Sheet1!T143&amp;""&amp;Sheet1!U143&amp;""&amp;Sheet1!V143&amp;""&amp;Sheet1!W143&amp;""&amp;Sheet1!X143&amp;""&amp;Sheet1!Y143&amp;""&amp;Sheet1!Z143</f>
+        <v>&lt;li class="name"&gt;143&lt;form id="formLoc164"&gt; &lt;input type="hidden" id="nameLoc164"class="name"  value="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/143.jpeg"&gt;&lt;input type="hidden" id="cnameLoc164"class="name"  value="{{name}}"&gt; &lt;input type="number" id="descLoc93"   placeholder=" QTY "  required&gt;&lt;input onclick="launch_notification();this.value='ADDED ✅'" type="submit" value="SEND"/&gt;&lt;/form&gt;
+&lt;img src="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/143" loading="lazy" width="400" height="400"&gt;  &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1">
+      <c r="A144" t="str">
+        <f>Sheet1!A144&amp;""&amp;Sheet1!B144&amp;""&amp;Sheet1!C144&amp;""&amp;Sheet1!D144&amp;""&amp;Sheet1!E144&amp;""&amp;Sheet1!F144&amp;""&amp;Sheet1!G144&amp;""&amp;Sheet1!H144&amp;""&amp;Sheet1!I144&amp;""&amp;Sheet1!J144&amp;""&amp;Sheet1!K144&amp;""&amp;Sheet1!L144&amp;""&amp;Sheet1!M144&amp;""&amp;Sheet1!N144&amp;""&amp;Sheet1!O144&amp;""&amp;Sheet1!P144&amp;""&amp;Sheet1!Q144&amp;""&amp;Sheet1!R144&amp;""&amp;Sheet1!S144&amp;""&amp;Sheet1!T144&amp;""&amp;Sheet1!U144&amp;""&amp;Sheet1!V144&amp;""&amp;Sheet1!W144&amp;""&amp;Sheet1!X144&amp;""&amp;Sheet1!Y144&amp;""&amp;Sheet1!Z144</f>
+        <v>&lt;li class="name"&gt;144&lt;form id="formLoc165"&gt; &lt;input type="hidden" id="nameLoc165"class="name"  value="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/144.jpeg"&gt;&lt;input type="hidden" id="cnameLoc165"class="name"  value="{{name}}"&gt; &lt;input type="number" id="descLoc94"   placeholder=" QTY "  required&gt;&lt;input onclick="launch_notification();this.value='ADDED ✅'" type="submit" value="SEND"/&gt;&lt;/form&gt;
+&lt;img src="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/144" loading="lazy" width="400" height="400"&gt;  &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1">
+      <c r="A145" t="str">
+        <f>Sheet1!A145&amp;""&amp;Sheet1!B145&amp;""&amp;Sheet1!C145&amp;""&amp;Sheet1!D145&amp;""&amp;Sheet1!E145&amp;""&amp;Sheet1!F145&amp;""&amp;Sheet1!G145&amp;""&amp;Sheet1!H145&amp;""&amp;Sheet1!I145&amp;""&amp;Sheet1!J145&amp;""&amp;Sheet1!K145&amp;""&amp;Sheet1!L145&amp;""&amp;Sheet1!M145&amp;""&amp;Sheet1!N145&amp;""&amp;Sheet1!O145&amp;""&amp;Sheet1!P145&amp;""&amp;Sheet1!Q145&amp;""&amp;Sheet1!R145&amp;""&amp;Sheet1!S145&amp;""&amp;Sheet1!T145&amp;""&amp;Sheet1!U145&amp;""&amp;Sheet1!V145&amp;""&amp;Sheet1!W145&amp;""&amp;Sheet1!X145&amp;""&amp;Sheet1!Y145&amp;""&amp;Sheet1!Z145</f>
+        <v>&lt;li class="name"&gt;145&lt;form id="formLoc166"&gt; &lt;input type="hidden" id="nameLoc166"class="name"  value="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/145.jpeg"&gt;&lt;input type="hidden" id="cnameLoc166"class="name"  value="{{name}}"&gt; &lt;input type="number" id="descLoc94"   placeholder=" QTY "  required&gt;&lt;input onclick="launch_notification();this.value='ADDED ✅'" type="submit" value="SEND"/&gt;&lt;/form&gt;
+&lt;img src="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/145" loading="lazy" width="400" height="400"&gt;  &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1">
+      <c r="A146" t="str">
+        <f>Sheet1!A146&amp;""&amp;Sheet1!B146&amp;""&amp;Sheet1!C146&amp;""&amp;Sheet1!D146&amp;""&amp;Sheet1!E146&amp;""&amp;Sheet1!F146&amp;""&amp;Sheet1!G146&amp;""&amp;Sheet1!H146&amp;""&amp;Sheet1!I146&amp;""&amp;Sheet1!J146&amp;""&amp;Sheet1!K146&amp;""&amp;Sheet1!L146&amp;""&amp;Sheet1!M146&amp;""&amp;Sheet1!N146&amp;""&amp;Sheet1!O146&amp;""&amp;Sheet1!P146&amp;""&amp;Sheet1!Q146&amp;""&amp;Sheet1!R146&amp;""&amp;Sheet1!S146&amp;""&amp;Sheet1!T146&amp;""&amp;Sheet1!U146&amp;""&amp;Sheet1!V146&amp;""&amp;Sheet1!W146&amp;""&amp;Sheet1!X146&amp;""&amp;Sheet1!Y146&amp;""&amp;Sheet1!Z146</f>
+        <v>&lt;li class="name"&gt;146&lt;form id="formLoc167"&gt; &lt;input type="hidden" id="nameLoc167"class="name"  value="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/146.jpeg"&gt;&lt;input type="hidden" id="cnameLoc167"class="name"  value="{{name}}"&gt; &lt;input type="number" id="descLoc95"   placeholder=" QTY "  required&gt;&lt;input onclick="launch_notification();this.value='ADDED ✅'" type="submit" value="SEND"/&gt;&lt;/form&gt;
+&lt;img src="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/146" loading="lazy" width="400" height="400"&gt;  &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1">
+      <c r="A147" t="str">
+        <f>Sheet1!A147&amp;""&amp;Sheet1!B147&amp;""&amp;Sheet1!C147&amp;""&amp;Sheet1!D147&amp;""&amp;Sheet1!E147&amp;""&amp;Sheet1!F147&amp;""&amp;Sheet1!G147&amp;""&amp;Sheet1!H147&amp;""&amp;Sheet1!I147&amp;""&amp;Sheet1!J147&amp;""&amp;Sheet1!K147&amp;""&amp;Sheet1!L147&amp;""&amp;Sheet1!M147&amp;""&amp;Sheet1!N147&amp;""&amp;Sheet1!O147&amp;""&amp;Sheet1!P147&amp;""&amp;Sheet1!Q147&amp;""&amp;Sheet1!R147&amp;""&amp;Sheet1!S147&amp;""&amp;Sheet1!T147&amp;""&amp;Sheet1!U147&amp;""&amp;Sheet1!V147&amp;""&amp;Sheet1!W147&amp;""&amp;Sheet1!X147&amp;""&amp;Sheet1!Y147&amp;""&amp;Sheet1!Z147</f>
+        <v>&lt;li class="name"&gt;147&lt;form id="formLoc168"&gt; &lt;input type="hidden" id="nameLoc168"class="name"  value="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/147.jpeg"&gt;&lt;input type="hidden" id="cnameLoc168"class="name"  value="{{name}}"&gt; &lt;input type="number" id="descLoc95"   placeholder=" QTY "  required&gt;&lt;input onclick="launch_notification();this.value='ADDED ✅'" type="submit" value="SEND"/&gt;&lt;/form&gt;
+&lt;img src="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/147" loading="lazy" width="400" height="400"&gt;  &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1">
+      <c r="A148" t="str">
+        <f>Sheet1!A148&amp;""&amp;Sheet1!B148&amp;""&amp;Sheet1!C148&amp;""&amp;Sheet1!D148&amp;""&amp;Sheet1!E148&amp;""&amp;Sheet1!F148&amp;""&amp;Sheet1!G148&amp;""&amp;Sheet1!H148&amp;""&amp;Sheet1!I148&amp;""&amp;Sheet1!J148&amp;""&amp;Sheet1!K148&amp;""&amp;Sheet1!L148&amp;""&amp;Sheet1!M148&amp;""&amp;Sheet1!N148&amp;""&amp;Sheet1!O148&amp;""&amp;Sheet1!P148&amp;""&amp;Sheet1!Q148&amp;""&amp;Sheet1!R148&amp;""&amp;Sheet1!S148&amp;""&amp;Sheet1!T148&amp;""&amp;Sheet1!U148&amp;""&amp;Sheet1!V148&amp;""&amp;Sheet1!W148&amp;""&amp;Sheet1!X148&amp;""&amp;Sheet1!Y148&amp;""&amp;Sheet1!Z148</f>
+        <v>&lt;li class="name"&gt;148&lt;form id="formLoc169"&gt; &lt;input type="hidden" id="nameLoc169"class="name"  value="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/148.jpeg"&gt;&lt;input type="hidden" id="cnameLoc169"class="name"  value="{{name}}"&gt; &lt;input type="number" id="descLoc96"   placeholder=" QTY "  required&gt;&lt;input onclick="launch_notification();this.value='ADDED ✅'" type="submit" value="SEND"/&gt;&lt;/form&gt;
+&lt;img src="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/148" loading="lazy" width="400" height="400"&gt;  &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1">
+      <c r="A149" t="str">
+        <f>Sheet1!A149&amp;""&amp;Sheet1!B149&amp;""&amp;Sheet1!C149&amp;""&amp;Sheet1!D149&amp;""&amp;Sheet1!E149&amp;""&amp;Sheet1!F149&amp;""&amp;Sheet1!G149&amp;""&amp;Sheet1!H149&amp;""&amp;Sheet1!I149&amp;""&amp;Sheet1!J149&amp;""&amp;Sheet1!K149&amp;""&amp;Sheet1!L149&amp;""&amp;Sheet1!M149&amp;""&amp;Sheet1!N149&amp;""&amp;Sheet1!O149&amp;""&amp;Sheet1!P149&amp;""&amp;Sheet1!Q149&amp;""&amp;Sheet1!R149&amp;""&amp;Sheet1!S149&amp;""&amp;Sheet1!T149&amp;""&amp;Sheet1!U149&amp;""&amp;Sheet1!V149&amp;""&amp;Sheet1!W149&amp;""&amp;Sheet1!X149&amp;""&amp;Sheet1!Y149&amp;""&amp;Sheet1!Z149</f>
+        <v>&lt;li class="name"&gt;149&lt;form id="formLoc170"&gt; &lt;input type="hidden" id="nameLoc170"class="name"  value="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/149.jpeg"&gt;&lt;input type="hidden" id="cnameLoc170"class="name"  value="{{name}}"&gt; &lt;input type="number" id="descLoc96"   placeholder=" QTY "  required&gt;&lt;input onclick="launch_notification();this.value='ADDED ✅'" type="submit" value="SEND"/&gt;&lt;/form&gt;
+&lt;img src="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/149" loading="lazy" width="400" height="400"&gt;  &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1">
+      <c r="A150" t="str">
+        <f>Sheet1!A150&amp;""&amp;Sheet1!B150&amp;""&amp;Sheet1!C150&amp;""&amp;Sheet1!D150&amp;""&amp;Sheet1!E150&amp;""&amp;Sheet1!F150&amp;""&amp;Sheet1!G150&amp;""&amp;Sheet1!H150&amp;""&amp;Sheet1!I150&amp;""&amp;Sheet1!J150&amp;""&amp;Sheet1!K150&amp;""&amp;Sheet1!L150&amp;""&amp;Sheet1!M150&amp;""&amp;Sheet1!N150&amp;""&amp;Sheet1!O150&amp;""&amp;Sheet1!P150&amp;""&amp;Sheet1!Q150&amp;""&amp;Sheet1!R150&amp;""&amp;Sheet1!S150&amp;""&amp;Sheet1!T150&amp;""&amp;Sheet1!U150&amp;""&amp;Sheet1!V150&amp;""&amp;Sheet1!W150&amp;""&amp;Sheet1!X150&amp;""&amp;Sheet1!Y150&amp;""&amp;Sheet1!Z150</f>
+        <v>&lt;li class="name"&gt;150&lt;form id="formLoc171"&gt; &lt;input type="hidden" id="nameLoc171"class="name"  value="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/150.jpeg"&gt;&lt;input type="hidden" id="cnameLoc171"class="name"  value="{{name}}"&gt; &lt;input type="number" id="descLoc97"   placeholder=" QTY "  required&gt;&lt;input onclick="launch_notification();this.value='ADDED ✅'" type="submit" value="SEND"/&gt;&lt;/form&gt;
+&lt;img src="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/150" loading="lazy" width="400" height="400"&gt;  &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1">
+      <c r="A151" t="str">
+        <f>Sheet1!A151&amp;""&amp;Sheet1!B151&amp;""&amp;Sheet1!C151&amp;""&amp;Sheet1!D151&amp;""&amp;Sheet1!E151&amp;""&amp;Sheet1!F151&amp;""&amp;Sheet1!G151&amp;""&amp;Sheet1!H151&amp;""&amp;Sheet1!I151&amp;""&amp;Sheet1!J151&amp;""&amp;Sheet1!K151&amp;""&amp;Sheet1!L151&amp;""&amp;Sheet1!M151&amp;""&amp;Sheet1!N151&amp;""&amp;Sheet1!O151&amp;""&amp;Sheet1!P151&amp;""&amp;Sheet1!Q151&amp;""&amp;Sheet1!R151&amp;""&amp;Sheet1!S151&amp;""&amp;Sheet1!T151&amp;""&amp;Sheet1!U151&amp;""&amp;Sheet1!V151&amp;""&amp;Sheet1!W151&amp;""&amp;Sheet1!X151&amp;""&amp;Sheet1!Y151&amp;""&amp;Sheet1!Z151</f>
+        <v>&lt;li class="name"&gt;151&lt;form id="formLoc172"&gt; &lt;input type="hidden" id="nameLoc172"class="name"  value="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/151.jpeg"&gt;&lt;input type="hidden" id="cnameLoc172"class="name"  value="{{name}}"&gt; &lt;input type="number" id="descLoc97"   placeholder=" QTY "  required&gt;&lt;input onclick="launch_notification();this.value='ADDED ✅'" type="submit" value="SEND"/&gt;&lt;/form&gt;
+&lt;img src="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/151" loading="lazy" width="400" height="400"&gt;  &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1">
+      <c r="A152" t="str">
+        <f>Sheet1!A152&amp;""&amp;Sheet1!B152&amp;""&amp;Sheet1!C152&amp;""&amp;Sheet1!D152&amp;""&amp;Sheet1!E152&amp;""&amp;Sheet1!F152&amp;""&amp;Sheet1!G152&amp;""&amp;Sheet1!H152&amp;""&amp;Sheet1!I152&amp;""&amp;Sheet1!J152&amp;""&amp;Sheet1!K152&amp;""&amp;Sheet1!L152&amp;""&amp;Sheet1!M152&amp;""&amp;Sheet1!N152&amp;""&amp;Sheet1!O152&amp;""&amp;Sheet1!P152&amp;""&amp;Sheet1!Q152&amp;""&amp;Sheet1!R152&amp;""&amp;Sheet1!S152&amp;""&amp;Sheet1!T152&amp;""&amp;Sheet1!U152&amp;""&amp;Sheet1!V152&amp;""&amp;Sheet1!W152&amp;""&amp;Sheet1!X152&amp;""&amp;Sheet1!Y152&amp;""&amp;Sheet1!Z152</f>
+        <v>&lt;li class="name"&gt;152&lt;form id="formLoc173"&gt; &lt;input type="hidden" id="nameLoc173"class="name"  value="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/152.jpeg"&gt;&lt;input type="hidden" id="cnameLoc173"class="name"  value="{{name}}"&gt; &lt;input type="number" id="descLoc98"   placeholder=" QTY "  required&gt;&lt;input onclick="launch_notification();this.value='ADDED ✅'" type="submit" value="SEND"/&gt;&lt;/form&gt;
+&lt;img src="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/152" loading="lazy" width="400" height="400"&gt;  &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1">
+      <c r="A153" t="str">
+        <f>Sheet1!A153&amp;""&amp;Sheet1!B153&amp;""&amp;Sheet1!C153&amp;""&amp;Sheet1!D153&amp;""&amp;Sheet1!E153&amp;""&amp;Sheet1!F153&amp;""&amp;Sheet1!G153&amp;""&amp;Sheet1!H153&amp;""&amp;Sheet1!I153&amp;""&amp;Sheet1!J153&amp;""&amp;Sheet1!K153&amp;""&amp;Sheet1!L153&amp;""&amp;Sheet1!M153&amp;""&amp;Sheet1!N153&amp;""&amp;Sheet1!O153&amp;""&amp;Sheet1!P153&amp;""&amp;Sheet1!Q153&amp;""&amp;Sheet1!R153&amp;""&amp;Sheet1!S153&amp;""&amp;Sheet1!T153&amp;""&amp;Sheet1!U153&amp;""&amp;Sheet1!V153&amp;""&amp;Sheet1!W153&amp;""&amp;Sheet1!X153&amp;""&amp;Sheet1!Y153&amp;""&amp;Sheet1!Z153</f>
+        <v>&lt;li class="name"&gt;153&lt;form id="formLoc174"&gt; &lt;input type="hidden" id="nameLoc174"class="name"  value="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/153.jpeg"&gt;&lt;input type="hidden" id="cnameLoc174"class="name"  value="{{name}}"&gt; &lt;input type="number" id="descLoc98"   placeholder=" QTY "  required&gt;&lt;input onclick="launch_notification();this.value='ADDED ✅'" type="submit" value="SEND"/&gt;&lt;/form&gt;
+&lt;img src="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/153" loading="lazy" width="400" height="400"&gt;  &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1">
+      <c r="A154" t="str">
+        <f>Sheet1!A154&amp;""&amp;Sheet1!B154&amp;""&amp;Sheet1!C154&amp;""&amp;Sheet1!D154&amp;""&amp;Sheet1!E154&amp;""&amp;Sheet1!F154&amp;""&amp;Sheet1!G154&amp;""&amp;Sheet1!H154&amp;""&amp;Sheet1!I154&amp;""&amp;Sheet1!J154&amp;""&amp;Sheet1!K154&amp;""&amp;Sheet1!L154&amp;""&amp;Sheet1!M154&amp;""&amp;Sheet1!N154&amp;""&amp;Sheet1!O154&amp;""&amp;Sheet1!P154&amp;""&amp;Sheet1!Q154&amp;""&amp;Sheet1!R154&amp;""&amp;Sheet1!S154&amp;""&amp;Sheet1!T154&amp;""&amp;Sheet1!U154&amp;""&amp;Sheet1!V154&amp;""&amp;Sheet1!W154&amp;""&amp;Sheet1!X154&amp;""&amp;Sheet1!Y154&amp;""&amp;Sheet1!Z154</f>
+        <v>&lt;li class="name"&gt;154&lt;form id="formLoc175"&gt; &lt;input type="hidden" id="nameLoc175"class="name"  value="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/154.jpeg"&gt;&lt;input type="hidden" id="cnameLoc175"class="name"  value="{{name}}"&gt; &lt;input type="number" id="descLoc99"   placeholder=" QTY "  required&gt;&lt;input onclick="launch_notification();this.value='ADDED ✅'" type="submit" value="SEND"/&gt;&lt;/form&gt;
+&lt;img src="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/154" loading="lazy" width="400" height="400"&gt;  &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1">
+      <c r="A155" t="str">
+        <f>Sheet1!A155&amp;""&amp;Sheet1!B155&amp;""&amp;Sheet1!C155&amp;""&amp;Sheet1!D155&amp;""&amp;Sheet1!E155&amp;""&amp;Sheet1!F155&amp;""&amp;Sheet1!G155&amp;""&amp;Sheet1!H155&amp;""&amp;Sheet1!I155&amp;""&amp;Sheet1!J155&amp;""&amp;Sheet1!K155&amp;""&amp;Sheet1!L155&amp;""&amp;Sheet1!M155&amp;""&amp;Sheet1!N155&amp;""&amp;Sheet1!O155&amp;""&amp;Sheet1!P155&amp;""&amp;Sheet1!Q155&amp;""&amp;Sheet1!R155&amp;""&amp;Sheet1!S155&amp;""&amp;Sheet1!T155&amp;""&amp;Sheet1!U155&amp;""&amp;Sheet1!V155&amp;""&amp;Sheet1!W155&amp;""&amp;Sheet1!X155&amp;""&amp;Sheet1!Y155&amp;""&amp;Sheet1!Z155</f>
+        <v>&lt;li class="name"&gt;155&lt;form id="formLoc176"&gt; &lt;input type="hidden" id="nameLoc176"class="name"  value="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/155.jpeg"&gt;&lt;input type="hidden" id="cnameLoc176"class="name"  value="{{name}}"&gt; &lt;input type="number" id="descLoc99"   placeholder=" QTY "  required&gt;&lt;input onclick="launch_notification();this.value='ADDED ✅'" type="submit" value="SEND"/&gt;&lt;/form&gt;
+&lt;img src="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/155" loading="lazy" width="400" height="400"&gt;  &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1">
+      <c r="A156" t="str">
+        <f>Sheet1!A156&amp;""&amp;Sheet1!B156&amp;""&amp;Sheet1!C156&amp;""&amp;Sheet1!D156&amp;""&amp;Sheet1!E156&amp;""&amp;Sheet1!F156&amp;""&amp;Sheet1!G156&amp;""&amp;Sheet1!H156&amp;""&amp;Sheet1!I156&amp;""&amp;Sheet1!J156&amp;""&amp;Sheet1!K156&amp;""&amp;Sheet1!L156&amp;""&amp;Sheet1!M156&amp;""&amp;Sheet1!N156&amp;""&amp;Sheet1!O156&amp;""&amp;Sheet1!P156&amp;""&amp;Sheet1!Q156&amp;""&amp;Sheet1!R156&amp;""&amp;Sheet1!S156&amp;""&amp;Sheet1!T156&amp;""&amp;Sheet1!U156&amp;""&amp;Sheet1!V156&amp;""&amp;Sheet1!W156&amp;""&amp;Sheet1!X156&amp;""&amp;Sheet1!Y156&amp;""&amp;Sheet1!Z156</f>
+        <v>&lt;li class="name"&gt;156&lt;form id="formLoc177"&gt; &lt;input type="hidden" id="nameLoc177"class="name"  value="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/156.jpeg"&gt;&lt;input type="hidden" id="cnameLoc177"class="name"  value="{{name}}"&gt; &lt;input type="number" id="descLoc100"   placeholder=" QTY "  required&gt;&lt;input onclick="launch_notification();this.value='ADDED ✅'" type="submit" value="SEND"/&gt;&lt;/form&gt;
+&lt;img src="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/156" loading="lazy" width="400" height="400"&gt;  &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1">
+      <c r="A157" t="str">
+        <f>Sheet1!A157&amp;""&amp;Sheet1!B157&amp;""&amp;Sheet1!C157&amp;""&amp;Sheet1!D157&amp;""&amp;Sheet1!E157&amp;""&amp;Sheet1!F157&amp;""&amp;Sheet1!G157&amp;""&amp;Sheet1!H157&amp;""&amp;Sheet1!I157&amp;""&amp;Sheet1!J157&amp;""&amp;Sheet1!K157&amp;""&amp;Sheet1!L157&amp;""&amp;Sheet1!M157&amp;""&amp;Sheet1!N157&amp;""&amp;Sheet1!O157&amp;""&amp;Sheet1!P157&amp;""&amp;Sheet1!Q157&amp;""&amp;Sheet1!R157&amp;""&amp;Sheet1!S157&amp;""&amp;Sheet1!T157&amp;""&amp;Sheet1!U157&amp;""&amp;Sheet1!V157&amp;""&amp;Sheet1!W157&amp;""&amp;Sheet1!X157&amp;""&amp;Sheet1!Y157&amp;""&amp;Sheet1!Z157</f>
+        <v>&lt;li class="name"&gt;157&lt;form id="formLoc178"&gt; &lt;input type="hidden" id="nameLoc178"class="name"  value="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/157.jpeg"&gt;&lt;input type="hidden" id="cnameLoc178"class="name"  value="{{name}}"&gt; &lt;input type="number" id="descLoc100"   placeholder=" QTY "  required&gt;&lt;input onclick="launch_notification();this.value='ADDED ✅'" type="submit" value="SEND"/&gt;&lt;/form&gt;
+&lt;img src="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/157" loading="lazy" width="400" height="400"&gt;  &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1">
+      <c r="A158" t="str">
+        <f>Sheet1!A158&amp;""&amp;Sheet1!B158&amp;""&amp;Sheet1!C158&amp;""&amp;Sheet1!D158&amp;""&amp;Sheet1!E158&amp;""&amp;Sheet1!F158&amp;""&amp;Sheet1!G158&amp;""&amp;Sheet1!H158&amp;""&amp;Sheet1!I158&amp;""&amp;Sheet1!J158&amp;""&amp;Sheet1!K158&amp;""&amp;Sheet1!L158&amp;""&amp;Sheet1!M158&amp;""&amp;Sheet1!N158&amp;""&amp;Sheet1!O158&amp;""&amp;Sheet1!P158&amp;""&amp;Sheet1!Q158&amp;""&amp;Sheet1!R158&amp;""&amp;Sheet1!S158&amp;""&amp;Sheet1!T158&amp;""&amp;Sheet1!U158&amp;""&amp;Sheet1!V158&amp;""&amp;Sheet1!W158&amp;""&amp;Sheet1!X158&amp;""&amp;Sheet1!Y158&amp;""&amp;Sheet1!Z158</f>
+        <v>&lt;li class="name"&gt;158&lt;form id="formLoc179"&gt; &lt;input type="hidden" id="nameLoc179"class="name"  value="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/158.jpeg"&gt;&lt;input type="hidden" id="cnameLoc179"class="name"  value="{{name}}"&gt; &lt;input type="number" id="descLoc101"   placeholder=" QTY "  required&gt;&lt;input onclick="launch_notification();this.value='ADDED ✅'" type="submit" value="SEND"/&gt;&lt;/form&gt;
+&lt;img src="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/158" loading="lazy" width="400" height="400"&gt;  &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1">
+      <c r="A159" t="str">
+        <f>Sheet1!A159&amp;""&amp;Sheet1!B159&amp;""&amp;Sheet1!C159&amp;""&amp;Sheet1!D159&amp;""&amp;Sheet1!E159&amp;""&amp;Sheet1!F159&amp;""&amp;Sheet1!G159&amp;""&amp;Sheet1!H159&amp;""&amp;Sheet1!I159&amp;""&amp;Sheet1!J159&amp;""&amp;Sheet1!K159&amp;""&amp;Sheet1!L159&amp;""&amp;Sheet1!M159&amp;""&amp;Sheet1!N159&amp;""&amp;Sheet1!O159&amp;""&amp;Sheet1!P159&amp;""&amp;Sheet1!Q159&amp;""&amp;Sheet1!R159&amp;""&amp;Sheet1!S159&amp;""&amp;Sheet1!T159&amp;""&amp;Sheet1!U159&amp;""&amp;Sheet1!V159&amp;""&amp;Sheet1!W159&amp;""&amp;Sheet1!X159&amp;""&amp;Sheet1!Y159&amp;""&amp;Sheet1!Z159</f>
+        <v>&lt;li class="name"&gt;159&lt;form id="formLoc180"&gt; &lt;input type="hidden" id="nameLoc180"class="name"  value="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/159.jpeg"&gt;&lt;input type="hidden" id="cnameLoc180"class="name"  value="{{name}}"&gt; &lt;input type="number" id="descLoc101"   placeholder=" QTY "  required&gt;&lt;input onclick="launch_notification();this.value='ADDED ✅'" type="submit" value="SEND"/&gt;&lt;/form&gt;
+&lt;img src="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/159" loading="lazy" width="400" height="400"&gt;  &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1">
+      <c r="A160" t="str">
+        <f>Sheet1!A160&amp;""&amp;Sheet1!B160&amp;""&amp;Sheet1!C160&amp;""&amp;Sheet1!D160&amp;""&amp;Sheet1!E160&amp;""&amp;Sheet1!F160&amp;""&amp;Sheet1!G160&amp;""&amp;Sheet1!H160&amp;""&amp;Sheet1!I160&amp;""&amp;Sheet1!J160&amp;""&amp;Sheet1!K160&amp;""&amp;Sheet1!L160&amp;""&amp;Sheet1!M160&amp;""&amp;Sheet1!N160&amp;""&amp;Sheet1!O160&amp;""&amp;Sheet1!P160&amp;""&amp;Sheet1!Q160&amp;""&amp;Sheet1!R160&amp;""&amp;Sheet1!S160&amp;""&amp;Sheet1!T160&amp;""&amp;Sheet1!U160&amp;""&amp;Sheet1!V160&amp;""&amp;Sheet1!W160&amp;""&amp;Sheet1!X160&amp;""&amp;Sheet1!Y160&amp;""&amp;Sheet1!Z160</f>
+        <v>&lt;li class="name"&gt;160&lt;form id="formLoc181"&gt; &lt;input type="hidden" id="nameLoc181"class="name"  value="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/160.jpeg"&gt;&lt;input type="hidden" id="cnameLoc181"class="name"  value="{{name}}"&gt; &lt;input type="number" id="descLoc102"   placeholder=" QTY "  required&gt;&lt;input onclick="launch_notification();this.value='ADDED ✅'" type="submit" value="SEND"/&gt;&lt;/form&gt;
+&lt;img src="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/160" loading="lazy" width="400" height="400"&gt;  &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1">
+      <c r="A161" t="str">
+        <f>Sheet1!A161&amp;""&amp;Sheet1!B161&amp;""&amp;Sheet1!C161&amp;""&amp;Sheet1!D161&amp;""&amp;Sheet1!E161&amp;""&amp;Sheet1!F161&amp;""&amp;Sheet1!G161&amp;""&amp;Sheet1!H161&amp;""&amp;Sheet1!I161&amp;""&amp;Sheet1!J161&amp;""&amp;Sheet1!K161&amp;""&amp;Sheet1!L161&amp;""&amp;Sheet1!M161&amp;""&amp;Sheet1!N161&amp;""&amp;Sheet1!O161&amp;""&amp;Sheet1!P161&amp;""&amp;Sheet1!Q161&amp;""&amp;Sheet1!R161&amp;""&amp;Sheet1!S161&amp;""&amp;Sheet1!T161&amp;""&amp;Sheet1!U161&amp;""&amp;Sheet1!V161&amp;""&amp;Sheet1!W161&amp;""&amp;Sheet1!X161&amp;""&amp;Sheet1!Y161&amp;""&amp;Sheet1!Z161</f>
+        <v>&lt;li class="name"&gt;161&lt;form id="formLoc182"&gt; &lt;input type="hidden" id="nameLoc182"class="name"  value="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/161.jpeg"&gt;&lt;input type="hidden" id="cnameLoc182"class="name"  value="{{name}}"&gt; &lt;input type="number" id="descLoc102"   placeholder=" QTY "  required&gt;&lt;input onclick="launch_notification();this.value='ADDED ✅'" type="submit" value="SEND"/&gt;&lt;/form&gt;
+&lt;img src="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/161" loading="lazy" width="400" height="400"&gt;  &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1">
+      <c r="A162" t="str">
+        <f>Sheet1!A162&amp;""&amp;Sheet1!B162&amp;""&amp;Sheet1!C162&amp;""&amp;Sheet1!D162&amp;""&amp;Sheet1!E162&amp;""&amp;Sheet1!F162&amp;""&amp;Sheet1!G162&amp;""&amp;Sheet1!H162&amp;""&amp;Sheet1!I162&amp;""&amp;Sheet1!J162&amp;""&amp;Sheet1!K162&amp;""&amp;Sheet1!L162&amp;""&amp;Sheet1!M162&amp;""&amp;Sheet1!N162&amp;""&amp;Sheet1!O162&amp;""&amp;Sheet1!P162&amp;""&amp;Sheet1!Q162&amp;""&amp;Sheet1!R162&amp;""&amp;Sheet1!S162&amp;""&amp;Sheet1!T162&amp;""&amp;Sheet1!U162&amp;""&amp;Sheet1!V162&amp;""&amp;Sheet1!W162&amp;""&amp;Sheet1!X162&amp;""&amp;Sheet1!Y162&amp;""&amp;Sheet1!Z162</f>
+        <v>&lt;li class="name"&gt;162&lt;form id="formLoc183"&gt; &lt;input type="hidden" id="nameLoc183"class="name"  value="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/162.jpeg"&gt;&lt;input type="hidden" id="cnameLoc183"class="name"  value="{{name}}"&gt; &lt;input type="number" id="descLoc103"   placeholder=" QTY "  required&gt;&lt;input onclick="launch_notification();this.value='ADDED ✅'" type="submit" value="SEND"/&gt;&lt;/form&gt;
+&lt;img src="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/162" loading="lazy" width="400" height="400"&gt;  &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1">
+      <c r="A163" t="str">
+        <f>Sheet1!A163&amp;""&amp;Sheet1!B163&amp;""&amp;Sheet1!C163&amp;""&amp;Sheet1!D163&amp;""&amp;Sheet1!E163&amp;""&amp;Sheet1!F163&amp;""&amp;Sheet1!G163&amp;""&amp;Sheet1!H163&amp;""&amp;Sheet1!I163&amp;""&amp;Sheet1!J163&amp;""&amp;Sheet1!K163&amp;""&amp;Sheet1!L163&amp;""&amp;Sheet1!M163&amp;""&amp;Sheet1!N163&amp;""&amp;Sheet1!O163&amp;""&amp;Sheet1!P163&amp;""&amp;Sheet1!Q163&amp;""&amp;Sheet1!R163&amp;""&amp;Sheet1!S163&amp;""&amp;Sheet1!T163&amp;""&amp;Sheet1!U163&amp;""&amp;Sheet1!V163&amp;""&amp;Sheet1!W163&amp;""&amp;Sheet1!X163&amp;""&amp;Sheet1!Y163&amp;""&amp;Sheet1!Z163</f>
+        <v>&lt;li class="name"&gt;163&lt;form id="formLoc184"&gt; &lt;input type="hidden" id="nameLoc184"class="name"  value="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/163.jpeg"&gt;&lt;input type="hidden" id="cnameLoc184"class="name"  value="{{name}}"&gt; &lt;input type="number" id="descLoc103"   placeholder=" QTY "  required&gt;&lt;input onclick="launch_notification();this.value='ADDED ✅'" type="submit" value="SEND"/&gt;&lt;/form&gt;
+&lt;img src="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/163" loading="lazy" width="400" height="400"&gt;  &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1">
+      <c r="A164" t="str">
+        <f>Sheet1!A164&amp;""&amp;Sheet1!B164&amp;""&amp;Sheet1!C164&amp;""&amp;Sheet1!D164&amp;""&amp;Sheet1!E164&amp;""&amp;Sheet1!F164&amp;""&amp;Sheet1!G164&amp;""&amp;Sheet1!H164&amp;""&amp;Sheet1!I164&amp;""&amp;Sheet1!J164&amp;""&amp;Sheet1!K164&amp;""&amp;Sheet1!L164&amp;""&amp;Sheet1!M164&amp;""&amp;Sheet1!N164&amp;""&amp;Sheet1!O164&amp;""&amp;Sheet1!P164&amp;""&amp;Sheet1!Q164&amp;""&amp;Sheet1!R164&amp;""&amp;Sheet1!S164&amp;""&amp;Sheet1!T164&amp;""&amp;Sheet1!U164&amp;""&amp;Sheet1!V164&amp;""&amp;Sheet1!W164&amp;""&amp;Sheet1!X164&amp;""&amp;Sheet1!Y164&amp;""&amp;Sheet1!Z164</f>
+        <v>&lt;li class="name"&gt;164&lt;form id="formLoc185"&gt; &lt;input type="hidden" id="nameLoc185"class="name"  value="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/164.jpeg"&gt;&lt;input type="hidden" id="cnameLoc185"class="name"  value="{{name}}"&gt; &lt;input type="number" id="descLoc104"   placeholder=" QTY "  required&gt;&lt;input onclick="launch_notification();this.value='ADDED ✅'" type="submit" value="SEND"/&gt;&lt;/form&gt;
+&lt;img src="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/164" loading="lazy" width="400" height="400"&gt;  &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1">
+      <c r="A165" t="str">
+        <f>Sheet1!A165&amp;""&amp;Sheet1!B165&amp;""&amp;Sheet1!C165&amp;""&amp;Sheet1!D165&amp;""&amp;Sheet1!E165&amp;""&amp;Sheet1!F165&amp;""&amp;Sheet1!G165&amp;""&amp;Sheet1!H165&amp;""&amp;Sheet1!I165&amp;""&amp;Sheet1!J165&amp;""&amp;Sheet1!K165&amp;""&amp;Sheet1!L165&amp;""&amp;Sheet1!M165&amp;""&amp;Sheet1!N165&amp;""&amp;Sheet1!O165&amp;""&amp;Sheet1!P165&amp;""&amp;Sheet1!Q165&amp;""&amp;Sheet1!R165&amp;""&amp;Sheet1!S165&amp;""&amp;Sheet1!T165&amp;""&amp;Sheet1!U165&amp;""&amp;Sheet1!V165&amp;""&amp;Sheet1!W165&amp;""&amp;Sheet1!X165&amp;""&amp;Sheet1!Y165&amp;""&amp;Sheet1!Z165</f>
+        <v>&lt;li class="name"&gt;165&lt;form id="formLoc186"&gt; &lt;input type="hidden" id="nameLoc186"class="name"  value="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/165.jpeg"&gt;&lt;input type="hidden" id="cnameLoc186"class="name"  value="{{name}}"&gt; &lt;input type="number" id="descLoc104"   placeholder=" QTY "  required&gt;&lt;input onclick="launch_notification();this.value='ADDED ✅'" type="submit" value="SEND"/&gt;&lt;/form&gt;
+&lt;img src="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/165" loading="lazy" width="400" height="400"&gt;  &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1">
+      <c r="A166" t="str">
+        <f>Sheet1!A166&amp;""&amp;Sheet1!B166&amp;""&amp;Sheet1!C166&amp;""&amp;Sheet1!D166&amp;""&amp;Sheet1!E166&amp;""&amp;Sheet1!F166&amp;""&amp;Sheet1!G166&amp;""&amp;Sheet1!H166&amp;""&amp;Sheet1!I166&amp;""&amp;Sheet1!J166&amp;""&amp;Sheet1!K166&amp;""&amp;Sheet1!L166&amp;""&amp;Sheet1!M166&amp;""&amp;Sheet1!N166&amp;""&amp;Sheet1!O166&amp;""&amp;Sheet1!P166&amp;""&amp;Sheet1!Q166&amp;""&amp;Sheet1!R166&amp;""&amp;Sheet1!S166&amp;""&amp;Sheet1!T166&amp;""&amp;Sheet1!U166&amp;""&amp;Sheet1!V166&amp;""&amp;Sheet1!W166&amp;""&amp;Sheet1!X166&amp;""&amp;Sheet1!Y166&amp;""&amp;Sheet1!Z166</f>
+        <v>&lt;li class="name"&gt;166&lt;form id="formLoc187"&gt; &lt;input type="hidden" id="nameLoc187"class="name"  value="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/166.jpeg"&gt;&lt;input type="hidden" id="cnameLoc187"class="name"  value="{{name}}"&gt; &lt;input type="number" id="descLoc105"   placeholder=" QTY "  required&gt;&lt;input onclick="launch_notification();this.value='ADDED ✅'" type="submit" value="SEND"/&gt;&lt;/form&gt;
+&lt;img src="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/166" loading="lazy" width="400" height="400"&gt;  &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1">
+      <c r="A167" t="str">
+        <f>Sheet1!A167&amp;""&amp;Sheet1!B167&amp;""&amp;Sheet1!C167&amp;""&amp;Sheet1!D167&amp;""&amp;Sheet1!E167&amp;""&amp;Sheet1!F167&amp;""&amp;Sheet1!G167&amp;""&amp;Sheet1!H167&amp;""&amp;Sheet1!I167&amp;""&amp;Sheet1!J167&amp;""&amp;Sheet1!K167&amp;""&amp;Sheet1!L167&amp;""&amp;Sheet1!M167&amp;""&amp;Sheet1!N167&amp;""&amp;Sheet1!O167&amp;""&amp;Sheet1!P167&amp;""&amp;Sheet1!Q167&amp;""&amp;Sheet1!R167&amp;""&amp;Sheet1!S167&amp;""&amp;Sheet1!T167&amp;""&amp;Sheet1!U167&amp;""&amp;Sheet1!V167&amp;""&amp;Sheet1!W167&amp;""&amp;Sheet1!X167&amp;""&amp;Sheet1!Y167&amp;""&amp;Sheet1!Z167</f>
+        <v>&lt;li class="name"&gt;167&lt;form id="formLoc188"&gt; &lt;input type="hidden" id="nameLoc188"class="name"  value="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/167.jpeg"&gt;&lt;input type="hidden" id="cnameLoc188"class="name"  value="{{name}}"&gt; &lt;input type="number" id="descLoc105"   placeholder=" QTY "  required&gt;&lt;input onclick="launch_notification();this.value='ADDED ✅'" type="submit" value="SEND"/&gt;&lt;/form&gt;
+&lt;img src="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/167" loading="lazy" width="400" height="400"&gt;  &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1">
+      <c r="A168" t="str">
+        <f>Sheet1!A168&amp;""&amp;Sheet1!B168&amp;""&amp;Sheet1!C168&amp;""&amp;Sheet1!D168&amp;""&amp;Sheet1!E168&amp;""&amp;Sheet1!F168&amp;""&amp;Sheet1!G168&amp;""&amp;Sheet1!H168&amp;""&amp;Sheet1!I168&amp;""&amp;Sheet1!J168&amp;""&amp;Sheet1!K168&amp;""&amp;Sheet1!L168&amp;""&amp;Sheet1!M168&amp;""&amp;Sheet1!N168&amp;""&amp;Sheet1!O168&amp;""&amp;Sheet1!P168&amp;""&amp;Sheet1!Q168&amp;""&amp;Sheet1!R168&amp;""&amp;Sheet1!S168&amp;""&amp;Sheet1!T168&amp;""&amp;Sheet1!U168&amp;""&amp;Sheet1!V168&amp;""&amp;Sheet1!W168&amp;""&amp;Sheet1!X168&amp;""&amp;Sheet1!Y168&amp;""&amp;Sheet1!Z168</f>
+        <v>&lt;li class="name"&gt;168&lt;form id="formLoc189"&gt; &lt;input type="hidden" id="nameLoc189"class="name"  value="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/168.jpeg"&gt;&lt;input type="hidden" id="cnameLoc189"class="name"  value="{{name}}"&gt; &lt;input type="number" id="descLoc106"   placeholder=" QTY "  required&gt;&lt;input onclick="launch_notification();this.value='ADDED ✅'" type="submit" value="SEND"/&gt;&lt;/form&gt;
+&lt;img src="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/168" loading="lazy" width="400" height="400"&gt;  &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1">
+      <c r="A169" t="str">
+        <f>Sheet1!A169&amp;""&amp;Sheet1!B169&amp;""&amp;Sheet1!C169&amp;""&amp;Sheet1!D169&amp;""&amp;Sheet1!E169&amp;""&amp;Sheet1!F169&amp;""&amp;Sheet1!G169&amp;""&amp;Sheet1!H169&amp;""&amp;Sheet1!I169&amp;""&amp;Sheet1!J169&amp;""&amp;Sheet1!K169&amp;""&amp;Sheet1!L169&amp;""&amp;Sheet1!M169&amp;""&amp;Sheet1!N169&amp;""&amp;Sheet1!O169&amp;""&amp;Sheet1!P169&amp;""&amp;Sheet1!Q169&amp;""&amp;Sheet1!R169&amp;""&amp;Sheet1!S169&amp;""&amp;Sheet1!T169&amp;""&amp;Sheet1!U169&amp;""&amp;Sheet1!V169&amp;""&amp;Sheet1!W169&amp;""&amp;Sheet1!X169&amp;""&amp;Sheet1!Y169&amp;""&amp;Sheet1!Z169</f>
+        <v>&lt;li class="name"&gt;169&lt;form id="formLoc190"&gt; &lt;input type="hidden" id="nameLoc190"class="name"  value="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/169.jpeg"&gt;&lt;input type="hidden" id="cnameLoc190"class="name"  value="{{name}}"&gt; &lt;input type="number" id="descLoc106"   placeholder=" QTY "  required&gt;&lt;input onclick="launch_notification();this.value='ADDED ✅'" type="submit" value="SEND"/&gt;&lt;/form&gt;
+&lt;img src="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/169" loading="lazy" width="400" height="400"&gt;  &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1">
+      <c r="A170" t="str">
+        <f>Sheet1!A170&amp;""&amp;Sheet1!B170&amp;""&amp;Sheet1!C170&amp;""&amp;Sheet1!D170&amp;""&amp;Sheet1!E170&amp;""&amp;Sheet1!F170&amp;""&amp;Sheet1!G170&amp;""&amp;Sheet1!H170&amp;""&amp;Sheet1!I170&amp;""&amp;Sheet1!J170&amp;""&amp;Sheet1!K170&amp;""&amp;Sheet1!L170&amp;""&amp;Sheet1!M170&amp;""&amp;Sheet1!N170&amp;""&amp;Sheet1!O170&amp;""&amp;Sheet1!P170&amp;""&amp;Sheet1!Q170&amp;""&amp;Sheet1!R170&amp;""&amp;Sheet1!S170&amp;""&amp;Sheet1!T170&amp;""&amp;Sheet1!U170&amp;""&amp;Sheet1!V170&amp;""&amp;Sheet1!W170&amp;""&amp;Sheet1!X170&amp;""&amp;Sheet1!Y170&amp;""&amp;Sheet1!Z170</f>
+        <v>&lt;li class="name"&gt;170&lt;form id="formLoc191"&gt; &lt;input type="hidden" id="nameLoc191"class="name"  value="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/170.jpeg"&gt;&lt;input type="hidden" id="cnameLoc191"class="name"  value="{{name}}"&gt; &lt;input type="number" id="descLoc107"   placeholder=" QTY "  required&gt;&lt;input onclick="launch_notification();this.value='ADDED ✅'" type="submit" value="SEND"/&gt;&lt;/form&gt;
+&lt;img src="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/170" loading="lazy" width="400" height="400"&gt;  &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1">
+      <c r="A171" t="str">
+        <f>Sheet1!A171&amp;""&amp;Sheet1!B171&amp;""&amp;Sheet1!C171&amp;""&amp;Sheet1!D171&amp;""&amp;Sheet1!E171&amp;""&amp;Sheet1!F171&amp;""&amp;Sheet1!G171&amp;""&amp;Sheet1!H171&amp;""&amp;Sheet1!I171&amp;""&amp;Sheet1!J171&amp;""&amp;Sheet1!K171&amp;""&amp;Sheet1!L171&amp;""&amp;Sheet1!M171&amp;""&amp;Sheet1!N171&amp;""&amp;Sheet1!O171&amp;""&amp;Sheet1!P171&amp;""&amp;Sheet1!Q171&amp;""&amp;Sheet1!R171&amp;""&amp;Sheet1!S171&amp;""&amp;Sheet1!T171&amp;""&amp;Sheet1!U171&amp;""&amp;Sheet1!V171&amp;""&amp;Sheet1!W171&amp;""&amp;Sheet1!X171&amp;""&amp;Sheet1!Y171&amp;""&amp;Sheet1!Z171</f>
+        <v>&lt;li class="name"&gt;171&lt;form id="formLoc192"&gt; &lt;input type="hidden" id="nameLoc192"class="name"  value="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/171.jpeg"&gt;&lt;input type="hidden" id="cnameLoc192"class="name"  value="{{name}}"&gt; &lt;input type="number" id="descLoc107"   placeholder=" QTY "  required&gt;&lt;input onclick="launch_notification();this.value='ADDED ✅'" type="submit" value="SEND"/&gt;&lt;/form&gt;
+&lt;img src="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/171" loading="lazy" width="400" height="400"&gt;  &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1">
+      <c r="A172" t="str">
+        <f>Sheet1!A172&amp;""&amp;Sheet1!B172&amp;""&amp;Sheet1!C172&amp;""&amp;Sheet1!D172&amp;""&amp;Sheet1!E172&amp;""&amp;Sheet1!F172&amp;""&amp;Sheet1!G172&amp;""&amp;Sheet1!H172&amp;""&amp;Sheet1!I172&amp;""&amp;Sheet1!J172&amp;""&amp;Sheet1!K172&amp;""&amp;Sheet1!L172&amp;""&amp;Sheet1!M172&amp;""&amp;Sheet1!N172&amp;""&amp;Sheet1!O172&amp;""&amp;Sheet1!P172&amp;""&amp;Sheet1!Q172&amp;""&amp;Sheet1!R172&amp;""&amp;Sheet1!S172&amp;""&amp;Sheet1!T172&amp;""&amp;Sheet1!U172&amp;""&amp;Sheet1!V172&amp;""&amp;Sheet1!W172&amp;""&amp;Sheet1!X172&amp;""&amp;Sheet1!Y172&amp;""&amp;Sheet1!Z172</f>
+        <v>&lt;li class="name"&gt;172&lt;form id="formLoc193"&gt; &lt;input type="hidden" id="nameLoc193"class="name"  value="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/172.jpeg"&gt;&lt;input type="hidden" id="cnameLoc193"class="name"  value="{{name}}"&gt; &lt;input type="number" id="descLoc108"   placeholder=" QTY "  required&gt;&lt;input onclick="launch_notification();this.value='ADDED ✅'" type="submit" value="SEND"/&gt;&lt;/form&gt;
+&lt;img src="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/172" loading="lazy" width="400" height="400"&gt;  &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1">
+      <c r="A173" t="str">
+        <f>Sheet1!A173&amp;""&amp;Sheet1!B173&amp;""&amp;Sheet1!C173&amp;""&amp;Sheet1!D173&amp;""&amp;Sheet1!E173&amp;""&amp;Sheet1!F173&amp;""&amp;Sheet1!G173&amp;""&amp;Sheet1!H173&amp;""&amp;Sheet1!I173&amp;""&amp;Sheet1!J173&amp;""&amp;Sheet1!K173&amp;""&amp;Sheet1!L173&amp;""&amp;Sheet1!M173&amp;""&amp;Sheet1!N173&amp;""&amp;Sheet1!O173&amp;""&amp;Sheet1!P173&amp;""&amp;Sheet1!Q173&amp;""&amp;Sheet1!R173&amp;""&amp;Sheet1!S173&amp;""&amp;Sheet1!T173&amp;""&amp;Sheet1!U173&amp;""&amp;Sheet1!V173&amp;""&amp;Sheet1!W173&amp;""&amp;Sheet1!X173&amp;""&amp;Sheet1!Y173&amp;""&amp;Sheet1!Z173</f>
+        <v>&lt;li class="name"&gt;173&lt;form id="formLoc194"&gt; &lt;input type="hidden" id="nameLoc194"class="name"  value="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/173.jpeg"&gt;&lt;input type="hidden" id="cnameLoc194"class="name"  value="{{name}}"&gt; &lt;input type="number" id="descLoc108"   placeholder=" QTY "  required&gt;&lt;input onclick="launch_notification();this.value='ADDED ✅'" type="submit" value="SEND"/&gt;&lt;/form&gt;
+&lt;img src="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/173" loading="lazy" width="400" height="400"&gt;  &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1">
+      <c r="A174" t="str">
+        <f>Sheet1!A174&amp;""&amp;Sheet1!B174&amp;""&amp;Sheet1!C174&amp;""&amp;Sheet1!D174&amp;""&amp;Sheet1!E174&amp;""&amp;Sheet1!F174&amp;""&amp;Sheet1!G174&amp;""&amp;Sheet1!H174&amp;""&amp;Sheet1!I174&amp;""&amp;Sheet1!J174&amp;""&amp;Sheet1!K174&amp;""&amp;Sheet1!L174&amp;""&amp;Sheet1!M174&amp;""&amp;Sheet1!N174&amp;""&amp;Sheet1!O174&amp;""&amp;Sheet1!P174&amp;""&amp;Sheet1!Q174&amp;""&amp;Sheet1!R174&amp;""&amp;Sheet1!S174&amp;""&amp;Sheet1!T174&amp;""&amp;Sheet1!U174&amp;""&amp;Sheet1!V174&amp;""&amp;Sheet1!W174&amp;""&amp;Sheet1!X174&amp;""&amp;Sheet1!Y174&amp;""&amp;Sheet1!Z174</f>
+        <v>&lt;li class="name"&gt;174&lt;form id="formLoc195"&gt; &lt;input type="hidden" id="nameLoc195"class="name"  value="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/174.jpeg"&gt;&lt;input type="hidden" id="cnameLoc195"class="name"  value="{{name}}"&gt; &lt;input type="number" id="descLoc109"   placeholder=" QTY "  required&gt;&lt;input onclick="launch_notification();this.value='ADDED ✅'" type="submit" value="SEND"/&gt;&lt;/form&gt;
+&lt;img src="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/174" loading="lazy" width="400" height="400"&gt;  &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1">
+      <c r="A175" t="str">
+        <f>Sheet1!A175&amp;""&amp;Sheet1!B175&amp;""&amp;Sheet1!C175&amp;""&amp;Sheet1!D175&amp;""&amp;Sheet1!E175&amp;""&amp;Sheet1!F175&amp;""&amp;Sheet1!G175&amp;""&amp;Sheet1!H175&amp;""&amp;Sheet1!I175&amp;""&amp;Sheet1!J175&amp;""&amp;Sheet1!K175&amp;""&amp;Sheet1!L175&amp;""&amp;Sheet1!M175&amp;""&amp;Sheet1!N175&amp;""&amp;Sheet1!O175&amp;""&amp;Sheet1!P175&amp;""&amp;Sheet1!Q175&amp;""&amp;Sheet1!R175&amp;""&amp;Sheet1!S175&amp;""&amp;Sheet1!T175&amp;""&amp;Sheet1!U175&amp;""&amp;Sheet1!V175&amp;""&amp;Sheet1!W175&amp;""&amp;Sheet1!X175&amp;""&amp;Sheet1!Y175&amp;""&amp;Sheet1!Z175</f>
+        <v>&lt;li class="name"&gt;175&lt;form id="formLoc196"&gt; &lt;input type="hidden" id="nameLoc196"class="name"  value="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/175.jpeg"&gt;&lt;input type="hidden" id="cnameLoc196"class="name"  value="{{name}}"&gt; &lt;input type="number" id="descLoc109"   placeholder=" QTY "  required&gt;&lt;input onclick="launch_notification();this.value='ADDED ✅'" type="submit" value="SEND"/&gt;&lt;/form&gt;
+&lt;img src="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/175" loading="lazy" width="400" height="400"&gt;  &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1">
+      <c r="A176" t="str">
+        <f>Sheet1!A176&amp;""&amp;Sheet1!B176&amp;""&amp;Sheet1!C176&amp;""&amp;Sheet1!D176&amp;""&amp;Sheet1!E176&amp;""&amp;Sheet1!F176&amp;""&amp;Sheet1!G176&amp;""&amp;Sheet1!H176&amp;""&amp;Sheet1!I176&amp;""&amp;Sheet1!J176&amp;""&amp;Sheet1!K176&amp;""&amp;Sheet1!L176&amp;""&amp;Sheet1!M176&amp;""&amp;Sheet1!N176&amp;""&amp;Sheet1!O176&amp;""&amp;Sheet1!P176&amp;""&amp;Sheet1!Q176&amp;""&amp;Sheet1!R176&amp;""&amp;Sheet1!S176&amp;""&amp;Sheet1!T176&amp;""&amp;Sheet1!U176&amp;""&amp;Sheet1!V176&amp;""&amp;Sheet1!W176&amp;""&amp;Sheet1!X176&amp;""&amp;Sheet1!Y176&amp;""&amp;Sheet1!Z176</f>
+        <v>&lt;li class="name"&gt;176&lt;form id="formLoc197"&gt; &lt;input type="hidden" id="nameLoc197"class="name"  value="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/176.jpeg"&gt;&lt;input type="hidden" id="cnameLoc197"class="name"  value="{{name}}"&gt; &lt;input type="number" id="descLoc110"   placeholder=" QTY "  required&gt;&lt;input onclick="launch_notification();this.value='ADDED ✅'" type="submit" value="SEND"/&gt;&lt;/form&gt;
+&lt;img src="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/176" loading="lazy" width="400" height="400"&gt;  &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1">
+      <c r="A177" t="str">
+        <f>Sheet1!A177&amp;""&amp;Sheet1!B177&amp;""&amp;Sheet1!C177&amp;""&amp;Sheet1!D177&amp;""&amp;Sheet1!E177&amp;""&amp;Sheet1!F177&amp;""&amp;Sheet1!G177&amp;""&amp;Sheet1!H177&amp;""&amp;Sheet1!I177&amp;""&amp;Sheet1!J177&amp;""&amp;Sheet1!K177&amp;""&amp;Sheet1!L177&amp;""&amp;Sheet1!M177&amp;""&amp;Sheet1!N177&amp;""&amp;Sheet1!O177&amp;""&amp;Sheet1!P177&amp;""&amp;Sheet1!Q177&amp;""&amp;Sheet1!R177&amp;""&amp;Sheet1!S177&amp;""&amp;Sheet1!T177&amp;""&amp;Sheet1!U177&amp;""&amp;Sheet1!V177&amp;""&amp;Sheet1!W177&amp;""&amp;Sheet1!X177&amp;""&amp;Sheet1!Y177&amp;""&amp;Sheet1!Z177</f>
+        <v>&lt;li class="name"&gt;177&lt;form id="formLoc198"&gt; &lt;input type="hidden" id="nameLoc198"class="name"  value="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/177.jpeg"&gt;&lt;input type="hidden" id="cnameLoc198"class="name"  value="{{name}}"&gt; &lt;input type="number" id="descLoc110"   placeholder=" QTY "  required&gt;&lt;input onclick="launch_notification();this.value='ADDED ✅'" type="submit" value="SEND"/&gt;&lt;/form&gt;
+&lt;img src="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/177" loading="lazy" width="400" height="400"&gt;  &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1">
+      <c r="A178" t="str">
+        <f>Sheet1!A178&amp;""&amp;Sheet1!B178&amp;""&amp;Sheet1!C178&amp;""&amp;Sheet1!D178&amp;""&amp;Sheet1!E178&amp;""&amp;Sheet1!F178&amp;""&amp;Sheet1!G178&amp;""&amp;Sheet1!H178&amp;""&amp;Sheet1!I178&amp;""&amp;Sheet1!J178&amp;""&amp;Sheet1!K178&amp;""&amp;Sheet1!L178&amp;""&amp;Sheet1!M178&amp;""&amp;Sheet1!N178&amp;""&amp;Sheet1!O178&amp;""&amp;Sheet1!P178&amp;""&amp;Sheet1!Q178&amp;""&amp;Sheet1!R178&amp;""&amp;Sheet1!S178&amp;""&amp;Sheet1!T178&amp;""&amp;Sheet1!U178&amp;""&amp;Sheet1!V178&amp;""&amp;Sheet1!W178&amp;""&amp;Sheet1!X178&amp;""&amp;Sheet1!Y178&amp;""&amp;Sheet1!Z178</f>
+        <v>&lt;li class="name"&gt;178&lt;form id="formLoc199"&gt; &lt;input type="hidden" id="nameLoc199"class="name"  value="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/178.jpeg"&gt;&lt;input type="hidden" id="cnameLoc199"class="name"  value="{{name}}"&gt; &lt;input type="number" id="descLoc111"   placeholder=" QTY "  required&gt;&lt;input onclick="launch_notification();this.value='ADDED ✅'" type="submit" value="SEND"/&gt;&lt;/form&gt;
+&lt;img src="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/178" loading="lazy" width="400" height="400"&gt;  &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1">
+      <c r="A179" t="str">
+        <f>Sheet1!A179&amp;""&amp;Sheet1!B179&amp;""&amp;Sheet1!C179&amp;""&amp;Sheet1!D179&amp;""&amp;Sheet1!E179&amp;""&amp;Sheet1!F179&amp;""&amp;Sheet1!G179&amp;""&amp;Sheet1!H179&amp;""&amp;Sheet1!I179&amp;""&amp;Sheet1!J179&amp;""&amp;Sheet1!K179&amp;""&amp;Sheet1!L179&amp;""&amp;Sheet1!M179&amp;""&amp;Sheet1!N179&amp;""&amp;Sheet1!O179&amp;""&amp;Sheet1!P179&amp;""&amp;Sheet1!Q179&amp;""&amp;Sheet1!R179&amp;""&amp;Sheet1!S179&amp;""&amp;Sheet1!T179&amp;""&amp;Sheet1!U179&amp;""&amp;Sheet1!V179&amp;""&amp;Sheet1!W179&amp;""&amp;Sheet1!X179&amp;""&amp;Sheet1!Y179&amp;""&amp;Sheet1!Z179</f>
+        <v>&lt;li class="name"&gt;179&lt;form id="formLoc200"&gt; &lt;input type="hidden" id="nameLoc200"class="name"  value="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/179.jpeg"&gt;&lt;input type="hidden" id="cnameLoc200"class="name"  value="{{name}}"&gt; &lt;input type="number" id="descLoc111"   placeholder=" QTY "  required&gt;&lt;input onclick="launch_notification();this.value='ADDED ✅'" type="submit" value="SEND"/&gt;&lt;/form&gt;
+&lt;img src="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/179" loading="lazy" width="400" height="400"&gt;  &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1">
+      <c r="A180" t="str">
+        <f>Sheet1!A180&amp;""&amp;Sheet1!B180&amp;""&amp;Sheet1!C180&amp;""&amp;Sheet1!D180&amp;""&amp;Sheet1!E180&amp;""&amp;Sheet1!F180&amp;""&amp;Sheet1!G180&amp;""&amp;Sheet1!H180&amp;""&amp;Sheet1!I180&amp;""&amp;Sheet1!J180&amp;""&amp;Sheet1!K180&amp;""&amp;Sheet1!L180&amp;""&amp;Sheet1!M180&amp;""&amp;Sheet1!N180&amp;""&amp;Sheet1!O180&amp;""&amp;Sheet1!P180&amp;""&amp;Sheet1!Q180&amp;""&amp;Sheet1!R180&amp;""&amp;Sheet1!S180&amp;""&amp;Sheet1!T180&amp;""&amp;Sheet1!U180&amp;""&amp;Sheet1!V180&amp;""&amp;Sheet1!W180&amp;""&amp;Sheet1!X180&amp;""&amp;Sheet1!Y180&amp;""&amp;Sheet1!Z180</f>
+        <v>&lt;li class="name"&gt;180&lt;form id="formLoc201"&gt; &lt;input type="hidden" id="nameLoc201"class="name"  value="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/180.jpeg"&gt;&lt;input type="hidden" id="cnameLoc201"class="name"  value="{{name}}"&gt; &lt;input type="number" id="descLoc112"   placeholder=" QTY "  required&gt;&lt;input onclick="launch_notification();this.value='ADDED ✅'" type="submit" value="SEND"/&gt;&lt;/form&gt;
+&lt;img src="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/180" loading="lazy" width="400" height="400"&gt;  &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1">
+      <c r="A181" t="str">
+        <f>Sheet1!A181&amp;""&amp;Sheet1!B181&amp;""&amp;Sheet1!C181&amp;""&amp;Sheet1!D181&amp;""&amp;Sheet1!E181&amp;""&amp;Sheet1!F181&amp;""&amp;Sheet1!G181&amp;""&amp;Sheet1!H181&amp;""&amp;Sheet1!I181&amp;""&amp;Sheet1!J181&amp;""&amp;Sheet1!K181&amp;""&amp;Sheet1!L181&amp;""&amp;Sheet1!M181&amp;""&amp;Sheet1!N181&amp;""&amp;Sheet1!O181&amp;""&amp;Sheet1!P181&amp;""&amp;Sheet1!Q181&amp;""&amp;Sheet1!R181&amp;""&amp;Sheet1!S181&amp;""&amp;Sheet1!T181&amp;""&amp;Sheet1!U181&amp;""&amp;Sheet1!V181&amp;""&amp;Sheet1!W181&amp;""&amp;Sheet1!X181&amp;""&amp;Sheet1!Y181&amp;""&amp;Sheet1!Z181</f>
+        <v>&lt;li class="name"&gt;181&lt;form id="formLoc202"&gt; &lt;input type="hidden" id="nameLoc202"class="name"  value="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/181.jpeg"&gt;&lt;input type="hidden" id="cnameLoc202"class="name"  value="{{name}}"&gt; &lt;input type="number" id="descLoc112"   placeholder=" QTY "  required&gt;&lt;input onclick="launch_notification();this.value='ADDED ✅'" type="submit" value="SEND"/&gt;&lt;/form&gt;
+&lt;img src="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/181" loading="lazy" width="400" height="400"&gt;  &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1">
+      <c r="A182" t="str">
+        <f>Sheet1!A182&amp;""&amp;Sheet1!B182&amp;""&amp;Sheet1!C182&amp;""&amp;Sheet1!D182&amp;""&amp;Sheet1!E182&amp;""&amp;Sheet1!F182&amp;""&amp;Sheet1!G182&amp;""&amp;Sheet1!H182&amp;""&amp;Sheet1!I182&amp;""&amp;Sheet1!J182&amp;""&amp;Sheet1!K182&amp;""&amp;Sheet1!L182&amp;""&amp;Sheet1!M182&amp;""&amp;Sheet1!N182&amp;""&amp;Sheet1!O182&amp;""&amp;Sheet1!P182&amp;""&amp;Sheet1!Q182&amp;""&amp;Sheet1!R182&amp;""&amp;Sheet1!S182&amp;""&amp;Sheet1!T182&amp;""&amp;Sheet1!U182&amp;""&amp;Sheet1!V182&amp;""&amp;Sheet1!W182&amp;""&amp;Sheet1!X182&amp;""&amp;Sheet1!Y182&amp;""&amp;Sheet1!Z182</f>
+        <v>&lt;li class="name"&gt;182&lt;form id="formLoc203"&gt; &lt;input type="hidden" id="nameLoc203"class="name"  value="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/182.jpeg"&gt;&lt;input type="hidden" id="cnameLoc203"class="name"  value="{{name}}"&gt; &lt;input type="number" id="descLoc113"   placeholder=" QTY "  required&gt;&lt;input onclick="launch_notification();this.value='ADDED ✅'" type="submit" value="SEND"/&gt;&lt;/form&gt;
+&lt;img src="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/182" loading="lazy" width="400" height="400"&gt;  &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1">
+      <c r="A183" t="str">
+        <f>Sheet1!A183&amp;""&amp;Sheet1!B183&amp;""&amp;Sheet1!C183&amp;""&amp;Sheet1!D183&amp;""&amp;Sheet1!E183&amp;""&amp;Sheet1!F183&amp;""&amp;Sheet1!G183&amp;""&amp;Sheet1!H183&amp;""&amp;Sheet1!I183&amp;""&amp;Sheet1!J183&amp;""&amp;Sheet1!K183&amp;""&amp;Sheet1!L183&amp;""&amp;Sheet1!M183&amp;""&amp;Sheet1!N183&amp;""&amp;Sheet1!O183&amp;""&amp;Sheet1!P183&amp;""&amp;Sheet1!Q183&amp;""&amp;Sheet1!R183&amp;""&amp;Sheet1!S183&amp;""&amp;Sheet1!T183&amp;""&amp;Sheet1!U183&amp;""&amp;Sheet1!V183&amp;""&amp;Sheet1!W183&amp;""&amp;Sheet1!X183&amp;""&amp;Sheet1!Y183&amp;""&amp;Sheet1!Z183</f>
+        <v>&lt;li class="name"&gt;183&lt;form id="formLoc204"&gt; &lt;input type="hidden" id="nameLoc204"class="name"  value="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/183.jpeg"&gt;&lt;input type="hidden" id="cnameLoc204"class="name"  value="{{name}}"&gt; &lt;input type="number" id="descLoc113"   placeholder=" QTY "  required&gt;&lt;input onclick="launch_notification();this.value='ADDED ✅'" type="submit" value="SEND"/&gt;&lt;/form&gt;
+&lt;img src="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/183" loading="lazy" width="400" height="400"&gt;  &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1">
+      <c r="A184" t="str">
+        <f>Sheet1!A184&amp;""&amp;Sheet1!B184&amp;""&amp;Sheet1!C184&amp;""&amp;Sheet1!D184&amp;""&amp;Sheet1!E184&amp;""&amp;Sheet1!F184&amp;""&amp;Sheet1!G184&amp;""&amp;Sheet1!H184&amp;""&amp;Sheet1!I184&amp;""&amp;Sheet1!J184&amp;""&amp;Sheet1!K184&amp;""&amp;Sheet1!L184&amp;""&amp;Sheet1!M184&amp;""&amp;Sheet1!N184&amp;""&amp;Sheet1!O184&amp;""&amp;Sheet1!P184&amp;""&amp;Sheet1!Q184&amp;""&amp;Sheet1!R184&amp;""&amp;Sheet1!S184&amp;""&amp;Sheet1!T184&amp;""&amp;Sheet1!U184&amp;""&amp;Sheet1!V184&amp;""&amp;Sheet1!W184&amp;""&amp;Sheet1!X184&amp;""&amp;Sheet1!Y184&amp;""&amp;Sheet1!Z184</f>
+        <v>&lt;li class="name"&gt;184&lt;form id="formLoc205"&gt; &lt;input type="hidden" id="nameLoc205"class="name"  value="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/184.jpeg"&gt;&lt;input type="hidden" id="cnameLoc205"class="name"  value="{{name}}"&gt; &lt;input type="number" id="descLoc114"   placeholder=" QTY "  required&gt;&lt;input onclick="launch_notification();this.value='ADDED ✅'" type="submit" value="SEND"/&gt;&lt;/form&gt;
+&lt;img src="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/184" loading="lazy" width="400" height="400"&gt;  &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1">
+      <c r="A185" t="str">
+        <f>Sheet1!A185&amp;""&amp;Sheet1!B185&amp;""&amp;Sheet1!C185&amp;""&amp;Sheet1!D185&amp;""&amp;Sheet1!E185&amp;""&amp;Sheet1!F185&amp;""&amp;Sheet1!G185&amp;""&amp;Sheet1!H185&amp;""&amp;Sheet1!I185&amp;""&amp;Sheet1!J185&amp;""&amp;Sheet1!K185&amp;""&amp;Sheet1!L185&amp;""&amp;Sheet1!M185&amp;""&amp;Sheet1!N185&amp;""&amp;Sheet1!O185&amp;""&amp;Sheet1!P185&amp;""&amp;Sheet1!Q185&amp;""&amp;Sheet1!R185&amp;""&amp;Sheet1!S185&amp;""&amp;Sheet1!T185&amp;""&amp;Sheet1!U185&amp;""&amp;Sheet1!V185&amp;""&amp;Sheet1!W185&amp;""&amp;Sheet1!X185&amp;""&amp;Sheet1!Y185&amp;""&amp;Sheet1!Z185</f>
+        <v>&lt;li class="name"&gt;185&lt;form id="formLoc206"&gt; &lt;input type="hidden" id="nameLoc206"class="name"  value="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/185.jpeg"&gt;&lt;input type="hidden" id="cnameLoc206"class="name"  value="{{name}}"&gt; &lt;input type="number" id="descLoc114"   placeholder=" QTY "  required&gt;&lt;input onclick="launch_notification();this.value='ADDED ✅'" type="submit" value="SEND"/&gt;&lt;/form&gt;
+&lt;img src="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/185" loading="lazy" width="400" height="400"&gt;  &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1">
+      <c r="A186" t="str">
+        <f>Sheet1!A186&amp;""&amp;Sheet1!B186&amp;""&amp;Sheet1!C186&amp;""&amp;Sheet1!D186&amp;""&amp;Sheet1!E186&amp;""&amp;Sheet1!F186&amp;""&amp;Sheet1!G186&amp;""&amp;Sheet1!H186&amp;""&amp;Sheet1!I186&amp;""&amp;Sheet1!J186&amp;""&amp;Sheet1!K186&amp;""&amp;Sheet1!L186&amp;""&amp;Sheet1!M186&amp;""&amp;Sheet1!N186&amp;""&amp;Sheet1!O186&amp;""&amp;Sheet1!P186&amp;""&amp;Sheet1!Q186&amp;""&amp;Sheet1!R186&amp;""&amp;Sheet1!S186&amp;""&amp;Sheet1!T186&amp;""&amp;Sheet1!U186&amp;""&amp;Sheet1!V186&amp;""&amp;Sheet1!W186&amp;""&amp;Sheet1!X186&amp;""&amp;Sheet1!Y186&amp;""&amp;Sheet1!Z186</f>
+        <v>&lt;li class="name"&gt;186&lt;form id="formLoc207"&gt; &lt;input type="hidden" id="nameLoc207"class="name"  value="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/186.jpeg"&gt;&lt;input type="hidden" id="cnameLoc207"class="name"  value="{{name}}"&gt; &lt;input type="number" id="descLoc115"   placeholder=" QTY "  required&gt;&lt;input onclick="launch_notification();this.value='ADDED ✅'" type="submit" value="SEND"/&gt;&lt;/form&gt;
+&lt;img src="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/186" loading="lazy" width="400" height="400"&gt;  &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1">
+      <c r="A187" t="str">
+        <f>Sheet1!A187&amp;""&amp;Sheet1!B187&amp;""&amp;Sheet1!C187&amp;""&amp;Sheet1!D187&amp;""&amp;Sheet1!E187&amp;""&amp;Sheet1!F187&amp;""&amp;Sheet1!G187&amp;""&amp;Sheet1!H187&amp;""&amp;Sheet1!I187&amp;""&amp;Sheet1!J187&amp;""&amp;Sheet1!K187&amp;""&amp;Sheet1!L187&amp;""&amp;Sheet1!M187&amp;""&amp;Sheet1!N187&amp;""&amp;Sheet1!O187&amp;""&amp;Sheet1!P187&amp;""&amp;Sheet1!Q187&amp;""&amp;Sheet1!R187&amp;""&amp;Sheet1!S187&amp;""&amp;Sheet1!T187&amp;""&amp;Sheet1!U187&amp;""&amp;Sheet1!V187&amp;""&amp;Sheet1!W187&amp;""&amp;Sheet1!X187&amp;""&amp;Sheet1!Y187&amp;""&amp;Sheet1!Z187</f>
+        <v>&lt;li class="name"&gt;187&lt;form id="formLoc208"&gt; &lt;input type="hidden" id="nameLoc208"class="name"  value="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/187.jpeg"&gt;&lt;input type="hidden" id="cnameLoc208"class="name"  value="{{name}}"&gt; &lt;input type="number" id="descLoc115"   placeholder=" QTY "  required&gt;&lt;input onclick="launch_notification();this.value='ADDED ✅'" type="submit" value="SEND"/&gt;&lt;/form&gt;
+&lt;img src="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/187" loading="lazy" width="400" height="400"&gt;  &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1">
+      <c r="A188" t="str">
+        <f>Sheet1!A188&amp;""&amp;Sheet1!B188&amp;""&amp;Sheet1!C188&amp;""&amp;Sheet1!D188&amp;""&amp;Sheet1!E188&amp;""&amp;Sheet1!F188&amp;""&amp;Sheet1!G188&amp;""&amp;Sheet1!H188&amp;""&amp;Sheet1!I188&amp;""&amp;Sheet1!J188&amp;""&amp;Sheet1!K188&amp;""&amp;Sheet1!L188&amp;""&amp;Sheet1!M188&amp;""&amp;Sheet1!N188&amp;""&amp;Sheet1!O188&amp;""&amp;Sheet1!P188&amp;""&amp;Sheet1!Q188&amp;""&amp;Sheet1!R188&amp;""&amp;Sheet1!S188&amp;""&amp;Sheet1!T188&amp;""&amp;Sheet1!U188&amp;""&amp;Sheet1!V188&amp;""&amp;Sheet1!W188&amp;""&amp;Sheet1!X188&amp;""&amp;Sheet1!Y188&amp;""&amp;Sheet1!Z188</f>
+        <v>&lt;li class="name"&gt;188&lt;form id="formLoc209"&gt; &lt;input type="hidden" id="nameLoc209"class="name"  value="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/188.jpeg"&gt;&lt;input type="hidden" id="cnameLoc209"class="name"  value="{{name}}"&gt; &lt;input type="number" id="descLoc116"   placeholder=" QTY "  required&gt;&lt;input onclick="launch_notification();this.value='ADDED ✅'" type="submit" value="SEND"/&gt;&lt;/form&gt;
+&lt;img src="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/188" loading="lazy" width="400" height="400"&gt;  &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1">
+      <c r="A189" t="str">
+        <f>Sheet1!A189&amp;""&amp;Sheet1!B189&amp;""&amp;Sheet1!C189&amp;""&amp;Sheet1!D189&amp;""&amp;Sheet1!E189&amp;""&amp;Sheet1!F189&amp;""&amp;Sheet1!G189&amp;""&amp;Sheet1!H189&amp;""&amp;Sheet1!I189&amp;""&amp;Sheet1!J189&amp;""&amp;Sheet1!K189&amp;""&amp;Sheet1!L189&amp;""&amp;Sheet1!M189&amp;""&amp;Sheet1!N189&amp;""&amp;Sheet1!O189&amp;""&amp;Sheet1!P189&amp;""&amp;Sheet1!Q189&amp;""&amp;Sheet1!R189&amp;""&amp;Sheet1!S189&amp;""&amp;Sheet1!T189&amp;""&amp;Sheet1!U189&amp;""&amp;Sheet1!V189&amp;""&amp;Sheet1!W189&amp;""&amp;Sheet1!X189&amp;""&amp;Sheet1!Y189&amp;""&amp;Sheet1!Z189</f>
+        <v>&lt;li class="name"&gt;189&lt;form id="formLoc210"&gt; &lt;input type="hidden" id="nameLoc210"class="name"  value="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/189.jpeg"&gt;&lt;input type="hidden" id="cnameLoc210"class="name"  value="{{name}}"&gt; &lt;input type="number" id="descLoc116"   placeholder=" QTY "  required&gt;&lt;input onclick="launch_notification();this.value='ADDED ✅'" type="submit" value="SEND"/&gt;&lt;/form&gt;
+&lt;img src="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/189" loading="lazy" width="400" height="400"&gt;  &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1">
+      <c r="A190" t="str">
+        <f>Sheet1!A190&amp;""&amp;Sheet1!B190&amp;""&amp;Sheet1!C190&amp;""&amp;Sheet1!D190&amp;""&amp;Sheet1!E190&amp;""&amp;Sheet1!F190&amp;""&amp;Sheet1!G190&amp;""&amp;Sheet1!H190&amp;""&amp;Sheet1!I190&amp;""&amp;Sheet1!J190&amp;""&amp;Sheet1!K190&amp;""&amp;Sheet1!L190&amp;""&amp;Sheet1!M190&amp;""&amp;Sheet1!N190&amp;""&amp;Sheet1!O190&amp;""&amp;Sheet1!P190&amp;""&amp;Sheet1!Q190&amp;""&amp;Sheet1!R190&amp;""&amp;Sheet1!S190&amp;""&amp;Sheet1!T190&amp;""&amp;Sheet1!U190&amp;""&amp;Sheet1!V190&amp;""&amp;Sheet1!W190&amp;""&amp;Sheet1!X190&amp;""&amp;Sheet1!Y190&amp;""&amp;Sheet1!Z190</f>
+        <v>&lt;li class="name"&gt;190&lt;form id="formLoc211"&gt; &lt;input type="hidden" id="nameLoc211"class="name"  value="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/190.jpeg"&gt;&lt;input type="hidden" id="cnameLoc211"class="name"  value="{{name}}"&gt; &lt;input type="number" id="descLoc117"   placeholder=" QTY "  required&gt;&lt;input onclick="launch_notification();this.value='ADDED ✅'" type="submit" value="SEND"/&gt;&lt;/form&gt;
+&lt;img src="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/190" loading="lazy" width="400" height="400"&gt;  &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1">
+      <c r="A191" t="str">
+        <f>Sheet1!A191&amp;""&amp;Sheet1!B191&amp;""&amp;Sheet1!C191&amp;""&amp;Sheet1!D191&amp;""&amp;Sheet1!E191&amp;""&amp;Sheet1!F191&amp;""&amp;Sheet1!G191&amp;""&amp;Sheet1!H191&amp;""&amp;Sheet1!I191&amp;""&amp;Sheet1!J191&amp;""&amp;Sheet1!K191&amp;""&amp;Sheet1!L191&amp;""&amp;Sheet1!M191&amp;""&amp;Sheet1!N191&amp;""&amp;Sheet1!O191&amp;""&amp;Sheet1!P191&amp;""&amp;Sheet1!Q191&amp;""&amp;Sheet1!R191&amp;""&amp;Sheet1!S191&amp;""&amp;Sheet1!T191&amp;""&amp;Sheet1!U191&amp;""&amp;Sheet1!V191&amp;""&amp;Sheet1!W191&amp;""&amp;Sheet1!X191&amp;""&amp;Sheet1!Y191&amp;""&amp;Sheet1!Z191</f>
+        <v>&lt;li class="name"&gt;191&lt;form id="formLoc212"&gt; &lt;input type="hidden" id="nameLoc212"class="name"  value="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/191.jpeg"&gt;&lt;input type="hidden" id="cnameLoc212"class="name"  value="{{name}}"&gt; &lt;input type="number" id="descLoc117"   placeholder=" QTY "  required&gt;&lt;input onclick="launch_notification();this.value='ADDED ✅'" type="submit" value="SEND"/&gt;&lt;/form&gt;
+&lt;img src="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/191" loading="lazy" width="400" height="400"&gt;  &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1">
+      <c r="A192" t="str">
+        <f>Sheet1!A192&amp;""&amp;Sheet1!B192&amp;""&amp;Sheet1!C192&amp;""&amp;Sheet1!D192&amp;""&amp;Sheet1!E192&amp;""&amp;Sheet1!F192&amp;""&amp;Sheet1!G192&amp;""&amp;Sheet1!H192&amp;""&amp;Sheet1!I192&amp;""&amp;Sheet1!J192&amp;""&amp;Sheet1!K192&amp;""&amp;Sheet1!L192&amp;""&amp;Sheet1!M192&amp;""&amp;Sheet1!N192&amp;""&amp;Sheet1!O192&amp;""&amp;Sheet1!P192&amp;""&amp;Sheet1!Q192&amp;""&amp;Sheet1!R192&amp;""&amp;Sheet1!S192&amp;""&amp;Sheet1!T192&amp;""&amp;Sheet1!U192&amp;""&amp;Sheet1!V192&amp;""&amp;Sheet1!W192&amp;""&amp;Sheet1!X192&amp;""&amp;Sheet1!Y192&amp;""&amp;Sheet1!Z192</f>
+        <v>&lt;li class="name"&gt;192&lt;form id="formLoc213"&gt; &lt;input type="hidden" id="nameLoc213"class="name"  value="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/192.jpeg"&gt;&lt;input type="hidden" id="cnameLoc213"class="name"  value="{{name}}"&gt; &lt;input type="number" id="descLoc118"   placeholder=" QTY "  required&gt;&lt;input onclick="launch_notification();this.value='ADDED ✅'" type="submit" value="SEND"/&gt;&lt;/form&gt;
+&lt;img src="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/192" loading="lazy" width="400" height="400"&gt;  &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1">
+      <c r="A193" t="str">
+        <f>Sheet1!A193&amp;""&amp;Sheet1!B193&amp;""&amp;Sheet1!C193&amp;""&amp;Sheet1!D193&amp;""&amp;Sheet1!E193&amp;""&amp;Sheet1!F193&amp;""&amp;Sheet1!G193&amp;""&amp;Sheet1!H193&amp;""&amp;Sheet1!I193&amp;""&amp;Sheet1!J193&amp;""&amp;Sheet1!K193&amp;""&amp;Sheet1!L193&amp;""&amp;Sheet1!M193&amp;""&amp;Sheet1!N193&amp;""&amp;Sheet1!O193&amp;""&amp;Sheet1!P193&amp;""&amp;Sheet1!Q193&amp;""&amp;Sheet1!R193&amp;""&amp;Sheet1!S193&amp;""&amp;Sheet1!T193&amp;""&amp;Sheet1!U193&amp;""&amp;Sheet1!V193&amp;""&amp;Sheet1!W193&amp;""&amp;Sheet1!X193&amp;""&amp;Sheet1!Y193&amp;""&amp;Sheet1!Z193</f>
+        <v>&lt;li class="name"&gt;193&lt;form id="formLoc214"&gt; &lt;input type="hidden" id="nameLoc214"class="name"  value="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/193.jpeg"&gt;&lt;input type="hidden" id="cnameLoc214"class="name"  value="{{name}}"&gt; &lt;input type="number" id="descLoc118"   placeholder=" QTY "  required&gt;&lt;input onclick="launch_notification();this.value='ADDED ✅'" type="submit" value="SEND"/&gt;&lt;/form&gt;
+&lt;img src="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/193" loading="lazy" width="400" height="400"&gt;  &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1">
+      <c r="A194" t="str">
+        <f>Sheet1!A194&amp;""&amp;Sheet1!B194&amp;""&amp;Sheet1!C194&amp;""&amp;Sheet1!D194&amp;""&amp;Sheet1!E194&amp;""&amp;Sheet1!F194&amp;""&amp;Sheet1!G194&amp;""&amp;Sheet1!H194&amp;""&amp;Sheet1!I194&amp;""&amp;Sheet1!J194&amp;""&amp;Sheet1!K194&amp;""&amp;Sheet1!L194&amp;""&amp;Sheet1!M194&amp;""&amp;Sheet1!N194&amp;""&amp;Sheet1!O194&amp;""&amp;Sheet1!P194&amp;""&amp;Sheet1!Q194&amp;""&amp;Sheet1!R194&amp;""&amp;Sheet1!S194&amp;""&amp;Sheet1!T194&amp;""&amp;Sheet1!U194&amp;""&amp;Sheet1!V194&amp;""&amp;Sheet1!W194&amp;""&amp;Sheet1!X194&amp;""&amp;Sheet1!Y194&amp;""&amp;Sheet1!Z194</f>
+        <v>&lt;li class="name"&gt;194&lt;form id="formLoc215"&gt; &lt;input type="hidden" id="nameLoc215"class="name"  value="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/194.jpeg"&gt;&lt;input type="hidden" id="cnameLoc215"class="name"  value="{{name}}"&gt; &lt;input type="number" id="descLoc119"   placeholder=" QTY "  required&gt;&lt;input onclick="launch_notification();this.value='ADDED ✅'" type="submit" value="SEND"/&gt;&lt;/form&gt;
+&lt;img src="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/194" loading="lazy" width="400" height="400"&gt;  &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1">
+      <c r="A195" t="str">
+        <f>Sheet1!A195&amp;""&amp;Sheet1!B195&amp;""&amp;Sheet1!C195&amp;""&amp;Sheet1!D195&amp;""&amp;Sheet1!E195&amp;""&amp;Sheet1!F195&amp;""&amp;Sheet1!G195&amp;""&amp;Sheet1!H195&amp;""&amp;Sheet1!I195&amp;""&amp;Sheet1!J195&amp;""&amp;Sheet1!K195&amp;""&amp;Sheet1!L195&amp;""&amp;Sheet1!M195&amp;""&amp;Sheet1!N195&amp;""&amp;Sheet1!O195&amp;""&amp;Sheet1!P195&amp;""&amp;Sheet1!Q195&amp;""&amp;Sheet1!R195&amp;""&amp;Sheet1!S195&amp;""&amp;Sheet1!T195&amp;""&amp;Sheet1!U195&amp;""&amp;Sheet1!V195&amp;""&amp;Sheet1!W195&amp;""&amp;Sheet1!X195&amp;""&amp;Sheet1!Y195&amp;""&amp;Sheet1!Z195</f>
+        <v>&lt;li class="name"&gt;195&lt;form id="formLoc216"&gt; &lt;input type="hidden" id="nameLoc216"class="name"  value="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/195.jpeg"&gt;&lt;input type="hidden" id="cnameLoc216"class="name"  value="{{name}}"&gt; &lt;input type="number" id="descLoc119"   placeholder=" QTY "  required&gt;&lt;input onclick="launch_notification();this.value='ADDED ✅'" type="submit" value="SEND"/&gt;&lt;/form&gt;
+&lt;img src="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/195" loading="lazy" width="400" height="400"&gt;  &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1">
+      <c r="A196" t="str">
+        <f>Sheet1!A196&amp;""&amp;Sheet1!B196&amp;""&amp;Sheet1!C196&amp;""&amp;Sheet1!D196&amp;""&amp;Sheet1!E196&amp;""&amp;Sheet1!F196&amp;""&amp;Sheet1!G196&amp;""&amp;Sheet1!H196&amp;""&amp;Sheet1!I196&amp;""&amp;Sheet1!J196&amp;""&amp;Sheet1!K196&amp;""&amp;Sheet1!L196&amp;""&amp;Sheet1!M196&amp;""&amp;Sheet1!N196&amp;""&amp;Sheet1!O196&amp;""&amp;Sheet1!P196&amp;""&amp;Sheet1!Q196&amp;""&amp;Sheet1!R196&amp;""&amp;Sheet1!S196&amp;""&amp;Sheet1!T196&amp;""&amp;Sheet1!U196&amp;""&amp;Sheet1!V196&amp;""&amp;Sheet1!W196&amp;""&amp;Sheet1!X196&amp;""&amp;Sheet1!Y196&amp;""&amp;Sheet1!Z196</f>
+        <v>&lt;li class="name"&gt;196&lt;form id="formLoc217"&gt; &lt;input type="hidden" id="nameLoc217"class="name"  value="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/196.jpeg"&gt;&lt;input type="hidden" id="cnameLoc217"class="name"  value="{{name}}"&gt; &lt;input type="number" id="descLoc120"   placeholder=" QTY "  required&gt;&lt;input onclick="launch_notification();this.value='ADDED ✅'" type="submit" value="SEND"/&gt;&lt;/form&gt;
+&lt;img src="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/196" loading="lazy" width="400" height="400"&gt;  &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1">
+      <c r="A197" t="str">
+        <f>Sheet1!A197&amp;""&amp;Sheet1!B197&amp;""&amp;Sheet1!C197&amp;""&amp;Sheet1!D197&amp;""&amp;Sheet1!E197&amp;""&amp;Sheet1!F197&amp;""&amp;Sheet1!G197&amp;""&amp;Sheet1!H197&amp;""&amp;Sheet1!I197&amp;""&amp;Sheet1!J197&amp;""&amp;Sheet1!K197&amp;""&amp;Sheet1!L197&amp;""&amp;Sheet1!M197&amp;""&amp;Sheet1!N197&amp;""&amp;Sheet1!O197&amp;""&amp;Sheet1!P197&amp;""&amp;Sheet1!Q197&amp;""&amp;Sheet1!R197&amp;""&amp;Sheet1!S197&amp;""&amp;Sheet1!T197&amp;""&amp;Sheet1!U197&amp;""&amp;Sheet1!V197&amp;""&amp;Sheet1!W197&amp;""&amp;Sheet1!X197&amp;""&amp;Sheet1!Y197&amp;""&amp;Sheet1!Z197</f>
+        <v>&lt;li class="name"&gt;197&lt;form id="formLoc218"&gt; &lt;input type="hidden" id="nameLoc218"class="name"  value="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/197.jpeg"&gt;&lt;input type="hidden" id="cnameLoc218"class="name"  value="{{name}}"&gt; &lt;input type="number" id="descLoc120"   placeholder=" QTY "  required&gt;&lt;input onclick="launch_notification();this.value='ADDED ✅'" type="submit" value="SEND"/&gt;&lt;/form&gt;
+&lt;img src="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/197" loading="lazy" width="400" height="400"&gt;  &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1">
+      <c r="A198" t="str">
+        <f>Sheet1!A198&amp;""&amp;Sheet1!B198&amp;""&amp;Sheet1!C198&amp;""&amp;Sheet1!D198&amp;""&amp;Sheet1!E198&amp;""&amp;Sheet1!F198&amp;""&amp;Sheet1!G198&amp;""&amp;Sheet1!H198&amp;""&amp;Sheet1!I198&amp;""&amp;Sheet1!J198&amp;""&amp;Sheet1!K198&amp;""&amp;Sheet1!L198&amp;""&amp;Sheet1!M198&amp;""&amp;Sheet1!N198&amp;""&amp;Sheet1!O198&amp;""&amp;Sheet1!P198&amp;""&amp;Sheet1!Q198&amp;""&amp;Sheet1!R198&amp;""&amp;Sheet1!S198&amp;""&amp;Sheet1!T198&amp;""&amp;Sheet1!U198&amp;""&amp;Sheet1!V198&amp;""&amp;Sheet1!W198&amp;""&amp;Sheet1!X198&amp;""&amp;Sheet1!Y198&amp;""&amp;Sheet1!Z198</f>
+        <v>&lt;li class="name"&gt;198&lt;form id="formLoc219"&gt; &lt;input type="hidden" id="nameLoc219"class="name"  value="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/198.jpeg"&gt;&lt;input type="hidden" id="cnameLoc219"class="name"  value="{{name}}"&gt; &lt;input type="number" id="descLoc121"   placeholder=" QTY "  required&gt;&lt;input onclick="launch_notification();this.value='ADDED ✅'" type="submit" value="SEND"/&gt;&lt;/form&gt;
+&lt;img src="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/198" loading="lazy" width="400" height="400"&gt;  &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1">
+      <c r="A199" t="str">
+        <f>Sheet1!A199&amp;""&amp;Sheet1!B199&amp;""&amp;Sheet1!C199&amp;""&amp;Sheet1!D199&amp;""&amp;Sheet1!E199&amp;""&amp;Sheet1!F199&amp;""&amp;Sheet1!G199&amp;""&amp;Sheet1!H199&amp;""&amp;Sheet1!I199&amp;""&amp;Sheet1!J199&amp;""&amp;Sheet1!K199&amp;""&amp;Sheet1!L199&amp;""&amp;Sheet1!M199&amp;""&amp;Sheet1!N199&amp;""&amp;Sheet1!O199&amp;""&amp;Sheet1!P199&amp;""&amp;Sheet1!Q199&amp;""&amp;Sheet1!R199&amp;""&amp;Sheet1!S199&amp;""&amp;Sheet1!T199&amp;""&amp;Sheet1!U199&amp;""&amp;Sheet1!V199&amp;""&amp;Sheet1!W199&amp;""&amp;Sheet1!X199&amp;""&amp;Sheet1!Y199&amp;""&amp;Sheet1!Z199</f>
+        <v>&lt;li class="name"&gt;199&lt;form id="formLoc220"&gt; &lt;input type="hidden" id="nameLoc220"class="name"  value="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/199.jpeg"&gt;&lt;input type="hidden" id="cnameLoc220"class="name"  value="{{name}}"&gt; &lt;input type="number" id="descLoc121"   placeholder=" QTY "  required&gt;&lt;input onclick="launch_notification();this.value='ADDED ✅'" type="submit" value="SEND"/&gt;&lt;/form&gt;
+&lt;img src="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/199" loading="lazy" width="400" height="400"&gt;  &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1">
+      <c r="A200" t="str">
+        <f>Sheet1!A200&amp;""&amp;Sheet1!B200&amp;""&amp;Sheet1!C200&amp;""&amp;Sheet1!D200&amp;""&amp;Sheet1!E200&amp;""&amp;Sheet1!F200&amp;""&amp;Sheet1!G200&amp;""&amp;Sheet1!H200&amp;""&amp;Sheet1!I200&amp;""&amp;Sheet1!J200&amp;""&amp;Sheet1!K200&amp;""&amp;Sheet1!L200&amp;""&amp;Sheet1!M200&amp;""&amp;Sheet1!N200&amp;""&amp;Sheet1!O200&amp;""&amp;Sheet1!P200&amp;""&amp;Sheet1!Q200&amp;""&amp;Sheet1!R200&amp;""&amp;Sheet1!S200&amp;""&amp;Sheet1!T200&amp;""&amp;Sheet1!U200&amp;""&amp;Sheet1!V200&amp;""&amp;Sheet1!W200&amp;""&amp;Sheet1!X200&amp;""&amp;Sheet1!Y200&amp;""&amp;Sheet1!Z200</f>
+        <v>&lt;li class="name"&gt;200&lt;form id="formLoc221"&gt; &lt;input type="hidden" id="nameLoc221"class="name"  value="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/200.jpeg"&gt;&lt;input type="hidden" id="cnameLoc221"class="name"  value="{{name}}"&gt; &lt;input type="number" id="descLoc122"   placeholder=" QTY "  required&gt;&lt;input onclick="launch_notification();this.value='ADDED ✅'" type="submit" value="SEND"/&gt;&lt;/form&gt;
+&lt;img src="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/200" loading="lazy" width="400" height="400"&gt;  &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1">
+      <c r="A201" t="str">
+        <f>Sheet1!A201&amp;""&amp;Sheet1!B201&amp;""&amp;Sheet1!C201&amp;""&amp;Sheet1!D201&amp;""&amp;Sheet1!E201&amp;""&amp;Sheet1!F201&amp;""&amp;Sheet1!G201&amp;""&amp;Sheet1!H201&amp;""&amp;Sheet1!I201&amp;""&amp;Sheet1!J201&amp;""&amp;Sheet1!K201&amp;""&amp;Sheet1!L201&amp;""&amp;Sheet1!M201&amp;""&amp;Sheet1!N201&amp;""&amp;Sheet1!O201&amp;""&amp;Sheet1!P201&amp;""&amp;Sheet1!Q201&amp;""&amp;Sheet1!R201&amp;""&amp;Sheet1!S201&amp;""&amp;Sheet1!T201&amp;""&amp;Sheet1!U201&amp;""&amp;Sheet1!V201&amp;""&amp;Sheet1!W201&amp;""&amp;Sheet1!X201&amp;""&amp;Sheet1!Y201&amp;""&amp;Sheet1!Z201</f>
+        <v>&lt;li class="name"&gt;201&lt;form id="formLoc222"&gt; &lt;input type="hidden" id="nameLoc222"class="name"  value="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/201.jpeg"&gt;&lt;input type="hidden" id="cnameLoc222"class="name"  value="{{name}}"&gt; &lt;input type="number" id="descLoc122"   placeholder=" QTY "  required&gt;&lt;input onclick="launch_notification();this.value='ADDED ✅'" type="submit" value="SEND"/&gt;&lt;/form&gt;
+&lt;img src="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/201" loading="lazy" width="400" height="400"&gt;  &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1">
+      <c r="A202" t="str">
+        <f>Sheet1!A202&amp;""&amp;Sheet1!B202&amp;""&amp;Sheet1!C202&amp;""&amp;Sheet1!D202&amp;""&amp;Sheet1!E202&amp;""&amp;Sheet1!F202&amp;""&amp;Sheet1!G202&amp;""&amp;Sheet1!H202&amp;""&amp;Sheet1!I202&amp;""&amp;Sheet1!J202&amp;""&amp;Sheet1!K202&amp;""&amp;Sheet1!L202&amp;""&amp;Sheet1!M202&amp;""&amp;Sheet1!N202&amp;""&amp;Sheet1!O202&amp;""&amp;Sheet1!P202&amp;""&amp;Sheet1!Q202&amp;""&amp;Sheet1!R202&amp;""&amp;Sheet1!S202&amp;""&amp;Sheet1!T202&amp;""&amp;Sheet1!U202&amp;""&amp;Sheet1!V202&amp;""&amp;Sheet1!W202&amp;""&amp;Sheet1!X202&amp;""&amp;Sheet1!Y202&amp;""&amp;Sheet1!Z202</f>
+        <v>&lt;li class="name"&gt;202&lt;form id="formLoc223"&gt; &lt;input type="hidden" id="nameLoc223"class="name"  value="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/202.jpeg"&gt;&lt;input type="hidden" id="cnameLoc223"class="name"  value="{{name}}"&gt; &lt;input type="number" id="descLoc123"   placeholder=" QTY "  required&gt;&lt;input onclick="launch_notification();this.value='ADDED ✅'" type="submit" value="SEND"/&gt;&lt;/form&gt;
+&lt;img src="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/202" loading="lazy" width="400" height="400"&gt;  &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1">
+      <c r="A203" t="str">
+        <f>Sheet1!A203&amp;""&amp;Sheet1!B203&amp;""&amp;Sheet1!C203&amp;""&amp;Sheet1!D203&amp;""&amp;Sheet1!E203&amp;""&amp;Sheet1!F203&amp;""&amp;Sheet1!G203&amp;""&amp;Sheet1!H203&amp;""&amp;Sheet1!I203&amp;""&amp;Sheet1!J203&amp;""&amp;Sheet1!K203&amp;""&amp;Sheet1!L203&amp;""&amp;Sheet1!M203&amp;""&amp;Sheet1!N203&amp;""&amp;Sheet1!O203&amp;""&amp;Sheet1!P203&amp;""&amp;Sheet1!Q203&amp;""&amp;Sheet1!R203&amp;""&amp;Sheet1!S203&amp;""&amp;Sheet1!T203&amp;""&amp;Sheet1!U203&amp;""&amp;Sheet1!V203&amp;""&amp;Sheet1!W203&amp;""&amp;Sheet1!X203&amp;""&amp;Sheet1!Y203&amp;""&amp;Sheet1!Z203</f>
+        <v>&lt;li class="name"&gt;203&lt;form id="formLoc224"&gt; &lt;input type="hidden" id="nameLoc224"class="name"  value="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/203.jpeg"&gt;&lt;input type="hidden" id="cnameLoc224"class="name"  value="{{name}}"&gt; &lt;input type="number" id="descLoc123"   placeholder=" QTY "  required&gt;&lt;input onclick="launch_notification();this.value='ADDED ✅'" type="submit" value="SEND"/&gt;&lt;/form&gt;
+&lt;img src="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/203" loading="lazy" width="400" height="400"&gt;  &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1">
+      <c r="A204" t="str">
+        <f>Sheet1!A204&amp;""&amp;Sheet1!B204&amp;""&amp;Sheet1!C204&amp;""&amp;Sheet1!D204&amp;""&amp;Sheet1!E204&amp;""&amp;Sheet1!F204&amp;""&amp;Sheet1!G204&amp;""&amp;Sheet1!H204&amp;""&amp;Sheet1!I204&amp;""&amp;Sheet1!J204&amp;""&amp;Sheet1!K204&amp;""&amp;Sheet1!L204&amp;""&amp;Sheet1!M204&amp;""&amp;Sheet1!N204&amp;""&amp;Sheet1!O204&amp;""&amp;Sheet1!P204&amp;""&amp;Sheet1!Q204&amp;""&amp;Sheet1!R204&amp;""&amp;Sheet1!S204&amp;""&amp;Sheet1!T204&amp;""&amp;Sheet1!U204&amp;""&amp;Sheet1!V204&amp;""&amp;Sheet1!W204&amp;""&amp;Sheet1!X204&amp;""&amp;Sheet1!Y204&amp;""&amp;Sheet1!Z204</f>
+        <v>&lt;li class="name"&gt;204&lt;form id="formLoc225"&gt; &lt;input type="hidden" id="nameLoc225"class="name"  value="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/204.jpeg"&gt;&lt;input type="hidden" id="cnameLoc225"class="name"  value="{{name}}"&gt; &lt;input type="number" id="descLoc124"   placeholder=" QTY "  required&gt;&lt;input onclick="launch_notification();this.value='ADDED ✅'" type="submit" value="SEND"/&gt;&lt;/form&gt;
+&lt;img src="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/204" loading="lazy" width="400" height="400"&gt;  &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1">
+      <c r="A205" t="str">
+        <f>Sheet1!A205&amp;""&amp;Sheet1!B205&amp;""&amp;Sheet1!C205&amp;""&amp;Sheet1!D205&amp;""&amp;Sheet1!E205&amp;""&amp;Sheet1!F205&amp;""&amp;Sheet1!G205&amp;""&amp;Sheet1!H205&amp;""&amp;Sheet1!I205&amp;""&amp;Sheet1!J205&amp;""&amp;Sheet1!K205&amp;""&amp;Sheet1!L205&amp;""&amp;Sheet1!M205&amp;""&amp;Sheet1!N205&amp;""&amp;Sheet1!O205&amp;""&amp;Sheet1!P205&amp;""&amp;Sheet1!Q205&amp;""&amp;Sheet1!R205&amp;""&amp;Sheet1!S205&amp;""&amp;Sheet1!T205&amp;""&amp;Sheet1!U205&amp;""&amp;Sheet1!V205&amp;""&amp;Sheet1!W205&amp;""&amp;Sheet1!X205&amp;""&amp;Sheet1!Y205&amp;""&amp;Sheet1!Z205</f>
+        <v>&lt;li class="name"&gt;205&lt;form id="formLoc226"&gt; &lt;input type="hidden" id="nameLoc226"class="name"  value="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/205.jpeg"&gt;&lt;input type="hidden" id="cnameLoc226"class="name"  value="{{name}}"&gt; &lt;input type="number" id="descLoc124"   placeholder=" QTY "  required&gt;&lt;input onclick="launch_notification();this.value='ADDED ✅'" type="submit" value="SEND"/&gt;&lt;/form&gt;
+&lt;img src="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/205" loading="lazy" width="400" height="400"&gt;  &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1">
+      <c r="A206" t="str">
+        <f>Sheet1!A206&amp;""&amp;Sheet1!B206&amp;""&amp;Sheet1!C206&amp;""&amp;Sheet1!D206&amp;""&amp;Sheet1!E206&amp;""&amp;Sheet1!F206&amp;""&amp;Sheet1!G206&amp;""&amp;Sheet1!H206&amp;""&amp;Sheet1!I206&amp;""&amp;Sheet1!J206&amp;""&amp;Sheet1!K206&amp;""&amp;Sheet1!L206&amp;""&amp;Sheet1!M206&amp;""&amp;Sheet1!N206&amp;""&amp;Sheet1!O206&amp;""&amp;Sheet1!P206&amp;""&amp;Sheet1!Q206&amp;""&amp;Sheet1!R206&amp;""&amp;Sheet1!S206&amp;""&amp;Sheet1!T206&amp;""&amp;Sheet1!U206&amp;""&amp;Sheet1!V206&amp;""&amp;Sheet1!W206&amp;""&amp;Sheet1!X206&amp;""&amp;Sheet1!Y206&amp;""&amp;Sheet1!Z206</f>
+        <v>&lt;li class="name"&gt;206&lt;form id="formLoc227"&gt; &lt;input type="hidden" id="nameLoc227"class="name"  value="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/206.jpeg"&gt;&lt;input type="hidden" id="cnameLoc227"class="name"  value="{{name}}"&gt; &lt;input type="number" id="descLoc125"   placeholder=" QTY "  required&gt;&lt;input onclick="launch_notification();this.value='ADDED ✅'" type="submit" value="SEND"/&gt;&lt;/form&gt;
+&lt;img src="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/206" loading="lazy" width="400" height="400"&gt;  &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1">
+      <c r="A207" t="str">
+        <f>Sheet1!A207&amp;""&amp;Sheet1!B207&amp;""&amp;Sheet1!C207&amp;""&amp;Sheet1!D207&amp;""&amp;Sheet1!E207&amp;""&amp;Sheet1!F207&amp;""&amp;Sheet1!G207&amp;""&amp;Sheet1!H207&amp;""&amp;Sheet1!I207&amp;""&amp;Sheet1!J207&amp;""&amp;Sheet1!K207&amp;""&amp;Sheet1!L207&amp;""&amp;Sheet1!M207&amp;""&amp;Sheet1!N207&amp;""&amp;Sheet1!O207&amp;""&amp;Sheet1!P207&amp;""&amp;Sheet1!Q207&amp;""&amp;Sheet1!R207&amp;""&amp;Sheet1!S207&amp;""&amp;Sheet1!T207&amp;""&amp;Sheet1!U207&amp;""&amp;Sheet1!V207&amp;""&amp;Sheet1!W207&amp;""&amp;Sheet1!X207&amp;""&amp;Sheet1!Y207&amp;""&amp;Sheet1!Z207</f>
+        <v>&lt;li class="name"&gt;207&lt;form id="formLoc228"&gt; &lt;input type="hidden" id="nameLoc228"class="name"  value="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/207.jpeg"&gt;&lt;input type="hidden" id="cnameLoc228"class="name"  value="{{name}}"&gt; &lt;input type="number" id="descLoc125"   placeholder=" QTY "  required&gt;&lt;input onclick="launch_notification();this.value='ADDED ✅'" type="submit" value="SEND"/&gt;&lt;/form&gt;
+&lt;img src="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/207" loading="lazy" width="400" height="400"&gt;  &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1">
+      <c r="A208" t="str">
+        <f>Sheet1!A208&amp;""&amp;Sheet1!B208&amp;""&amp;Sheet1!C208&amp;""&amp;Sheet1!D208&amp;""&amp;Sheet1!E208&amp;""&amp;Sheet1!F208&amp;""&amp;Sheet1!G208&amp;""&amp;Sheet1!H208&amp;""&amp;Sheet1!I208&amp;""&amp;Sheet1!J208&amp;""&amp;Sheet1!K208&amp;""&amp;Sheet1!L208&amp;""&amp;Sheet1!M208&amp;""&amp;Sheet1!N208&amp;""&amp;Sheet1!O208&amp;""&amp;Sheet1!P208&amp;""&amp;Sheet1!Q208&amp;""&amp;Sheet1!R208&amp;""&amp;Sheet1!S208&amp;""&amp;Sheet1!T208&amp;""&amp;Sheet1!U208&amp;""&amp;Sheet1!V208&amp;""&amp;Sheet1!W208&amp;""&amp;Sheet1!X208&amp;""&amp;Sheet1!Y208&amp;""&amp;Sheet1!Z208</f>
+        <v>&lt;li class="name"&gt;208&lt;form id="formLoc229"&gt; &lt;input type="hidden" id="nameLoc229"class="name"  value="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/208.jpeg"&gt;&lt;input type="hidden" id="cnameLoc229"class="name"  value="{{name}}"&gt; &lt;input type="number" id="descLoc126"   placeholder=" QTY "  required&gt;&lt;input onclick="launch_notification();this.value='ADDED ✅'" type="submit" value="SEND"/&gt;&lt;/form&gt;
+&lt;img src="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/208" loading="lazy" width="400" height="400"&gt;  &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1">
+      <c r="A209" t="str">
+        <f>Sheet1!A209&amp;""&amp;Sheet1!B209&amp;""&amp;Sheet1!C209&amp;""&amp;Sheet1!D209&amp;""&amp;Sheet1!E209&amp;""&amp;Sheet1!F209&amp;""&amp;Sheet1!G209&amp;""&amp;Sheet1!H209&amp;""&amp;Sheet1!I209&amp;""&amp;Sheet1!J209&amp;""&amp;Sheet1!K209&amp;""&amp;Sheet1!L209&amp;""&amp;Sheet1!M209&amp;""&amp;Sheet1!N209&amp;""&amp;Sheet1!O209&amp;""&amp;Sheet1!P209&amp;""&amp;Sheet1!Q209&amp;""&amp;Sheet1!R209&amp;""&amp;Sheet1!S209&amp;""&amp;Sheet1!T209&amp;""&amp;Sheet1!U209&amp;""&amp;Sheet1!V209&amp;""&amp;Sheet1!W209&amp;""&amp;Sheet1!X209&amp;""&amp;Sheet1!Y209&amp;""&amp;Sheet1!Z209</f>
+        <v>&lt;li class="name"&gt;209&lt;form id="formLoc230"&gt; &lt;input type="hidden" id="nameLoc230"class="name"  value="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/209.jpeg"&gt;&lt;input type="hidden" id="cnameLoc230"class="name"  value="{{name}}"&gt; &lt;input type="number" id="descLoc126"   placeholder=" QTY "  required&gt;&lt;input onclick="launch_notification();this.value='ADDED ✅'" type="submit" value="SEND"/&gt;&lt;/form&gt;
+&lt;img src="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/209" loading="lazy" width="400" height="400"&gt;  &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1">
+      <c r="A210" t="str">
+        <f>Sheet1!A210&amp;""&amp;Sheet1!B210&amp;""&amp;Sheet1!C210&amp;""&amp;Sheet1!D210&amp;""&amp;Sheet1!E210&amp;""&amp;Sheet1!F210&amp;""&amp;Sheet1!G210&amp;""&amp;Sheet1!H210&amp;""&amp;Sheet1!I210&amp;""&amp;Sheet1!J210&amp;""&amp;Sheet1!K210&amp;""&amp;Sheet1!L210&amp;""&amp;Sheet1!M210&amp;""&amp;Sheet1!N210&amp;""&amp;Sheet1!O210&amp;""&amp;Sheet1!P210&amp;""&amp;Sheet1!Q210&amp;""&amp;Sheet1!R210&amp;""&amp;Sheet1!S210&amp;""&amp;Sheet1!T210&amp;""&amp;Sheet1!U210&amp;""&amp;Sheet1!V210&amp;""&amp;Sheet1!W210&amp;""&amp;Sheet1!X210&amp;""&amp;Sheet1!Y210&amp;""&amp;Sheet1!Z210</f>
+        <v>&lt;li class="name"&gt;210&lt;form id="formLoc231"&gt; &lt;input type="hidden" id="nameLoc231"class="name"  value="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/210.jpeg"&gt;&lt;input type="hidden" id="cnameLoc231"class="name"  value="{{name}}"&gt; &lt;input type="number" id="descLoc127"   placeholder=" QTY "  required&gt;&lt;input onclick="launch_notification();this.value='ADDED ✅'" type="submit" value="SEND"/&gt;&lt;/form&gt;
+&lt;img src="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/210" loading="lazy" width="400" height="400"&gt;  &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1">
+      <c r="A211" t="str">
+        <f>Sheet1!A211&amp;""&amp;Sheet1!B211&amp;""&amp;Sheet1!C211&amp;""&amp;Sheet1!D211&amp;""&amp;Sheet1!E211&amp;""&amp;Sheet1!F211&amp;""&amp;Sheet1!G211&amp;""&amp;Sheet1!H211&amp;""&amp;Sheet1!I211&amp;""&amp;Sheet1!J211&amp;""&amp;Sheet1!K211&amp;""&amp;Sheet1!L211&amp;""&amp;Sheet1!M211&amp;""&amp;Sheet1!N211&amp;""&amp;Sheet1!O211&amp;""&amp;Sheet1!P211&amp;""&amp;Sheet1!Q211&amp;""&amp;Sheet1!R211&amp;""&amp;Sheet1!S211&amp;""&amp;Sheet1!T211&amp;""&amp;Sheet1!U211&amp;""&amp;Sheet1!V211&amp;""&amp;Sheet1!W211&amp;""&amp;Sheet1!X211&amp;""&amp;Sheet1!Y211&amp;""&amp;Sheet1!Z211</f>
+        <v>&lt;li class="name"&gt;211&lt;form id="formLoc232"&gt; &lt;input type="hidden" id="nameLoc232"class="name"  value="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/211.jpeg"&gt;&lt;input type="hidden" id="cnameLoc232"class="name"  value="{{name}}"&gt; &lt;input type="number" id="descLoc127"   placeholder=" QTY "  required&gt;&lt;input onclick="launch_notification();this.value='ADDED ✅'" type="submit" value="SEND"/&gt;&lt;/form&gt;
+&lt;img src="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/211" loading="lazy" width="400" height="400"&gt;  &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1">
+      <c r="A212" t="str">
+        <f>Sheet1!A212&amp;""&amp;Sheet1!B212&amp;""&amp;Sheet1!C212&amp;""&amp;Sheet1!D212&amp;""&amp;Sheet1!E212&amp;""&amp;Sheet1!F212&amp;""&amp;Sheet1!G212&amp;""&amp;Sheet1!H212&amp;""&amp;Sheet1!I212&amp;""&amp;Sheet1!J212&amp;""&amp;Sheet1!K212&amp;""&amp;Sheet1!L212&amp;""&amp;Sheet1!M212&amp;""&amp;Sheet1!N212&amp;""&amp;Sheet1!O212&amp;""&amp;Sheet1!P212&amp;""&amp;Sheet1!Q212&amp;""&amp;Sheet1!R212&amp;""&amp;Sheet1!S212&amp;""&amp;Sheet1!T212&amp;""&amp;Sheet1!U212&amp;""&amp;Sheet1!V212&amp;""&amp;Sheet1!W212&amp;""&amp;Sheet1!X212&amp;""&amp;Sheet1!Y212&amp;""&amp;Sheet1!Z212</f>
+        <v>&lt;li class="name"&gt;212&lt;form id="formLoc233"&gt; &lt;input type="hidden" id="nameLoc233"class="name"  value="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/212.jpeg"&gt;&lt;input type="hidden" id="cnameLoc233"class="name"  value="{{name}}"&gt; &lt;input type="number" id="descLoc128"   placeholder=" QTY "  required&gt;&lt;input onclick="launch_notification();this.value='ADDED ✅'" type="submit" value="SEND"/&gt;&lt;/form&gt;
+&lt;img src="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/212" loading="lazy" width="400" height="400"&gt;  &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1">
+      <c r="A213" t="str">
+        <f>Sheet1!A213&amp;""&amp;Sheet1!B213&amp;""&amp;Sheet1!C213&amp;""&amp;Sheet1!D213&amp;""&amp;Sheet1!E213&amp;""&amp;Sheet1!F213&amp;""&amp;Sheet1!G213&amp;""&amp;Sheet1!H213&amp;""&amp;Sheet1!I213&amp;""&amp;Sheet1!J213&amp;""&amp;Sheet1!K213&amp;""&amp;Sheet1!L213&amp;""&amp;Sheet1!M213&amp;""&amp;Sheet1!N213&amp;""&amp;Sheet1!O213&amp;""&amp;Sheet1!P213&amp;""&amp;Sheet1!Q213&amp;""&amp;Sheet1!R213&amp;""&amp;Sheet1!S213&amp;""&amp;Sheet1!T213&amp;""&amp;Sheet1!U213&amp;""&amp;Sheet1!V213&amp;""&amp;Sheet1!W213&amp;""&amp;Sheet1!X213&amp;""&amp;Sheet1!Y213&amp;""&amp;Sheet1!Z213</f>
+        <v>&lt;li class="name"&gt;213&lt;form id="formLoc234"&gt; &lt;input type="hidden" id="nameLoc234"class="name"  value="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/213.jpeg"&gt;&lt;input type="hidden" id="cnameLoc234"class="name"  value="{{name}}"&gt; &lt;input type="number" id="descLoc128"   placeholder=" QTY "  required&gt;&lt;input onclick="launch_notification();this.value='ADDED ✅'" type="submit" value="SEND"/&gt;&lt;/form&gt;
+&lt;img src="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/213" loading="lazy" width="400" height="400"&gt;  &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1">
+      <c r="A214" t="str">
+        <f>Sheet1!A214&amp;""&amp;Sheet1!B214&amp;""&amp;Sheet1!C214&amp;""&amp;Sheet1!D214&amp;""&amp;Sheet1!E214&amp;""&amp;Sheet1!F214&amp;""&amp;Sheet1!G214&amp;""&amp;Sheet1!H214&amp;""&amp;Sheet1!I214&amp;""&amp;Sheet1!J214&amp;""&amp;Sheet1!K214&amp;""&amp;Sheet1!L214&amp;""&amp;Sheet1!M214&amp;""&amp;Sheet1!N214&amp;""&amp;Sheet1!O214&amp;""&amp;Sheet1!P214&amp;""&amp;Sheet1!Q214&amp;""&amp;Sheet1!R214&amp;""&amp;Sheet1!S214&amp;""&amp;Sheet1!T214&amp;""&amp;Sheet1!U214&amp;""&amp;Sheet1!V214&amp;""&amp;Sheet1!W214&amp;""&amp;Sheet1!X214&amp;""&amp;Sheet1!Y214&amp;""&amp;Sheet1!Z214</f>
+        <v>&lt;li class="name"&gt;214&lt;form id="formLoc235"&gt; &lt;input type="hidden" id="nameLoc235"class="name"  value="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/214.jpeg"&gt;&lt;input type="hidden" id="cnameLoc235"class="name"  value="{{name}}"&gt; &lt;input type="number" id="descLoc129"   placeholder=" QTY "  required&gt;&lt;input onclick="launch_notification();this.value='ADDED ✅'" type="submit" value="SEND"/&gt;&lt;/form&gt;
+&lt;img src="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/214" loading="lazy" width="400" height="400"&gt;  &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1">
+      <c r="A215" t="str">
+        <f>Sheet1!A215&amp;""&amp;Sheet1!B215&amp;""&amp;Sheet1!C215&amp;""&amp;Sheet1!D215&amp;""&amp;Sheet1!E215&amp;""&amp;Sheet1!F215&amp;""&amp;Sheet1!G215&amp;""&amp;Sheet1!H215&amp;""&amp;Sheet1!I215&amp;""&amp;Sheet1!J215&amp;""&amp;Sheet1!K215&amp;""&amp;Sheet1!L215&amp;""&amp;Sheet1!M215&amp;""&amp;Sheet1!N215&amp;""&amp;Sheet1!O215&amp;""&amp;Sheet1!P215&amp;""&amp;Sheet1!Q215&amp;""&amp;Sheet1!R215&amp;""&amp;Sheet1!S215&amp;""&amp;Sheet1!T215&amp;""&amp;Sheet1!U215&amp;""&amp;Sheet1!V215&amp;""&amp;Sheet1!W215&amp;""&amp;Sheet1!X215&amp;""&amp;Sheet1!Y215&amp;""&amp;Sheet1!Z215</f>
+        <v>&lt;li class="name"&gt;215&lt;form id="formLoc236"&gt; &lt;input type="hidden" id="nameLoc236"class="name"  value="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/215.jpeg"&gt;&lt;input type="hidden" id="cnameLoc236"class="name"  value="{{name}}"&gt; &lt;input type="number" id="descLoc129"   placeholder=" QTY "  required&gt;&lt;input onclick="launch_notification();this.value='ADDED ✅'" type="submit" value="SEND"/&gt;&lt;/form&gt;
+&lt;img src="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/215" loading="lazy" width="400" height="400"&gt;  &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1">
+      <c r="A216" t="str">
+        <f>Sheet1!A216&amp;""&amp;Sheet1!B216&amp;""&amp;Sheet1!C216&amp;""&amp;Sheet1!D216&amp;""&amp;Sheet1!E216&amp;""&amp;Sheet1!F216&amp;""&amp;Sheet1!G216&amp;""&amp;Sheet1!H216&amp;""&amp;Sheet1!I216&amp;""&amp;Sheet1!J216&amp;""&amp;Sheet1!K216&amp;""&amp;Sheet1!L216&amp;""&amp;Sheet1!M216&amp;""&amp;Sheet1!N216&amp;""&amp;Sheet1!O216&amp;""&amp;Sheet1!P216&amp;""&amp;Sheet1!Q216&amp;""&amp;Sheet1!R216&amp;""&amp;Sheet1!S216&amp;""&amp;Sheet1!T216&amp;""&amp;Sheet1!U216&amp;""&amp;Sheet1!V216&amp;""&amp;Sheet1!W216&amp;""&amp;Sheet1!X216&amp;""&amp;Sheet1!Y216&amp;""&amp;Sheet1!Z216</f>
+        <v>&lt;li class="name"&gt;216&lt;form id="formLoc237"&gt; &lt;input type="hidden" id="nameLoc237"class="name"  value="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/216.jpeg"&gt;&lt;input type="hidden" id="cnameLoc237"class="name"  value="{{name}}"&gt; &lt;input type="number" id="descLoc130"   placeholder=" QTY "  required&gt;&lt;input onclick="launch_notification();this.value='ADDED ✅'" type="submit" value="SEND"/&gt;&lt;/form&gt;
+&lt;img src="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/216" loading="lazy" width="400" height="400"&gt;  &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1">
+      <c r="A217" t="str">
+        <f>Sheet1!A217&amp;""&amp;Sheet1!B217&amp;""&amp;Sheet1!C217&amp;""&amp;Sheet1!D217&amp;""&amp;Sheet1!E217&amp;""&amp;Sheet1!F217&amp;""&amp;Sheet1!G217&amp;""&amp;Sheet1!H217&amp;""&amp;Sheet1!I217&amp;""&amp;Sheet1!J217&amp;""&amp;Sheet1!K217&amp;""&amp;Sheet1!L217&amp;""&amp;Sheet1!M217&amp;""&amp;Sheet1!N217&amp;""&amp;Sheet1!O217&amp;""&amp;Sheet1!P217&amp;""&amp;Sheet1!Q217&amp;""&amp;Sheet1!R217&amp;""&amp;Sheet1!S217&amp;""&amp;Sheet1!T217&amp;""&amp;Sheet1!U217&amp;""&amp;Sheet1!V217&amp;""&amp;Sheet1!W217&amp;""&amp;Sheet1!X217&amp;""&amp;Sheet1!Y217&amp;""&amp;Sheet1!Z217</f>
+        <v>&lt;li class="name"&gt;217&lt;form id="formLoc238"&gt; &lt;input type="hidden" id="nameLoc238"class="name"  value="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/217.jpeg"&gt;&lt;input type="hidden" id="cnameLoc238"class="name"  value="{{name}}"&gt; &lt;input type="number" id="descLoc130"   placeholder=" QTY "  required&gt;&lt;input onclick="launch_notification();this.value='ADDED ✅'" type="submit" value="SEND"/&gt;&lt;/form&gt;
+&lt;img src="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/217" loading="lazy" width="400" height="400"&gt;  &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1">
+      <c r="A218" t="str">
+        <f>Sheet1!A218&amp;""&amp;Sheet1!B218&amp;""&amp;Sheet1!C218&amp;""&amp;Sheet1!D218&amp;""&amp;Sheet1!E218&amp;""&amp;Sheet1!F218&amp;""&amp;Sheet1!G218&amp;""&amp;Sheet1!H218&amp;""&amp;Sheet1!I218&amp;""&amp;Sheet1!J218&amp;""&amp;Sheet1!K218&amp;""&amp;Sheet1!L218&amp;""&amp;Sheet1!M218&amp;""&amp;Sheet1!N218&amp;""&amp;Sheet1!O218&amp;""&amp;Sheet1!P218&amp;""&amp;Sheet1!Q218&amp;""&amp;Sheet1!R218&amp;""&amp;Sheet1!S218&amp;""&amp;Sheet1!T218&amp;""&amp;Sheet1!U218&amp;""&amp;Sheet1!V218&amp;""&amp;Sheet1!W218&amp;""&amp;Sheet1!X218&amp;""&amp;Sheet1!Y218&amp;""&amp;Sheet1!Z218</f>
+        <v>&lt;li class="name"&gt;218&lt;form id="formLoc239"&gt; &lt;input type="hidden" id="nameLoc239"class="name"  value="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/218.jpeg"&gt;&lt;input type="hidden" id="cnameLoc239"class="name"  value="{{name}}"&gt; &lt;input type="number" id="descLoc131"   placeholder=" QTY "  required&gt;&lt;input onclick="launch_notification();this.value='ADDED ✅'" type="submit" value="SEND"/&gt;&lt;/form&gt;
+&lt;img src="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/218" loading="lazy" width="400" height="400"&gt;  &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1">
+      <c r="A219" t="str">
+        <f>Sheet1!A219&amp;""&amp;Sheet1!B219&amp;""&amp;Sheet1!C219&amp;""&amp;Sheet1!D219&amp;""&amp;Sheet1!E219&amp;""&amp;Sheet1!F219&amp;""&amp;Sheet1!G219&amp;""&amp;Sheet1!H219&amp;""&amp;Sheet1!I219&amp;""&amp;Sheet1!J219&amp;""&amp;Sheet1!K219&amp;""&amp;Sheet1!L219&amp;""&amp;Sheet1!M219&amp;""&amp;Sheet1!N219&amp;""&amp;Sheet1!O219&amp;""&amp;Sheet1!P219&amp;""&amp;Sheet1!Q219&amp;""&amp;Sheet1!R219&amp;""&amp;Sheet1!S219&amp;""&amp;Sheet1!T219&amp;""&amp;Sheet1!U219&amp;""&amp;Sheet1!V219&amp;""&amp;Sheet1!W219&amp;""&amp;Sheet1!X219&amp;""&amp;Sheet1!Y219&amp;""&amp;Sheet1!Z219</f>
+        <v>&lt;li class="name"&gt;219&lt;form id="formLoc240"&gt; &lt;input type="hidden" id="nameLoc240"class="name"  value="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/219.jpeg"&gt;&lt;input type="hidden" id="cnameLoc240"class="name"  value="{{name}}"&gt; &lt;input type="number" id="descLoc131"   placeholder=" QTY "  required&gt;&lt;input onclick="launch_notification();this.value='ADDED ✅'" type="submit" value="SEND"/&gt;&lt;/form&gt;
+&lt;img src="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/219" loading="lazy" width="400" height="400"&gt;  &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1">
+      <c r="A220" t="str">
+        <f>Sheet1!A220&amp;""&amp;Sheet1!B220&amp;""&amp;Sheet1!C220&amp;""&amp;Sheet1!D220&amp;""&amp;Sheet1!E220&amp;""&amp;Sheet1!F220&amp;""&amp;Sheet1!G220&amp;""&amp;Sheet1!H220&amp;""&amp;Sheet1!I220&amp;""&amp;Sheet1!J220&amp;""&amp;Sheet1!K220&amp;""&amp;Sheet1!L220&amp;""&amp;Sheet1!M220&amp;""&amp;Sheet1!N220&amp;""&amp;Sheet1!O220&amp;""&amp;Sheet1!P220&amp;""&amp;Sheet1!Q220&amp;""&amp;Sheet1!R220&amp;""&amp;Sheet1!S220&amp;""&amp;Sheet1!T220&amp;""&amp;Sheet1!U220&amp;""&amp;Sheet1!V220&amp;""&amp;Sheet1!W220&amp;""&amp;Sheet1!X220&amp;""&amp;Sheet1!Y220&amp;""&amp;Sheet1!Z220</f>
+        <v>&lt;li class="name"&gt;220&lt;form id="formLoc241"&gt; &lt;input type="hidden" id="nameLoc241"class="name"  value="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/220.jpeg"&gt;&lt;input type="hidden" id="cnameLoc241"class="name"  value="{{name}}"&gt; &lt;input type="number" id="descLoc132"   placeholder=" QTY "  required&gt;&lt;input onclick="launch_notification();this.value='ADDED ✅'" type="submit" value="SEND"/&gt;&lt;/form&gt;
+&lt;img src="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/220" loading="lazy" width="400" height="400"&gt;  &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1">
+      <c r="A221" t="str">
+        <f>Sheet1!A221&amp;""&amp;Sheet1!B221&amp;""&amp;Sheet1!C221&amp;""&amp;Sheet1!D221&amp;""&amp;Sheet1!E221&amp;""&amp;Sheet1!F221&amp;""&amp;Sheet1!G221&amp;""&amp;Sheet1!H221&amp;""&amp;Sheet1!I221&amp;""&amp;Sheet1!J221&amp;""&amp;Sheet1!K221&amp;""&amp;Sheet1!L221&amp;""&amp;Sheet1!M221&amp;""&amp;Sheet1!N221&amp;""&amp;Sheet1!O221&amp;""&amp;Sheet1!P221&amp;""&amp;Sheet1!Q221&amp;""&amp;Sheet1!R221&amp;""&amp;Sheet1!S221&amp;""&amp;Sheet1!T221&amp;""&amp;Sheet1!U221&amp;""&amp;Sheet1!V221&amp;""&amp;Sheet1!W221&amp;""&amp;Sheet1!X221&amp;""&amp;Sheet1!Y221&amp;""&amp;Sheet1!Z221</f>
+        <v>&lt;li class="name"&gt;221&lt;form id="formLoc242"&gt; &lt;input type="hidden" id="nameLoc242"class="name"  value="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/221.jpeg"&gt;&lt;input type="hidden" id="cnameLoc242"class="name"  value="{{name}}"&gt; &lt;input type="number" id="descLoc132"   placeholder=" QTY "  required&gt;&lt;input onclick="launch_notification();this.value='ADDED ✅'" type="submit" value="SEND"/&gt;&lt;/form&gt;
+&lt;img src="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/221" loading="lazy" width="400" height="400"&gt;  &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1">
+      <c r="A222" t="str">
+        <f>Sheet1!A222&amp;""&amp;Sheet1!B222&amp;""&amp;Sheet1!C222&amp;""&amp;Sheet1!D222&amp;""&amp;Sheet1!E222&amp;""&amp;Sheet1!F222&amp;""&amp;Sheet1!G222&amp;""&amp;Sheet1!H222&amp;""&amp;Sheet1!I222&amp;""&amp;Sheet1!J222&amp;""&amp;Sheet1!K222&amp;""&amp;Sheet1!L222&amp;""&amp;Sheet1!M222&amp;""&amp;Sheet1!N222&amp;""&amp;Sheet1!O222&amp;""&amp;Sheet1!P222&amp;""&amp;Sheet1!Q222&amp;""&amp;Sheet1!R222&amp;""&amp;Sheet1!S222&amp;""&amp;Sheet1!T222&amp;""&amp;Sheet1!U222&amp;""&amp;Sheet1!V222&amp;""&amp;Sheet1!W222&amp;""&amp;Sheet1!X222&amp;""&amp;Sheet1!Y222&amp;""&amp;Sheet1!Z222</f>
+        <v>&lt;li class="name"&gt;222&lt;form id="formLoc243"&gt; &lt;input type="hidden" id="nameLoc243"class="name"  value="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/222.jpeg"&gt;&lt;input type="hidden" id="cnameLoc243"class="name"  value="{{name}}"&gt; &lt;input type="number" id="descLoc133"   placeholder=" QTY "  required&gt;&lt;input onclick="launch_notification();this.value='ADDED ✅'" type="submit" value="SEND"/&gt;&lt;/form&gt;
+&lt;img src="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/222" loading="lazy" width="400" height="400"&gt;  &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1">
+      <c r="A223" t="str">
+        <f>Sheet1!A223&amp;""&amp;Sheet1!B223&amp;""&amp;Sheet1!C223&amp;""&amp;Sheet1!D223&amp;""&amp;Sheet1!E223&amp;""&amp;Sheet1!F223&amp;""&amp;Sheet1!G223&amp;""&amp;Sheet1!H223&amp;""&amp;Sheet1!I223&amp;""&amp;Sheet1!J223&amp;""&amp;Sheet1!K223&amp;""&amp;Sheet1!L223&amp;""&amp;Sheet1!M223&amp;""&amp;Sheet1!N223&amp;""&amp;Sheet1!O223&amp;""&amp;Sheet1!P223&amp;""&amp;Sheet1!Q223&amp;""&amp;Sheet1!R223&amp;""&amp;Sheet1!S223&amp;""&amp;Sheet1!T223&amp;""&amp;Sheet1!U223&amp;""&amp;Sheet1!V223&amp;""&amp;Sheet1!W223&amp;""&amp;Sheet1!X223&amp;""&amp;Sheet1!Y223&amp;""&amp;Sheet1!Z223</f>
+        <v>&lt;li class="name"&gt;223&lt;form id="formLoc244"&gt; &lt;input type="hidden" id="nameLoc244"class="name"  value="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/223.jpeg"&gt;&lt;input type="hidden" id="cnameLoc244"class="name"  value="{{name}}"&gt; &lt;input type="number" id="descLoc133"   placeholder=" QTY "  required&gt;&lt;input onclick="launch_notification();this.value='ADDED ✅'" type="submit" value="SEND"/&gt;&lt;/form&gt;
+&lt;img src="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/223" loading="lazy" width="400" height="400"&gt;  &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1">
+      <c r="A224" t="str">
+        <f>Sheet1!A224&amp;""&amp;Sheet1!B224&amp;""&amp;Sheet1!C224&amp;""&amp;Sheet1!D224&amp;""&amp;Sheet1!E224&amp;""&amp;Sheet1!F224&amp;""&amp;Sheet1!G224&amp;""&amp;Sheet1!H224&amp;""&amp;Sheet1!I224&amp;""&amp;Sheet1!J224&amp;""&amp;Sheet1!K224&amp;""&amp;Sheet1!L224&amp;""&amp;Sheet1!M224&amp;""&amp;Sheet1!N224&amp;""&amp;Sheet1!O224&amp;""&amp;Sheet1!P224&amp;""&amp;Sheet1!Q224&amp;""&amp;Sheet1!R224&amp;""&amp;Sheet1!S224&amp;""&amp;Sheet1!T224&amp;""&amp;Sheet1!U224&amp;""&amp;Sheet1!V224&amp;""&amp;Sheet1!W224&amp;""&amp;Sheet1!X224&amp;""&amp;Sheet1!Y224&amp;""&amp;Sheet1!Z224</f>
+        <v>&lt;li class="name"&gt;224&lt;form id="formLoc245"&gt; &lt;input type="hidden" id="nameLoc245"class="name"  value="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/224.jpeg"&gt;&lt;input type="hidden" id="cnameLoc245"class="name"  value="{{name}}"&gt; &lt;input type="number" id="descLoc134"   placeholder=" QTY "  required&gt;&lt;input onclick="launch_notification();this.value='ADDED ✅'" type="submit" value="SEND"/&gt;&lt;/form&gt;
+&lt;img src="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/224" loading="lazy" width="400" height="400"&gt;  &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1">
+      <c r="A225" t="str">
+        <f>Sheet1!A225&amp;""&amp;Sheet1!B225&amp;""&amp;Sheet1!C225&amp;""&amp;Sheet1!D225&amp;""&amp;Sheet1!E225&amp;""&amp;Sheet1!F225&amp;""&amp;Sheet1!G225&amp;""&amp;Sheet1!H225&amp;""&amp;Sheet1!I225&amp;""&amp;Sheet1!J225&amp;""&amp;Sheet1!K225&amp;""&amp;Sheet1!L225&amp;""&amp;Sheet1!M225&amp;""&amp;Sheet1!N225&amp;""&amp;Sheet1!O225&amp;""&amp;Sheet1!P225&amp;""&amp;Sheet1!Q225&amp;""&amp;Sheet1!R225&amp;""&amp;Sheet1!S225&amp;""&amp;Sheet1!T225&amp;""&amp;Sheet1!U225&amp;""&amp;Sheet1!V225&amp;""&amp;Sheet1!W225&amp;""&amp;Sheet1!X225&amp;""&amp;Sheet1!Y225&amp;""&amp;Sheet1!Z225</f>
+        <v>&lt;li class="name"&gt;225&lt;form id="formLoc246"&gt; &lt;input type="hidden" id="nameLoc246"class="name"  value="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/225.jpeg"&gt;&lt;input type="hidden" id="cnameLoc246"class="name"  value="{{name}}"&gt; &lt;input type="number" id="descLoc134"   placeholder=" QTY "  required&gt;&lt;input onclick="launch_notification();this.value='ADDED ✅'" type="submit" value="SEND"/&gt;&lt;/form&gt;
+&lt;img src="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/225" loading="lazy" width="400" height="400"&gt;  &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1">
+      <c r="A226" t="str">
+        <f>Sheet1!A226&amp;""&amp;Sheet1!B226&amp;""&amp;Sheet1!C226&amp;""&amp;Sheet1!D226&amp;""&amp;Sheet1!E226&amp;""&amp;Sheet1!F226&amp;""&amp;Sheet1!G226&amp;""&amp;Sheet1!H226&amp;""&amp;Sheet1!I226&amp;""&amp;Sheet1!J226&amp;""&amp;Sheet1!K226&amp;""&amp;Sheet1!L226&amp;""&amp;Sheet1!M226&amp;""&amp;Sheet1!N226&amp;""&amp;Sheet1!O226&amp;""&amp;Sheet1!P226&amp;""&amp;Sheet1!Q226&amp;""&amp;Sheet1!R226&amp;""&amp;Sheet1!S226&amp;""&amp;Sheet1!T226&amp;""&amp;Sheet1!U226&amp;""&amp;Sheet1!V226&amp;""&amp;Sheet1!W226&amp;""&amp;Sheet1!X226&amp;""&amp;Sheet1!Y226&amp;""&amp;Sheet1!Z226</f>
+        <v>&lt;li class="name"&gt;226&lt;form id="formLoc247"&gt; &lt;input type="hidden" id="nameLoc247"class="name"  value="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/226.jpeg"&gt;&lt;input type="hidden" id="cnameLoc247"class="name"  value="{{name}}"&gt; &lt;input type="number" id="descLoc135"   placeholder=" QTY "  required&gt;&lt;input onclick="launch_notification();this.value='ADDED ✅'" type="submit" value="SEND"/&gt;&lt;/form&gt;
+&lt;img src="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/226" loading="lazy" width="400" height="400"&gt;  &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1">
+      <c r="A227" t="str">
+        <f>Sheet1!A227&amp;""&amp;Sheet1!B227&amp;""&amp;Sheet1!C227&amp;""&amp;Sheet1!D227&amp;""&amp;Sheet1!E227&amp;""&amp;Sheet1!F227&amp;""&amp;Sheet1!G227&amp;""&amp;Sheet1!H227&amp;""&amp;Sheet1!I227&amp;""&amp;Sheet1!J227&amp;""&amp;Sheet1!K227&amp;""&amp;Sheet1!L227&amp;""&amp;Sheet1!M227&amp;""&amp;Sheet1!N227&amp;""&amp;Sheet1!O227&amp;""&amp;Sheet1!P227&amp;""&amp;Sheet1!Q227&amp;""&amp;Sheet1!R227&amp;""&amp;Sheet1!S227&amp;""&amp;Sheet1!T227&amp;""&amp;Sheet1!U227&amp;""&amp;Sheet1!V227&amp;""&amp;Sheet1!W227&amp;""&amp;Sheet1!X227&amp;""&amp;Sheet1!Y227&amp;""&amp;Sheet1!Z227</f>
+        <v>&lt;li class="name"&gt;227&lt;form id="formLoc248"&gt; &lt;input type="hidden" id="nameLoc248"class="name"  value="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/227.jpeg"&gt;&lt;input type="hidden" id="cnameLoc248"class="name"  value="{{name}}"&gt; &lt;input type="number" id="descLoc135"   placeholder=" QTY "  required&gt;&lt;input onclick="launch_notification();this.value='ADDED ✅'" type="submit" value="SEND"/&gt;&lt;/form&gt;
+&lt;img src="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/227" loading="lazy" width="400" height="400"&gt;  &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1">
+      <c r="A228" t="str">
+        <f>Sheet1!A228&amp;""&amp;Sheet1!B228&amp;""&amp;Sheet1!C228&amp;""&amp;Sheet1!D228&amp;""&amp;Sheet1!E228&amp;""&amp;Sheet1!F228&amp;""&amp;Sheet1!G228&amp;""&amp;Sheet1!H228&amp;""&amp;Sheet1!I228&amp;""&amp;Sheet1!J228&amp;""&amp;Sheet1!K228&amp;""&amp;Sheet1!L228&amp;""&amp;Sheet1!M228&amp;""&amp;Sheet1!N228&amp;""&amp;Sheet1!O228&amp;""&amp;Sheet1!P228&amp;""&amp;Sheet1!Q228&amp;""&amp;Sheet1!R228&amp;""&amp;Sheet1!S228&amp;""&amp;Sheet1!T228&amp;""&amp;Sheet1!U228&amp;""&amp;Sheet1!V228&amp;""&amp;Sheet1!W228&amp;""&amp;Sheet1!X228&amp;""&amp;Sheet1!Y228&amp;""&amp;Sheet1!Z228</f>
+        <v>&lt;li class="name"&gt;228&lt;form id="formLoc249"&gt; &lt;input type="hidden" id="nameLoc249"class="name"  value="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/228.jpeg"&gt;&lt;input type="hidden" id="cnameLoc249"class="name"  value="{{name}}"&gt; &lt;input type="number" id="descLoc136"   placeholder=" QTY "  required&gt;&lt;input onclick="launch_notification();this.value='ADDED ✅'" type="submit" value="SEND"/&gt;&lt;/form&gt;
+&lt;img src="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/228" loading="lazy" width="400" height="400"&gt;  &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1">
+      <c r="A229" t="str">
+        <f>Sheet1!A229&amp;""&amp;Sheet1!B229&amp;""&amp;Sheet1!C229&amp;""&amp;Sheet1!D229&amp;""&amp;Sheet1!E229&amp;""&amp;Sheet1!F229&amp;""&amp;Sheet1!G229&amp;""&amp;Sheet1!H229&amp;""&amp;Sheet1!I229&amp;""&amp;Sheet1!J229&amp;""&amp;Sheet1!K229&amp;""&amp;Sheet1!L229&amp;""&amp;Sheet1!M229&amp;""&amp;Sheet1!N229&amp;""&amp;Sheet1!O229&amp;""&amp;Sheet1!P229&amp;""&amp;Sheet1!Q229&amp;""&amp;Sheet1!R229&amp;""&amp;Sheet1!S229&amp;""&amp;Sheet1!T229&amp;""&amp;Sheet1!U229&amp;""&amp;Sheet1!V229&amp;""&amp;Sheet1!W229&amp;""&amp;Sheet1!X229&amp;""&amp;Sheet1!Y229&amp;""&amp;Sheet1!Z229</f>
+        <v>&lt;li class="name"&gt;229&lt;form id="formLoc250"&gt; &lt;input type="hidden" id="nameLoc250"class="name"  value="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/229.jpeg"&gt;&lt;input type="hidden" id="cnameLoc250"class="name"  value="{{name}}"&gt; &lt;input type="number" id="descLoc136"   placeholder=" QTY "  required&gt;&lt;input onclick="launch_notification();this.value='ADDED ✅'" type="submit" value="SEND"/&gt;&lt;/form&gt;
+&lt;img src="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/229" loading="lazy" width="400" height="400"&gt;  &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1">
+      <c r="A230" t="str">
+        <f>Sheet1!A230&amp;""&amp;Sheet1!B230&amp;""&amp;Sheet1!C230&amp;""&amp;Sheet1!D230&amp;""&amp;Sheet1!E230&amp;""&amp;Sheet1!F230&amp;""&amp;Sheet1!G230&amp;""&amp;Sheet1!H230&amp;""&amp;Sheet1!I230&amp;""&amp;Sheet1!J230&amp;""&amp;Sheet1!K230&amp;""&amp;Sheet1!L230&amp;""&amp;Sheet1!M230&amp;""&amp;Sheet1!N230&amp;""&amp;Sheet1!O230&amp;""&amp;Sheet1!P230&amp;""&amp;Sheet1!Q230&amp;""&amp;Sheet1!R230&amp;""&amp;Sheet1!S230&amp;""&amp;Sheet1!T230&amp;""&amp;Sheet1!U230&amp;""&amp;Sheet1!V230&amp;""&amp;Sheet1!W230&amp;""&amp;Sheet1!X230&amp;""&amp;Sheet1!Y230&amp;""&amp;Sheet1!Z230</f>
+        <v>&lt;li class="name"&gt;230&lt;form id="formLoc251"&gt; &lt;input type="hidden" id="nameLoc251"class="name"  value="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/230.jpeg"&gt;&lt;input type="hidden" id="cnameLoc251"class="name"  value="{{name}}"&gt; &lt;input type="number" id="descLoc137"   placeholder=" QTY "  required&gt;&lt;input onclick="launch_notification();this.value='ADDED ✅'" type="submit" value="SEND"/&gt;&lt;/form&gt;
+&lt;img src="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/230" loading="lazy" width="400" height="400"&gt;  &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1">
+      <c r="A231" t="str">
+        <f>Sheet1!A231&amp;""&amp;Sheet1!B231&amp;""&amp;Sheet1!C231&amp;""&amp;Sheet1!D231&amp;""&amp;Sheet1!E231&amp;""&amp;Sheet1!F231&amp;""&amp;Sheet1!G231&amp;""&amp;Sheet1!H231&amp;""&amp;Sheet1!I231&amp;""&amp;Sheet1!J231&amp;""&amp;Sheet1!K231&amp;""&amp;Sheet1!L231&amp;""&amp;Sheet1!M231&amp;""&amp;Sheet1!N231&amp;""&amp;Sheet1!O231&amp;""&amp;Sheet1!P231&amp;""&amp;Sheet1!Q231&amp;""&amp;Sheet1!R231&amp;""&amp;Sheet1!S231&amp;""&amp;Sheet1!T231&amp;""&amp;Sheet1!U231&amp;""&amp;Sheet1!V231&amp;""&amp;Sheet1!W231&amp;""&amp;Sheet1!X231&amp;""&amp;Sheet1!Y231&amp;""&amp;Sheet1!Z231</f>
+        <v>&lt;li class="name"&gt;231&lt;form id="formLoc252"&gt; &lt;input type="hidden" id="nameLoc252"class="name"  value="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/231.jpeg"&gt;&lt;input type="hidden" id="cnameLoc252"class="name"  value="{{name}}"&gt; &lt;input type="number" id="descLoc137"   placeholder=" QTY "  required&gt;&lt;input onclick="launch_notification();this.value='ADDED ✅'" type="submit" value="SEND"/&gt;&lt;/form&gt;
+&lt;img src="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/231" loading="lazy" width="400" height="400"&gt;  &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1">
+      <c r="A232" t="str">
+        <f>Sheet1!A232&amp;""&amp;Sheet1!B232&amp;""&amp;Sheet1!C232&amp;""&amp;Sheet1!D232&amp;""&amp;Sheet1!E232&amp;""&amp;Sheet1!F232&amp;""&amp;Sheet1!G232&amp;""&amp;Sheet1!H232&amp;""&amp;Sheet1!I232&amp;""&amp;Sheet1!J232&amp;""&amp;Sheet1!K232&amp;""&amp;Sheet1!L232&amp;""&amp;Sheet1!M232&amp;""&amp;Sheet1!N232&amp;""&amp;Sheet1!O232&amp;""&amp;Sheet1!P232&amp;""&amp;Sheet1!Q232&amp;""&amp;Sheet1!R232&amp;""&amp;Sheet1!S232&amp;""&amp;Sheet1!T232&amp;""&amp;Sheet1!U232&amp;""&amp;Sheet1!V232&amp;""&amp;Sheet1!W232&amp;""&amp;Sheet1!X232&amp;""&amp;Sheet1!Y232&amp;""&amp;Sheet1!Z232</f>
+        <v>&lt;li class="name"&gt;232&lt;form id="formLoc253"&gt; &lt;input type="hidden" id="nameLoc253"class="name"  value="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/232.jpeg"&gt;&lt;input type="hidden" id="cnameLoc253"class="name"  value="{{name}}"&gt; &lt;input type="number" id="descLoc138"   placeholder=" QTY "  required&gt;&lt;input onclick="launch_notification();this.value='ADDED ✅'" type="submit" value="SEND"/&gt;&lt;/form&gt;
+&lt;img src="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/232" loading="lazy" width="400" height="400"&gt;  &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1">
+      <c r="A233" t="str">
+        <f>Sheet1!A233&amp;""&amp;Sheet1!B233&amp;""&amp;Sheet1!C233&amp;""&amp;Sheet1!D233&amp;""&amp;Sheet1!E233&amp;""&amp;Sheet1!F233&amp;""&amp;Sheet1!G233&amp;""&amp;Sheet1!H233&amp;""&amp;Sheet1!I233&amp;""&amp;Sheet1!J233&amp;""&amp;Sheet1!K233&amp;""&amp;Sheet1!L233&amp;""&amp;Sheet1!M233&amp;""&amp;Sheet1!N233&amp;""&amp;Sheet1!O233&amp;""&amp;Sheet1!P233&amp;""&amp;Sheet1!Q233&amp;""&amp;Sheet1!R233&amp;""&amp;Sheet1!S233&amp;""&amp;Sheet1!T233&amp;""&amp;Sheet1!U233&amp;""&amp;Sheet1!V233&amp;""&amp;Sheet1!W233&amp;""&amp;Sheet1!X233&amp;""&amp;Sheet1!Y233&amp;""&amp;Sheet1!Z233</f>
+        <v>&lt;li class="name"&gt;233&lt;form id="formLoc254"&gt; &lt;input type="hidden" id="nameLoc254"class="name"  value="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/233.jpeg"&gt;&lt;input type="hidden" id="cnameLoc254"class="name"  value="{{name}}"&gt; &lt;input type="number" id="descLoc138"   placeholder=" QTY "  required&gt;&lt;input onclick="launch_notification();this.value='ADDED ✅'" type="submit" value="SEND"/&gt;&lt;/form&gt;
+&lt;img src="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/233" loading="lazy" width="400" height="400"&gt;  &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1">
+      <c r="A234" t="str">
+        <f>Sheet1!A234&amp;""&amp;Sheet1!B234&amp;""&amp;Sheet1!C234&amp;""&amp;Sheet1!D234&amp;""&amp;Sheet1!E234&amp;""&amp;Sheet1!F234&amp;""&amp;Sheet1!G234&amp;""&amp;Sheet1!H234&amp;""&amp;Sheet1!I234&amp;""&amp;Sheet1!J234&amp;""&amp;Sheet1!K234&amp;""&amp;Sheet1!L234&amp;""&amp;Sheet1!M234&amp;""&amp;Sheet1!N234&amp;""&amp;Sheet1!O234&amp;""&amp;Sheet1!P234&amp;""&amp;Sheet1!Q234&amp;""&amp;Sheet1!R234&amp;""&amp;Sheet1!S234&amp;""&amp;Sheet1!T234&amp;""&amp;Sheet1!U234&amp;""&amp;Sheet1!V234&amp;""&amp;Sheet1!W234&amp;""&amp;Sheet1!X234&amp;""&amp;Sheet1!Y234&amp;""&amp;Sheet1!Z234</f>
+        <v>&lt;li class="name"&gt;234&lt;form id="formLoc255"&gt; &lt;input type="hidden" id="nameLoc255"class="name"  value="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/234.jpeg"&gt;&lt;input type="hidden" id="cnameLoc255"class="name"  value="{{name}}"&gt; &lt;input type="number" id="descLoc139"   placeholder=" QTY "  required&gt;&lt;input onclick="launch_notification();this.value='ADDED ✅'" type="submit" value="SEND"/&gt;&lt;/form&gt;
+&lt;img src="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/234" loading="lazy" width="400" height="400"&gt;  &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1">
+      <c r="A235" t="str">
+        <f>Sheet1!A235&amp;""&amp;Sheet1!B235&amp;""&amp;Sheet1!C235&amp;""&amp;Sheet1!D235&amp;""&amp;Sheet1!E235&amp;""&amp;Sheet1!F235&amp;""&amp;Sheet1!G235&amp;""&amp;Sheet1!H235&amp;""&amp;Sheet1!I235&amp;""&amp;Sheet1!J235&amp;""&amp;Sheet1!K235&amp;""&amp;Sheet1!L235&amp;""&amp;Sheet1!M235&amp;""&amp;Sheet1!N235&amp;""&amp;Sheet1!O235&amp;""&amp;Sheet1!P235&amp;""&amp;Sheet1!Q235&amp;""&amp;Sheet1!R235&amp;""&amp;Sheet1!S235&amp;""&amp;Sheet1!T235&amp;""&amp;Sheet1!U235&amp;""&amp;Sheet1!V235&amp;""&amp;Sheet1!W235&amp;""&amp;Sheet1!X235&amp;""&amp;Sheet1!Y235&amp;""&amp;Sheet1!Z235</f>
+        <v>&lt;li class="name"&gt;235&lt;form id="formLoc256"&gt; &lt;input type="hidden" id="nameLoc256"class="name"  value="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/235.jpeg"&gt;&lt;input type="hidden" id="cnameLoc256"class="name"  value="{{name}}"&gt; &lt;input type="number" id="descLoc139"   placeholder=" QTY "  required&gt;&lt;input onclick="launch_notification();this.value='ADDED ✅'" type="submit" value="SEND"/&gt;&lt;/form&gt;
+&lt;img src="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/235" loading="lazy" width="400" height="400"&gt;  &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1">
+      <c r="A236" t="str">
+        <f>Sheet1!A236&amp;""&amp;Sheet1!B236&amp;""&amp;Sheet1!C236&amp;""&amp;Sheet1!D236&amp;""&amp;Sheet1!E236&amp;""&amp;Sheet1!F236&amp;""&amp;Sheet1!G236&amp;""&amp;Sheet1!H236&amp;""&amp;Sheet1!I236&amp;""&amp;Sheet1!J236&amp;""&amp;Sheet1!K236&amp;""&amp;Sheet1!L236&amp;""&amp;Sheet1!M236&amp;""&amp;Sheet1!N236&amp;""&amp;Sheet1!O236&amp;""&amp;Sheet1!P236&amp;""&amp;Sheet1!Q236&amp;""&amp;Sheet1!R236&amp;""&amp;Sheet1!S236&amp;""&amp;Sheet1!T236&amp;""&amp;Sheet1!U236&amp;""&amp;Sheet1!V236&amp;""&amp;Sheet1!W236&amp;""&amp;Sheet1!X236&amp;""&amp;Sheet1!Y236&amp;""&amp;Sheet1!Z236</f>
+        <v>&lt;li class="name"&gt;236&lt;form id="formLoc257"&gt; &lt;input type="hidden" id="nameLoc257"class="name"  value="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/236.jpeg"&gt;&lt;input type="hidden" id="cnameLoc257"class="name"  value="{{name}}"&gt; &lt;input type="number" id="descLoc140"   placeholder=" QTY "  required&gt;&lt;input onclick="launch_notification();this.value='ADDED ✅'" type="submit" value="SEND"/&gt;&lt;/form&gt;
+&lt;img src="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/236" loading="lazy" width="400" height="400"&gt;  &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1">
+      <c r="A237" t="str">
+        <f>Sheet1!A237&amp;""&amp;Sheet1!B237&amp;""&amp;Sheet1!C237&amp;""&amp;Sheet1!D237&amp;""&amp;Sheet1!E237&amp;""&amp;Sheet1!F237&amp;""&amp;Sheet1!G237&amp;""&amp;Sheet1!H237&amp;""&amp;Sheet1!I237&amp;""&amp;Sheet1!J237&amp;""&amp;Sheet1!K237&amp;""&amp;Sheet1!L237&amp;""&amp;Sheet1!M237&amp;""&amp;Sheet1!N237&amp;""&amp;Sheet1!O237&amp;""&amp;Sheet1!P237&amp;""&amp;Sheet1!Q237&amp;""&amp;Sheet1!R237&amp;""&amp;Sheet1!S237&amp;""&amp;Sheet1!T237&amp;""&amp;Sheet1!U237&amp;""&amp;Sheet1!V237&amp;""&amp;Sheet1!W237&amp;""&amp;Sheet1!X237&amp;""&amp;Sheet1!Y237&amp;""&amp;Sheet1!Z237</f>
+        <v>&lt;li class="name"&gt;237&lt;form id="formLoc258"&gt; &lt;input type="hidden" id="nameLoc258"class="name"  value="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/237.jpeg"&gt;&lt;input type="hidden" id="cnameLoc258"class="name"  value="{{name}}"&gt; &lt;input type="number" id="descLoc140"   placeholder=" QTY "  required&gt;&lt;input onclick="launch_notification();this.value='ADDED ✅'" type="submit" value="SEND"/&gt;&lt;/form&gt;
+&lt;img src="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/237" loading="lazy" width="400" height="400"&gt;  &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1">
+      <c r="A238" t="str">
+        <f>Sheet1!A238&amp;""&amp;Sheet1!B238&amp;""&amp;Sheet1!C238&amp;""&amp;Sheet1!D238&amp;""&amp;Sheet1!E238&amp;""&amp;Sheet1!F238&amp;""&amp;Sheet1!G238&amp;""&amp;Sheet1!H238&amp;""&amp;Sheet1!I238&amp;""&amp;Sheet1!J238&amp;""&amp;Sheet1!K238&amp;""&amp;Sheet1!L238&amp;""&amp;Sheet1!M238&amp;""&amp;Sheet1!N238&amp;""&amp;Sheet1!O238&amp;""&amp;Sheet1!P238&amp;""&amp;Sheet1!Q238&amp;""&amp;Sheet1!R238&amp;""&amp;Sheet1!S238&amp;""&amp;Sheet1!T238&amp;""&amp;Sheet1!U238&amp;""&amp;Sheet1!V238&amp;""&amp;Sheet1!W238&amp;""&amp;Sheet1!X238&amp;""&amp;Sheet1!Y238&amp;""&amp;Sheet1!Z238</f>
+        <v>&lt;li class="name"&gt;238&lt;form id="formLoc259"&gt; &lt;input type="hidden" id="nameLoc259"class="name"  value="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/238.jpeg"&gt;&lt;input type="hidden" id="cnameLoc259"class="name"  value="{{name}}"&gt; &lt;input type="number" id="descLoc141"   placeholder=" QTY "  required&gt;&lt;input onclick="launch_notification();this.value='ADDED ✅'" type="submit" value="SEND"/&gt;&lt;/form&gt;
+&lt;img src="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/238" loading="lazy" width="400" height="400"&gt;  &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1">
+      <c r="A239" t="str">
+        <f>Sheet1!A239&amp;""&amp;Sheet1!B239&amp;""&amp;Sheet1!C239&amp;""&amp;Sheet1!D239&amp;""&amp;Sheet1!E239&amp;""&amp;Sheet1!F239&amp;""&amp;Sheet1!G239&amp;""&amp;Sheet1!H239&amp;""&amp;Sheet1!I239&amp;""&amp;Sheet1!J239&amp;""&amp;Sheet1!K239&amp;""&amp;Sheet1!L239&amp;""&amp;Sheet1!M239&amp;""&amp;Sheet1!N239&amp;""&amp;Sheet1!O239&amp;""&amp;Sheet1!P239&amp;""&amp;Sheet1!Q239&amp;""&amp;Sheet1!R239&amp;""&amp;Sheet1!S239&amp;""&amp;Sheet1!T239&amp;""&amp;Sheet1!U239&amp;""&amp;Sheet1!V239&amp;""&amp;Sheet1!W239&amp;""&amp;Sheet1!X239&amp;""&amp;Sheet1!Y239&amp;""&amp;Sheet1!Z239</f>
+        <v>&lt;li class="name"&gt;239&lt;form id="formLoc260"&gt; &lt;input type="hidden" id="nameLoc260"class="name"  value="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/239.jpeg"&gt;&lt;input type="hidden" id="cnameLoc260"class="name"  value="{{name}}"&gt; &lt;input type="number" id="descLoc141"   placeholder=" QTY "  required&gt;&lt;input onclick="launch_notification();this.value='ADDED ✅'" type="submit" value="SEND"/&gt;&lt;/form&gt;
+&lt;img src="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/239" loading="lazy" width="400" height="400"&gt;  &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1">
+      <c r="A240" t="str">
+        <f>Sheet1!A240&amp;""&amp;Sheet1!B240&amp;""&amp;Sheet1!C240&amp;""&amp;Sheet1!D240&amp;""&amp;Sheet1!E240&amp;""&amp;Sheet1!F240&amp;""&amp;Sheet1!G240&amp;""&amp;Sheet1!H240&amp;""&amp;Sheet1!I240&amp;""&amp;Sheet1!J240&amp;""&amp;Sheet1!K240&amp;""&amp;Sheet1!L240&amp;""&amp;Sheet1!M240&amp;""&amp;Sheet1!N240&amp;""&amp;Sheet1!O240&amp;""&amp;Sheet1!P240&amp;""&amp;Sheet1!Q240&amp;""&amp;Sheet1!R240&amp;""&amp;Sheet1!S240&amp;""&amp;Sheet1!T240&amp;""&amp;Sheet1!U240&amp;""&amp;Sheet1!V240&amp;""&amp;Sheet1!W240&amp;""&amp;Sheet1!X240&amp;""&amp;Sheet1!Y240&amp;""&amp;Sheet1!Z240</f>
+        <v>&lt;li class="name"&gt;240&lt;form id="formLoc261"&gt; &lt;input type="hidden" id="nameLoc261"class="name"  value="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/240.jpeg"&gt;&lt;input type="hidden" id="cnameLoc261"class="name"  value="{{name}}"&gt; &lt;input type="number" id="descLoc142"   placeholder=" QTY "  required&gt;&lt;input onclick="launch_notification();this.value='ADDED ✅'" type="submit" value="SEND"/&gt;&lt;/form&gt;
+&lt;img src="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/240" loading="lazy" width="400" height="400"&gt;  &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1">
+      <c r="A241" t="str">
+        <f>Sheet1!A241&amp;""&amp;Sheet1!B241&amp;""&amp;Sheet1!C241&amp;""&amp;Sheet1!D241&amp;""&amp;Sheet1!E241&amp;""&amp;Sheet1!F241&amp;""&amp;Sheet1!G241&amp;""&amp;Sheet1!H241&amp;""&amp;Sheet1!I241&amp;""&amp;Sheet1!J241&amp;""&amp;Sheet1!K241&amp;""&amp;Sheet1!L241&amp;""&amp;Sheet1!M241&amp;""&amp;Sheet1!N241&amp;""&amp;Sheet1!O241&amp;""&amp;Sheet1!P241&amp;""&amp;Sheet1!Q241&amp;""&amp;Sheet1!R241&amp;""&amp;Sheet1!S241&amp;""&amp;Sheet1!T241&amp;""&amp;Sheet1!U241&amp;""&amp;Sheet1!V241&amp;""&amp;Sheet1!W241&amp;""&amp;Sheet1!X241&amp;""&amp;Sheet1!Y241&amp;""&amp;Sheet1!Z241</f>
+        <v>&lt;li class="name"&gt;241&lt;form id="formLoc262"&gt; &lt;input type="hidden" id="nameLoc262"class="name"  value="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/241.jpeg"&gt;&lt;input type="hidden" id="cnameLoc262"class="name"  value="{{name}}"&gt; &lt;input type="number" id="descLoc142"   placeholder=" QTY "  required&gt;&lt;input onclick="launch_notification();this.value='ADDED ✅'" type="submit" value="SEND"/&gt;&lt;/form&gt;
+&lt;img src="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/241" loading="lazy" width="400" height="400"&gt;  &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1">
+      <c r="A242" t="str">
+        <f>Sheet1!A242&amp;""&amp;Sheet1!B242&amp;""&amp;Sheet1!C242&amp;""&amp;Sheet1!D242&amp;""&amp;Sheet1!E242&amp;""&amp;Sheet1!F242&amp;""&amp;Sheet1!G242&amp;""&amp;Sheet1!H242&amp;""&amp;Sheet1!I242&amp;""&amp;Sheet1!J242&amp;""&amp;Sheet1!K242&amp;""&amp;Sheet1!L242&amp;""&amp;Sheet1!M242&amp;""&amp;Sheet1!N242&amp;""&amp;Sheet1!O242&amp;""&amp;Sheet1!P242&amp;""&amp;Sheet1!Q242&amp;""&amp;Sheet1!R242&amp;""&amp;Sheet1!S242&amp;""&amp;Sheet1!T242&amp;""&amp;Sheet1!U242&amp;""&amp;Sheet1!V242&amp;""&amp;Sheet1!W242&amp;""&amp;Sheet1!X242&amp;""&amp;Sheet1!Y242&amp;""&amp;Sheet1!Z242</f>
+        <v>&lt;li class="name"&gt;242&lt;form id="formLoc263"&gt; &lt;input type="hidden" id="nameLoc263"class="name"  value="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/242.jpeg"&gt;&lt;input type="hidden" id="cnameLoc263"class="name"  value="{{name}}"&gt; &lt;input type="number" id="descLoc143"   placeholder=" QTY "  required&gt;&lt;input onclick="launch_notification();this.value='ADDED ✅'" type="submit" value="SEND"/&gt;&lt;/form&gt;
+&lt;img src="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/242" loading="lazy" width="400" height="400"&gt;  &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1">
+      <c r="A243" t="str">
+        <f>Sheet1!A243&amp;""&amp;Sheet1!B243&amp;""&amp;Sheet1!C243&amp;""&amp;Sheet1!D243&amp;""&amp;Sheet1!E243&amp;""&amp;Sheet1!F243&amp;""&amp;Sheet1!G243&amp;""&amp;Sheet1!H243&amp;""&amp;Sheet1!I243&amp;""&amp;Sheet1!J243&amp;""&amp;Sheet1!K243&amp;""&amp;Sheet1!L243&amp;""&amp;Sheet1!M243&amp;""&amp;Sheet1!N243&amp;""&amp;Sheet1!O243&amp;""&amp;Sheet1!P243&amp;""&amp;Sheet1!Q243&amp;""&amp;Sheet1!R243&amp;""&amp;Sheet1!S243&amp;""&amp;Sheet1!T243&amp;""&amp;Sheet1!U243&amp;""&amp;Sheet1!V243&amp;""&amp;Sheet1!W243&amp;""&amp;Sheet1!X243&amp;""&amp;Sheet1!Y243&amp;""&amp;Sheet1!Z243</f>
+        <v>&lt;li class="name"&gt;243&lt;form id="formLoc264"&gt; &lt;input type="hidden" id="nameLoc264"class="name"  value="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/243.jpeg"&gt;&lt;input type="hidden" id="cnameLoc264"class="name"  value="{{name}}"&gt; &lt;input type="number" id="descLoc143"   placeholder=" QTY "  required&gt;&lt;input onclick="launch_notification();this.value='ADDED ✅'" type="submit" value="SEND"/&gt;&lt;/form&gt;
+&lt;img src="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/243" loading="lazy" width="400" height="400"&gt;  &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1">
+      <c r="A244" t="str">
+        <f>Sheet1!A244&amp;""&amp;Sheet1!B244&amp;""&amp;Sheet1!C244&amp;""&amp;Sheet1!D244&amp;""&amp;Sheet1!E244&amp;""&amp;Sheet1!F244&amp;""&amp;Sheet1!G244&amp;""&amp;Sheet1!H244&amp;""&amp;Sheet1!I244&amp;""&amp;Sheet1!J244&amp;""&amp;Sheet1!K244&amp;""&amp;Sheet1!L244&amp;""&amp;Sheet1!M244&amp;""&amp;Sheet1!N244&amp;""&amp;Sheet1!O244&amp;""&amp;Sheet1!P244&amp;""&amp;Sheet1!Q244&amp;""&amp;Sheet1!R244&amp;""&amp;Sheet1!S244&amp;""&amp;Sheet1!T244&amp;""&amp;Sheet1!U244&amp;""&amp;Sheet1!V244&amp;""&amp;Sheet1!W244&amp;""&amp;Sheet1!X244&amp;""&amp;Sheet1!Y244&amp;""&amp;Sheet1!Z244</f>
+        <v>&lt;li class="name"&gt;244&lt;form id="formLoc265"&gt; &lt;input type="hidden" id="nameLoc265"class="name"  value="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/244.jpeg"&gt;&lt;input type="hidden" id="cnameLoc265"class="name"  value="{{name}}"&gt; &lt;input type="number" id="descLoc144"   placeholder=" QTY "  required&gt;&lt;input onclick="launch_notification();this.value='ADDED ✅'" type="submit" value="SEND"/&gt;&lt;/form&gt;
+&lt;img src="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/244" loading="lazy" width="400" height="400"&gt;  &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1">
+      <c r="A245" t="str">
+        <f>Sheet1!A245&amp;""&amp;Sheet1!B245&amp;""&amp;Sheet1!C245&amp;""&amp;Sheet1!D245&amp;""&amp;Sheet1!E245&amp;""&amp;Sheet1!F245&amp;""&amp;Sheet1!G245&amp;""&amp;Sheet1!H245&amp;""&amp;Sheet1!I245&amp;""&amp;Sheet1!J245&amp;""&amp;Sheet1!K245&amp;""&amp;Sheet1!L245&amp;""&amp;Sheet1!M245&amp;""&amp;Sheet1!N245&amp;""&amp;Sheet1!O245&amp;""&amp;Sheet1!P245&amp;""&amp;Sheet1!Q245&amp;""&amp;Sheet1!R245&amp;""&amp;Sheet1!S245&amp;""&amp;Sheet1!T245&amp;""&amp;Sheet1!U245&amp;""&amp;Sheet1!V245&amp;""&amp;Sheet1!W245&amp;""&amp;Sheet1!X245&amp;""&amp;Sheet1!Y245&amp;""&amp;Sheet1!Z245</f>
+        <v>&lt;li class="name"&gt;245&lt;form id="formLoc266"&gt; &lt;input type="hidden" id="nameLoc266"class="name"  value="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/245.jpeg"&gt;&lt;input type="hidden" id="cnameLoc266"class="name"  value="{{name}}"&gt; &lt;input type="number" id="descLoc144"   placeholder=" QTY "  required&gt;&lt;input onclick="launch_notification();this.value='ADDED ✅'" type="submit" value="SEND"/&gt;&lt;/form&gt;
+&lt;img src="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/245" loading="lazy" width="400" height="400"&gt;  &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1">
+      <c r="A246" t="str">
+        <f>Sheet1!A246&amp;""&amp;Sheet1!B246&amp;""&amp;Sheet1!C246&amp;""&amp;Sheet1!D246&amp;""&amp;Sheet1!E246&amp;""&amp;Sheet1!F246&amp;""&amp;Sheet1!G246&amp;""&amp;Sheet1!H246&amp;""&amp;Sheet1!I246&amp;""&amp;Sheet1!J246&amp;""&amp;Sheet1!K246&amp;""&amp;Sheet1!L246&amp;""&amp;Sheet1!M246&amp;""&amp;Sheet1!N246&amp;""&amp;Sheet1!O246&amp;""&amp;Sheet1!P246&amp;""&amp;Sheet1!Q246&amp;""&amp;Sheet1!R246&amp;""&amp;Sheet1!S246&amp;""&amp;Sheet1!T246&amp;""&amp;Sheet1!U246&amp;""&amp;Sheet1!V246&amp;""&amp;Sheet1!W246&amp;""&amp;Sheet1!X246&amp;""&amp;Sheet1!Y246&amp;""&amp;Sheet1!Z246</f>
+        <v>&lt;li class="name"&gt;246&lt;form id="formLoc267"&gt; &lt;input type="hidden" id="nameLoc267"class="name"  value="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/246.jpeg"&gt;&lt;input type="hidden" id="cnameLoc267"class="name"  value="{{name}}"&gt; &lt;input type="number" id="descLoc145"   placeholder=" QTY "  required&gt;&lt;input onclick="launch_notification();this.value='ADDED ✅'" type="submit" value="SEND"/&gt;&lt;/form&gt;
+&lt;img src="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/246" loading="lazy" width="400" height="400"&gt;  &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1">
+      <c r="A247" t="str">
+        <f>Sheet1!A247&amp;""&amp;Sheet1!B247&amp;""&amp;Sheet1!C247&amp;""&amp;Sheet1!D247&amp;""&amp;Sheet1!E247&amp;""&amp;Sheet1!F247&amp;""&amp;Sheet1!G247&amp;""&amp;Sheet1!H247&amp;""&amp;Sheet1!I247&amp;""&amp;Sheet1!J247&amp;""&amp;Sheet1!K247&amp;""&amp;Sheet1!L247&amp;""&amp;Sheet1!M247&amp;""&amp;Sheet1!N247&amp;""&amp;Sheet1!O247&amp;""&amp;Sheet1!P247&amp;""&amp;Sheet1!Q247&amp;""&amp;Sheet1!R247&amp;""&amp;Sheet1!S247&amp;""&amp;Sheet1!T247&amp;""&amp;Sheet1!U247&amp;""&amp;Sheet1!V247&amp;""&amp;Sheet1!W247&amp;""&amp;Sheet1!X247&amp;""&amp;Sheet1!Y247&amp;""&amp;Sheet1!Z247</f>
+        <v>&lt;li class="name"&gt;247&lt;form id="formLoc268"&gt; &lt;input type="hidden" id="nameLoc268"class="name"  value="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/247.jpeg"&gt;&lt;input type="hidden" id="cnameLoc268"class="name"  value="{{name}}"&gt; &lt;input type="number" id="descLoc145"   placeholder=" QTY "  required&gt;&lt;input onclick="launch_notification();this.value='ADDED ✅'" type="submit" value="SEND"/&gt;&lt;/form&gt;
+&lt;img src="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/247" loading="lazy" width="400" height="400"&gt;  &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1">
+      <c r="A248" t="str">
+        <f>Sheet1!A248&amp;""&amp;Sheet1!B248&amp;""&amp;Sheet1!C248&amp;""&amp;Sheet1!D248&amp;""&amp;Sheet1!E248&amp;""&amp;Sheet1!F248&amp;""&amp;Sheet1!G248&amp;""&amp;Sheet1!H248&amp;""&amp;Sheet1!I248&amp;""&amp;Sheet1!J248&amp;""&amp;Sheet1!K248&amp;""&amp;Sheet1!L248&amp;""&amp;Sheet1!M248&amp;""&amp;Sheet1!N248&amp;""&amp;Sheet1!O248&amp;""&amp;Sheet1!P248&amp;""&amp;Sheet1!Q248&amp;""&amp;Sheet1!R248&amp;""&amp;Sheet1!S248&amp;""&amp;Sheet1!T248&amp;""&amp;Sheet1!U248&amp;""&amp;Sheet1!V248&amp;""&amp;Sheet1!W248&amp;""&amp;Sheet1!X248&amp;""&amp;Sheet1!Y248&amp;""&amp;Sheet1!Z248</f>
+        <v>&lt;li class="name"&gt;248&lt;form id="formLoc269"&gt; &lt;input type="hidden" id="nameLoc269"class="name"  value="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/248.jpeg"&gt;&lt;input type="hidden" id="cnameLoc269"class="name"  value="{{name}}"&gt; &lt;input type="number" id="descLoc146"   placeholder=" QTY "  required&gt;&lt;input onclick="launch_notification();this.value='ADDED ✅'" type="submit" value="SEND"/&gt;&lt;/form&gt;
+&lt;img src="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/248" loading="lazy" width="400" height="400"&gt;  &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1">
+      <c r="A249" t="str">
+        <f>Sheet1!A249&amp;""&amp;Sheet1!B249&amp;""&amp;Sheet1!C249&amp;""&amp;Sheet1!D249&amp;""&amp;Sheet1!E249&amp;""&amp;Sheet1!F249&amp;""&amp;Sheet1!G249&amp;""&amp;Sheet1!H249&amp;""&amp;Sheet1!I249&amp;""&amp;Sheet1!J249&amp;""&amp;Sheet1!K249&amp;""&amp;Sheet1!L249&amp;""&amp;Sheet1!M249&amp;""&amp;Sheet1!N249&amp;""&amp;Sheet1!O249&amp;""&amp;Sheet1!P249&amp;""&amp;Sheet1!Q249&amp;""&amp;Sheet1!R249&amp;""&amp;Sheet1!S249&amp;""&amp;Sheet1!T249&amp;""&amp;Sheet1!U249&amp;""&amp;Sheet1!V249&amp;""&amp;Sheet1!W249&amp;""&amp;Sheet1!X249&amp;""&amp;Sheet1!Y249&amp;""&amp;Sheet1!Z249</f>
+        <v>&lt;li class="name"&gt;249&lt;form id="formLoc270"&gt; &lt;input type="hidden" id="nameLoc270"class="name"  value="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/249.jpeg"&gt;&lt;input type="hidden" id="cnameLoc270"class="name"  value="{{name}}"&gt; &lt;input type="number" id="descLoc146"   placeholder=" QTY "  required&gt;&lt;input onclick="launch_notification();this.value='ADDED ✅'" type="submit" value="SEND"/&gt;&lt;/form&gt;
+&lt;img src="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/249" loading="lazy" width="400" height="400"&gt;  &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1">
+      <c r="A250" t="str">
+        <f>Sheet1!A250&amp;""&amp;Sheet1!B250&amp;""&amp;Sheet1!C250&amp;""&amp;Sheet1!D250&amp;""&amp;Sheet1!E250&amp;""&amp;Sheet1!F250&amp;""&amp;Sheet1!G250&amp;""&amp;Sheet1!H250&amp;""&amp;Sheet1!I250&amp;""&amp;Sheet1!J250&amp;""&amp;Sheet1!K250&amp;""&amp;Sheet1!L250&amp;""&amp;Sheet1!M250&amp;""&amp;Sheet1!N250&amp;""&amp;Sheet1!O250&amp;""&amp;Sheet1!P250&amp;""&amp;Sheet1!Q250&amp;""&amp;Sheet1!R250&amp;""&amp;Sheet1!S250&amp;""&amp;Sheet1!T250&amp;""&amp;Sheet1!U250&amp;""&amp;Sheet1!V250&amp;""&amp;Sheet1!W250&amp;""&amp;Sheet1!X250&amp;""&amp;Sheet1!Y250&amp;""&amp;Sheet1!Z250</f>
+        <v>&lt;li class="name"&gt;250&lt;form id="formLoc271"&gt; &lt;input type="hidden" id="nameLoc271"class="name"  value="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/250.jpeg"&gt;&lt;input type="hidden" id="cnameLoc271"class="name"  value="{{name}}"&gt; &lt;input type="number" id="descLoc147"   placeholder=" QTY "  required&gt;&lt;input onclick="launch_notification();this.value='ADDED ✅'" type="submit" value="SEND"/&gt;&lt;/form&gt;
+&lt;img src="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/250" loading="lazy" width="400" height="400"&gt;  &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1">
+      <c r="A251" t="str">
+        <f>Sheet1!A251&amp;""&amp;Sheet1!B251&amp;""&amp;Sheet1!C251&amp;""&amp;Sheet1!D251&amp;""&amp;Sheet1!E251&amp;""&amp;Sheet1!F251&amp;""&amp;Sheet1!G251&amp;""&amp;Sheet1!H251&amp;""&amp;Sheet1!I251&amp;""&amp;Sheet1!J251&amp;""&amp;Sheet1!K251&amp;""&amp;Sheet1!L251&amp;""&amp;Sheet1!M251&amp;""&amp;Sheet1!N251&amp;""&amp;Sheet1!O251&amp;""&amp;Sheet1!P251&amp;""&amp;Sheet1!Q251&amp;""&amp;Sheet1!R251&amp;""&amp;Sheet1!S251&amp;""&amp;Sheet1!T251&amp;""&amp;Sheet1!U251&amp;""&amp;Sheet1!V251&amp;""&amp;Sheet1!W251&amp;""&amp;Sheet1!X251&amp;""&amp;Sheet1!Y251&amp;""&amp;Sheet1!Z251</f>
+        <v>&lt;li class="name"&gt;251&lt;form id="formLoc272"&gt; &lt;input type="hidden" id="nameLoc272"class="name"  value="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/251.jpeg"&gt;&lt;input type="hidden" id="cnameLoc272"class="name"  value="{{name}}"&gt; &lt;input type="number" id="descLoc147"   placeholder=" QTY "  required&gt;&lt;input onclick="launch_notification();this.value='ADDED ✅'" type="submit" value="SEND"/&gt;&lt;/form&gt;
+&lt;img src="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/251" loading="lazy" width="400" height="400"&gt;  &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1">
+      <c r="A252" t="str">
+        <f>Sheet1!A252&amp;""&amp;Sheet1!B252&amp;""&amp;Sheet1!C252&amp;""&amp;Sheet1!D252&amp;""&amp;Sheet1!E252&amp;""&amp;Sheet1!F252&amp;""&amp;Sheet1!G252&amp;""&amp;Sheet1!H252&amp;""&amp;Sheet1!I252&amp;""&amp;Sheet1!J252&amp;""&amp;Sheet1!K252&amp;""&amp;Sheet1!L252&amp;""&amp;Sheet1!M252&amp;""&amp;Sheet1!N252&amp;""&amp;Sheet1!O252&amp;""&amp;Sheet1!P252&amp;""&amp;Sheet1!Q252&amp;""&amp;Sheet1!R252&amp;""&amp;Sheet1!S252&amp;""&amp;Sheet1!T252&amp;""&amp;Sheet1!U252&amp;""&amp;Sheet1!V252&amp;""&amp;Sheet1!W252&amp;""&amp;Sheet1!X252&amp;""&amp;Sheet1!Y252&amp;""&amp;Sheet1!Z252</f>
+        <v>&lt;li class="name"&gt;252&lt;form id="formLoc273"&gt; &lt;input type="hidden" id="nameLoc273"class="name"  value="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/252.jpeg"&gt;&lt;input type="hidden" id="cnameLoc273"class="name"  value="{{name}}"&gt; &lt;input type="number" id="descLoc148"   placeholder=" QTY "  required&gt;&lt;input onclick="launch_notification();this.value='ADDED ✅'" type="submit" value="SEND"/&gt;&lt;/form&gt;
+&lt;img src="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/252" loading="lazy" width="400" height="400"&gt;  &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1">
+      <c r="A253" t="str">
+        <f>Sheet1!A253&amp;""&amp;Sheet1!B253&amp;""&amp;Sheet1!C253&amp;""&amp;Sheet1!D253&amp;""&amp;Sheet1!E253&amp;""&amp;Sheet1!F253&amp;""&amp;Sheet1!G253&amp;""&amp;Sheet1!H253&amp;""&amp;Sheet1!I253&amp;""&amp;Sheet1!J253&amp;""&amp;Sheet1!K253&amp;""&amp;Sheet1!L253&amp;""&amp;Sheet1!M253&amp;""&amp;Sheet1!N253&amp;""&amp;Sheet1!O253&amp;""&amp;Sheet1!P253&amp;""&amp;Sheet1!Q253&amp;""&amp;Sheet1!R253&amp;""&amp;Sheet1!S253&amp;""&amp;Sheet1!T253&amp;""&amp;Sheet1!U253&amp;""&amp;Sheet1!V253&amp;""&amp;Sheet1!W253&amp;""&amp;Sheet1!X253&amp;""&amp;Sheet1!Y253&amp;""&amp;Sheet1!Z253</f>
+        <v>&lt;li class="name"&gt;253&lt;form id="formLoc274"&gt; &lt;input type="hidden" id="nameLoc274"class="name"  value="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/253.jpeg"&gt;&lt;input type="hidden" id="cnameLoc274"class="name"  value="{{name}}"&gt; &lt;input type="number" id="descLoc148"   placeholder=" QTY "  required&gt;&lt;input onclick="launch_notification();this.value='ADDED ✅'" type="submit" value="SEND"/&gt;&lt;/form&gt;
+&lt;img src="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/253" loading="lazy" width="400" height="400"&gt;  &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1">
+      <c r="A254" t="str">
+        <f>Sheet1!A254&amp;""&amp;Sheet1!B254&amp;""&amp;Sheet1!C254&amp;""&amp;Sheet1!D254&amp;""&amp;Sheet1!E254&amp;""&amp;Sheet1!F254&amp;""&amp;Sheet1!G254&amp;""&amp;Sheet1!H254&amp;""&amp;Sheet1!I254&amp;""&amp;Sheet1!J254&amp;""&amp;Sheet1!K254&amp;""&amp;Sheet1!L254&amp;""&amp;Sheet1!M254&amp;""&amp;Sheet1!N254&amp;""&amp;Sheet1!O254&amp;""&amp;Sheet1!P254&amp;""&amp;Sheet1!Q254&amp;""&amp;Sheet1!R254&amp;""&amp;Sheet1!S254&amp;""&amp;Sheet1!T254&amp;""&amp;Sheet1!U254&amp;""&amp;Sheet1!V254&amp;""&amp;Sheet1!W254&amp;""&amp;Sheet1!X254&amp;""&amp;Sheet1!Y254&amp;""&amp;Sheet1!Z254</f>
+        <v>&lt;li class="name"&gt;254&lt;form id="formLoc275"&gt; &lt;input type="hidden" id="nameLoc275"class="name"  value="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/254.jpeg"&gt;&lt;input type="hidden" id="cnameLoc275"class="name"  value="{{name}}"&gt; &lt;input type="number" id="descLoc149"   placeholder=" QTY "  required&gt;&lt;input onclick="launch_notification();this.value='ADDED ✅'" type="submit" value="SEND"/&gt;&lt;/form&gt;
+&lt;img src="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/254" loading="lazy" width="400" height="400"&gt;  &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1">
+      <c r="A255" t="str">
+        <f>Sheet1!A255&amp;""&amp;Sheet1!B255&amp;""&amp;Sheet1!C255&amp;""&amp;Sheet1!D255&amp;""&amp;Sheet1!E255&amp;""&amp;Sheet1!F255&amp;""&amp;Sheet1!G255&amp;""&amp;Sheet1!H255&amp;""&amp;Sheet1!I255&amp;""&amp;Sheet1!J255&amp;""&amp;Sheet1!K255&amp;""&amp;Sheet1!L255&amp;""&amp;Sheet1!M255&amp;""&amp;Sheet1!N255&amp;""&amp;Sheet1!O255&amp;""&amp;Sheet1!P255&amp;""&amp;Sheet1!Q255&amp;""&amp;Sheet1!R255&amp;""&amp;Sheet1!S255&amp;""&amp;Sheet1!T255&amp;""&amp;Sheet1!U255&amp;""&amp;Sheet1!V255&amp;""&amp;Sheet1!W255&amp;""&amp;Sheet1!X255&amp;""&amp;Sheet1!Y255&amp;""&amp;Sheet1!Z255</f>
+        <v>&lt;li class="name"&gt;255&lt;form id="formLoc276"&gt; &lt;input type="hidden" id="nameLoc276"class="name"  value="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/255.jpeg"&gt;&lt;input type="hidden" id="cnameLoc276"class="name"  value="{{name}}"&gt; &lt;input type="number" id="descLoc149"   placeholder=" QTY "  required&gt;&lt;input onclick="launch_notification();this.value='ADDED ✅'" type="submit" value="SEND"/&gt;&lt;/form&gt;
+&lt;img src="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/255" loading="lazy" width="400" height="400"&gt;  &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="256" spans="1:1">
+      <c r="A256" t="str">
+        <f>Sheet1!A256&amp;""&amp;Sheet1!B256&amp;""&amp;Sheet1!C256&amp;""&amp;Sheet1!D256&amp;""&amp;Sheet1!E256&amp;""&amp;Sheet1!F256&amp;""&amp;Sheet1!G256&amp;""&amp;Sheet1!H256&amp;""&amp;Sheet1!I256&amp;""&amp;Sheet1!J256&amp;""&amp;Sheet1!K256&amp;""&amp;Sheet1!L256&amp;""&amp;Sheet1!M256&amp;""&amp;Sheet1!N256&amp;""&amp;Sheet1!O256&amp;""&amp;Sheet1!P256&amp;""&amp;Sheet1!Q256&amp;""&amp;Sheet1!R256&amp;""&amp;Sheet1!S256&amp;""&amp;Sheet1!T256&amp;""&amp;Sheet1!U256&amp;""&amp;Sheet1!V256&amp;""&amp;Sheet1!W256&amp;""&amp;Sheet1!X256&amp;""&amp;Sheet1!Y256&amp;""&amp;Sheet1!Z256</f>
+        <v>&lt;li class="name"&gt;256&lt;form id="formLoc277"&gt; &lt;input type="hidden" id="nameLoc277"class="name"  value="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/256.jpeg"&gt;&lt;input type="hidden" id="cnameLoc277"class="name"  value="{{name}}"&gt; &lt;input type="number" id="descLoc150"   placeholder=" QTY "  required&gt;&lt;input onclick="launch_notification();this.value='ADDED ✅'" type="submit" value="SEND"/&gt;&lt;/form&gt;
+&lt;img src="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/256" loading="lazy" width="400" height="400"&gt;  &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1">
+      <c r="A257" t="str">
+        <f>Sheet1!A257&amp;""&amp;Sheet1!B257&amp;""&amp;Sheet1!C257&amp;""&amp;Sheet1!D257&amp;""&amp;Sheet1!E257&amp;""&amp;Sheet1!F257&amp;""&amp;Sheet1!G257&amp;""&amp;Sheet1!H257&amp;""&amp;Sheet1!I257&amp;""&amp;Sheet1!J257&amp;""&amp;Sheet1!K257&amp;""&amp;Sheet1!L257&amp;""&amp;Sheet1!M257&amp;""&amp;Sheet1!N257&amp;""&amp;Sheet1!O257&amp;""&amp;Sheet1!P257&amp;""&amp;Sheet1!Q257&amp;""&amp;Sheet1!R257&amp;""&amp;Sheet1!S257&amp;""&amp;Sheet1!T257&amp;""&amp;Sheet1!U257&amp;""&amp;Sheet1!V257&amp;""&amp;Sheet1!W257&amp;""&amp;Sheet1!X257&amp;""&amp;Sheet1!Y257&amp;""&amp;Sheet1!Z257</f>
+        <v>&lt;li class="name"&gt;257&lt;form id="formLoc278"&gt; &lt;input type="hidden" id="nameLoc278"class="name"  value="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/257.jpeg"&gt;&lt;input type="hidden" id="cnameLoc278"class="name"  value="{{name}}"&gt; &lt;input type="number" id="descLoc150"   placeholder=" QTY "  required&gt;&lt;input onclick="launch_notification();this.value='ADDED ✅'" type="submit" value="SEND"/&gt;&lt;/form&gt;
+&lt;img src="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/257" loading="lazy" width="400" height="400"&gt;  &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="258" spans="1:1">
+      <c r="A258" t="str">
+        <f>Sheet1!A258&amp;""&amp;Sheet1!B258&amp;""&amp;Sheet1!C258&amp;""&amp;Sheet1!D258&amp;""&amp;Sheet1!E258&amp;""&amp;Sheet1!F258&amp;""&amp;Sheet1!G258&amp;""&amp;Sheet1!H258&amp;""&amp;Sheet1!I258&amp;""&amp;Sheet1!J258&amp;""&amp;Sheet1!K258&amp;""&amp;Sheet1!L258&amp;""&amp;Sheet1!M258&amp;""&amp;Sheet1!N258&amp;""&amp;Sheet1!O258&amp;""&amp;Sheet1!P258&amp;""&amp;Sheet1!Q258&amp;""&amp;Sheet1!R258&amp;""&amp;Sheet1!S258&amp;""&amp;Sheet1!T258&amp;""&amp;Sheet1!U258&amp;""&amp;Sheet1!V258&amp;""&amp;Sheet1!W258&amp;""&amp;Sheet1!X258&amp;""&amp;Sheet1!Y258&amp;""&amp;Sheet1!Z258</f>
+        <v>&lt;li class="name"&gt;258&lt;form id="formLoc279"&gt; &lt;input type="hidden" id="nameLoc279"class="name"  value="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/258.jpeg"&gt;&lt;input type="hidden" id="cnameLoc279"class="name"  value="{{name}}"&gt; &lt;input type="number" id="descLoc151"   placeholder=" QTY "  required&gt;&lt;input onclick="launch_notification();this.value='ADDED ✅'" type="submit" value="SEND"/&gt;&lt;/form&gt;
+&lt;img src="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/258" loading="lazy" width="400" height="400"&gt;  &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="259" spans="1:1">
+      <c r="A259" t="str">
+        <f>Sheet1!A259&amp;""&amp;Sheet1!B259&amp;""&amp;Sheet1!C259&amp;""&amp;Sheet1!D259&amp;""&amp;Sheet1!E259&amp;""&amp;Sheet1!F259&amp;""&amp;Sheet1!G259&amp;""&amp;Sheet1!H259&amp;""&amp;Sheet1!I259&amp;""&amp;Sheet1!J259&amp;""&amp;Sheet1!K259&amp;""&amp;Sheet1!L259&amp;""&amp;Sheet1!M259&amp;""&amp;Sheet1!N259&amp;""&amp;Sheet1!O259&amp;""&amp;Sheet1!P259&amp;""&amp;Sheet1!Q259&amp;""&amp;Sheet1!R259&amp;""&amp;Sheet1!S259&amp;""&amp;Sheet1!T259&amp;""&amp;Sheet1!U259&amp;""&amp;Sheet1!V259&amp;""&amp;Sheet1!W259&amp;""&amp;Sheet1!X259&amp;""&amp;Sheet1!Y259&amp;""&amp;Sheet1!Z259</f>
+        <v>&lt;li class="name"&gt;259&lt;form id="formLoc280"&gt; &lt;input type="hidden" id="nameLoc280"class="name"  value="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/259.jpeg"&gt;&lt;input type="hidden" id="cnameLoc280"class="name"  value="{{name}}"&gt; &lt;input type="number" id="descLoc151"   placeholder=" QTY "  required&gt;&lt;input onclick="launch_notification();this.value='ADDED ✅'" type="submit" value="SEND"/&gt;&lt;/form&gt;
+&lt;img src="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/259" loading="lazy" width="400" height="400"&gt;  &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="260" spans="1:1">
+      <c r="A260" t="str">
+        <f>Sheet1!A260&amp;""&amp;Sheet1!B260&amp;""&amp;Sheet1!C260&amp;""&amp;Sheet1!D260&amp;""&amp;Sheet1!E260&amp;""&amp;Sheet1!F260&amp;""&amp;Sheet1!G260&amp;""&amp;Sheet1!H260&amp;""&amp;Sheet1!I260&amp;""&amp;Sheet1!J260&amp;""&amp;Sheet1!K260&amp;""&amp;Sheet1!L260&amp;""&amp;Sheet1!M260&amp;""&amp;Sheet1!N260&amp;""&amp;Sheet1!O260&amp;""&amp;Sheet1!P260&amp;""&amp;Sheet1!Q260&amp;""&amp;Sheet1!R260&amp;""&amp;Sheet1!S260&amp;""&amp;Sheet1!T260&amp;""&amp;Sheet1!U260&amp;""&amp;Sheet1!V260&amp;""&amp;Sheet1!W260&amp;""&amp;Sheet1!X260&amp;""&amp;Sheet1!Y260&amp;""&amp;Sheet1!Z260</f>
+        <v>&lt;li class="name"&gt;260&lt;form id="formLoc281"&gt; &lt;input type="hidden" id="nameLoc281"class="name"  value="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/260.jpeg"&gt;&lt;input type="hidden" id="cnameLoc281"class="name"  value="{{name}}"&gt; &lt;input type="number" id="descLoc152"   placeholder=" QTY "  required&gt;&lt;input onclick="launch_notification();this.value='ADDED ✅'" type="submit" value="SEND"/&gt;&lt;/form&gt;
+&lt;img src="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/260" loading="lazy" width="400" height="400"&gt;  &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="261" spans="1:1">
+      <c r="A261" t="str">
+        <f>Sheet1!A261&amp;""&amp;Sheet1!B261&amp;""&amp;Sheet1!C261&amp;""&amp;Sheet1!D261&amp;""&amp;Sheet1!E261&amp;""&amp;Sheet1!F261&amp;""&amp;Sheet1!G261&amp;""&amp;Sheet1!H261&amp;""&amp;Sheet1!I261&amp;""&amp;Sheet1!J261&amp;""&amp;Sheet1!K261&amp;""&amp;Sheet1!L261&amp;""&amp;Sheet1!M261&amp;""&amp;Sheet1!N261&amp;""&amp;Sheet1!O261&amp;""&amp;Sheet1!P261&amp;""&amp;Sheet1!Q261&amp;""&amp;Sheet1!R261&amp;""&amp;Sheet1!S261&amp;""&amp;Sheet1!T261&amp;""&amp;Sheet1!U261&amp;""&amp;Sheet1!V261&amp;""&amp;Sheet1!W261&amp;""&amp;Sheet1!X261&amp;""&amp;Sheet1!Y261&amp;""&amp;Sheet1!Z261</f>
+        <v>&lt;li class="name"&gt;261&lt;form id="formLoc282"&gt; &lt;input type="hidden" id="nameLoc282"class="name"  value="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/261.jpeg"&gt;&lt;input type="hidden" id="cnameLoc282"class="name"  value="{{name}}"&gt; &lt;input type="number" id="descLoc152"   placeholder=" QTY "  required&gt;&lt;input onclick="launch_notification();this.value='ADDED ✅'" type="submit" value="SEND"/&gt;&lt;/form&gt;
+&lt;img src="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/261" loading="lazy" width="400" height="400"&gt;  &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="262" spans="1:1">
+      <c r="A262" t="str">
+        <f>Sheet1!A262&amp;""&amp;Sheet1!B262&amp;""&amp;Sheet1!C262&amp;""&amp;Sheet1!D262&amp;""&amp;Sheet1!E262&amp;""&amp;Sheet1!F262&amp;""&amp;Sheet1!G262&amp;""&amp;Sheet1!H262&amp;""&amp;Sheet1!I262&amp;""&amp;Sheet1!J262&amp;""&amp;Sheet1!K262&amp;""&amp;Sheet1!L262&amp;""&amp;Sheet1!M262&amp;""&amp;Sheet1!N262&amp;""&amp;Sheet1!O262&amp;""&amp;Sheet1!P262&amp;""&amp;Sheet1!Q262&amp;""&amp;Sheet1!R262&amp;""&amp;Sheet1!S262&amp;""&amp;Sheet1!T262&amp;""&amp;Sheet1!U262&amp;""&amp;Sheet1!V262&amp;""&amp;Sheet1!W262&amp;""&amp;Sheet1!X262&amp;""&amp;Sheet1!Y262&amp;""&amp;Sheet1!Z262</f>
+        <v>&lt;li class="name"&gt;262&lt;form id="formLoc283"&gt; &lt;input type="hidden" id="nameLoc283"class="name"  value="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/262.jpeg"&gt;&lt;input type="hidden" id="cnameLoc283"class="name"  value="{{name}}"&gt; &lt;input type="number" id="descLoc153"   placeholder=" QTY "  required&gt;&lt;input onclick="launch_notification();this.value='ADDED ✅'" type="submit" value="SEND"/&gt;&lt;/form&gt;
+&lt;img src="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/262" loading="lazy" width="400" height="400"&gt;  &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="263" spans="1:1">
+      <c r="A263" t="str">
+        <f>Sheet1!A263&amp;""&amp;Sheet1!B263&amp;""&amp;Sheet1!C263&amp;""&amp;Sheet1!D263&amp;""&amp;Sheet1!E263&amp;""&amp;Sheet1!F263&amp;""&amp;Sheet1!G263&amp;""&amp;Sheet1!H263&amp;""&amp;Sheet1!I263&amp;""&amp;Sheet1!J263&amp;""&amp;Sheet1!K263&amp;""&amp;Sheet1!L263&amp;""&amp;Sheet1!M263&amp;""&amp;Sheet1!N263&amp;""&amp;Sheet1!O263&amp;""&amp;Sheet1!P263&amp;""&amp;Sheet1!Q263&amp;""&amp;Sheet1!R263&amp;""&amp;Sheet1!S263&amp;""&amp;Sheet1!T263&amp;""&amp;Sheet1!U263&amp;""&amp;Sheet1!V263&amp;""&amp;Sheet1!W263&amp;""&amp;Sheet1!X263&amp;""&amp;Sheet1!Y263&amp;""&amp;Sheet1!Z263</f>
+        <v>&lt;li class="name"&gt;263&lt;form id="formLoc284"&gt; &lt;input type="hidden" id="nameLoc284"class="name"  value="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/263.jpeg"&gt;&lt;input type="hidden" id="cnameLoc284"class="name"  value="{{name}}"&gt; &lt;input type="number" id="descLoc153"   placeholder=" QTY "  required&gt;&lt;input onclick="launch_notification();this.value='ADDED ✅'" type="submit" value="SEND"/&gt;&lt;/form&gt;
+&lt;img src="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/263" loading="lazy" width="400" height="400"&gt;  &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="264" spans="1:1">
+      <c r="A264" t="str">
+        <f>Sheet1!A264&amp;""&amp;Sheet1!B264&amp;""&amp;Sheet1!C264&amp;""&amp;Sheet1!D264&amp;""&amp;Sheet1!E264&amp;""&amp;Sheet1!F264&amp;""&amp;Sheet1!G264&amp;""&amp;Sheet1!H264&amp;""&amp;Sheet1!I264&amp;""&amp;Sheet1!J264&amp;""&amp;Sheet1!K264&amp;""&amp;Sheet1!L264&amp;""&amp;Sheet1!M264&amp;""&amp;Sheet1!N264&amp;""&amp;Sheet1!O264&amp;""&amp;Sheet1!P264&amp;""&amp;Sheet1!Q264&amp;""&amp;Sheet1!R264&amp;""&amp;Sheet1!S264&amp;""&amp;Sheet1!T264&amp;""&amp;Sheet1!U264&amp;""&amp;Sheet1!V264&amp;""&amp;Sheet1!W264&amp;""&amp;Sheet1!X264&amp;""&amp;Sheet1!Y264&amp;""&amp;Sheet1!Z264</f>
+        <v>&lt;li class="name"&gt;264&lt;form id="formLoc285"&gt; &lt;input type="hidden" id="nameLoc285"class="name"  value="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/264.jpeg"&gt;&lt;input type="hidden" id="cnameLoc285"class="name"  value="{{name}}"&gt; &lt;input type="number" id="descLoc154"   placeholder=" QTY "  required&gt;&lt;input onclick="launch_notification();this.value='ADDED ✅'" type="submit" value="SEND"/&gt;&lt;/form&gt;
+&lt;img src="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/264" loading="lazy" width="400" height="400"&gt;  &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="265" spans="1:1">
+      <c r="A265" t="str">
+        <f>Sheet1!A265&amp;""&amp;Sheet1!B265&amp;""&amp;Sheet1!C265&amp;""&amp;Sheet1!D265&amp;""&amp;Sheet1!E265&amp;""&amp;Sheet1!F265&amp;""&amp;Sheet1!G265&amp;""&amp;Sheet1!H265&amp;""&amp;Sheet1!I265&amp;""&amp;Sheet1!J265&amp;""&amp;Sheet1!K265&amp;""&amp;Sheet1!L265&amp;""&amp;Sheet1!M265&amp;""&amp;Sheet1!N265&amp;""&amp;Sheet1!O265&amp;""&amp;Sheet1!P265&amp;""&amp;Sheet1!Q265&amp;""&amp;Sheet1!R265&amp;""&amp;Sheet1!S265&amp;""&amp;Sheet1!T265&amp;""&amp;Sheet1!U265&amp;""&amp;Sheet1!V265&amp;""&amp;Sheet1!W265&amp;""&amp;Sheet1!X265&amp;""&amp;Sheet1!Y265&amp;""&amp;Sheet1!Z265</f>
+        <v>&lt;li class="name"&gt;265&lt;form id="formLoc286"&gt; &lt;input type="hidden" id="nameLoc286"class="name"  value="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/265.jpeg"&gt;&lt;input type="hidden" id="cnameLoc286"class="name"  value="{{name}}"&gt; &lt;input type="number" id="descLoc154"   placeholder=" QTY "  required&gt;&lt;input onclick="launch_notification();this.value='ADDED ✅'" type="submit" value="SEND"/&gt;&lt;/form&gt;
+&lt;img src="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/265" loading="lazy" width="400" height="400"&gt;  &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="266" spans="1:1">
+      <c r="A266" t="str">
+        <f>Sheet1!A266&amp;""&amp;Sheet1!B266&amp;""&amp;Sheet1!C266&amp;""&amp;Sheet1!D266&amp;""&amp;Sheet1!E266&amp;""&amp;Sheet1!F266&amp;""&amp;Sheet1!G266&amp;""&amp;Sheet1!H266&amp;""&amp;Sheet1!I266&amp;""&amp;Sheet1!J266&amp;""&amp;Sheet1!K266&amp;""&amp;Sheet1!L266&amp;""&amp;Sheet1!M266&amp;""&amp;Sheet1!N266&amp;""&amp;Sheet1!O266&amp;""&amp;Sheet1!P266&amp;""&amp;Sheet1!Q266&amp;""&amp;Sheet1!R266&amp;""&amp;Sheet1!S266&amp;""&amp;Sheet1!T266&amp;""&amp;Sheet1!U266&amp;""&amp;Sheet1!V266&amp;""&amp;Sheet1!W266&amp;""&amp;Sheet1!X266&amp;""&amp;Sheet1!Y266&amp;""&amp;Sheet1!Z266</f>
+        <v>&lt;li class="name"&gt;266&lt;form id="formLoc287"&gt; &lt;input type="hidden" id="nameLoc287"class="name"  value="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/266.jpeg"&gt;&lt;input type="hidden" id="cnameLoc287"class="name"  value="{{name}}"&gt; &lt;input type="number" id="descLoc155"   placeholder=" QTY "  required&gt;&lt;input onclick="launch_notification();this.value='ADDED ✅'" type="submit" value="SEND"/&gt;&lt;/form&gt;
+&lt;img src="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/266" loading="lazy" width="400" height="400"&gt;  &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="267" spans="1:1">
+      <c r="A267" t="str">
+        <f>Sheet1!A267&amp;""&amp;Sheet1!B267&amp;""&amp;Sheet1!C267&amp;""&amp;Sheet1!D267&amp;""&amp;Sheet1!E267&amp;""&amp;Sheet1!F267&amp;""&amp;Sheet1!G267&amp;""&amp;Sheet1!H267&amp;""&amp;Sheet1!I267&amp;""&amp;Sheet1!J267&amp;""&amp;Sheet1!K267&amp;""&amp;Sheet1!L267&amp;""&amp;Sheet1!M267&amp;""&amp;Sheet1!N267&amp;""&amp;Sheet1!O267&amp;""&amp;Sheet1!P267&amp;""&amp;Sheet1!Q267&amp;""&amp;Sheet1!R267&amp;""&amp;Sheet1!S267&amp;""&amp;Sheet1!T267&amp;""&amp;Sheet1!U267&amp;""&amp;Sheet1!V267&amp;""&amp;Sheet1!W267&amp;""&amp;Sheet1!X267&amp;""&amp;Sheet1!Y267&amp;""&amp;Sheet1!Z267</f>
+        <v>&lt;li class="name"&gt;267&lt;form id="formLoc288"&gt; &lt;input type="hidden" id="nameLoc288"class="name"  value="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/267.jpeg"&gt;&lt;input type="hidden" id="cnameLoc288"class="name"  value="{{name}}"&gt; &lt;input type="number" id="descLoc155"   placeholder=" QTY "  required&gt;&lt;input onclick="launch_notification();this.value='ADDED ✅'" type="submit" value="SEND"/&gt;&lt;/form&gt;
+&lt;img src="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/267" loading="lazy" width="400" height="400"&gt;  &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="268" spans="1:1">
+      <c r="A268" t="str">
+        <f>Sheet1!A268&amp;""&amp;Sheet1!B268&amp;""&amp;Sheet1!C268&amp;""&amp;Sheet1!D268&amp;""&amp;Sheet1!E268&amp;""&amp;Sheet1!F268&amp;""&amp;Sheet1!G268&amp;""&amp;Sheet1!H268&amp;""&amp;Sheet1!I268&amp;""&amp;Sheet1!J268&amp;""&amp;Sheet1!K268&amp;""&amp;Sheet1!L268&amp;""&amp;Sheet1!M268&amp;""&amp;Sheet1!N268&amp;""&amp;Sheet1!O268&amp;""&amp;Sheet1!P268&amp;""&amp;Sheet1!Q268&amp;""&amp;Sheet1!R268&amp;""&amp;Sheet1!S268&amp;""&amp;Sheet1!T268&amp;""&amp;Sheet1!U268&amp;""&amp;Sheet1!V268&amp;""&amp;Sheet1!W268&amp;""&amp;Sheet1!X268&amp;""&amp;Sheet1!Y268&amp;""&amp;Sheet1!Z268</f>
+        <v>&lt;li class="name"&gt;268&lt;form id="formLoc289"&gt; &lt;input type="hidden" id="nameLoc289"class="name"  value="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/268.jpeg"&gt;&lt;input type="hidden" id="cnameLoc289"class="name"  value="{{name}}"&gt; &lt;input type="number" id="descLoc156"   placeholder=" QTY "  required&gt;&lt;input onclick="launch_notification();this.value='ADDED ✅'" type="submit" value="SEND"/&gt;&lt;/form&gt;
+&lt;img src="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/268" loading="lazy" width="400" height="400"&gt;  &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="269" spans="1:1">
+      <c r="A269" t="str">
+        <f>Sheet1!A269&amp;""&amp;Sheet1!B269&amp;""&amp;Sheet1!C269&amp;""&amp;Sheet1!D269&amp;""&amp;Sheet1!E269&amp;""&amp;Sheet1!F269&amp;""&amp;Sheet1!G269&amp;""&amp;Sheet1!H269&amp;""&amp;Sheet1!I269&amp;""&amp;Sheet1!J269&amp;""&amp;Sheet1!K269&amp;""&amp;Sheet1!L269&amp;""&amp;Sheet1!M269&amp;""&amp;Sheet1!N269&amp;""&amp;Sheet1!O269&amp;""&amp;Sheet1!P269&amp;""&amp;Sheet1!Q269&amp;""&amp;Sheet1!R269&amp;""&amp;Sheet1!S269&amp;""&amp;Sheet1!T269&amp;""&amp;Sheet1!U269&amp;""&amp;Sheet1!V269&amp;""&amp;Sheet1!W269&amp;""&amp;Sheet1!X269&amp;""&amp;Sheet1!Y269&amp;""&amp;Sheet1!Z269</f>
+        <v>&lt;li class="name"&gt;269&lt;form id="formLoc290"&gt; &lt;input type="hidden" id="nameLoc290"class="name"  value="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/269.jpeg"&gt;&lt;input type="hidden" id="cnameLoc290"class="name"  value="{{name}}"&gt; &lt;input type="number" id="descLoc156"   placeholder=" QTY "  required&gt;&lt;input onclick="launch_notification();this.value='ADDED ✅'" type="submit" value="SEND"/&gt;&lt;/form&gt;
+&lt;img src="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/269" loading="lazy" width="400" height="400"&gt;  &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="270" spans="1:1">
+      <c r="A270" t="str">
+        <f>Sheet1!A270&amp;""&amp;Sheet1!B270&amp;""&amp;Sheet1!C270&amp;""&amp;Sheet1!D270&amp;""&amp;Sheet1!E270&amp;""&amp;Sheet1!F270&amp;""&amp;Sheet1!G270&amp;""&amp;Sheet1!H270&amp;""&amp;Sheet1!I270&amp;""&amp;Sheet1!J270&amp;""&amp;Sheet1!K270&amp;""&amp;Sheet1!L270&amp;""&amp;Sheet1!M270&amp;""&amp;Sheet1!N270&amp;""&amp;Sheet1!O270&amp;""&amp;Sheet1!P270&amp;""&amp;Sheet1!Q270&amp;""&amp;Sheet1!R270&amp;""&amp;Sheet1!S270&amp;""&amp;Sheet1!T270&amp;""&amp;Sheet1!U270&amp;""&amp;Sheet1!V270&amp;""&amp;Sheet1!W270&amp;""&amp;Sheet1!X270&amp;""&amp;Sheet1!Y270&amp;""&amp;Sheet1!Z270</f>
+        <v>&lt;li class="name"&gt;270&lt;form id="formLoc291"&gt; &lt;input type="hidden" id="nameLoc291"class="name"  value="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/270.jpeg"&gt;&lt;input type="hidden" id="cnameLoc291"class="name"  value="{{name}}"&gt; &lt;input type="number" id="descLoc157"   placeholder=" QTY "  required&gt;&lt;input onclick="launch_notification();this.value='ADDED ✅'" type="submit" value="SEND"/&gt;&lt;/form&gt;
+&lt;img src="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/270" loading="lazy" width="400" height="400"&gt;  &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="271" spans="1:1">
+      <c r="A271" t="str">
+        <f>Sheet1!A271&amp;""&amp;Sheet1!B271&amp;""&amp;Sheet1!C271&amp;""&amp;Sheet1!D271&amp;""&amp;Sheet1!E271&amp;""&amp;Sheet1!F271&amp;""&amp;Sheet1!G271&amp;""&amp;Sheet1!H271&amp;""&amp;Sheet1!I271&amp;""&amp;Sheet1!J271&amp;""&amp;Sheet1!K271&amp;""&amp;Sheet1!L271&amp;""&amp;Sheet1!M271&amp;""&amp;Sheet1!N271&amp;""&amp;Sheet1!O271&amp;""&amp;Sheet1!P271&amp;""&amp;Sheet1!Q271&amp;""&amp;Sheet1!R271&amp;""&amp;Sheet1!S271&amp;""&amp;Sheet1!T271&amp;""&amp;Sheet1!U271&amp;""&amp;Sheet1!V271&amp;""&amp;Sheet1!W271&amp;""&amp;Sheet1!X271&amp;""&amp;Sheet1!Y271&amp;""&amp;Sheet1!Z271</f>
+        <v>&lt;li class="name"&gt;271&lt;form id="formLoc292"&gt; &lt;input type="hidden" id="nameLoc292"class="name"  value="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/271.jpeg"&gt;&lt;input type="hidden" id="cnameLoc292"class="name"  value="{{name}}"&gt; &lt;input type="number" id="descLoc157"   placeholder=" QTY "  required&gt;&lt;input onclick="launch_notification();this.value='ADDED ✅'" type="submit" value="SEND"/&gt;&lt;/form&gt;
+&lt;img src="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/271" loading="lazy" width="400" height="400"&gt;  &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="272" spans="1:1">
+      <c r="A272" t="str">
+        <f>Sheet1!A272&amp;""&amp;Sheet1!B272&amp;""&amp;Sheet1!C272&amp;""&amp;Sheet1!D272&amp;""&amp;Sheet1!E272&amp;""&amp;Sheet1!F272&amp;""&amp;Sheet1!G272&amp;""&amp;Sheet1!H272&amp;""&amp;Sheet1!I272&amp;""&amp;Sheet1!J272&amp;""&amp;Sheet1!K272&amp;""&amp;Sheet1!L272&amp;""&amp;Sheet1!M272&amp;""&amp;Sheet1!N272&amp;""&amp;Sheet1!O272&amp;""&amp;Sheet1!P272&amp;""&amp;Sheet1!Q272&amp;""&amp;Sheet1!R272&amp;""&amp;Sheet1!S272&amp;""&amp;Sheet1!T272&amp;""&amp;Sheet1!U272&amp;""&amp;Sheet1!V272&amp;""&amp;Sheet1!W272&amp;""&amp;Sheet1!X272&amp;""&amp;Sheet1!Y272&amp;""&amp;Sheet1!Z272</f>
+        <v>&lt;li class="name"&gt;272&lt;form id="formLoc293"&gt; &lt;input type="hidden" id="nameLoc293"class="name"  value="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/272.jpeg"&gt;&lt;input type="hidden" id="cnameLoc293"class="name"  value="{{name}}"&gt; &lt;input type="number" id="descLoc158"   placeholder=" QTY "  required&gt;&lt;input onclick="launch_notification();this.value='ADDED ✅'" type="submit" value="SEND"/&gt;&lt;/form&gt;
+&lt;img src="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/272" loading="lazy" width="400" height="400"&gt;  &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="273" spans="1:1">
+      <c r="A273" t="str">
+        <f>Sheet1!A273&amp;""&amp;Sheet1!B273&amp;""&amp;Sheet1!C273&amp;""&amp;Sheet1!D273&amp;""&amp;Sheet1!E273&amp;""&amp;Sheet1!F273&amp;""&amp;Sheet1!G273&amp;""&amp;Sheet1!H273&amp;""&amp;Sheet1!I273&amp;""&amp;Sheet1!J273&amp;""&amp;Sheet1!K273&amp;""&amp;Sheet1!L273&amp;""&amp;Sheet1!M273&amp;""&amp;Sheet1!N273&amp;""&amp;Sheet1!O273&amp;""&amp;Sheet1!P273&amp;""&amp;Sheet1!Q273&amp;""&amp;Sheet1!R273&amp;""&amp;Sheet1!S273&amp;""&amp;Sheet1!T273&amp;""&amp;Sheet1!U273&amp;""&amp;Sheet1!V273&amp;""&amp;Sheet1!W273&amp;""&amp;Sheet1!X273&amp;""&amp;Sheet1!Y273&amp;""&amp;Sheet1!Z273</f>
+        <v>&lt;li class="name"&gt;273&lt;form id="formLoc294"&gt; &lt;input type="hidden" id="nameLoc294"class="name"  value="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/273.jpeg"&gt;&lt;input type="hidden" id="cnameLoc294"class="name"  value="{{name}}"&gt; &lt;input type="number" id="descLoc158"   placeholder=" QTY "  required&gt;&lt;input onclick="launch_notification();this.value='ADDED ✅'" type="submit" value="SEND"/&gt;&lt;/form&gt;
+&lt;img src="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/273" loading="lazy" width="400" height="400"&gt;  &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="274" spans="1:1">
+      <c r="A274" t="str">
+        <f>Sheet1!A274&amp;""&amp;Sheet1!B274&amp;""&amp;Sheet1!C274&amp;""&amp;Sheet1!D274&amp;""&amp;Sheet1!E274&amp;""&amp;Sheet1!F274&amp;""&amp;Sheet1!G274&amp;""&amp;Sheet1!H274&amp;""&amp;Sheet1!I274&amp;""&amp;Sheet1!J274&amp;""&amp;Sheet1!K274&amp;""&amp;Sheet1!L274&amp;""&amp;Sheet1!M274&amp;""&amp;Sheet1!N274&amp;""&amp;Sheet1!O274&amp;""&amp;Sheet1!P274&amp;""&amp;Sheet1!Q274&amp;""&amp;Sheet1!R274&amp;""&amp;Sheet1!S274&amp;""&amp;Sheet1!T274&amp;""&amp;Sheet1!U274&amp;""&amp;Sheet1!V274&amp;""&amp;Sheet1!W274&amp;""&amp;Sheet1!X274&amp;""&amp;Sheet1!Y274&amp;""&amp;Sheet1!Z274</f>
+        <v>&lt;li class="name"&gt;274&lt;form id="formLoc295"&gt; &lt;input type="hidden" id="nameLoc295"class="name"  value="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/274.jpeg"&gt;&lt;input type="hidden" id="cnameLoc295"class="name"  value="{{name}}"&gt; &lt;input type="number" id="descLoc159"   placeholder=" QTY "  required&gt;&lt;input onclick="launch_notification();this.value='ADDED ✅'" type="submit" value="SEND"/&gt;&lt;/form&gt;
+&lt;img src="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/274" loading="lazy" width="400" height="400"&gt;  &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="275" spans="1:1">
+      <c r="A275" t="str">
+        <f>Sheet1!A275&amp;""&amp;Sheet1!B275&amp;""&amp;Sheet1!C275&amp;""&amp;Sheet1!D275&amp;""&amp;Sheet1!E275&amp;""&amp;Sheet1!F275&amp;""&amp;Sheet1!G275&amp;""&amp;Sheet1!H275&amp;""&amp;Sheet1!I275&amp;""&amp;Sheet1!J275&amp;""&amp;Sheet1!K275&amp;""&amp;Sheet1!L275&amp;""&amp;Sheet1!M275&amp;""&amp;Sheet1!N275&amp;""&amp;Sheet1!O275&amp;""&amp;Sheet1!P275&amp;""&amp;Sheet1!Q275&amp;""&amp;Sheet1!R275&amp;""&amp;Sheet1!S275&amp;""&amp;Sheet1!T275&amp;""&amp;Sheet1!U275&amp;""&amp;Sheet1!V275&amp;""&amp;Sheet1!W275&amp;""&amp;Sheet1!X275&amp;""&amp;Sheet1!Y275&amp;""&amp;Sheet1!Z275</f>
+        <v>&lt;li class="name"&gt;275&lt;form id="formLoc296"&gt; &lt;input type="hidden" id="nameLoc296"class="name"  value="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/275.jpeg"&gt;&lt;input type="hidden" id="cnameLoc296"class="name"  value="{{name}}"&gt; &lt;input type="number" id="descLoc159"   placeholder=" QTY "  required&gt;&lt;input onclick="launch_notification();this.value='ADDED ✅'" type="submit" value="SEND"/&gt;&lt;/form&gt;
+&lt;img src="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/275" loading="lazy" width="400" height="400"&gt;  &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="276" spans="1:1">
+      <c r="A276" t="str">
+        <f>Sheet1!A276&amp;""&amp;Sheet1!B276&amp;""&amp;Sheet1!C276&amp;""&amp;Sheet1!D276&amp;""&amp;Sheet1!E276&amp;""&amp;Sheet1!F276&amp;""&amp;Sheet1!G276&amp;""&amp;Sheet1!H276&amp;""&amp;Sheet1!I276&amp;""&amp;Sheet1!J276&amp;""&amp;Sheet1!K276&amp;""&amp;Sheet1!L276&amp;""&amp;Sheet1!M276&amp;""&amp;Sheet1!N276&amp;""&amp;Sheet1!O276&amp;""&amp;Sheet1!P276&amp;""&amp;Sheet1!Q276&amp;""&amp;Sheet1!R276&amp;""&amp;Sheet1!S276&amp;""&amp;Sheet1!T276&amp;""&amp;Sheet1!U276&amp;""&amp;Sheet1!V276&amp;""&amp;Sheet1!W276&amp;""&amp;Sheet1!X276&amp;""&amp;Sheet1!Y276&amp;""&amp;Sheet1!Z276</f>
+        <v>&lt;li class="name"&gt;276&lt;form id="formLoc297"&gt; &lt;input type="hidden" id="nameLoc297"class="name"  value="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/276.jpeg"&gt;&lt;input type="hidden" id="cnameLoc297"class="name"  value="{{name}}"&gt; &lt;input type="number" id="descLoc160"   placeholder=" QTY "  required&gt;&lt;input onclick="launch_notification();this.value='ADDED ✅'" type="submit" value="SEND"/&gt;&lt;/form&gt;
+&lt;img src="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/276" loading="lazy" width="400" height="400"&gt;  &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="277" spans="1:1">
+      <c r="A277" t="str">
+        <f>Sheet1!A277&amp;""&amp;Sheet1!B277&amp;""&amp;Sheet1!C277&amp;""&amp;Sheet1!D277&amp;""&amp;Sheet1!E277&amp;""&amp;Sheet1!F277&amp;""&amp;Sheet1!G277&amp;""&amp;Sheet1!H277&amp;""&amp;Sheet1!I277&amp;""&amp;Sheet1!J277&amp;""&amp;Sheet1!K277&amp;""&amp;Sheet1!L277&amp;""&amp;Sheet1!M277&amp;""&amp;Sheet1!N277&amp;""&amp;Sheet1!O277&amp;""&amp;Sheet1!P277&amp;""&amp;Sheet1!Q277&amp;""&amp;Sheet1!R277&amp;""&amp;Sheet1!S277&amp;""&amp;Sheet1!T277&amp;""&amp;Sheet1!U277&amp;""&amp;Sheet1!V277&amp;""&amp;Sheet1!W277&amp;""&amp;Sheet1!X277&amp;""&amp;Sheet1!Y277&amp;""&amp;Sheet1!Z277</f>
+        <v>&lt;li class="name"&gt;277&lt;form id="formLoc298"&gt; &lt;input type="hidden" id="nameLoc298"class="name"  value="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/277.jpeg"&gt;&lt;input type="hidden" id="cnameLoc298"class="name"  value="{{name}}"&gt; &lt;input type="number" id="descLoc160"   placeholder=" QTY "  required&gt;&lt;input onclick="launch_notification();this.value='ADDED ✅'" type="submit" value="SEND"/&gt;&lt;/form&gt;
+&lt;img src="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/277" loading="lazy" width="400" height="400"&gt;  &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="278" spans="1:1">
+      <c r="A278" t="str">
+        <f>Sheet1!A278&amp;""&amp;Sheet1!B278&amp;""&amp;Sheet1!C278&amp;""&amp;Sheet1!D278&amp;""&amp;Sheet1!E278&amp;""&amp;Sheet1!F278&amp;""&amp;Sheet1!G278&amp;""&amp;Sheet1!H278&amp;""&amp;Sheet1!I278&amp;""&amp;Sheet1!J278&amp;""&amp;Sheet1!K278&amp;""&amp;Sheet1!L278&amp;""&amp;Sheet1!M278&amp;""&amp;Sheet1!N278&amp;""&amp;Sheet1!O278&amp;""&amp;Sheet1!P278&amp;""&amp;Sheet1!Q278&amp;""&amp;Sheet1!R278&amp;""&amp;Sheet1!S278&amp;""&amp;Sheet1!T278&amp;""&amp;Sheet1!U278&amp;""&amp;Sheet1!V278&amp;""&amp;Sheet1!W278&amp;""&amp;Sheet1!X278&amp;""&amp;Sheet1!Y278&amp;""&amp;Sheet1!Z278</f>
+        <v>&lt;li class="name"&gt;278&lt;form id="formLoc299"&gt; &lt;input type="hidden" id="nameLoc299"class="name"  value="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/278.jpeg"&gt;&lt;input type="hidden" id="cnameLoc299"class="name"  value="{{name}}"&gt; &lt;input type="number" id="descLoc161"   placeholder=" QTY "  required&gt;&lt;input onclick="launch_notification();this.value='ADDED ✅'" type="submit" value="SEND"/&gt;&lt;/form&gt;
+&lt;img src="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/278" loading="lazy" width="400" height="400"&gt;  &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="279" spans="1:1">
+      <c r="A279" t="str">
+        <f>Sheet1!A279&amp;""&amp;Sheet1!B279&amp;""&amp;Sheet1!C279&amp;""&amp;Sheet1!D279&amp;""&amp;Sheet1!E279&amp;""&amp;Sheet1!F279&amp;""&amp;Sheet1!G279&amp;""&amp;Sheet1!H279&amp;""&amp;Sheet1!I279&amp;""&amp;Sheet1!J279&amp;""&amp;Sheet1!K279&amp;""&amp;Sheet1!L279&amp;""&amp;Sheet1!M279&amp;""&amp;Sheet1!N279&amp;""&amp;Sheet1!O279&amp;""&amp;Sheet1!P279&amp;""&amp;Sheet1!Q279&amp;""&amp;Sheet1!R279&amp;""&amp;Sheet1!S279&amp;""&amp;Sheet1!T279&amp;""&amp;Sheet1!U279&amp;""&amp;Sheet1!V279&amp;""&amp;Sheet1!W279&amp;""&amp;Sheet1!X279&amp;""&amp;Sheet1!Y279&amp;""&amp;Sheet1!Z279</f>
+        <v>&lt;li class="name"&gt;279&lt;form id="formLoc300"&gt; &lt;input type="hidden" id="nameLoc300"class="name"  value="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/279.jpeg"&gt;&lt;input type="hidden" id="cnameLoc300"class="name"  value="{{name}}"&gt; &lt;input type="number" id="descLoc161"   placeholder=" QTY "  required&gt;&lt;input onclick="launch_notification();this.value='ADDED ✅'" type="submit" value="SEND"/&gt;&lt;/form&gt;
+&lt;img src="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/279" loading="lazy" width="400" height="400"&gt;  &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="280" spans="1:1">
+      <c r="A280" t="str">
+        <f>Sheet1!A280&amp;""&amp;Sheet1!B280&amp;""&amp;Sheet1!C280&amp;""&amp;Sheet1!D280&amp;""&amp;Sheet1!E280&amp;""&amp;Sheet1!F280&amp;""&amp;Sheet1!G280&amp;""&amp;Sheet1!H280&amp;""&amp;Sheet1!I280&amp;""&amp;Sheet1!J280&amp;""&amp;Sheet1!K280&amp;""&amp;Sheet1!L280&amp;""&amp;Sheet1!M280&amp;""&amp;Sheet1!N280&amp;""&amp;Sheet1!O280&amp;""&amp;Sheet1!P280&amp;""&amp;Sheet1!Q280&amp;""&amp;Sheet1!R280&amp;""&amp;Sheet1!S280&amp;""&amp;Sheet1!T280&amp;""&amp;Sheet1!U280&amp;""&amp;Sheet1!V280&amp;""&amp;Sheet1!W280&amp;""&amp;Sheet1!X280&amp;""&amp;Sheet1!Y280&amp;""&amp;Sheet1!Z280</f>
+        <v>&lt;li class="name"&gt;280&lt;form id="formLoc301"&gt; &lt;input type="hidden" id="nameLoc301"class="name"  value="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/280.jpeg"&gt;&lt;input type="hidden" id="cnameLoc301"class="name"  value="{{name}}"&gt; &lt;input type="number" id="descLoc162"   placeholder=" QTY "  required&gt;&lt;input onclick="launch_notification();this.value='ADDED ✅'" type="submit" value="SEND"/&gt;&lt;/form&gt;
+&lt;img src="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/280" loading="lazy" width="400" height="400"&gt;  &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="281" spans="1:1">
+      <c r="A281" t="str">
+        <f>Sheet1!A281&amp;""&amp;Sheet1!B281&amp;""&amp;Sheet1!C281&amp;""&amp;Sheet1!D281&amp;""&amp;Sheet1!E281&amp;""&amp;Sheet1!F281&amp;""&amp;Sheet1!G281&amp;""&amp;Sheet1!H281&amp;""&amp;Sheet1!I281&amp;""&amp;Sheet1!J281&amp;""&amp;Sheet1!K281&amp;""&amp;Sheet1!L281&amp;""&amp;Sheet1!M281&amp;""&amp;Sheet1!N281&amp;""&amp;Sheet1!O281&amp;""&amp;Sheet1!P281&amp;""&amp;Sheet1!Q281&amp;""&amp;Sheet1!R281&amp;""&amp;Sheet1!S281&amp;""&amp;Sheet1!T281&amp;""&amp;Sheet1!U281&amp;""&amp;Sheet1!V281&amp;""&amp;Sheet1!W281&amp;""&amp;Sheet1!X281&amp;""&amp;Sheet1!Y281&amp;""&amp;Sheet1!Z281</f>
+        <v>&lt;li class="name"&gt;281&lt;form id="formLoc302"&gt; &lt;input type="hidden" id="nameLoc302"class="name"  value="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/281.jpeg"&gt;&lt;input type="hidden" id="cnameLoc302"class="name"  value="{{name}}"&gt; &lt;input type="number" id="descLoc162"   placeholder=" QTY "  required&gt;&lt;input onclick="launch_notification();this.value='ADDED ✅'" type="submit" value="SEND"/&gt;&lt;/form&gt;
+&lt;img src="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/281" loading="lazy" width="400" height="400"&gt;  &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="282" spans="1:1">
+      <c r="A282" t="str">
+        <f>Sheet1!A282&amp;""&amp;Sheet1!B282&amp;""&amp;Sheet1!C282&amp;""&amp;Sheet1!D282&amp;""&amp;Sheet1!E282&amp;""&amp;Sheet1!F282&amp;""&amp;Sheet1!G282&amp;""&amp;Sheet1!H282&amp;""&amp;Sheet1!I282&amp;""&amp;Sheet1!J282&amp;""&amp;Sheet1!K282&amp;""&amp;Sheet1!L282&amp;""&amp;Sheet1!M282&amp;""&amp;Sheet1!N282&amp;""&amp;Sheet1!O282&amp;""&amp;Sheet1!P282&amp;""&amp;Sheet1!Q282&amp;""&amp;Sheet1!R282&amp;""&amp;Sheet1!S282&amp;""&amp;Sheet1!T282&amp;""&amp;Sheet1!U282&amp;""&amp;Sheet1!V282&amp;""&amp;Sheet1!W282&amp;""&amp;Sheet1!X282&amp;""&amp;Sheet1!Y282&amp;""&amp;Sheet1!Z282</f>
+        <v>&lt;li class="name"&gt;282&lt;form id="formLoc303"&gt; &lt;input type="hidden" id="nameLoc303"class="name"  value="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/282.jpeg"&gt;&lt;input type="hidden" id="cnameLoc303"class="name"  value="{{name}}"&gt; &lt;input type="number" id="descLoc163"   placeholder=" QTY "  required&gt;&lt;input onclick="launch_notification();this.value='ADDED ✅'" type="submit" value="SEND"/&gt;&lt;/form&gt;
+&lt;img src="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/282" loading="lazy" width="400" height="400"&gt;  &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="283" spans="1:1">
+      <c r="A283" t="str">
+        <f>Sheet1!A283&amp;""&amp;Sheet1!B283&amp;""&amp;Sheet1!C283&amp;""&amp;Sheet1!D283&amp;""&amp;Sheet1!E283&amp;""&amp;Sheet1!F283&amp;""&amp;Sheet1!G283&amp;""&amp;Sheet1!H283&amp;""&amp;Sheet1!I283&amp;""&amp;Sheet1!J283&amp;""&amp;Sheet1!K283&amp;""&amp;Sheet1!L283&amp;""&amp;Sheet1!M283&amp;""&amp;Sheet1!N283&amp;""&amp;Sheet1!O283&amp;""&amp;Sheet1!P283&amp;""&amp;Sheet1!Q283&amp;""&amp;Sheet1!R283&amp;""&amp;Sheet1!S283&amp;""&amp;Sheet1!T283&amp;""&amp;Sheet1!U283&amp;""&amp;Sheet1!V283&amp;""&amp;Sheet1!W283&amp;""&amp;Sheet1!X283&amp;""&amp;Sheet1!Y283&amp;""&amp;Sheet1!Z283</f>
+        <v>&lt;li class="name"&gt;283&lt;form id="formLoc304"&gt; &lt;input type="hidden" id="nameLoc304"class="name"  value="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/283.jpeg"&gt;&lt;input type="hidden" id="cnameLoc304"class="name"  value="{{name}}"&gt; &lt;input type="number" id="descLoc163"   placeholder=" QTY "  required&gt;&lt;input onclick="launch_notification();this.value='ADDED ✅'" type="submit" value="SEND"/&gt;&lt;/form&gt;
+&lt;img src="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/283" loading="lazy" width="400" height="400"&gt;  &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="284" spans="1:1">
+      <c r="A284" t="str">
+        <f>Sheet1!A284&amp;""&amp;Sheet1!B284&amp;""&amp;Sheet1!C284&amp;""&amp;Sheet1!D284&amp;""&amp;Sheet1!E284&amp;""&amp;Sheet1!F284&amp;""&amp;Sheet1!G284&amp;""&amp;Sheet1!H284&amp;""&amp;Sheet1!I284&amp;""&amp;Sheet1!J284&amp;""&amp;Sheet1!K284&amp;""&amp;Sheet1!L284&amp;""&amp;Sheet1!M284&amp;""&amp;Sheet1!N284&amp;""&amp;Sheet1!O284&amp;""&amp;Sheet1!P284&amp;""&amp;Sheet1!Q284&amp;""&amp;Sheet1!R284&amp;""&amp;Sheet1!S284&amp;""&amp;Sheet1!T284&amp;""&amp;Sheet1!U284&amp;""&amp;Sheet1!V284&amp;""&amp;Sheet1!W284&amp;""&amp;Sheet1!X284&amp;""&amp;Sheet1!Y284&amp;""&amp;Sheet1!Z284</f>
+        <v>&lt;li class="name"&gt;284&lt;form id="formLoc305"&gt; &lt;input type="hidden" id="nameLoc305"class="name"  value="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/284.jpeg"&gt;&lt;input type="hidden" id="cnameLoc305"class="name"  value="{{name}}"&gt; &lt;input type="number" id="descLoc164"   placeholder=" QTY "  required&gt;&lt;input onclick="launch_notification();this.value='ADDED ✅'" type="submit" value="SEND"/&gt;&lt;/form&gt;
+&lt;img src="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/284" loading="lazy" width="400" height="400"&gt;  &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="285" spans="1:1">
+      <c r="A285" t="str">
+        <f>Sheet1!A285&amp;""&amp;Sheet1!B285&amp;""&amp;Sheet1!C285&amp;""&amp;Sheet1!D285&amp;""&amp;Sheet1!E285&amp;""&amp;Sheet1!F285&amp;""&amp;Sheet1!G285&amp;""&amp;Sheet1!H285&amp;""&amp;Sheet1!I285&amp;""&amp;Sheet1!J285&amp;""&amp;Sheet1!K285&amp;""&amp;Sheet1!L285&amp;""&amp;Sheet1!M285&amp;""&amp;Sheet1!N285&amp;""&amp;Sheet1!O285&amp;""&amp;Sheet1!P285&amp;""&amp;Sheet1!Q285&amp;""&amp;Sheet1!R285&amp;""&amp;Sheet1!S285&amp;""&amp;Sheet1!T285&amp;""&amp;Sheet1!U285&amp;""&amp;Sheet1!V285&amp;""&amp;Sheet1!W285&amp;""&amp;Sheet1!X285&amp;""&amp;Sheet1!Y285&amp;""&amp;Sheet1!Z285</f>
+        <v>&lt;li class="name"&gt;285&lt;form id="formLoc306"&gt; &lt;input type="hidden" id="nameLoc306"class="name"  value="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/285.jpeg"&gt;&lt;input type="hidden" id="cnameLoc306"class="name"  value="{{name}}"&gt; &lt;input type="number" id="descLoc164"   placeholder=" QTY "  required&gt;&lt;input onclick="launch_notification();this.value='ADDED ✅'" type="submit" value="SEND"/&gt;&lt;/form&gt;
+&lt;img src="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/285" loading="lazy" width="400" height="400"&gt;  &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="286" spans="1:1">
+      <c r="A286" t="str">
+        <f>Sheet1!A286&amp;""&amp;Sheet1!B286&amp;""&amp;Sheet1!C286&amp;""&amp;Sheet1!D286&amp;""&amp;Sheet1!E286&amp;""&amp;Sheet1!F286&amp;""&amp;Sheet1!G286&amp;""&amp;Sheet1!H286&amp;""&amp;Sheet1!I286&amp;""&amp;Sheet1!J286&amp;""&amp;Sheet1!K286&amp;""&amp;Sheet1!L286&amp;""&amp;Sheet1!M286&amp;""&amp;Sheet1!N286&amp;""&amp;Sheet1!O286&amp;""&amp;Sheet1!P286&amp;""&amp;Sheet1!Q286&amp;""&amp;Sheet1!R286&amp;""&amp;Sheet1!S286&amp;""&amp;Sheet1!T286&amp;""&amp;Sheet1!U286&amp;""&amp;Sheet1!V286&amp;""&amp;Sheet1!W286&amp;""&amp;Sheet1!X286&amp;""&amp;Sheet1!Y286&amp;""&amp;Sheet1!Z286</f>
+        <v>&lt;li class="name"&gt;286&lt;form id="formLoc307"&gt; &lt;input type="hidden" id="nameLoc307"class="name"  value="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/286.jpeg"&gt;&lt;input type="hidden" id="cnameLoc307"class="name"  value="{{name}}"&gt; &lt;input type="number" id="descLoc165"   placeholder=" QTY "  required&gt;&lt;input onclick="launch_notification();this.value='ADDED ✅'" type="submit" value="SEND"/&gt;&lt;/form&gt;
+&lt;img src="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/286" loading="lazy" width="400" height="400"&gt;  &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="287" spans="1:1">
+      <c r="A287" t="str">
+        <f>Sheet1!A287&amp;""&amp;Sheet1!B287&amp;""&amp;Sheet1!C287&amp;""&amp;Sheet1!D287&amp;""&amp;Sheet1!E287&amp;""&amp;Sheet1!F287&amp;""&amp;Sheet1!G287&amp;""&amp;Sheet1!H287&amp;""&amp;Sheet1!I287&amp;""&amp;Sheet1!J287&amp;""&amp;Sheet1!K287&amp;""&amp;Sheet1!L287&amp;""&amp;Sheet1!M287&amp;""&amp;Sheet1!N287&amp;""&amp;Sheet1!O287&amp;""&amp;Sheet1!P287&amp;""&amp;Sheet1!Q287&amp;""&amp;Sheet1!R287&amp;""&amp;Sheet1!S287&amp;""&amp;Sheet1!T287&amp;""&amp;Sheet1!U287&amp;""&amp;Sheet1!V287&amp;""&amp;Sheet1!W287&amp;""&amp;Sheet1!X287&amp;""&amp;Sheet1!Y287&amp;""&amp;Sheet1!Z287</f>
+        <v>&lt;li class="name"&gt;287&lt;form id="formLoc308"&gt; &lt;input type="hidden" id="nameLoc308"class="name"  value="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/287.jpeg"&gt;&lt;input type="hidden" id="cnameLoc308"class="name"  value="{{name}}"&gt; &lt;input type="number" id="descLoc165"   placeholder=" QTY "  required&gt;&lt;input onclick="launch_notification();this.value='ADDED ✅'" type="submit" value="SEND"/&gt;&lt;/form&gt;
+&lt;img src="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/287" loading="lazy" width="400" height="400"&gt;  &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="288" spans="1:1">
+      <c r="A288" t="str">
+        <f>Sheet1!A288&amp;""&amp;Sheet1!B288&amp;""&amp;Sheet1!C288&amp;""&amp;Sheet1!D288&amp;""&amp;Sheet1!E288&amp;""&amp;Sheet1!F288&amp;""&amp;Sheet1!G288&amp;""&amp;Sheet1!H288&amp;""&amp;Sheet1!I288&amp;""&amp;Sheet1!J288&amp;""&amp;Sheet1!K288&amp;""&amp;Sheet1!L288&amp;""&amp;Sheet1!M288&amp;""&amp;Sheet1!N288&amp;""&amp;Sheet1!O288&amp;""&amp;Sheet1!P288&amp;""&amp;Sheet1!Q288&amp;""&amp;Sheet1!R288&amp;""&amp;Sheet1!S288&amp;""&amp;Sheet1!T288&amp;""&amp;Sheet1!U288&amp;""&amp;Sheet1!V288&amp;""&amp;Sheet1!W288&amp;""&amp;Sheet1!X288&amp;""&amp;Sheet1!Y288&amp;""&amp;Sheet1!Z288</f>
+        <v>&lt;li class="name"&gt;288&lt;form id="formLoc309"&gt; &lt;input type="hidden" id="nameLoc309"class="name"  value="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/288.jpeg"&gt;&lt;input type="hidden" id="cnameLoc309"class="name"  value="{{name}}"&gt; &lt;input type="number" id="descLoc166"   placeholder=" QTY "  required&gt;&lt;input onclick="launch_notification();this.value='ADDED ✅'" type="submit" value="SEND"/&gt;&lt;/form&gt;
+&lt;img src="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/288" loading="lazy" width="400" height="400"&gt;  &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="289" spans="1:1">
+      <c r="A289" t="str">
+        <f>Sheet1!A289&amp;""&amp;Sheet1!B289&amp;""&amp;Sheet1!C289&amp;""&amp;Sheet1!D289&amp;""&amp;Sheet1!E289&amp;""&amp;Sheet1!F289&amp;""&amp;Sheet1!G289&amp;""&amp;Sheet1!H289&amp;""&amp;Sheet1!I289&amp;""&amp;Sheet1!J289&amp;""&amp;Sheet1!K289&amp;""&amp;Sheet1!L289&amp;""&amp;Sheet1!M289&amp;""&amp;Sheet1!N289&amp;""&amp;Sheet1!O289&amp;""&amp;Sheet1!P289&amp;""&amp;Sheet1!Q289&amp;""&amp;Sheet1!R289&amp;""&amp;Sheet1!S289&amp;""&amp;Sheet1!T289&amp;""&amp;Sheet1!U289&amp;""&amp;Sheet1!V289&amp;""&amp;Sheet1!W289&amp;""&amp;Sheet1!X289&amp;""&amp;Sheet1!Y289&amp;""&amp;Sheet1!Z289</f>
+        <v>&lt;li class="name"&gt;289&lt;form id="formLoc310"&gt; &lt;input type="hidden" id="nameLoc310"class="name"  value="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/289.jpeg"&gt;&lt;input type="hidden" id="cnameLoc310"class="name"  value="{{name}}"&gt; &lt;input type="number" id="descLoc166"   placeholder=" QTY "  required&gt;&lt;input onclick="launch_notification();this.value='ADDED ✅'" type="submit" value="SEND"/&gt;&lt;/form&gt;
+&lt;img src="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/289" loading="lazy" width="400" height="400"&gt;  &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="290" spans="1:1">
+      <c r="A290" t="str">
+        <f>Sheet1!A290&amp;""&amp;Sheet1!B290&amp;""&amp;Sheet1!C290&amp;""&amp;Sheet1!D290&amp;""&amp;Sheet1!E290&amp;""&amp;Sheet1!F290&amp;""&amp;Sheet1!G290&amp;""&amp;Sheet1!H290&amp;""&amp;Sheet1!I290&amp;""&amp;Sheet1!J290&amp;""&amp;Sheet1!K290&amp;""&amp;Sheet1!L290&amp;""&amp;Sheet1!M290&amp;""&amp;Sheet1!N290&amp;""&amp;Sheet1!O290&amp;""&amp;Sheet1!P290&amp;""&amp;Sheet1!Q290&amp;""&amp;Sheet1!R290&amp;""&amp;Sheet1!S290&amp;""&amp;Sheet1!T290&amp;""&amp;Sheet1!U290&amp;""&amp;Sheet1!V290&amp;""&amp;Sheet1!W290&amp;""&amp;Sheet1!X290&amp;""&amp;Sheet1!Y290&amp;""&amp;Sheet1!Z290</f>
+        <v>&lt;li class="name"&gt;290&lt;form id="formLoc311"&gt; &lt;input type="hidden" id="nameLoc311"class="name"  value="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/290.jpeg"&gt;&lt;input type="hidden" id="cnameLoc311"class="name"  value="{{name}}"&gt; &lt;input type="number" id="descLoc167"   placeholder=" QTY "  required&gt;&lt;input onclick="launch_notification();this.value='ADDED ✅'" type="submit" value="SEND"/&gt;&lt;/form&gt;
+&lt;img src="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/290" loading="lazy" width="400" height="400"&gt;  &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="291" spans="1:1">
+      <c r="A291" t="str">
+        <f>Sheet1!A291&amp;""&amp;Sheet1!B291&amp;""&amp;Sheet1!C291&amp;""&amp;Sheet1!D291&amp;""&amp;Sheet1!E291&amp;""&amp;Sheet1!F291&amp;""&amp;Sheet1!G291&amp;""&amp;Sheet1!H291&amp;""&amp;Sheet1!I291&amp;""&amp;Sheet1!J291&amp;""&amp;Sheet1!K291&amp;""&amp;Sheet1!L291&amp;""&amp;Sheet1!M291&amp;""&amp;Sheet1!N291&amp;""&amp;Sheet1!O291&amp;""&amp;Sheet1!P291&amp;""&amp;Sheet1!Q291&amp;""&amp;Sheet1!R291&amp;""&amp;Sheet1!S291&amp;""&amp;Sheet1!T291&amp;""&amp;Sheet1!U291&amp;""&amp;Sheet1!V291&amp;""&amp;Sheet1!W291&amp;""&amp;Sheet1!X291&amp;""&amp;Sheet1!Y291&amp;""&amp;Sheet1!Z291</f>
+        <v>&lt;li class="name"&gt;291&lt;form id="formLoc312"&gt; &lt;input type="hidden" id="nameLoc312"class="name"  value="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/291.jpeg"&gt;&lt;input type="hidden" id="cnameLoc312"class="name"  value="{{name}}"&gt; &lt;input type="number" id="descLoc167"   placeholder=" QTY "  required&gt;&lt;input onclick="launch_notification();this.value='ADDED ✅'" type="submit" value="SEND"/&gt;&lt;/form&gt;
+&lt;img src="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/291" loading="lazy" width="400" height="400"&gt;  &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="292" spans="1:1">
+      <c r="A292" t="str">
+        <f>Sheet1!A292&amp;""&amp;Sheet1!B292&amp;""&amp;Sheet1!C292&amp;""&amp;Sheet1!D292&amp;""&amp;Sheet1!E292&amp;""&amp;Sheet1!F292&amp;""&amp;Sheet1!G292&amp;""&amp;Sheet1!H292&amp;""&amp;Sheet1!I292&amp;""&amp;Sheet1!J292&amp;""&amp;Sheet1!K292&amp;""&amp;Sheet1!L292&amp;""&amp;Sheet1!M292&amp;""&amp;Sheet1!N292&amp;""&amp;Sheet1!O292&amp;""&amp;Sheet1!P292&amp;""&amp;Sheet1!Q292&amp;""&amp;Sheet1!R292&amp;""&amp;Sheet1!S292&amp;""&amp;Sheet1!T292&amp;""&amp;Sheet1!U292&amp;""&amp;Sheet1!V292&amp;""&amp;Sheet1!W292&amp;""&amp;Sheet1!X292&amp;""&amp;Sheet1!Y292&amp;""&amp;Sheet1!Z292</f>
+        <v>&lt;li class="name"&gt;292&lt;form id="formLoc313"&gt; &lt;input type="hidden" id="nameLoc313"class="name"  value="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/292.jpeg"&gt;&lt;input type="hidden" id="cnameLoc313"class="name"  value="{{name}}"&gt; &lt;input type="number" id="descLoc168"   placeholder=" QTY "  required&gt;&lt;input onclick="launch_notification();this.value='ADDED ✅'" type="submit" value="SEND"/&gt;&lt;/form&gt;
+&lt;img src="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/292" loading="lazy" width="400" height="400"&gt;  &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="293" spans="1:1">
+      <c r="A293" t="str">
+        <f>Sheet1!A293&amp;""&amp;Sheet1!B293&amp;""&amp;Sheet1!C293&amp;""&amp;Sheet1!D293&amp;""&amp;Sheet1!E293&amp;""&amp;Sheet1!F293&amp;""&amp;Sheet1!G293&amp;""&amp;Sheet1!H293&amp;""&amp;Sheet1!I293&amp;""&amp;Sheet1!J293&amp;""&amp;Sheet1!K293&amp;""&amp;Sheet1!L293&amp;""&amp;Sheet1!M293&amp;""&amp;Sheet1!N293&amp;""&amp;Sheet1!O293&amp;""&amp;Sheet1!P293&amp;""&amp;Sheet1!Q293&amp;""&amp;Sheet1!R293&amp;""&amp;Sheet1!S293&amp;""&amp;Sheet1!T293&amp;""&amp;Sheet1!U293&amp;""&amp;Sheet1!V293&amp;""&amp;Sheet1!W293&amp;""&amp;Sheet1!X293&amp;""&amp;Sheet1!Y293&amp;""&amp;Sheet1!Z293</f>
+        <v>&lt;li class="name"&gt;293&lt;form id="formLoc314"&gt; &lt;input type="hidden" id="nameLoc314"class="name"  value="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/293.jpeg"&gt;&lt;input type="hidden" id="cnameLoc314"class="name"  value="{{name}}"&gt; &lt;input type="number" id="descLoc168"   placeholder=" QTY "  required&gt;&lt;input onclick="launch_notification();this.value='ADDED ✅'" type="submit" value="SEND"/&gt;&lt;/form&gt;
+&lt;img src="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/293" loading="lazy" width="400" height="400"&gt;  &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="294" spans="1:1">
+      <c r="A294" t="str">
+        <f>Sheet1!A294&amp;""&amp;Sheet1!B294&amp;""&amp;Sheet1!C294&amp;""&amp;Sheet1!D294&amp;""&amp;Sheet1!E294&amp;""&amp;Sheet1!F294&amp;""&amp;Sheet1!G294&amp;""&amp;Sheet1!H294&amp;""&amp;Sheet1!I294&amp;""&amp;Sheet1!J294&amp;""&amp;Sheet1!K294&amp;""&amp;Sheet1!L294&amp;""&amp;Sheet1!M294&amp;""&amp;Sheet1!N294&amp;""&amp;Sheet1!O294&amp;""&amp;Sheet1!P294&amp;""&amp;Sheet1!Q294&amp;""&amp;Sheet1!R294&amp;""&amp;Sheet1!S294&amp;""&amp;Sheet1!T294&amp;""&amp;Sheet1!U294&amp;""&amp;Sheet1!V294&amp;""&amp;Sheet1!W294&amp;""&amp;Sheet1!X294&amp;""&amp;Sheet1!Y294&amp;""&amp;Sheet1!Z294</f>
+        <v>&lt;li class="name"&gt;294&lt;form id="formLoc315"&gt; &lt;input type="hidden" id="nameLoc315"class="name"  value="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/294.jpeg"&gt;&lt;input type="hidden" id="cnameLoc315"class="name"  value="{{name}}"&gt; &lt;input type="number" id="descLoc169"   placeholder=" QTY "  required&gt;&lt;input onclick="launch_notification();this.value='ADDED ✅'" type="submit" value="SEND"/&gt;&lt;/form&gt;
+&lt;img src="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/294" loading="lazy" width="400" height="400"&gt;  &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="295" spans="1:1">
+      <c r="A295" t="str">
+        <f>Sheet1!A295&amp;""&amp;Sheet1!B295&amp;""&amp;Sheet1!C295&amp;""&amp;Sheet1!D295&amp;""&amp;Sheet1!E295&amp;""&amp;Sheet1!F295&amp;""&amp;Sheet1!G295&amp;""&amp;Sheet1!H295&amp;""&amp;Sheet1!I295&amp;""&amp;Sheet1!J295&amp;""&amp;Sheet1!K295&amp;""&amp;Sheet1!L295&amp;""&amp;Sheet1!M295&amp;""&amp;Sheet1!N295&amp;""&amp;Sheet1!O295&amp;""&amp;Sheet1!P295&amp;""&amp;Sheet1!Q295&amp;""&amp;Sheet1!R295&amp;""&amp;Sheet1!S295&amp;""&amp;Sheet1!T295&amp;""&amp;Sheet1!U295&amp;""&amp;Sheet1!V295&amp;""&amp;Sheet1!W295&amp;""&amp;Sheet1!X295&amp;""&amp;Sheet1!Y295&amp;""&amp;Sheet1!Z295</f>
+        <v>&lt;li class="name"&gt;295&lt;form id="formLoc316"&gt; &lt;input type="hidden" id="nameLoc316"class="name"  value="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/295.jpeg"&gt;&lt;input type="hidden" id="cnameLoc316"class="name"  value="{{name}}"&gt; &lt;input type="number" id="descLoc169"   placeholder=" QTY "  required&gt;&lt;input onclick="launch_notification();this.value='ADDED ✅'" type="submit" value="SEND"/&gt;&lt;/form&gt;
+&lt;img src="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/295" loading="lazy" width="400" height="400"&gt;  &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="296" spans="1:1">
+      <c r="A296" t="str">
+        <f>Sheet1!A296&amp;""&amp;Sheet1!B296&amp;""&amp;Sheet1!C296&amp;""&amp;Sheet1!D296&amp;""&amp;Sheet1!E296&amp;""&amp;Sheet1!F296&amp;""&amp;Sheet1!G296&amp;""&amp;Sheet1!H296&amp;""&amp;Sheet1!I296&amp;""&amp;Sheet1!J296&amp;""&amp;Sheet1!K296&amp;""&amp;Sheet1!L296&amp;""&amp;Sheet1!M296&amp;""&amp;Sheet1!N296&amp;""&amp;Sheet1!O296&amp;""&amp;Sheet1!P296&amp;""&amp;Sheet1!Q296&amp;""&amp;Sheet1!R296&amp;""&amp;Sheet1!S296&amp;""&amp;Sheet1!T296&amp;""&amp;Sheet1!U296&amp;""&amp;Sheet1!V296&amp;""&amp;Sheet1!W296&amp;""&amp;Sheet1!X296&amp;""&amp;Sheet1!Y296&amp;""&amp;Sheet1!Z296</f>
+        <v>&lt;li class="name"&gt;296&lt;form id="formLoc317"&gt; &lt;input type="hidden" id="nameLoc317"class="name"  value="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/296.jpeg"&gt;&lt;input type="hidden" id="cnameLoc317"class="name"  value="{{name}}"&gt; &lt;input type="number" id="descLoc170"   placeholder=" QTY "  required&gt;&lt;input onclick="launch_notification();this.value='ADDED ✅'" type="submit" value="SEND"/&gt;&lt;/form&gt;
+&lt;img src="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/296" loading="lazy" width="400" height="400"&gt;  &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="297" spans="1:1">
+      <c r="A297" t="str">
+        <f>Sheet1!A297&amp;""&amp;Sheet1!B297&amp;""&amp;Sheet1!C297&amp;""&amp;Sheet1!D297&amp;""&amp;Sheet1!E297&amp;""&amp;Sheet1!F297&amp;""&amp;Sheet1!G297&amp;""&amp;Sheet1!H297&amp;""&amp;Sheet1!I297&amp;""&amp;Sheet1!J297&amp;""&amp;Sheet1!K297&amp;""&amp;Sheet1!L297&amp;""&amp;Sheet1!M297&amp;""&amp;Sheet1!N297&amp;""&amp;Sheet1!O297&amp;""&amp;Sheet1!P297&amp;""&amp;Sheet1!Q297&amp;""&amp;Sheet1!R297&amp;""&amp;Sheet1!S297&amp;""&amp;Sheet1!T297&amp;""&amp;Sheet1!U297&amp;""&amp;Sheet1!V297&amp;""&amp;Sheet1!W297&amp;""&amp;Sheet1!X297&amp;""&amp;Sheet1!Y297&amp;""&amp;Sheet1!Z297</f>
+        <v>&lt;li class="name"&gt;297&lt;form id="formLoc318"&gt; &lt;input type="hidden" id="nameLoc318"class="name"  value="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/297.jpeg"&gt;&lt;input type="hidden" id="cnameLoc318"class="name"  value="{{name}}"&gt; &lt;input type="number" id="descLoc170"   placeholder=" QTY "  required&gt;&lt;input onclick="launch_notification();this.value='ADDED ✅'" type="submit" value="SEND"/&gt;&lt;/form&gt;
+&lt;img src="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/297" loading="lazy" width="400" height="400"&gt;  &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="298" spans="1:1">
+      <c r="A298" t="str">
+        <f>Sheet1!A298&amp;""&amp;Sheet1!B298&amp;""&amp;Sheet1!C298&amp;""&amp;Sheet1!D298&amp;""&amp;Sheet1!E298&amp;""&amp;Sheet1!F298&amp;""&amp;Sheet1!G298&amp;""&amp;Sheet1!H298&amp;""&amp;Sheet1!I298&amp;""&amp;Sheet1!J298&amp;""&amp;Sheet1!K298&amp;""&amp;Sheet1!L298&amp;""&amp;Sheet1!M298&amp;""&amp;Sheet1!N298&amp;""&amp;Sheet1!O298&amp;""&amp;Sheet1!P298&amp;""&amp;Sheet1!Q298&amp;""&amp;Sheet1!R298&amp;""&amp;Sheet1!S298&amp;""&amp;Sheet1!T298&amp;""&amp;Sheet1!U298&amp;""&amp;Sheet1!V298&amp;""&amp;Sheet1!W298&amp;""&amp;Sheet1!X298&amp;""&amp;Sheet1!Y298&amp;""&amp;Sheet1!Z298</f>
+        <v>&lt;li class="name"&gt;298&lt;form id="formLoc319"&gt; &lt;input type="hidden" id="nameLoc319"class="name"  value="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/298.jpeg"&gt;&lt;input type="hidden" id="cnameLoc319"class="name"  value="{{name}}"&gt; &lt;input type="number" id="descLoc171"   placeholder=" QTY "  required&gt;&lt;input onclick="launch_notification();this.value='ADDED ✅'" type="submit" value="SEND"/&gt;&lt;/form&gt;
+&lt;img src="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/298" loading="lazy" width="400" height="400"&gt;  &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="299" spans="1:1">
+      <c r="A299" t="str">
+        <f>Sheet1!A299&amp;""&amp;Sheet1!B299&amp;""&amp;Sheet1!C299&amp;""&amp;Sheet1!D299&amp;""&amp;Sheet1!E299&amp;""&amp;Sheet1!F299&amp;""&amp;Sheet1!G299&amp;""&amp;Sheet1!H299&amp;""&amp;Sheet1!I299&amp;""&amp;Sheet1!J299&amp;""&amp;Sheet1!K299&amp;""&amp;Sheet1!L299&amp;""&amp;Sheet1!M299&amp;""&amp;Sheet1!N299&amp;""&amp;Sheet1!O299&amp;""&amp;Sheet1!P299&amp;""&amp;Sheet1!Q299&amp;""&amp;Sheet1!R299&amp;""&amp;Sheet1!S299&amp;""&amp;Sheet1!T299&amp;""&amp;Sheet1!U299&amp;""&amp;Sheet1!V299&amp;""&amp;Sheet1!W299&amp;""&amp;Sheet1!X299&amp;""&amp;Sheet1!Y299&amp;""&amp;Sheet1!Z299</f>
+        <v>&lt;li class="name"&gt;299&lt;form id="formLoc320"&gt; &lt;input type="hidden" id="nameLoc320"class="name"  value="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/299.jpeg"&gt;&lt;input type="hidden" id="cnameLoc320"class="name"  value="{{name}}"&gt; &lt;input type="number" id="descLoc171"   placeholder=" QTY "  required&gt;&lt;input onclick="launch_notification();this.value='ADDED ✅'" type="submit" value="SEND"/&gt;&lt;/form&gt;
+&lt;img src="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/299" loading="lazy" width="400" height="400"&gt;  &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="300" spans="1:1">
+      <c r="A300" t="str">
+        <f>Sheet1!A300&amp;""&amp;Sheet1!B300&amp;""&amp;Sheet1!C300&amp;""&amp;Sheet1!D300&amp;""&amp;Sheet1!E300&amp;""&amp;Sheet1!F300&amp;""&amp;Sheet1!G300&amp;""&amp;Sheet1!H300&amp;""&amp;Sheet1!I300&amp;""&amp;Sheet1!J300&amp;""&amp;Sheet1!K300&amp;""&amp;Sheet1!L300&amp;""&amp;Sheet1!M300&amp;""&amp;Sheet1!N300&amp;""&amp;Sheet1!O300&amp;""&amp;Sheet1!P300&amp;""&amp;Sheet1!Q300&amp;""&amp;Sheet1!R300&amp;""&amp;Sheet1!S300&amp;""&amp;Sheet1!T300&amp;""&amp;Sheet1!U300&amp;""&amp;Sheet1!V300&amp;""&amp;Sheet1!W300&amp;""&amp;Sheet1!X300&amp;""&amp;Sheet1!Y300&amp;""&amp;Sheet1!Z300</f>
+        <v>&lt;li class="name"&gt;300&lt;form id="formLoc321"&gt; &lt;input type="hidden" id="nameLoc321"class="name"  value="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/300.jpeg"&gt;&lt;input type="hidden" id="cnameLoc321"class="name"  value="{{name}}"&gt; &lt;input type="number" id="descLoc172"   placeholder=" QTY "  required&gt;&lt;input onclick="launch_notification();this.value='ADDED ✅'" type="submit" value="SEND"/&gt;&lt;/form&gt;
+&lt;img src="https://hunkaammy.github.io/mywebsite/PRODUCTS/LINE/300" loading="lazy" width="400" height="400"&gt;  &lt;/li&gt;</v>
       </c>
     </row>
   </sheetData>

--- a/linedata/CARRYFORWARD.xlsx
+++ b/linedata/CARRYFORWARD.xlsx
@@ -18413,7 +18413,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A300"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <selection sqref="A1:A300"/>
     </sheetView>
   </sheetViews>
